--- a/BEC/05-词汇相关/BEC词汇随身记.xlsx
+++ b/BEC/05-词汇相关/BEC词汇随身记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7944" windowHeight="9155" tabRatio="820"/>
+    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="词汇汇总" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="414">
   <si>
     <t>英语</t>
   </si>
@@ -985,6 +985,282 @@
   </si>
   <si>
     <t>发传单</t>
+  </si>
+  <si>
+    <t>regular hours</t>
+  </si>
+  <si>
+    <t>正常工作时间</t>
+  </si>
+  <si>
+    <t>flexible hours</t>
+  </si>
+  <si>
+    <t>弹性工作时间</t>
+  </si>
+  <si>
+    <t>freelance</t>
+  </si>
+  <si>
+    <t>自由职业</t>
+  </si>
+  <si>
+    <t>teleworking</t>
+  </si>
+  <si>
+    <t>电子化办公方式</t>
+  </si>
+  <si>
+    <t>job-share</t>
+  </si>
+  <si>
+    <t>vi.&amp; n.分担工作，工作分担制</t>
+  </si>
+  <si>
+    <t>job-sharing</t>
+  </si>
+  <si>
+    <t>分担工作</t>
+  </si>
+  <si>
+    <t>shift work</t>
+  </si>
+  <si>
+    <t>轮班工作，倒班制</t>
+  </si>
+  <si>
+    <t>part-time</t>
+  </si>
+  <si>
+    <t>n.&amp; adj.兼职(的)</t>
+  </si>
+  <si>
+    <t>temping</t>
+  </si>
+  <si>
+    <t>n.当临时工，任临时演员</t>
+  </si>
+  <si>
+    <t>consultancy</t>
+  </si>
+  <si>
+    <t>n.咨询公司，顾问公司</t>
+  </si>
+  <si>
+    <t>specialist advice</t>
+  </si>
+  <si>
+    <t>专业咨询</t>
+  </si>
+  <si>
+    <t>flexitime</t>
+  </si>
+  <si>
+    <t>弹性工作时间(亦作flextime)</t>
+  </si>
+  <si>
+    <t>flexiplace</t>
+  </si>
+  <si>
+    <t>弹性工作地点</t>
+  </si>
+  <si>
+    <t>hotdesking / hot desking</t>
+  </si>
+  <si>
+    <t>n.办工作轮用(指将职工分成不同的班次，以便他们能共用一间办公室、一张办公桌和一台计算机)</t>
+  </si>
+  <si>
+    <t>office gossip</t>
+  </si>
+  <si>
+    <t>办公室小道消息，办公室飞短流长</t>
+  </si>
+  <si>
+    <t>office news</t>
+  </si>
+  <si>
+    <t>办公室新闻</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>n.赞扬，功劳</t>
+  </si>
+  <si>
+    <t>managing director</t>
+  </si>
+  <si>
+    <t>总裁，总经理(美国英语也称chief executive 或 president)</t>
+  </si>
+  <si>
+    <t>brainpower</t>
+  </si>
+  <si>
+    <t>n.智能</t>
+  </si>
+  <si>
+    <t>full-time</t>
+  </si>
+  <si>
+    <t>adj.全日制的</t>
+  </si>
+  <si>
+    <t>delegate</t>
+  </si>
+  <si>
+    <t>vt.授权，分派工作</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>n.利用(或获得的)可能性，可以利用的人(物)</t>
+  </si>
+  <si>
+    <t>job-sharer</t>
+  </si>
+  <si>
+    <t>n.与人分担工作的人</t>
+  </si>
+  <si>
+    <t>parental leave</t>
+  </si>
+  <si>
+    <t>父母假，育儿假，照顾新生儿女假</t>
+  </si>
+  <si>
+    <t>distractions</t>
+  </si>
+  <si>
+    <t>n.让人注意力分散的事物</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>n.人脉，有影响的熟人，有用的社会关系</t>
+  </si>
+  <si>
+    <t>case-load / workload</t>
+  </si>
+  <si>
+    <t>n.工作量</t>
+  </si>
+  <si>
+    <t>daily log</t>
+  </si>
+  <si>
+    <t>日志</t>
+  </si>
+  <si>
+    <t>voice mail</t>
+  </si>
+  <si>
+    <t>语音信箱，语音邮件</t>
+  </si>
+  <si>
+    <t>self-organisation</t>
+  </si>
+  <si>
+    <t>n.自我组织能力</t>
+  </si>
+  <si>
+    <t>disruptive</t>
+  </si>
+  <si>
+    <t>adj.造成混乱的</t>
+  </si>
+  <si>
+    <t>compressed work weeks</t>
+  </si>
+  <si>
+    <t>压缩工作周</t>
+  </si>
+  <si>
+    <t>permanent part-time</t>
+  </si>
+  <si>
+    <t>长期兼职</t>
+  </si>
+  <si>
+    <t>routine type of person</t>
+  </si>
+  <si>
+    <t>按部就班的人</t>
+  </si>
+  <si>
+    <t>have flexible management of time and work</t>
+  </si>
+  <si>
+    <t>灵活安排自己的时间和工作</t>
+  </si>
+  <si>
+    <t>get support from each other</t>
+  </si>
+  <si>
+    <t>相互支持</t>
+  </si>
+  <si>
+    <t>cooperate with each other</t>
+  </si>
+  <si>
+    <t>相互合作</t>
+  </si>
+  <si>
+    <t>share idea</t>
+  </si>
+  <si>
+    <t>交流想法</t>
+  </si>
+  <si>
+    <t>learn from other people's strong points</t>
+  </si>
+  <si>
+    <t>学他人所长</t>
+  </si>
+  <si>
+    <t>Working in a team needs to have good interpersonal skills and is not necessarily effecient.</t>
+  </si>
+  <si>
+    <t>在团队工作需要有很好的人际交往技能，不一定效率就高。</t>
+  </si>
+  <si>
+    <t>can be more concentrated and thus more efficient in an office</t>
+  </si>
+  <si>
+    <t>在办公室更容易集中精力因此也更有效率</t>
+  </si>
+  <si>
+    <t>have more flexibility</t>
+  </si>
+  <si>
+    <t>享有更多的灵活度</t>
+  </si>
+  <si>
+    <t>feel more relaxed</t>
+  </si>
+  <si>
+    <t>感觉更轻松</t>
+  </si>
+  <si>
+    <t>a dependent type of person and never make decisions myself</t>
+  </si>
+  <si>
+    <t>性格依赖，不喜欢自己拿主意</t>
+  </si>
+  <si>
+    <t>an independent type of person and would like to make decisions myself</t>
+  </si>
+  <si>
+    <t>性格独立，喜欢自己做决定</t>
+  </si>
+  <si>
+    <t>don't want to work under someone</t>
+  </si>
+  <si>
+    <t>不想在别人手下工作</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1273,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,13 +1308,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1505,48 +1774,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1556,101 +1828,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,17 +1938,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2029,18 +2289,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.5555555555556" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.4444444444444" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.6666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.7777777777778" style="4" customWidth="1"/>
     <col min="3" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
@@ -2053,1338 +2313,1652 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="31.2" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="31.2" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" ht="31.2" spans="1:2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" ht="31.2" spans="1:2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" ht="31.2" spans="1:2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" ht="31.2" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" ht="31.2" spans="1:2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" ht="31.2" spans="1:2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" ht="31.2" spans="1:2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" ht="31.2" spans="1:2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64" ht="31.2" spans="1:2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" ht="31.2" spans="1:2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" ht="16.35" spans="1:2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76" ht="16.35" spans="1:2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77" ht="16.35" spans="1:2">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78" ht="16.35" spans="1:2">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="79" ht="16.35" spans="1:2">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80" ht="16.35" spans="1:2">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" ht="16.35" spans="1:2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82" ht="16.35" spans="1:2">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" ht="16.35" spans="1:2">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" ht="16.35" spans="1:2">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" ht="31.95" spans="1:2">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" ht="31.95" spans="1:2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" ht="16.35" spans="1:2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" ht="16.35" spans="1:2">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="89" ht="16.35" spans="1:2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="90" ht="31.95" spans="1:2">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="91" ht="16.35" spans="1:2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="92" ht="31.95" spans="1:2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="93" ht="16.35" spans="1:2">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="94" ht="16.35" spans="1:2">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="95" ht="16.35" spans="1:2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="96" ht="31.95" spans="1:2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97" ht="16.35" spans="1:2">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="98" ht="16.35" spans="1:2">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="99" ht="31.95" spans="1:2">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="100" ht="16.35" spans="1:2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="101" ht="16.35" spans="1:2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102" ht="16.35" spans="1:2">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="103" ht="16.35" spans="1:2">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104" ht="16.35" spans="1:2">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="105" ht="16.35" spans="1:2">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106" ht="16.35" spans="1:2">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="107" ht="16.35" spans="1:2">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" ht="31.95" spans="1:2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="109" ht="31.95" spans="1:2">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="110" ht="16.35" spans="1:2">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111" ht="16.35" spans="1:2">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="112" ht="31.95" spans="1:2">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="113" ht="31.95" spans="1:2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="114" ht="16.35" spans="1:2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115" ht="16.35" spans="1:2">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116" ht="16.35" spans="1:2">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" ht="31.95" spans="1:2">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="118" ht="16.35" spans="1:2">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="119" ht="16.35" spans="1:2">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="120" ht="16.35" spans="1:2">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="121" ht="16.35" spans="1:2">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="122" ht="16.35" spans="1:2">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="133" ht="31.2" spans="1:2">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="141" ht="31.2" spans="1:2">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="143" ht="16.35" spans="1:2">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="144" ht="16.35" spans="1:2">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="6" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="145" ht="16.35" spans="1:2">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="146" ht="16.35" spans="1:2">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="147" ht="16.35" spans="1:2">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="148" ht="16.35" spans="1:2">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="149" ht="16.35" spans="1:2">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="150" ht="16.35" spans="1:2">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="6" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="151" ht="16.35" spans="1:2">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="6" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="152" ht="16.35" spans="1:2">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="153" ht="16.35" spans="1:2">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="6" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="154" ht="16.35" spans="1:2">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="6" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="155" ht="16.35" spans="1:2">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="6" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="156" ht="16.35" spans="1:2">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="6" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="157" ht="16.35" spans="1:2">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="158" ht="16.35" spans="1:2">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="6" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="159" ht="16.35" spans="1:2">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="6" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="160" ht="31.95" spans="1:2">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="6" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="161" ht="31.95" spans="1:2">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="9"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="9"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="9"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="9"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="9"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="9"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="9"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="9"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="9"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="9"/>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="9"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="9"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="9"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="9"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="9"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="9"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="9"/>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="9"/>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" ht="62.4" spans="1:2">
+      <c r="A175" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" ht="31.2" spans="1:2">
+      <c r="A176" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" ht="46.8" spans="1:2">
+      <c r="A179" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" ht="31.2" spans="1:2">
+      <c r="A183" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" ht="31.2" spans="1:2">
+      <c r="A185" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" ht="31.2" spans="1:2">
+      <c r="A187" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" ht="31.2" spans="1:2">
+      <c r="A196" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" ht="31.2" spans="1:2">
+      <c r="A200" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" ht="62.4" spans="1:2">
+      <c r="A201" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" ht="46.8" spans="1:2">
+      <c r="A202" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" ht="46.8" spans="1:2">
+      <c r="A205" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" ht="46.8" spans="1:2">
+      <c r="A206" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" ht="31.2" spans="1:2">
+      <c r="A207" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>413</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BEC/05-词汇相关/BEC词汇随身记.xlsx
+++ b/BEC/05-词汇相关/BEC词汇随身记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="820"/>
+    <workbookView windowWidth="8220" windowHeight="9155" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="词汇汇总" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="648">
   <si>
     <t>英语</t>
   </si>
@@ -1041,6 +1041,12 @@
     <t>n.当临时工，任临时演员</t>
   </si>
   <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>n.临时工，临时雇员</t>
+  </si>
+  <si>
     <t>consultancy</t>
   </si>
   <si>
@@ -1261,6 +1267,706 @@
   </si>
   <si>
     <t>不想在别人手下工作</t>
+  </si>
+  <si>
+    <t>in terms of</t>
+  </si>
+  <si>
+    <t>在。。。方面</t>
+  </si>
+  <si>
+    <t>a guide to Italy</t>
+  </si>
+  <si>
+    <t>意大利旅游指南</t>
+  </si>
+  <si>
+    <t>a guide to poultry keeping</t>
+  </si>
+  <si>
+    <t>家禽饲养入门</t>
+  </si>
+  <si>
+    <t>make it work</t>
+  </si>
+  <si>
+    <t>使之发挥作用</t>
+  </si>
+  <si>
+    <t>share credit and blame</t>
+  </si>
+  <si>
+    <t>分担功劳与责备/成绩与过失</t>
+  </si>
+  <si>
+    <t>a network consultancy</t>
+  </si>
+  <si>
+    <t>网络咨询公司</t>
+  </si>
+  <si>
+    <t>a management consultancy</t>
+  </si>
+  <si>
+    <t>管理咨询公司</t>
+  </si>
+  <si>
+    <t>play to</t>
+  </si>
+  <si>
+    <t>迎合，投。。。所好
+play to each other's different strengths 迎合个人不同的优点</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>管理，运用，设法对付
+manage one's time well 时间安排得很好
+manage stress 排解压力</t>
+  </si>
+  <si>
+    <t>Yes的表达</t>
+  </si>
+  <si>
+    <t>have more time with children</t>
+  </si>
+  <si>
+    <t>有更多的时间与孩子共处</t>
+  </si>
+  <si>
+    <t>with less work stress</t>
+  </si>
+  <si>
+    <t>工作压力小</t>
+  </si>
+  <si>
+    <t>can have more free time</t>
+  </si>
+  <si>
+    <t>有更多的自由支配时间</t>
+  </si>
+  <si>
+    <t>can have someone to share credit and blame</t>
+  </si>
+  <si>
+    <t>可以有人与自己分担成绩与过失，功过与共</t>
+  </si>
+  <si>
+    <t>Two people doing one job means twice as much expericence, skills, brainpower and energy.</t>
+  </si>
+  <si>
+    <t>两个人一起工作意味着双倍的经验，双倍的技能，双倍的智能和精力。</t>
+  </si>
+  <si>
+    <t>No的表达</t>
+  </si>
+  <si>
+    <t>difficult to find someone you like</t>
+  </si>
+  <si>
+    <t>很难找到自己喜欢的人</t>
+  </si>
+  <si>
+    <t>need to coordinate with the other person</t>
+  </si>
+  <si>
+    <t>和另外那个人要协调好</t>
+  </si>
+  <si>
+    <t>tend to work late at night</t>
+  </si>
+  <si>
+    <t>动不动就会工作到深夜</t>
+  </si>
+  <si>
+    <t>need careful planning to play to each other's different strengths</t>
+  </si>
+  <si>
+    <t>需要周密计划，发挥个人所长</t>
+  </si>
+  <si>
+    <t>They may not get what they expect of the job-sharer in terms of hours,availability and result.</t>
+  </si>
+  <si>
+    <t>老板们可能无法实现他们对分担工作者在上班时间、到岗情况和工作成果等方面的期望。</t>
+  </si>
+  <si>
+    <t>save money on office space 中office space 原意为“办公室空间”</t>
+  </si>
+  <si>
+    <t>节省办公用地成本</t>
+  </si>
+  <si>
+    <t>no commuting</t>
+  </si>
+  <si>
+    <t>无需每天乘车上下班</t>
+  </si>
+  <si>
+    <t>He works for a compay in Spain.</t>
+  </si>
+  <si>
+    <t>他在西班牙的一家公司工作。</t>
+  </si>
+  <si>
+    <t>We're doing some consultancy for them at the moment.</t>
+  </si>
+  <si>
+    <t>眼下，我们正在为他们提供咨询。</t>
+  </si>
+  <si>
+    <t>Interst in our new range is growing faster than even we anticipated.</t>
+  </si>
+  <si>
+    <t>用户对新产品系列的兴趣增长很快，甚至超过我们的预想。</t>
+  </si>
+  <si>
+    <t>I've sent off half the packages.</t>
+  </si>
+  <si>
+    <t>我们已经寄出一半的包裹了。</t>
+  </si>
+  <si>
+    <t>I've done everything.</t>
+  </si>
+  <si>
+    <t>我把一切都搞定了。</t>
+  </si>
+  <si>
+    <t>Michael has been working from home for quite a few months.</t>
+  </si>
+  <si>
+    <t>麦可尔在家工作已经有好几个月了。</t>
+  </si>
+  <si>
+    <t>I've been opening boxes for over three hours now.</t>
+  </si>
+  <si>
+    <t>我一直在开箱，干了有三个多小时了。</t>
+  </si>
+  <si>
+    <t>set a timetable</t>
+  </si>
+  <si>
+    <t>制定时间表</t>
+  </si>
+  <si>
+    <t>dress for work</t>
+  </si>
+  <si>
+    <t>穿上班装</t>
+  </si>
+  <si>
+    <t>answer the door to neighbours</t>
+  </si>
+  <si>
+    <t>为上门来的邻居开门</t>
+  </si>
+  <si>
+    <t>make social calls 中social一词字这里不做“社会的”，而是指“社交的，交际的”。</t>
+  </si>
+  <si>
+    <t>和朋友打电话聊天</t>
+  </si>
+  <si>
+    <t>be strong</t>
+  </si>
+  <si>
+    <t>要意志坚定</t>
+  </si>
+  <si>
+    <t>trade fair event</t>
+  </si>
+  <si>
+    <t>商品交易会</t>
+  </si>
+  <si>
+    <t>coffee break</t>
+  </si>
+  <si>
+    <t>工间咖啡休息时间</t>
+  </si>
+  <si>
+    <t>drinks evening</t>
+  </si>
+  <si>
+    <t>晚间酒会</t>
+  </si>
+  <si>
+    <t>coaching event</t>
+  </si>
+  <si>
+    <t>专项体验训练活动</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>vt.&amp; vi.建立关系网络</t>
+  </si>
+  <si>
+    <t>networking</t>
+  </si>
+  <si>
+    <t>n.建立人际网，关系网</t>
+  </si>
+  <si>
+    <t>maximise</t>
+  </si>
+  <si>
+    <t>vt.最大限度地使用、发挥</t>
+  </si>
+  <si>
+    <t>socializing</t>
+  </si>
+  <si>
+    <t>n.参与社交，交际</t>
+  </si>
+  <si>
+    <t>corporate world</t>
+  </si>
+  <si>
+    <t>商界</t>
+  </si>
+  <si>
+    <t>useful contacts</t>
+  </si>
+  <si>
+    <t>有用的人脉关系</t>
+  </si>
+  <si>
+    <t>co-chair</t>
+  </si>
+  <si>
+    <t>联合总裁、主席</t>
+  </si>
+  <si>
+    <t>"networking" event</t>
+  </si>
+  <si>
+    <t>(为帮助职场人士建立人脉关系专门举行的)“牵线搭桥”活动，联谊活动</t>
+  </si>
+  <si>
+    <t>locals</t>
+  </si>
+  <si>
+    <t>n.当地人</t>
+  </si>
+  <si>
+    <t>be spread out</t>
+  </si>
+  <si>
+    <t>分散在各地</t>
+  </si>
+  <si>
+    <t>internal communication</t>
+  </si>
+  <si>
+    <t>内部交流</t>
+  </si>
+  <si>
+    <t>post-it note</t>
+  </si>
+  <si>
+    <t>便条</t>
+  </si>
+  <si>
+    <t>Pricewaterhouse Coopers</t>
+  </si>
+  <si>
+    <t>普华永道会计事务所，英文缩写为PWC，国际四大会计事务所之一。</t>
+  </si>
+  <si>
+    <t>The City Girls' Netwok</t>
+  </si>
+  <si>
+    <t>年轻职业女性网络，简称CGN，是伦敦一家专门为刚走上职场的年轻职业女性提供人脉资源的公司。</t>
+  </si>
+  <si>
+    <t>ABN AMRO</t>
+  </si>
+  <si>
+    <t>荷兰银行，成立于1824年，总部设在荷兰首都阿姆斯特丹，是当今全球最大的跨国银行之一。</t>
+  </si>
+  <si>
+    <t>"Networking" means personal contacts or relationship building</t>
+  </si>
+  <si>
+    <t>“Networking”指人脉或者关系构建</t>
+  </si>
+  <si>
+    <t>key to success</t>
+  </si>
+  <si>
+    <t>通向成功的关键</t>
+  </si>
+  <si>
+    <t>the most powerful way to build professional relationships</t>
+  </si>
+  <si>
+    <t>创建职业关系的最有力的途径</t>
+  </si>
+  <si>
+    <t>foster contacts and disseminate information</t>
+  </si>
+  <si>
+    <t>有助于建立关系，传播信息</t>
+  </si>
+  <si>
+    <t>the ability to build a network</t>
+  </si>
+  <si>
+    <t>建立关系网的能力</t>
+  </si>
+  <si>
+    <t>build and maintain a network</t>
+  </si>
+  <si>
+    <t>创建和保持关系网</t>
+  </si>
+  <si>
+    <t>Networking allows you to be in a position to win.</t>
+  </si>
+  <si>
+    <t>关系网能助你赢在职场。</t>
+  </si>
+  <si>
+    <t>attend a conference</t>
+  </si>
+  <si>
+    <t>参加会议
+= go to a conference</t>
+  </si>
+  <si>
+    <t>share ideas</t>
+  </si>
+  <si>
+    <t>交流思想</t>
+  </si>
+  <si>
+    <t>be in charge of</t>
+  </si>
+  <si>
+    <t>负责</t>
+  </si>
+  <si>
+    <t>run a network</t>
+  </si>
+  <si>
+    <t>经营人脉资源公司</t>
+  </si>
+  <si>
+    <t>get to know sb.</t>
+  </si>
+  <si>
+    <t>逐渐认识某人，结交某人</t>
+  </si>
+  <si>
+    <t>make contacts</t>
+  </si>
+  <si>
+    <t>建立人脉关系</t>
+  </si>
+  <si>
+    <t>be a great success</t>
+  </si>
+  <si>
+    <t>大获成功</t>
+  </si>
+  <si>
+    <t>make contacts with wealthy people</t>
+  </si>
+  <si>
+    <t>走有钱人的门路</t>
+  </si>
+  <si>
+    <t>a sports event</t>
+  </si>
+  <si>
+    <t>体育赛事</t>
+  </si>
+  <si>
+    <t>a televised event</t>
+  </si>
+  <si>
+    <t>电视宣传活动</t>
+  </si>
+  <si>
+    <t>In China, family and children is a common topic to talk about.</t>
+  </si>
+  <si>
+    <t>在中国，讨论家庭和孩子司空见惯。</t>
+  </si>
+  <si>
+    <t>Good topics for networking with western business people include weather, work and language.</t>
+  </si>
+  <si>
+    <t>谈论天气、工作和语言是与西方人建立关系网络的好话题。</t>
+  </si>
+  <si>
+    <t>safe to talk about hobbies, travel, arts, sports, and fashion</t>
+  </si>
+  <si>
+    <t>安全话题包括个人爱好、旅游、艺术、运动和时尚</t>
+  </si>
+  <si>
+    <t>avoid politics and religion in the conversation</t>
+  </si>
+  <si>
+    <t>政治和宗教的话题要避免不谈</t>
+  </si>
+  <si>
+    <t>Subjects like social conditions, reginal coonflicts, sex, and race should be avoided.</t>
+  </si>
+  <si>
+    <t>像社会状况、宗教冲突、性和宗族的话题也要避免。</t>
+  </si>
+  <si>
+    <t>Family matters at times is an unpleasant topic.</t>
+  </si>
+  <si>
+    <t>有关家庭的话题有时也会令人不快。</t>
+  </si>
+  <si>
+    <t>It may be an intrusion of privacy to ask about personal finance.</t>
+  </si>
+  <si>
+    <t>打听个人资金状况会被视为侵犯个人隐私。</t>
+  </si>
+  <si>
+    <t>uncivilized to talk about eating pets such as dog, rabbit, bird, turtle, and monkey</t>
+  </si>
+  <si>
+    <t>谈论食用狗、兔、禽鸟、乌龟、猴子等宠物，会被视为野蛮和缺乏教养。</t>
+  </si>
+  <si>
+    <t>developing a conversation</t>
+  </si>
+  <si>
+    <t>进一步交谈</t>
+  </si>
+  <si>
+    <t>business correspondence</t>
+  </si>
+  <si>
+    <t>商务信函</t>
+  </si>
+  <si>
+    <t>local newspaper</t>
+  </si>
+  <si>
+    <t>当地报纸</t>
+  </si>
+  <si>
+    <t>journalist</t>
+  </si>
+  <si>
+    <t>(报刊)记者</t>
+  </si>
+  <si>
+    <t>permanent job</t>
+  </si>
+  <si>
+    <t>固定工作</t>
+  </si>
+  <si>
+    <t>qualified</t>
+  </si>
+  <si>
+    <t>adj.有资格的，具备必要条件的</t>
+  </si>
+  <si>
+    <t>temporary job</t>
+  </si>
+  <si>
+    <t>临时工作</t>
+  </si>
+  <si>
+    <t>business section</t>
+  </si>
+  <si>
+    <t>(报纸的)商务板块，商务栏</t>
+  </si>
+  <si>
+    <t>bad experience</t>
+  </si>
+  <si>
+    <t>令人不快的经历</t>
+  </si>
+  <si>
+    <t>at the moment</t>
+  </si>
+  <si>
+    <t>目前</t>
+  </si>
+  <si>
+    <t>special event</t>
+  </si>
+  <si>
+    <t>(体育比赛、演出等)大型活动</t>
+  </si>
+  <si>
+    <t>promoter</t>
+  </si>
+  <si>
+    <t>n.(营利性体育比赛、演出等)承办人，出资人，赞助商</t>
+  </si>
+  <si>
+    <t>orchestra</t>
+  </si>
+  <si>
+    <t>n.管弦乐队</t>
+  </si>
+  <si>
+    <t>solo</t>
+  </si>
+  <si>
+    <t>n.独奏，独唱，单独表演</t>
+  </si>
+  <si>
+    <t>dormal dress</t>
+  </si>
+  <si>
+    <t>礼服</t>
+  </si>
+  <si>
+    <t>hire</t>
+  </si>
+  <si>
+    <t>n.出租</t>
+  </si>
+  <si>
+    <t>product development</t>
+  </si>
+  <si>
+    <t>产品开发</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>n.维纳斯</t>
+  </si>
+  <si>
+    <t>beauty salon</t>
+  </si>
+  <si>
+    <t>美容厅</t>
+  </si>
+  <si>
+    <t>promotions manager</t>
+  </si>
+  <si>
+    <t>产品宣传部经理</t>
+  </si>
+  <si>
+    <t>hair stylist</t>
+  </si>
+  <si>
+    <t>美发师</t>
+  </si>
+  <si>
+    <t>make up specialist</t>
+  </si>
+  <si>
+    <t>美容专家</t>
+  </si>
+  <si>
+    <t>assistant manager</t>
+  </si>
+  <si>
+    <t>副经理</t>
+  </si>
+  <si>
+    <t>jasmine</t>
+  </si>
+  <si>
+    <t>n.茉莉花</t>
+  </si>
+  <si>
+    <t>flower expert</t>
+  </si>
+  <si>
+    <t>花卉专家</t>
+  </si>
+  <si>
+    <t>sales representative</t>
+  </si>
+  <si>
+    <t>销售代表</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>n.运营公司</t>
+  </si>
+  <si>
+    <t>specialist holiday operator</t>
+  </si>
+  <si>
+    <t>专业假日旅行运营商</t>
+  </si>
+  <si>
+    <t>premier</t>
+  </si>
+  <si>
+    <t>adj.首位的，首要的，最先的</t>
+  </si>
+  <si>
+    <t>hotel chain</t>
+  </si>
+  <si>
+    <t>连锁酒店</t>
+  </si>
+  <si>
+    <t>car hire</t>
+  </si>
+  <si>
+    <t>汽车出租</t>
+  </si>
+  <si>
+    <t>chauffer</t>
+  </si>
+  <si>
+    <t>n.专用司机</t>
+  </si>
+  <si>
+    <t>self drive</t>
+  </si>
+  <si>
+    <t>自驾</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>adj.经典的</t>
+  </si>
+  <si>
+    <t>photographic assistant</t>
+  </si>
+  <si>
+    <t>摄影部助理</t>
+  </si>
+  <si>
+    <t>photographic agency</t>
+  </si>
+  <si>
+    <t>摄影社，摄影公司</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>n.报刊</t>
+  </si>
+  <si>
+    <t>PR event</t>
+  </si>
+  <si>
+    <t>公关活动</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1979,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,6 +2011,20 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -1777,10 +2497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1789,37 +2509,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1828,98 +2542,104 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1940,6 +2660,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2289,12 +3015,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
+      <selection pane="bottomLeft" activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -2336,7 +3062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="31.2" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2448,7 +3174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="31.2" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2464,7 +3190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="31.2" spans="1:2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -2512,7 +3238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="31.2" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -2608,7 +3334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" ht="31.2" spans="1:2">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
@@ -2696,7 +3422,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" ht="31.2" spans="1:2">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>98</v>
       </c>
@@ -2736,7 +3462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" ht="31.2" spans="1:2">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
@@ -2784,7 +3510,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" ht="31.2" spans="1:2">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>120</v>
       </c>
@@ -2808,7 +3534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" ht="31.2" spans="1:2">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>126</v>
       </c>
@@ -2872,7 +3598,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" ht="31.2" spans="1:2">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>142</v>
       </c>
@@ -2976,7 +3702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" ht="31.95" spans="1:2">
+    <row r="85" ht="16.35" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>168</v>
       </c>
@@ -2984,7 +3710,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" ht="31.95" spans="1:2">
+    <row r="86" ht="16.35" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>170</v>
       </c>
@@ -3016,7 +3742,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" ht="31.95" spans="1:2">
+    <row r="90" ht="16.35" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>178</v>
       </c>
@@ -3032,7 +3758,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" ht="31.95" spans="1:2">
+    <row r="92" ht="16.35" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>182</v>
       </c>
@@ -3064,7 +3790,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" ht="31.95" spans="1:2">
+    <row r="96" ht="16.35" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>190</v>
       </c>
@@ -3088,7 +3814,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" ht="31.95" spans="1:2">
+    <row r="99" ht="16.35" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>196</v>
       </c>
@@ -3160,7 +3886,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" ht="31.95" spans="1:2">
+    <row r="108" ht="16.35" spans="1:2">
       <c r="A108" s="4" t="s">
         <v>214</v>
       </c>
@@ -3168,7 +3894,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" ht="31.95" spans="1:2">
+    <row r="109" ht="16.35" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>216</v>
       </c>
@@ -3200,7 +3926,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" ht="31.95" spans="1:2">
+    <row r="113" ht="16.35" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>224</v>
       </c>
@@ -3232,7 +3958,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" ht="31.95" spans="1:2">
+    <row r="117" ht="16.35" spans="1:2">
       <c r="A117" s="4" t="s">
         <v>232</v>
       </c>
@@ -3360,7 +4086,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" ht="31.2" spans="1:2">
+    <row r="133" spans="1:2">
       <c r="A133" s="4" t="s">
         <v>264</v>
       </c>
@@ -3424,7 +4150,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" ht="31.2" spans="1:2">
+    <row r="141" spans="1:2">
       <c r="A141" s="4" t="s">
         <v>280</v>
       </c>
@@ -3576,7 +4302,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" ht="31.95" spans="1:2">
+    <row r="160" ht="16.35" spans="1:2">
       <c r="A160" s="4" t="s">
         <v>318</v>
       </c>
@@ -3696,7 +4422,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" ht="62.4" spans="1:2">
+    <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
         <v>348</v>
       </c>
@@ -3704,7 +4430,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" ht="31.2" spans="1:2">
+    <row r="176" ht="62.4" spans="1:2">
       <c r="A176" s="4" t="s">
         <v>350</v>
       </c>
@@ -3712,7 +4438,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" ht="31.2" spans="1:2">
       <c r="A177" s="4" t="s">
         <v>352</v>
       </c>
@@ -3728,7 +4454,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" ht="46.8" spans="1:2">
+    <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
         <v>356</v>
       </c>
@@ -3736,7 +4462,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" ht="46.8" spans="1:2">
       <c r="A180" s="4" t="s">
         <v>358</v>
       </c>
@@ -3760,7 +4486,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" ht="31.2" spans="1:2">
+    <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
         <v>364</v>
       </c>
@@ -3768,7 +4494,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" ht="31.2" spans="1:2">
       <c r="A184" s="4" t="s">
         <v>366</v>
       </c>
@@ -3776,7 +4502,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" ht="31.2" spans="1:2">
+    <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
         <v>368</v>
       </c>
@@ -3784,7 +4510,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" ht="31.2" spans="1:2">
       <c r="A186" s="4" t="s">
         <v>370</v>
       </c>
@@ -3792,7 +4518,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" ht="31.2" spans="1:2">
+    <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
         <v>372</v>
       </c>
@@ -3800,7 +4526,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" ht="31.2" spans="1:2">
       <c r="A188" s="4" t="s">
         <v>374</v>
       </c>
@@ -3864,7 +4590,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" ht="31.2" spans="1:2">
+    <row r="196" spans="1:2">
       <c r="A196" s="4" t="s">
         <v>390</v>
       </c>
@@ -3872,7 +4598,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" ht="31.2" spans="1:2">
       <c r="A197" s="4" t="s">
         <v>392</v>
       </c>
@@ -3896,7 +4622,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" ht="31.2" spans="1:2">
+    <row r="200" spans="1:2">
       <c r="A200" s="4" t="s">
         <v>398</v>
       </c>
@@ -3904,7 +4630,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" ht="62.4" spans="1:2">
+    <row r="201" ht="31.2" spans="1:2">
       <c r="A201" s="4" t="s">
         <v>400</v>
       </c>
@@ -3912,7 +4638,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" ht="46.8" spans="1:2">
+    <row r="202" ht="62.4" spans="1:2">
       <c r="A202" s="4" t="s">
         <v>402</v>
       </c>
@@ -3920,7 +4646,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" ht="46.8" spans="1:2">
       <c r="A203" s="4" t="s">
         <v>404</v>
       </c>
@@ -3936,7 +4662,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" ht="46.8" spans="1:2">
+    <row r="205" spans="1:2">
       <c r="A205" s="4" t="s">
         <v>408</v>
       </c>
@@ -3952,12 +4678,952 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" ht="31.2" spans="1:2">
+    <row r="207" ht="46.8" spans="1:2">
       <c r="A207" s="4" t="s">
         <v>412</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>413</v>
+      </c>
+    </row>
+    <row r="208" ht="31.2" spans="1:2">
+      <c r="A208" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" ht="62.4" spans="1:2">
+      <c r="A216" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" ht="62.4" spans="1:2">
+      <c r="A217" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="7"/>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="222" ht="31.2" spans="1:2">
+      <c r="A222" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="223" ht="62.4" spans="1:2">
+      <c r="A223" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B224" s="8"/>
+    </row>
+    <row r="225" ht="31.2" spans="1:2">
+      <c r="A225" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="226" ht="31.2" spans="1:2">
+      <c r="A226" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" ht="46.8" spans="1:2">
+      <c r="A228" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="229" ht="62.4" spans="1:2">
+      <c r="A229" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" ht="46.8" spans="1:2">
+      <c r="A230" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="232" ht="31.2" spans="1:2">
+      <c r="A232" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="233" ht="31.2" spans="1:2">
+      <c r="A233" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" ht="46.8" spans="1:2">
+      <c r="A234" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="235" ht="31.2" spans="1:2">
+      <c r="A235" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" ht="31.2" spans="1:2">
+      <c r="A237" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="238" ht="31.2" spans="1:2">
+      <c r="A238" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="242" ht="46.8" spans="1:2">
+      <c r="A242" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="255" ht="46.8" spans="1:2">
+      <c r="A255" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="260" ht="46.8" spans="1:2">
+      <c r="A260" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="261" ht="62.4" spans="1:2">
+      <c r="A261" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="262" ht="46.8" spans="1:2">
+      <c r="A262" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="263" ht="46.8" spans="1:2">
+      <c r="A263" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="265" ht="46.8" spans="1:2">
+      <c r="A265" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="266" ht="31.2" spans="1:2">
+      <c r="A266" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="267" ht="31.2" spans="1:2">
+      <c r="A267" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="269" ht="31.2" spans="1:2">
+      <c r="A269" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="270" ht="31.2" spans="1:2">
+      <c r="A270" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="277" ht="31.2" spans="1:2">
+      <c r="A277" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="280" ht="46.8" spans="1:2">
+      <c r="A280" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="281" ht="62.4" spans="1:2">
+      <c r="A281" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="282" ht="46.8" spans="1:2">
+      <c r="A282" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="283" ht="31.2" spans="1:2">
+      <c r="A283" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="284" ht="62.4" spans="1:2">
+      <c r="A284" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="285" ht="31.2" spans="1:2">
+      <c r="A285" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="286" ht="46.8" spans="1:2">
+      <c r="A286" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="287" ht="62.4" spans="1:2">
+      <c r="A287" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="299" ht="31.2" spans="1:2">
+      <c r="A299" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/05-词汇相关/BEC词汇随身记.xlsx
+++ b/BEC/05-词汇相关/BEC词汇随身记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8220" windowHeight="9155" tabRatio="820"/>
+    <workbookView windowWidth="9635" windowHeight="9155" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="词汇汇总" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1023">
   <si>
     <t>英语</t>
   </si>
@@ -903,7 +903,7 @@
     <t>周期性上升</t>
   </si>
   <si>
-    <t>holding corporation</t>
+    <t>holding corporation / holding company</t>
   </si>
   <si>
     <t>控股公司</t>
@@ -1967,6 +1967,1134 @@
   </si>
   <si>
     <t>公关活动</t>
+  </si>
+  <si>
+    <t>pre-work</t>
+  </si>
+  <si>
+    <t>adj.尚未工作的</t>
+  </si>
+  <si>
+    <t>in-work</t>
+  </si>
+  <si>
+    <t>adj.在职的</t>
+  </si>
+  <si>
+    <t>catering</t>
+  </si>
+  <si>
+    <t>n.餐饮(服务)，餐饮业</t>
+  </si>
+  <si>
+    <t>professional skill</t>
+  </si>
+  <si>
+    <t>专业技能</t>
+  </si>
+  <si>
+    <t>business degree</t>
+  </si>
+  <si>
+    <t>商业学位</t>
+  </si>
+  <si>
+    <t>envision</t>
+  </si>
+  <si>
+    <t>vt.想象，展望</t>
+  </si>
+  <si>
+    <t>direct mail</t>
+  </si>
+  <si>
+    <t>直接邮寄广告推销法</t>
+  </si>
+  <si>
+    <t>planner</t>
+  </si>
+  <si>
+    <t>n.策划机构，专业策划公司</t>
+  </si>
+  <si>
+    <t>wedding planner</t>
+  </si>
+  <si>
+    <t>专业从事婚庆礼仪庆典的服务机构，婚礼策划公司</t>
+  </si>
+  <si>
+    <t>caterer</t>
+  </si>
+  <si>
+    <t>n.餐饮公司</t>
+  </si>
+  <si>
+    <t>financial planner</t>
+  </si>
+  <si>
+    <t>理财公司</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>n.赠券，礼券，购物优惠券</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>瑞士(欧洲中部国家)</t>
+  </si>
+  <si>
+    <t>garment industry, some of the brands famous nationwide</t>
+  </si>
+  <si>
+    <t>服务业，一些品牌全国闻名</t>
+  </si>
+  <si>
+    <t>sports shoes industry</t>
+  </si>
+  <si>
+    <t>运动鞋产业</t>
+  </si>
+  <si>
+    <t>some of the brands famous nationwide</t>
+  </si>
+  <si>
+    <t>一些全国知名的品牌</t>
+  </si>
+  <si>
+    <t>Catering is popular in my home town. Many people are in the catering business.</t>
+  </si>
+  <si>
+    <t>餐饮业在我家乡很火爆。许多人在从事餐饮业。</t>
+  </si>
+  <si>
+    <t>English is very important in today's business world. It is a common language used in international business communication.</t>
+  </si>
+  <si>
+    <t>英语在当今商业界非常重要，是国际商务交往的通用语言。</t>
+  </si>
+  <si>
+    <t>With globalization, English is becoming more and more important in business cooperation between different countries.</t>
+  </si>
+  <si>
+    <t>随着经济全球化，英语在不同国家的商务合作中正变得越来越重要。</t>
+  </si>
+  <si>
+    <t>Technology is having a great impact on business and it is changing the way business is conducted.</t>
+  </si>
+  <si>
+    <t>科技在商业活动中正发挥巨大影响，它正在改变商务运作方式。</t>
+  </si>
+  <si>
+    <t>IT is now widely used in business online which is more speedy and cost-effective.</t>
+  </si>
+  <si>
+    <t>信息技术在商务活动中广泛运用。互联网成就了更快捷也更经济的网上商务。</t>
+  </si>
+  <si>
+    <t>More and more companies are relying on technology to help increase production and remain competitive.</t>
+  </si>
+  <si>
+    <t>越来越多的公司依赖科技提高产量，保持竞争力。</t>
+  </si>
+  <si>
+    <t>E-business will become more popular, replacing some of the traditional ways of doing business.</t>
+  </si>
+  <si>
+    <t>电子商务会变得越来越流行，替代传统的经商模式。</t>
+  </si>
+  <si>
+    <t>With the Internet getting more and more popular, people's working styles will cahnge. More and more people will work from home.</t>
+  </si>
+  <si>
+    <t>随着互联网越来越流行，人们的工作方式会发生改变。越来越多的人会选择在家工作。</t>
+  </si>
+  <si>
+    <t>Training is important for the company to keep up with the times and be well responsive to changes.</t>
+  </si>
+  <si>
+    <t>培训对公司很重要，能使公司与时俱进，从容应对各种变化。</t>
+  </si>
+  <si>
+    <t>get staff well-informed and enhance their professional skills and abilities</t>
+  </si>
+  <si>
+    <t>使员工充分了解信息，提高职业技能和总体能力</t>
+  </si>
+  <si>
+    <t>help the customer envision how the product will help them specifically</t>
+  </si>
+  <si>
+    <t>帮助顾客想象产品如何对他们个人有特别的用处</t>
+  </si>
+  <si>
+    <t>create a personal attachment to the product</t>
+  </si>
+  <si>
+    <t>使个人对产品产生依赖</t>
+  </si>
+  <si>
+    <t>Demonstrating the product's real world use is very important to selling it quickly.</t>
+  </si>
+  <si>
+    <t>展现产品在现实生活中的作用非常重要，能够快速促销。</t>
+  </si>
+  <si>
+    <t>offer a sale price to make the customer think that buying the product will save them money</t>
+  </si>
+  <si>
+    <t>采用甩卖方式使顾客认为买某件产品能帮他们省钱</t>
+  </si>
+  <si>
+    <t>Try direct mail.</t>
+  </si>
+  <si>
+    <t>尝试直接邮寄广告推销法。</t>
+  </si>
+  <si>
+    <t>Partner with another business and sell each other's products or services. If you're a caterer, for example, join forces with a wedding planner.</t>
+  </si>
+  <si>
+    <t>与相关行业合作，相互出售对方的产品和服务。例如：餐饮公司可以和婚礼策划公司联手合作。</t>
+  </si>
+  <si>
+    <t>Use your website as a marketing tool. Sell items ddirectly on the site or use the site to educate customers about your product or service.</t>
+  </si>
+  <si>
+    <t>利用网站作为营销工具。直接在网站销售产品，或利用网站让顾客了解公司产品或服务。</t>
+  </si>
+  <si>
+    <t>offer coupons in your local newspaper, or on your website</t>
+  </si>
+  <si>
+    <t>在当地报纸或网站上提供购物优惠券</t>
+  </si>
+  <si>
+    <t>Offer a seminar and use it to sell - such as a cooking class if you make food products, or a meeting on long-term care insurance if you are a financial planner.</t>
+  </si>
+  <si>
+    <t>举办免费讲座，利用讲座促销 - 如果你是食品生产商，可以举办烹饪讲座：加入你是理财公司，可以举办有关长期健康医疗保险的讲座。</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>n.福利</t>
+  </si>
+  <si>
+    <t>incentive</t>
+  </si>
+  <si>
+    <t>n.奖励</t>
+  </si>
+  <si>
+    <t>job title</t>
+  </si>
+  <si>
+    <t>职位，头衔</t>
+  </si>
+  <si>
+    <t>traning and staff development</t>
+  </si>
+  <si>
+    <t>培训和员工发展</t>
+  </si>
+  <si>
+    <t>good salary</t>
+  </si>
+  <si>
+    <t>可观的收入</t>
+  </si>
+  <si>
+    <t>pension</t>
+  </si>
+  <si>
+    <t>n.养老金</t>
+  </si>
+  <si>
+    <t>flexible working hours</t>
+  </si>
+  <si>
+    <t>弹性工作时间，灵活的工作时间</t>
+  </si>
+  <si>
+    <t>opportunities to travel</t>
+  </si>
+  <si>
+    <t>旅游机会</t>
+  </si>
+  <si>
+    <t>opportunities for promotion</t>
+  </si>
+  <si>
+    <t>升职提拔机会</t>
+  </si>
+  <si>
+    <t>days off</t>
+  </si>
+  <si>
+    <t>几天短假</t>
+  </si>
+  <si>
+    <t>company car</t>
+  </si>
+  <si>
+    <t>公司配给的汽车</t>
+  </si>
+  <si>
+    <t>too good to be true</t>
+  </si>
+  <si>
+    <t>好得令人难以相信</t>
+  </si>
+  <si>
+    <t>client service executive</t>
+  </si>
+  <si>
+    <t>客户服务主管</t>
+  </si>
+  <si>
+    <t>take ... with a pinch of salt</t>
+  </si>
+  <si>
+    <t>对。。。将信将疑</t>
+  </si>
+  <si>
+    <t>old and established</t>
+  </si>
+  <si>
+    <t>历史悠久</t>
+  </si>
+  <si>
+    <t>resources director</t>
+  </si>
+  <si>
+    <t>(human resources director的简称)人力资源管理部门</t>
+  </si>
+  <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t>n.资格</t>
+  </si>
+  <si>
+    <t>incumbent programme</t>
+  </si>
+  <si>
+    <t>在职员工培训课程，岗位培训课程</t>
+  </si>
+  <si>
+    <t>promote from within</t>
+  </si>
+  <si>
+    <t>提拔内部员工</t>
+  </si>
+  <si>
+    <t>take on</t>
+  </si>
+  <si>
+    <t>接受，招聘</t>
+  </si>
+  <si>
+    <t>intake</t>
+  </si>
+  <si>
+    <t>n.从外部吸纳招收的员工</t>
+  </si>
+  <si>
+    <t>project manager</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+  </si>
+  <si>
+    <t>grow and maintain customer relationship</t>
+  </si>
+  <si>
+    <t>发展和维护客户关系</t>
+  </si>
+  <si>
+    <t>canteen</t>
+  </si>
+  <si>
+    <t>n.食堂，餐厅</t>
+  </si>
+  <si>
+    <t>head office</t>
+  </si>
+  <si>
+    <t>n.总部，总公司</t>
+  </si>
+  <si>
+    <t>brainstorming</t>
+  </si>
+  <si>
+    <t>n.自由讨论，头脑风暴，集思广益</t>
+  </si>
+  <si>
+    <t>breakout</t>
+  </si>
+  <si>
+    <t>n.突破</t>
+  </si>
+  <si>
+    <t>encompass</t>
+  </si>
+  <si>
+    <t>vt.包含，包括</t>
+  </si>
+  <si>
+    <t>sales and marketing</t>
+  </si>
+  <si>
+    <t>销售和市场营销</t>
+  </si>
+  <si>
+    <t>research and development and manufacturing</t>
+  </si>
+  <si>
+    <t>研发和生产</t>
+  </si>
+  <si>
+    <t>perk</t>
+  </si>
+  <si>
+    <t>n.好处，额外津贴，外快</t>
+  </si>
+  <si>
+    <t>final salary pension scheme</t>
+  </si>
+  <si>
+    <t>按最终薪水给付的养老金计划</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>n.预算</t>
+  </si>
+  <si>
+    <t>non-cash reward</t>
+  </si>
+  <si>
+    <t>非现金形式的奖赏</t>
+  </si>
+  <si>
+    <t>once-in-a-lifetime</t>
+  </si>
+  <si>
+    <t>adj.千载难逢的，令人难忘的</t>
+  </si>
+  <si>
+    <t>career goal</t>
+  </si>
+  <si>
+    <t>职业目标</t>
+  </si>
+  <si>
+    <t>senior management</t>
+  </si>
+  <si>
+    <t>高层管理人员</t>
+  </si>
+  <si>
+    <t>Xerox</t>
+  </si>
+  <si>
+    <t>施乐公司(财富500强公司之一，总部所在地美国，主要经营办公设备)
+Can you xerox this letter for me?
+你能为我复印这封信吗？</t>
+  </si>
+  <si>
+    <t>Global Services</t>
+  </si>
+  <si>
+    <t>环球服务公司</t>
+  </si>
+  <si>
+    <t>Uxbridge</t>
+  </si>
+  <si>
+    <t>欧克斯桥镇(位于伦敦西郊的一个小镇)</t>
+  </si>
+  <si>
+    <t>employee benefits</t>
+  </si>
+  <si>
+    <t>员工福利</t>
+  </si>
+  <si>
+    <t>legally required benefits</t>
+  </si>
+  <si>
+    <t>法律保障的权利</t>
+  </si>
+  <si>
+    <t>social security</t>
+  </si>
+  <si>
+    <t>社会保障</t>
+  </si>
+  <si>
+    <t>unemployment compensation</t>
+  </si>
+  <si>
+    <t>失业补偿</t>
+  </si>
+  <si>
+    <t>workers' compensation</t>
+  </si>
+  <si>
+    <t>工伤赔偿</t>
+  </si>
+  <si>
+    <t>retirement-related benefits</t>
+  </si>
+  <si>
+    <t>退休有关的福利</t>
+  </si>
+  <si>
+    <t>pension plans</t>
+  </si>
+  <si>
+    <t>退休金计划</t>
+  </si>
+  <si>
+    <t>insurance related benefits</t>
+  </si>
+  <si>
+    <t>保险有关的福利</t>
+  </si>
+  <si>
+    <t>health insurance</t>
+  </si>
+  <si>
+    <t>健康保险</t>
+  </si>
+  <si>
+    <t>health care</t>
+  </si>
+  <si>
+    <t>医疗保健</t>
+  </si>
+  <si>
+    <t>life insurance</t>
+  </si>
+  <si>
+    <t>人寿保险</t>
+  </si>
+  <si>
+    <t>accident andn disablility insurance</t>
+  </si>
+  <si>
+    <t>意外事故和伤残保险</t>
+  </si>
+  <si>
+    <t>paid holidays and paid vacations</t>
+  </si>
+  <si>
+    <t>带薪公假和带薪休假</t>
+  </si>
+  <si>
+    <t>local conveyance allowance</t>
+  </si>
+  <si>
+    <t>交通补贴</t>
+  </si>
+  <si>
+    <t>housing allowance</t>
+  </si>
+  <si>
+    <t>住房补贴</t>
+  </si>
+  <si>
+    <t>meal allowance</t>
+  </si>
+  <si>
+    <t>伙食补贴</t>
+  </si>
+  <si>
+    <t>holiday bonus</t>
+  </si>
+  <si>
+    <t>旅游津贴</t>
+  </si>
+  <si>
+    <t>incentives</t>
+  </si>
+  <si>
+    <t>奖励措施</t>
+  </si>
+  <si>
+    <t>new-hire training</t>
+  </si>
+  <si>
+    <t>新员工培训</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>新员工培训，迎新会</t>
+  </si>
+  <si>
+    <t>vocational training / professional training</t>
+  </si>
+  <si>
+    <t>职业培训</t>
+  </si>
+  <si>
+    <t>develop a good training programme to keep the staff motivated</t>
+  </si>
+  <si>
+    <t>通过开发良好的培训计划来提高员工的工作热情</t>
+  </si>
+  <si>
+    <t>Many entrepreneurs seem to view employee training and development as more optional than essential...a viewpoint that can be costly to both short-term profits and long-term progress.</t>
+  </si>
+  <si>
+    <t>许多企业家认为员工的培训和发展可有可无，而非至关重要，认为这对公司的短期利益和长远发展来说代价太高。</t>
+  </si>
+  <si>
+    <t>a reasonable salary</t>
+  </si>
+  <si>
+    <t>合理的工资</t>
+  </si>
+  <si>
+    <t>High salary leads to high motivation.</t>
+  </si>
+  <si>
+    <t>高收入使得工作热情高涨。</t>
+  </si>
+  <si>
+    <t>A job with high salary may not make you feel fulfilled.</t>
+  </si>
+  <si>
+    <t>一份高收入的工作可能不会使你获得成就感。</t>
+  </si>
+  <si>
+    <t>Part-time jobs make flexible lifestyle possible.</t>
+  </si>
+  <si>
+    <t>兼职工作使得多样的生活方式成为可能。</t>
+  </si>
+  <si>
+    <t>With flexible work hour, I can choose to work anytime. I can work from home and avoid traffic jam, and what's more important, I will improve my work efficiency.</t>
+  </si>
+  <si>
+    <t>有了灵活的工作时间，我可以改变上下班的时间，可以在家里工作，避开交通堵塞，更重要的是可以提高工作效率。</t>
+  </si>
+  <si>
+    <t>After a paid holiday, people will be physically and psychologically relaxed, and be energetic,fresh and more prepared for the challenge of their work.</t>
+  </si>
+  <si>
+    <t>带薪度假之后，人们会感到身心放松，精力充沛，神清气爽地投入到有挑战性的工作中去。</t>
+  </si>
+  <si>
+    <t>Promotion brings higher salary, sense of fulfillment, more opportunity and more responsibility.</t>
+  </si>
+  <si>
+    <t>升职带来更高的薪水、成就感、更多的机会和责任。</t>
+  </si>
+  <si>
+    <t>A parental leave is a good policy to encourage women to the work place.</t>
+  </si>
+  <si>
+    <t>育儿假是一项鼓励妇女参加工作的好政策。</t>
+  </si>
+  <si>
+    <t>If a sales representative is provided with a company car, he will surely improve his work efficiency.</t>
+  </si>
+  <si>
+    <t>如果公司能够给销售代表配备汽车，一定能够提高其工作效率。</t>
+  </si>
+  <si>
+    <t>can do a half day</t>
+  </si>
+  <si>
+    <t>可以工作半天</t>
+  </si>
+  <si>
+    <t>might work later</t>
+  </si>
+  <si>
+    <t>可以推迟工作</t>
+  </si>
+  <si>
+    <t>take work home</t>
+  </si>
+  <si>
+    <t>可以把工作带回家</t>
+  </si>
+  <si>
+    <t>I have had 5 years' experience with a company as a salesman.</t>
+  </si>
+  <si>
+    <t>本人曾在某公司担任推销员，前后有五年之久。</t>
+  </si>
+  <si>
+    <t>I am 25 years of age, and have had two years' experience in my present post, which I am leaving to better myself.</t>
+  </si>
+  <si>
+    <t>本人今年25岁，已在目前的职位工作两年，为更上一层楼，准备离开此职位。</t>
+  </si>
+  <si>
+    <t>I am a good accountant and have a thorough knowledge of the English language.</t>
+  </si>
+  <si>
+    <t>本人是一个优秀的会计员，同时对英文也颇为精通。</t>
+  </si>
+  <si>
+    <t>I have received a good education, and know English, Spanish and shorthand.</t>
+  </si>
+  <si>
+    <t>本人曾接受良好的教育，熟悉英语、西班牙语以及速记。</t>
+  </si>
+  <si>
+    <t>You will find enclosed an outline of my education and business training and copies of two letters of recommendation.</t>
+  </si>
+  <si>
+    <t>有关本人的学历、工作经验等项的概要，附上两封推荐函，请审阅。</t>
+  </si>
+  <si>
+    <t>Enclosed please find a resume and a photo.</t>
+  </si>
+  <si>
+    <t>随函寄上简历一份及相片一张。</t>
+  </si>
+  <si>
+    <t>I attach schedule of my qualificaiton and experience.</t>
+  </si>
+  <si>
+    <t>随信附上我的履历表。</t>
+  </si>
+  <si>
+    <t>I am quite willing to start with a small salary.</t>
+  </si>
+  <si>
+    <t>起薪多少，本人并不计较。</t>
+  </si>
+  <si>
+    <t>I should require a salary of 4,500 a month to begin with.</t>
+  </si>
+  <si>
+    <t>本人希望，月薪由4,500元起薪。</t>
+  </si>
+  <si>
+    <t>The salary I should require would be 60,000 a year, plus 1% commission on all sales.</t>
+  </si>
+  <si>
+    <t>关于薪金，本人希望年薪6万元，同时获得销售额1%的分红。</t>
+  </si>
+  <si>
+    <t>My reason for leaving the company is that I wish to get into the advertising business.</t>
+  </si>
+  <si>
+    <t>本人离职的原因是希望在广告业方面发展。</t>
+  </si>
+  <si>
+    <t>I am leaving our office to be with my mother and care for my aged mother in a distant city.</t>
+  </si>
+  <si>
+    <t>我为照顾远在异地的老母亲而申请辞职。</t>
+  </si>
+  <si>
+    <t>My reason for leaving my present employment is simple because I see no chance of advancement.</t>
+  </si>
+  <si>
+    <t>本人离职的理由很简单，本人深知在原职位上没有发展的机会。</t>
+  </si>
+  <si>
+    <t>If you desire an interview, I shall be most happy to call in person, on any day and at any time you may appoint.</t>
+  </si>
+  <si>
+    <t>如贵公司有意面试，本人一定遵照所指定的时日前往拜访。</t>
+  </si>
+  <si>
+    <t>Should you think favorably of my application, kindly grant me an interview.</t>
+  </si>
+  <si>
+    <t>如对本人之应聘优先考虑，恳请准予面试。</t>
+  </si>
+  <si>
+    <t>I hope that you will be knid enough to consider my application favorably.</t>
+  </si>
+  <si>
+    <t>恳请惠予考虑本人之申请为盼。</t>
+  </si>
+  <si>
+    <t>attached CV</t>
+  </si>
+  <si>
+    <t>所附的履历</t>
+  </si>
+  <si>
+    <t>work for a travel agency</t>
+  </si>
+  <si>
+    <t>为一家旅行社工作</t>
+  </si>
+  <si>
+    <t>work as a receptional and secretary</t>
+  </si>
+  <si>
+    <t>当接待员和秘书</t>
+  </si>
+  <si>
+    <t>distribution centre</t>
+  </si>
+  <si>
+    <t>配送中心</t>
+  </si>
+  <si>
+    <t>call centre</t>
+  </si>
+  <si>
+    <t>呼叫中心，电话中心</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>n.工厂，(用于生产或生活的)成套设备，成套装置</t>
+  </si>
+  <si>
+    <t>subsidiary</t>
+  </si>
+  <si>
+    <t>子公司(指由母公司可控制的，在东道国政府法律下登记的独立法人)</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>分公司(指母公司的一个分支机构或附属机构，在法律上和经济上没有独立性，不是法人)</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>n.部门分支</t>
+  </si>
+  <si>
+    <t>document management</t>
+  </si>
+  <si>
+    <t>资料管理，文档管理</t>
+  </si>
+  <si>
+    <t>innovation technology</t>
+  </si>
+  <si>
+    <t>创新技术</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>n.收入，收益</t>
+  </si>
+  <si>
+    <t>mission statement</t>
+  </si>
+  <si>
+    <t>宗旨宣言，目标宣言</t>
+  </si>
+  <si>
+    <t>fact sheet</t>
+  </si>
+  <si>
+    <t>情况说明书</t>
+  </si>
+  <si>
+    <t>most critical doorway to business success</t>
+  </si>
+  <si>
+    <t>通向公司的关键一步</t>
+  </si>
+  <si>
+    <t>move forward with you to the next stage</t>
+  </si>
+  <si>
+    <t>进一步与贵公司合作</t>
+  </si>
+  <si>
+    <t>test data</t>
+  </si>
+  <si>
+    <t>实验数据</t>
+  </si>
+  <si>
+    <t>technical team</t>
+  </si>
+  <si>
+    <t>技术团队</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>a company's total profit 公司的总收益</t>
+  </si>
+  <si>
+    <t>a company's total costs</t>
+  </si>
+  <si>
+    <t>公司的总成本</t>
+  </si>
+  <si>
+    <t>a company's toal spending</t>
+  </si>
+  <si>
+    <t>公司的总开销</t>
+  </si>
+  <si>
+    <t>This next chart shows you how the corporation is spilt into four divisions.</t>
+  </si>
+  <si>
+    <t>下一张图表显示公司是怎样分成四个分支的。</t>
+  </si>
+  <si>
+    <t>More and more offices are moving from black and white printing to colour, and from paper documents to electronic documents.</t>
+  </si>
+  <si>
+    <t>越来越多的办公机构从黑白印刷转到彩色印刷，从纸质文件转向电子文件。</t>
+  </si>
+  <si>
+    <t>So that brings me to the end of my presentation.</t>
+  </si>
+  <si>
+    <t>那么我的报告就到这里结束吧。</t>
+  </si>
+  <si>
+    <t>commecial post</t>
+  </si>
+  <si>
+    <t>商务职位</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>n &amp; vt. &amp; vi. 供应，供给</t>
+  </si>
+  <si>
+    <t>alternative energy</t>
+  </si>
+  <si>
+    <t>替代能源</t>
+  </si>
+  <si>
+    <t>low carbon</t>
+  </si>
+  <si>
+    <t>低碳的，二氧化碳排放量低的</t>
+  </si>
+  <si>
+    <t>low carbon energy</t>
+  </si>
+  <si>
+    <t>低碳能源</t>
+  </si>
+  <si>
+    <t>millennium</t>
+  </si>
+  <si>
+    <t>一千年，千禧年</t>
+  </si>
+  <si>
+    <t>情况报告，情况说明书</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>British Petroleum 的缩略语，英国石油公司，总部设在伦敦，是世界上最大的石油和石化公司之一。</t>
+  </si>
+  <si>
+    <t>Porsche</t>
+  </si>
+  <si>
+    <t>保时捷汽车，世界知名汽车品牌，1900年有Ferdinand Porsche在德国创立，所属机构为戴姆勒-克莱斯勒。</t>
+  </si>
+  <si>
+    <t>IKEA</t>
+  </si>
+  <si>
+    <t>宜家家居，总部位于瑞典，其开发的宜家产品系列的基本思想是使低价位、设计精良、适用性强的家居产品为普通人所拥有。</t>
+  </si>
+  <si>
+    <t>Ingka</t>
+  </si>
+  <si>
+    <t>英氏基金，拥有宜家所有控股集团的所有账面价值，包括企业集团下属的所有店面、厂房以及办公场所。</t>
+  </si>
+  <si>
+    <t>Between home and the work, I always stop to pick up a morning espresso.</t>
+  </si>
+  <si>
+    <t>每天早晨从家里到上班的路上，我总是会顺便喝上一杯意式咖啡。
+pick up带上</t>
+  </si>
+  <si>
+    <t>to have just got off an enjoyable ride</t>
+  </si>
+  <si>
+    <t>刚刚结束了一次愉快的车程</t>
+  </si>
+  <si>
+    <t>Instead of text on your visual aids, use graphics, flowcharts and visual images.</t>
+  </si>
+  <si>
+    <t>在使用影像设备时，不要使用文本，改为图解、流程表和一些视觉图像。</t>
+  </si>
+  <si>
+    <t>Personalise them with corporate colours, images and logos.</t>
+  </si>
+  <si>
+    <t>用公司的标志性颜色、图像和标识给它们添上个性化的色彩。</t>
+  </si>
+  <si>
+    <t>And that little personal touch - just like the right amount of sugar in your espresso.</t>
+  </si>
+  <si>
+    <t>而那微妙的个性化元素，就像那加入意式咖啡中的砂糖一样，不多不少。</t>
+  </si>
+  <si>
+    <t>sole trader</t>
+  </si>
+  <si>
+    <t>独立法人，独立经销店</t>
+  </si>
+  <si>
+    <t>partnership</t>
+  </si>
+  <si>
+    <t>n.合伙经营</t>
+  </si>
+  <si>
+    <t>franchise</t>
+  </si>
+  <si>
+    <t>n.连锁店，特许经销权，特许经营</t>
+  </si>
+  <si>
+    <t>entrepreneurial sprit</t>
+  </si>
+  <si>
+    <t>企业家精神，进取精神</t>
+  </si>
+  <si>
+    <t>granting of a licence</t>
+  </si>
+  <si>
+    <t>同意发给许可证</t>
+  </si>
+  <si>
+    <t>franchisor</t>
+  </si>
+  <si>
+    <t>n.授予特许者</t>
+  </si>
+  <si>
+    <t>franchisee</t>
+  </si>
+  <si>
+    <t>n.(公司的分店、零售店或联号商店的)特许经营者，加盟者</t>
+  </si>
+  <si>
+    <t>trademark</t>
+  </si>
+  <si>
+    <t>n.商标</t>
+  </si>
+  <si>
+    <t>ludicrous / ridiculous / absurd / preposterous</t>
+  </si>
+  <si>
+    <t>adj.荒谬的，可笑的</t>
+  </si>
+  <si>
+    <t>charge one's own price</t>
+  </si>
+  <si>
+    <t>自行定价收费</t>
+  </si>
+  <si>
+    <t>menu content</t>
+  </si>
+  <si>
+    <t>菜单的内容</t>
+  </si>
+  <si>
+    <t>solicitor</t>
+  </si>
+  <si>
+    <t>n.律师(注：开业律师以其服务方式不同而分为诉讼律师(barrister)和事务律师(solicitor)，诉讼律师按规定不准合伙，只能单独开业，但诉讼律师按照管理自愿结合组成事务所。)</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>律师；从事法律工作</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>律师（尤指代表当事人出庭者）</t>
+  </si>
+  <si>
+    <t>profit margin</t>
+  </si>
+  <si>
+    <t>利润率</t>
+  </si>
+  <si>
+    <t>branch out</t>
+  </si>
+  <si>
+    <t>使。。。分支出来，扩展业务</t>
+  </si>
+  <si>
+    <t>launch</t>
+  </si>
+  <si>
+    <t>vt.开办(新企业)</t>
+  </si>
+  <si>
+    <t>venture</t>
+  </si>
+  <si>
+    <t>n.投机活动，商业冒险</t>
+  </si>
+  <si>
+    <t>shuttle bus</t>
+  </si>
+  <si>
+    <t>机场班车</t>
+  </si>
+  <si>
+    <t>buffet</t>
+  </si>
+  <si>
+    <t>自助餐</t>
+  </si>
+  <si>
+    <t>British Franchise Association</t>
+  </si>
+  <si>
+    <t>英国特许经营联合会(一家非盈利性阻止，旨在宣传职业道德、促进公平合理的特许加盟活动)</t>
+  </si>
+  <si>
+    <t>Domino Pizza</t>
+  </si>
+  <si>
+    <t>达美乐比萨店(美式比萨连锁店)</t>
   </si>
 </sst>
 </file>
@@ -1979,9 +3107,24 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2003,27 +3146,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2497,10 +3640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2509,37 +3652,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2548,98 +3685,104 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2652,19 +3795,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3015,2615 +4164,4119 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B328" sqref="B328"/>
+      <selection pane="bottomLeft" activeCell="B515" sqref="B515"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.6666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.7777777777778" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="33.6666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.7777777777778" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="5" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="33.6" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="31.2" spans="1:2">
-      <c r="A16" s="4" t="s">
+    <row r="16" ht="33.6" spans="1:2">
+      <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="31.2" spans="1:2">
-      <c r="A36" s="4" t="s">
+    <row r="36" ht="33.6" spans="1:2">
+      <c r="A36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" ht="16.35" spans="1:2">
-      <c r="A75" s="4" t="s">
+    <row r="75" ht="17.55" spans="1:2">
+      <c r="A75" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" ht="16.35" spans="1:2">
-      <c r="A76" s="4" t="s">
+    <row r="76" ht="17.55" spans="1:2">
+      <c r="A76" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" ht="16.35" spans="1:2">
-      <c r="A77" s="4" t="s">
+    <row r="77" ht="17.55" spans="1:2">
+      <c r="A77" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" ht="16.35" spans="1:2">
-      <c r="A78" s="4" t="s">
+    <row r="78" ht="17.55" spans="1:2">
+      <c r="A78" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" ht="16.35" spans="1:2">
-      <c r="A79" s="4" t="s">
+    <row r="79" ht="17.55" spans="1:2">
+      <c r="A79" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" ht="16.35" spans="1:2">
-      <c r="A80" s="4" t="s">
+    <row r="80" ht="17.55" spans="1:2">
+      <c r="A80" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" ht="16.35" spans="1:2">
-      <c r="A81" s="4" t="s">
+    <row r="81" ht="17.55" spans="1:2">
+      <c r="A81" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="82" ht="16.35" spans="1:2">
-      <c r="A82" s="4" t="s">
+    <row r="82" ht="17.55" spans="1:2">
+      <c r="A82" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" ht="16.35" spans="1:2">
-      <c r="A83" s="4" t="s">
+    <row r="83" ht="17.55" spans="1:2">
+      <c r="A83" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" ht="16.35" spans="1:2">
-      <c r="A84" s="4" t="s">
+    <row r="84" ht="17.55" spans="1:2">
+      <c r="A84" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" ht="16.35" spans="1:2">
-      <c r="A85" s="4" t="s">
+    <row r="85" ht="17.55" spans="1:2">
+      <c r="A85" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" ht="16.35" spans="1:2">
-      <c r="A86" s="4" t="s">
+    <row r="86" ht="17.55" spans="1:2">
+      <c r="A86" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" ht="16.35" spans="1:2">
-      <c r="A87" s="4" t="s">
+    <row r="87" ht="17.55" spans="1:2">
+      <c r="A87" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" ht="16.35" spans="1:2">
-      <c r="A88" s="4" t="s">
+    <row r="88" ht="17.55" spans="1:2">
+      <c r="A88" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" ht="16.35" spans="1:2">
-      <c r="A89" s="4" t="s">
+    <row r="89" ht="17.55" spans="1:2">
+      <c r="A89" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" ht="16.35" spans="1:2">
-      <c r="A90" s="4" t="s">
+    <row r="90" ht="17.55" spans="1:2">
+      <c r="A90" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" ht="16.35" spans="1:2">
-      <c r="A91" s="4" t="s">
+    <row r="91" ht="17.55" spans="1:2">
+      <c r="A91" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" ht="16.35" spans="1:2">
-      <c r="A92" s="4" t="s">
+    <row r="92" ht="17.55" spans="1:2">
+      <c r="A92" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" ht="16.35" spans="1:2">
-      <c r="A93" s="4" t="s">
+    <row r="93" ht="17.55" spans="1:2">
+      <c r="A93" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" ht="16.35" spans="1:2">
-      <c r="A94" s="4" t="s">
+    <row r="94" ht="17.55" spans="1:2">
+      <c r="A94" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" ht="16.35" spans="1:2">
-      <c r="A95" s="4" t="s">
+    <row r="95" ht="17.55" spans="1:2">
+      <c r="A95" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96" ht="16.35" spans="1:2">
-      <c r="A96" s="4" t="s">
+    <row r="96" ht="17.55" spans="1:2">
+      <c r="A96" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" ht="16.35" spans="1:2">
-      <c r="A97" s="4" t="s">
+    <row r="97" ht="17.55" spans="1:2">
+      <c r="A97" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" ht="16.35" spans="1:2">
-      <c r="A98" s="4" t="s">
+    <row r="98" ht="17.55" spans="1:2">
+      <c r="A98" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" ht="16.35" spans="1:2">
-      <c r="A99" s="4" t="s">
+    <row r="99" ht="17.55" spans="1:2">
+      <c r="A99" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" ht="16.35" spans="1:2">
-      <c r="A100" s="4" t="s">
+    <row r="100" ht="17.55" spans="1:2">
+      <c r="A100" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" ht="16.35" spans="1:2">
-      <c r="A101" s="4" t="s">
+    <row r="101" ht="17.55" spans="1:2">
+      <c r="A101" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" ht="16.35" spans="1:2">
-      <c r="A102" s="4" t="s">
+    <row r="102" ht="17.55" spans="1:2">
+      <c r="A102" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" ht="16.35" spans="1:2">
-      <c r="A103" s="4" t="s">
+    <row r="103" ht="17.55" spans="1:2">
+      <c r="A103" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" ht="16.35" spans="1:2">
-      <c r="A104" s="4" t="s">
+    <row r="104" ht="17.55" spans="1:2">
+      <c r="A104" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105" ht="16.35" spans="1:2">
-      <c r="A105" s="4" t="s">
+    <row r="105" ht="17.55" spans="1:2">
+      <c r="A105" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" ht="16.35" spans="1:2">
-      <c r="A106" s="4" t="s">
+    <row r="106" ht="17.55" spans="1:2">
+      <c r="A106" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" ht="16.35" spans="1:2">
-      <c r="A107" s="4" t="s">
+    <row r="107" ht="17.55" spans="1:2">
+      <c r="A107" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="108" ht="16.35" spans="1:2">
-      <c r="A108" s="4" t="s">
+    <row r="108" ht="17.55" spans="1:2">
+      <c r="A108" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="109" ht="16.35" spans="1:2">
-      <c r="A109" s="4" t="s">
+    <row r="109" ht="17.55" spans="1:2">
+      <c r="A109" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="110" ht="16.35" spans="1:2">
-      <c r="A110" s="4" t="s">
+    <row r="110" ht="17.55" spans="1:2">
+      <c r="A110" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" ht="16.35" spans="1:2">
-      <c r="A111" s="4" t="s">
+    <row r="111" ht="17.55" spans="1:2">
+      <c r="A111" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="112" ht="31.95" spans="1:2">
-      <c r="A112" s="4" t="s">
+    <row r="112" ht="34.35" spans="1:2">
+      <c r="A112" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" ht="16.35" spans="1:2">
-      <c r="A113" s="4" t="s">
+    <row r="113" ht="17.55" spans="1:2">
+      <c r="A113" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" ht="16.35" spans="1:2">
-      <c r="A114" s="4" t="s">
+    <row r="114" ht="17.55" spans="1:2">
+      <c r="A114" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" ht="16.35" spans="1:2">
-      <c r="A115" s="4" t="s">
+    <row r="115" ht="17.55" spans="1:2">
+      <c r="A115" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" ht="16.35" spans="1:2">
-      <c r="A116" s="4" t="s">
+    <row r="116" ht="17.55" spans="1:2">
+      <c r="A116" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="117" ht="16.35" spans="1:2">
-      <c r="A117" s="4" t="s">
+    <row r="117" ht="34.35" spans="1:2">
+      <c r="A117" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="118" ht="16.35" spans="1:2">
-      <c r="A118" s="4" t="s">
+    <row r="118" ht="17.55" spans="1:2">
+      <c r="A118" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="119" ht="16.35" spans="1:2">
-      <c r="A119" s="4" t="s">
+    <row r="119" ht="17.55" spans="1:2">
+      <c r="A119" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="120" ht="16.35" spans="1:2">
-      <c r="A120" s="4" t="s">
+    <row r="120" ht="17.55" spans="1:2">
+      <c r="A120" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="121" ht="16.35" spans="1:2">
-      <c r="A121" s="4" t="s">
+    <row r="121" ht="17.55" spans="1:2">
+      <c r="A121" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" ht="16.35" spans="1:2">
-      <c r="A122" s="4" t="s">
+    <row r="122" ht="17.55" spans="1:2">
+      <c r="A122" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="6" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="143" ht="16.35" spans="1:2">
-      <c r="A143" s="4" t="s">
+    <row r="143" ht="17.55" spans="1:2">
+      <c r="A143" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="144" ht="16.35" spans="1:2">
-      <c r="A144" s="4" t="s">
+    <row r="144" ht="17.55" spans="1:2">
+      <c r="A144" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="145" ht="16.35" spans="1:2">
-      <c r="A145" s="4" t="s">
+    <row r="145" ht="17.55" spans="1:2">
+      <c r="A145" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="146" ht="16.35" spans="1:2">
-      <c r="A146" s="4" t="s">
+    <row r="146" ht="17.55" spans="1:2">
+      <c r="A146" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="147" ht="16.35" spans="1:2">
-      <c r="A147" s="4" t="s">
+    <row r="147" ht="17.55" spans="1:2">
+      <c r="A147" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="148" ht="16.35" spans="1:2">
-      <c r="A148" s="4" t="s">
+    <row r="148" ht="34.35" spans="1:2">
+      <c r="A148" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="149" ht="16.35" spans="1:2">
-      <c r="A149" s="4" t="s">
+    <row r="149" ht="17.55" spans="1:2">
+      <c r="A149" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="150" ht="16.35" spans="1:2">
-      <c r="A150" s="4" t="s">
+    <row r="150" ht="17.55" spans="1:2">
+      <c r="A150" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="151" ht="16.35" spans="1:2">
-      <c r="A151" s="4" t="s">
+    <row r="151" ht="17.55" spans="1:2">
+      <c r="A151" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="152" ht="16.35" spans="1:2">
-      <c r="A152" s="4" t="s">
+    <row r="152" ht="17.55" spans="1:2">
+      <c r="A152" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="8" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="153" ht="16.35" spans="1:2">
-      <c r="A153" s="4" t="s">
+    <row r="153" ht="17.55" spans="1:2">
+      <c r="A153" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="154" ht="16.35" spans="1:2">
-      <c r="A154" s="4" t="s">
+    <row r="154" ht="17.55" spans="1:2">
+      <c r="A154" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="155" ht="16.35" spans="1:2">
-      <c r="A155" s="4" t="s">
+    <row r="155" ht="17.55" spans="1:2">
+      <c r="A155" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="156" ht="16.35" spans="1:2">
-      <c r="A156" s="4" t="s">
+    <row r="156" ht="17.55" spans="1:2">
+      <c r="A156" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="157" ht="16.35" spans="1:2">
-      <c r="A157" s="4" t="s">
+    <row r="157" ht="17.55" spans="1:2">
+      <c r="A157" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="8" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="158" ht="16.35" spans="1:2">
-      <c r="A158" s="4" t="s">
+    <row r="158" ht="17.55" spans="1:2">
+      <c r="A158" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="159" ht="16.35" spans="1:2">
-      <c r="A159" s="4" t="s">
+    <row r="159" ht="17.55" spans="1:2">
+      <c r="A159" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="8" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="160" ht="16.35" spans="1:2">
-      <c r="A160" s="4" t="s">
+    <row r="160" ht="17.55" spans="1:2">
+      <c r="A160" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="161" ht="31.95" spans="1:2">
-      <c r="A161" s="4" t="s">
+    <row r="161" ht="34.35" spans="1:2">
+      <c r="A161" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="6" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="6" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="4" t="s">
+    <row r="166" ht="33.6" spans="1:2">
+      <c r="A166" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="6" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="6" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="6" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="6" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="6" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="6" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="176" ht="62.4" spans="1:2">
-      <c r="A176" s="4" t="s">
+    <row r="176" ht="67.2" spans="1:2">
+      <c r="A176" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="177" ht="31.2" spans="1:2">
-      <c r="A177" s="4" t="s">
+    <row r="177" ht="33.6" spans="1:2">
+      <c r="A177" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="6" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="6" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="180" ht="46.8" spans="1:2">
-      <c r="A180" s="4" t="s">
+    <row r="180" ht="50.4" spans="1:2">
+      <c r="A180" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="6" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="6" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="6" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="184" ht="31.2" spans="1:2">
-      <c r="A184" s="4" t="s">
+    <row r="184" ht="33.6" spans="1:2">
+      <c r="A184" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="6" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="186" ht="31.2" spans="1:2">
-      <c r="A186" s="4" t="s">
+    <row r="186" ht="33.6" spans="1:2">
+      <c r="A186" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="6" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="188" ht="31.2" spans="1:2">
-      <c r="A188" s="4" t="s">
+    <row r="188" ht="33.6" spans="1:2">
+      <c r="A188" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="6" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="6" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="6" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="6" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="6" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="6" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="6" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="6" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="197" ht="31.2" spans="1:2">
-      <c r="A197" s="4" t="s">
+    <row r="197" ht="33.6" spans="1:2">
+      <c r="A197" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="4" t="s">
+    <row r="198" ht="33.6" spans="1:2">
+      <c r="A198" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="6" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="6" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="201" ht="31.2" spans="1:2">
-      <c r="A201" s="4" t="s">
+    <row r="201" ht="33.6" spans="1:2">
+      <c r="A201" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="202" ht="62.4" spans="1:2">
-      <c r="A202" s="4" t="s">
+    <row r="202" ht="67.2" spans="1:2">
+      <c r="A202" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="203" ht="46.8" spans="1:2">
-      <c r="A203" s="4" t="s">
+    <row r="203" ht="50.4" spans="1:2">
+      <c r="A203" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="6" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="6" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="206" ht="46.8" spans="1:2">
-      <c r="A206" s="4" t="s">
+    <row r="206" ht="50.4" spans="1:2">
+      <c r="A206" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="207" ht="46.8" spans="1:2">
-      <c r="A207" s="4" t="s">
+    <row r="207" ht="50.4" spans="1:2">
+      <c r="A207" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="208" ht="31.2" spans="1:2">
-      <c r="A208" s="4" t="s">
+    <row r="208" ht="33.6" spans="1:2">
+      <c r="A208" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="6" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="6" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="6" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="6" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="6" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="6" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="6" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="216" ht="62.4" spans="1:2">
-      <c r="A216" s="4" t="s">
+    <row r="216" ht="67.2" spans="1:2">
+      <c r="A216" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="217" ht="62.4" spans="1:2">
-      <c r="A217" s="4" t="s">
+    <row r="217" ht="67.2" spans="1:2">
+      <c r="A217" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="6" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="B218" s="7"/>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="7" t="s">
+      <c r="B218" s="9"/>
+    </row>
+    <row r="219" ht="33.6" spans="1:2">
+      <c r="A219" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="9" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B220" s="9" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="222" ht="31.2" spans="1:2">
-      <c r="A222" s="7" t="s">
+    <row r="222" ht="33.6" spans="1:2">
+      <c r="A222" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="9" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="223" ht="62.4" spans="1:2">
-      <c r="A223" s="7" t="s">
+    <row r="223" ht="67.2" spans="1:2">
+      <c r="A223" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="9" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B224" s="8"/>
-    </row>
-    <row r="225" ht="31.2" spans="1:2">
-      <c r="A225" s="8" t="s">
+      <c r="B224" s="10"/>
+    </row>
+    <row r="225" ht="33.6" spans="1:2">
+      <c r="A225" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="10" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="226" ht="31.2" spans="1:2">
-      <c r="A226" s="8" t="s">
+    <row r="226" ht="33.6" spans="1:2">
+      <c r="A226" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="10" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="10" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="228" ht="46.8" spans="1:2">
-      <c r="A228" s="8" t="s">
+    <row r="228" ht="50.4" spans="1:2">
+      <c r="A228" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="229" ht="62.4" spans="1:2">
-      <c r="A229" s="8" t="s">
+    <row r="229" ht="84" spans="1:2">
+      <c r="A229" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="230" ht="46.8" spans="1:2">
-      <c r="A230" s="4" t="s">
+    <row r="230" ht="50.4" spans="1:2">
+      <c r="A230" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="6" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="232" ht="31.2" spans="1:2">
-      <c r="A232" s="4" t="s">
+    <row r="232" ht="33.6" spans="1:2">
+      <c r="A232" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="233" ht="31.2" spans="1:2">
-      <c r="A233" s="4" t="s">
+    <row r="233" ht="50.4" spans="1:2">
+      <c r="A233" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="234" ht="46.8" spans="1:2">
-      <c r="A234" s="4" t="s">
+    <row r="234" ht="50.4" spans="1:2">
+      <c r="A234" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="235" ht="31.2" spans="1:2">
-      <c r="A235" s="4" t="s">
+    <row r="235" ht="33.6" spans="1:2">
+      <c r="A235" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="6" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="237" ht="31.2" spans="1:2">
-      <c r="A237" s="4" t="s">
+    <row r="237" ht="50.4" spans="1:2">
+      <c r="A237" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="238" ht="31.2" spans="1:2">
-      <c r="A238" s="4" t="s">
+    <row r="238" ht="33.6" spans="1:2">
+      <c r="A238" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="6" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="6" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="6" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="4" t="s">
+    <row r="241" ht="33.6" spans="1:2">
+      <c r="A241" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="6" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="242" ht="46.8" spans="1:2">
-      <c r="A242" s="4" t="s">
+    <row r="242" ht="50.4" spans="1:2">
+      <c r="A242" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="6" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="6" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="6" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="6" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="6" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="6" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="6" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="6" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="6" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="6" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="6" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="6" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="255" ht="46.8" spans="1:2">
-      <c r="A255" s="4" t="s">
+    <row r="255" ht="50.4" spans="1:2">
+      <c r="A255" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="6" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="6" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="6" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="6" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="6" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="260" ht="46.8" spans="1:2">
-      <c r="A260" s="4" t="s">
+    <row r="260" ht="50.4" spans="1:2">
+      <c r="A260" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="6" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="261" ht="62.4" spans="1:2">
-      <c r="A261" s="4" t="s">
+    <row r="261" ht="67.2" spans="1:2">
+      <c r="A261" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="6" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="262" ht="46.8" spans="1:2">
-      <c r="A262" s="4" t="s">
+    <row r="262" ht="67.2" spans="1:2">
+      <c r="A262" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="6" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="263" ht="46.8" spans="1:2">
-      <c r="A263" s="4" t="s">
+    <row r="263" ht="50.4" spans="1:2">
+      <c r="A263" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="6" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="6" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="265" ht="46.8" spans="1:2">
-      <c r="A265" s="4" t="s">
+    <row r="265" ht="50.4" spans="1:2">
+      <c r="A265" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="6" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="266" ht="31.2" spans="1:2">
-      <c r="A266" s="4" t="s">
+    <row r="266" ht="33.6" spans="1:2">
+      <c r="A266" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="6" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="267" ht="31.2" spans="1:2">
-      <c r="A267" s="4" t="s">
+    <row r="267" ht="33.6" spans="1:2">
+      <c r="A267" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="6" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="4" t="s">
+    <row r="268" ht="33.6" spans="1:2">
+      <c r="A268" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="6" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="269" ht="31.2" spans="1:2">
-      <c r="A269" s="4" t="s">
+    <row r="269" ht="33.6" spans="1:2">
+      <c r="A269" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="6" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="270" ht="31.2" spans="1:2">
-      <c r="A270" s="4" t="s">
+    <row r="270" ht="33.6" spans="1:2">
+      <c r="A270" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="6" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="6" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="6" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="6" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="6" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="6" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="6" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="277" ht="31.2" spans="1:2">
-      <c r="A277" s="4" t="s">
+    <row r="277" ht="33.6" spans="1:2">
+      <c r="A277" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" s="6" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" s="6" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="4" t="s">
+      <c r="A279" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="6" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="280" ht="46.8" spans="1:2">
-      <c r="A280" s="4" t="s">
+    <row r="280" ht="50.4" spans="1:2">
+      <c r="A280" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="281" ht="62.4" spans="1:2">
-      <c r="A281" s="4" t="s">
+    <row r="281" ht="67.2" spans="1:2">
+      <c r="A281" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="282" ht="46.8" spans="1:2">
-      <c r="A282" s="4" t="s">
+    <row r="282" ht="50.4" spans="1:2">
+      <c r="A282" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" s="6" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="283" ht="31.2" spans="1:2">
-      <c r="A283" s="4" t="s">
+    <row r="283" ht="50.4" spans="1:2">
+      <c r="A283" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" s="6" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="284" ht="62.4" spans="1:2">
-      <c r="A284" s="4" t="s">
+    <row r="284" ht="67.2" spans="1:2">
+      <c r="A284" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" s="6" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="285" ht="31.2" spans="1:2">
-      <c r="A285" s="4" t="s">
+    <row r="285" ht="33.6" spans="1:2">
+      <c r="A285" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" s="6" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="286" ht="46.8" spans="1:2">
-      <c r="A286" s="4" t="s">
+    <row r="286" ht="50.4" spans="1:2">
+      <c r="A286" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="287" ht="62.4" spans="1:2">
-      <c r="A287" s="4" t="s">
+    <row r="287" ht="67.2" spans="1:2">
+      <c r="A287" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" s="6" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" s="6" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" s="6" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" s="6" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="4" t="s">
+      <c r="A291" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" s="6" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="4" t="s">
+      <c r="A292" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" s="6" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="4" t="s">
+    <row r="293" ht="33.6" spans="1:2">
+      <c r="A293" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" s="6" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="4" t="s">
+      <c r="A294" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" s="6" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="4" t="s">
+      <c r="A295" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" s="6" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" s="6" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" s="6" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" s="6" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="299" ht="31.2" spans="1:2">
-      <c r="A299" s="4" t="s">
+    <row r="299" ht="33.6" spans="1:2">
+      <c r="A299" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B299" s="6" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="4" t="s">
+      <c r="A300" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" s="6" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" s="6" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="4" t="s">
+      <c r="A302" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" s="6" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="4" t="s">
+      <c r="A303" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" s="6" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="4" t="s">
+      <c r="A304" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" s="6" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="4" t="s">
+      <c r="A305" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" s="6" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="4" t="s">
+      <c r="A306" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" s="6" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="4" t="s">
+      <c r="A307" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" s="6" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="4" t="s">
+      <c r="A308" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" s="6" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" s="6" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="4" t="s">
+      <c r="A310" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B310" s="6" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="4" t="s">
+      <c r="A311" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B311" s="6" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="4" t="s">
+      <c r="A312" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B312" s="6" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="4" t="s">
+      <c r="A313" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" s="6" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="4" t="s">
+      <c r="A314" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="4" t="s">
+    <row r="315" ht="33.6" spans="1:2">
+      <c r="A315" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" s="6" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="4" t="s">
+      <c r="A316" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="B316" s="6" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="4" t="s">
+      <c r="A317" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B317" s="6" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="4" t="s">
+      <c r="A318" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B318" s="6" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="4" t="s">
+      <c r="A319" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B319" s="6" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="4" t="s">
+      <c r="A320" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" s="6" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="4" t="s">
+      <c r="A321" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B321" s="6" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="4" t="s">
+      <c r="A322" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B322" s="6" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" s="6" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="4" t="s">
+      <c r="A324" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="B324" s="6" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="4" t="s">
+      <c r="A325" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" s="6" t="s">
         <v>647</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="334" ht="33.6" spans="1:2">
+      <c r="A334" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="339" ht="50.4" spans="1:2">
+      <c r="A339" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="341" ht="33.6" spans="1:2">
+      <c r="A341" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="342" ht="50.4" spans="1:2">
+      <c r="A342" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="343" ht="84" spans="1:2">
+      <c r="A343" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="344" ht="100.8" spans="1:2">
+      <c r="A344" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="345" ht="67.2" spans="1:2">
+      <c r="A345" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="346" ht="67.2" spans="1:2">
+      <c r="A346" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="347" ht="84" spans="1:2">
+      <c r="A347" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="348" ht="67.2" spans="1:2">
+      <c r="A348" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="349" ht="100.8" spans="1:2">
+      <c r="A349" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="350" ht="67.2" spans="1:2">
+      <c r="A350" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="351" ht="67.2" spans="1:2">
+      <c r="A351" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="352" ht="50.4" spans="1:2">
+      <c r="A352" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="353" ht="33.6" spans="1:2">
+      <c r="A353" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="354" ht="67.2" spans="1:2">
+      <c r="A354" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="355" ht="67.2" spans="1:2">
+      <c r="A355" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="357" ht="117.6" spans="1:2">
+      <c r="A357" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="358" ht="100.8" spans="1:2">
+      <c r="A358" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="359" ht="50.4" spans="1:2">
+      <c r="A359" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="360" ht="117.6" spans="1:2">
+      <c r="A360" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="364" ht="33.6" spans="1:2">
+      <c r="A364" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="367" ht="33.6" spans="1:2">
+      <c r="A367" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="369" ht="33.6" spans="1:2">
+      <c r="A369" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="374" ht="33.6" spans="1:2">
+      <c r="A374" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="376" ht="33.6" spans="1:2">
+      <c r="A376" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="378" ht="33.6" spans="1:2">
+      <c r="A378" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="383" ht="33.6" spans="1:2">
+      <c r="A383" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="386" ht="33.6" spans="1:2">
+      <c r="A386" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="390" ht="33.6" spans="1:2">
+      <c r="A390" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="392" ht="33.6" spans="1:2">
+      <c r="A392" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="398" ht="117.6" spans="1:2">
+      <c r="A398" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="400" ht="33.6" spans="1:2">
+      <c r="A400" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="406" ht="33.6" spans="1:2">
+      <c r="A406" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="412" ht="33.6" spans="1:2">
+      <c r="A412" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="413" ht="33.6" spans="1:2">
+      <c r="A413" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="421" ht="33.6" spans="1:2">
+      <c r="A421" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="422" ht="50.4" spans="1:2">
+      <c r="A422" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="423" ht="134.4" spans="1:2">
+      <c r="A423" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="425" ht="33.6" spans="1:2">
+      <c r="A425" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="426" ht="50.4" spans="1:2">
+      <c r="A426" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="427" ht="50.4" spans="1:2">
+      <c r="A427" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="428" ht="117.6" spans="1:2">
+      <c r="A428" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="429" ht="117.6" spans="1:2">
+      <c r="A429" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="430" ht="84" spans="1:2">
+      <c r="A430" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="431" ht="50.4" spans="1:2">
+      <c r="A431" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="432" ht="84" spans="1:2">
+      <c r="A432" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="436" ht="50.4" spans="1:2">
+      <c r="A436" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="437" ht="84" spans="1:2">
+      <c r="A437" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="438" ht="50.4" spans="1:2">
+      <c r="A438" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="439" ht="67.2" spans="1:2">
+      <c r="A439" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="440" ht="84" spans="1:2">
+      <c r="A440" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="441" ht="33.6" spans="1:2">
+      <c r="A441" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="442" ht="50.4" spans="1:2">
+      <c r="A442" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="443" ht="33.6" spans="1:2">
+      <c r="A443" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="444" ht="50.4" spans="1:2">
+      <c r="A444" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="445" ht="67.2" spans="1:2">
+      <c r="A445" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="446" ht="67.2" spans="1:2">
+      <c r="A446" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="447" ht="67.2" spans="1:2">
+      <c r="A447" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="448" ht="67.2" spans="1:2">
+      <c r="A448" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="449" ht="84" spans="1:2">
+      <c r="A449" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="450" ht="50.4" spans="1:2">
+      <c r="A450" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="451" ht="50.4" spans="1:2">
+      <c r="A451" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="454" ht="33.6" spans="1:2">
+      <c r="A454" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="457" ht="33.6" spans="1:2">
+      <c r="A457" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="458" ht="50.4" spans="1:2">
+      <c r="A458" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="459" ht="67.2" spans="1:2">
+      <c r="A459" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="466" ht="33.6" spans="1:2">
+      <c r="A466" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="467" ht="33.6" spans="1:2">
+      <c r="A467" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="470" ht="33.6" spans="1:2">
+      <c r="A470" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="473" ht="50.4" spans="1:2">
+      <c r="A473" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="474" ht="84" spans="1:2">
+      <c r="A474" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="475" ht="33.6" spans="1:2">
+      <c r="A475" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="479" ht="41" customHeight="1" spans="1:2">
+      <c r="A479" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="483" ht="67.2" spans="1:2">
+      <c r="A483" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="484" ht="67.2" spans="1:2">
+      <c r="A484" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="485" ht="84" spans="1:2">
+      <c r="A485" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="486" ht="67.2" spans="1:2">
+      <c r="A486" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="487" ht="84" spans="1:2">
+      <c r="A487" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="488" ht="33.6" spans="1:2">
+      <c r="A488" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="489" ht="67.2" spans="1:2">
+      <c r="A489" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="490" ht="50.4" spans="1:2">
+      <c r="A490" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="491" ht="67.2" spans="1:2">
+      <c r="A491" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="494" ht="33.6" spans="1:2">
+      <c r="A494" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="B494" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="B496" s="6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="498" ht="50.4" spans="1:2">
+      <c r="A498" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="500" ht="33.6" spans="1:2">
+      <c r="A500" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B501" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="B502" s="6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="503" ht="117.6" spans="1:2">
+      <c r="A503" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="505" ht="33.6" spans="1:2">
+      <c r="A505" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B506" s="6" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B508" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="512" ht="67.2" spans="1:2">
+      <c r="A512" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="513" ht="33.6" spans="1:2">
+      <c r="A513" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -5642,7 +8295,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="20.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88888888888889" style="1"/>
@@ -5672,7 +8325,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="20.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88888888888889" style="1"/>
@@ -5702,7 +8355,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="20.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88888888888889" style="1"/>
@@ -5725,25 +8378,28 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="20.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="2" width="20.4444444444444" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="9" ht="16.8" spans="4:4">
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5760,7 +8416,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="20.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88888888888889" style="1"/>

--- a/BEC/05-词汇相关/BEC词汇随身记.xlsx
+++ b/BEC/05-词汇相关/BEC词汇随身记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9635" windowHeight="9155" tabRatio="820"/>
+    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="词汇汇总" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="1488">
   <si>
     <t>英语</t>
   </si>
@@ -3095,6 +3095,1405 @@
   </si>
   <si>
     <t>达美乐比萨店(美式比萨连锁店)</t>
+  </si>
+  <si>
+    <t>credit rating</t>
+  </si>
+  <si>
+    <t>信用度，信用评级</t>
+  </si>
+  <si>
+    <t>franchise agreement</t>
+  </si>
+  <si>
+    <t>特许经营</t>
+  </si>
+  <si>
+    <t>franchise fee</t>
+  </si>
+  <si>
+    <t>特许证费用</t>
+  </si>
+  <si>
+    <t>well-established</t>
+  </si>
+  <si>
+    <t>adj.公认的，知名的</t>
+  </si>
+  <si>
+    <t>financial assistance</t>
+  </si>
+  <si>
+    <t>金融支持</t>
+  </si>
+  <si>
+    <t>As a sole trader, you are independent; you are your own boss.</t>
+  </si>
+  <si>
+    <t>作为独立经销者，你做事独立自主，你是自己的老板。</t>
+  </si>
+  <si>
+    <t>As a franchise, your promotional activities, financial records, hiring, service procedure, etc., are not in complete control of your own.</t>
+  </si>
+  <si>
+    <t>作为被特许的经销者，你无法完全掌控促销活动、财务记录、员工雇用、产品服务等环节。</t>
+  </si>
+  <si>
+    <t>In partnership you share risks and profits with your partner.</t>
+  </si>
+  <si>
+    <t>在合伙经营中你与合伙人风险共担，利益共享。</t>
+  </si>
+  <si>
+    <t>You may disagree with your partner on strategy.</t>
+  </si>
+  <si>
+    <t>在决策方面你与合伙人可能会有分歧。</t>
+  </si>
+  <si>
+    <t>Franchising enables people to both own a business and get help running it.</t>
+  </si>
+  <si>
+    <t>特许经营能够使人们在拥有公司的同时得到如何经营公司的帮助。</t>
+  </si>
+  <si>
+    <t>A well-run franchise organization can provide a person who has never managed a business with guidance.</t>
+  </si>
+  <si>
+    <t>经营良好的特许企业可以给从未拥有或经营过企业的人指引方向。</t>
+  </si>
+  <si>
+    <t>Franchisors can provide a brand name, products or services, and financial assistance.</t>
+  </si>
+  <si>
+    <t>特许企业可以提供品牌、产品或服务，甚至金融支持。</t>
+  </si>
+  <si>
+    <t>Franchisees have to pay franchise fees and they lose some independence.</t>
+  </si>
+  <si>
+    <t>加盟者必须支持特许证费而且会丧失一定的独立性。</t>
+  </si>
+  <si>
+    <t>Sometimes the training programs provided by the franchisors are weak - too brief and staffed by trainers who do not have instructional skill.</t>
+  </si>
+  <si>
+    <t>有时特许经营者提供的培训课程收效甚微：太简短，而且选派的培训者缺乏授课技巧。</t>
+  </si>
+  <si>
+    <t>the most entrepreneurial / massively entrepreneurial</t>
+  </si>
+  <si>
+    <t>极具企业家精神的，极具开拓进取精神的</t>
+  </si>
+  <si>
+    <t>branch out into franchising</t>
+  </si>
+  <si>
+    <t>从总店分离出去，另立门户，发展特许经营店</t>
+  </si>
+  <si>
+    <t>to launch new franchises</t>
+  </si>
+  <si>
+    <t>发展新的特许经营店</t>
+  </si>
+  <si>
+    <t>stretch entrepreneurial wings</t>
+  </si>
+  <si>
+    <t>让企业家大展身手</t>
+  </si>
+  <si>
+    <t>launch a company / set up a company</t>
+  </si>
+  <si>
+    <t>开办一家公司</t>
+  </si>
+  <si>
+    <t>a huge growth in orders</t>
+  </si>
+  <si>
+    <t>订单大幅增长</t>
+  </si>
+  <si>
+    <t>secure tags which travelers attach to their luggage</t>
+  </si>
+  <si>
+    <t>旅行者贴在行李上的安全标签
+secure 安全的
+例如：Please make the window secure before you leave. 离开前把窗户关牢。</t>
+  </si>
+  <si>
+    <t>log on to</t>
+  </si>
+  <si>
+    <t>登录，上网
+log on to the internet without cables 无线上网
+Anyone can log on to the computer. 任何人都可以登陆这台计算机。</t>
+  </si>
+  <si>
+    <t>Security are opening the room at three.</t>
+  </si>
+  <si>
+    <t>保安三点开门。</t>
+  </si>
+  <si>
+    <t>Yes, the buffet won't be setting up until four thirty.</t>
+  </si>
+  <si>
+    <t>冷餐会直到四点三十分钟才摆设好。</t>
+  </si>
+  <si>
+    <t>I'll get there at four and I don't think anyone will be arriving before five.</t>
+  </si>
+  <si>
+    <t>我四点到达那里，我想没有人会在五点之前到达。</t>
+  </si>
+  <si>
+    <t>According to my records, we have twelve.</t>
+  </si>
+  <si>
+    <t>根据我的记录，我们有12名客人。</t>
+  </si>
+  <si>
+    <t>seccurity</t>
+  </si>
+  <si>
+    <t>n.保安，安全</t>
+  </si>
+  <si>
+    <t>set up the buffet</t>
+  </si>
+  <si>
+    <t>把自助餐准备好</t>
+  </si>
+  <si>
+    <t>voicemail</t>
+  </si>
+  <si>
+    <t>n.语音信箱</t>
+  </si>
+  <si>
+    <t>training event</t>
+  </si>
+  <si>
+    <t>培训活动</t>
+  </si>
+  <si>
+    <t>I remember you said that you had some computer courses planned. Anyway, send me details on those and anything else you have coming up.</t>
+  </si>
+  <si>
+    <t>我记得你说过，你请人计划了一些计算机课程。不管如何，把那些详情以及其他你能找到的信息寄来给我。</t>
+  </si>
+  <si>
+    <t>The reason I'm calling is that I have a booking for next week's business breakfast meeting. I'm afraid I won't be able to attend but I would like to come to next month's instead.</t>
+  </si>
+  <si>
+    <t>我打电话的原因是我订了下星期的商务早餐会。我恐怕不能参加了，但我想改为参加下个月的商务早餐会。</t>
+  </si>
+  <si>
+    <t>I've just received the schedule for the day and it appears that I am speaking at nine thirty. That isn't what I agreed with you. We said I would be at eleven and that I would have ninety minutes not one hour.</t>
+  </si>
+  <si>
+    <t>我刚刚收到那一天的时间安排，上面写着我将九点半发言。我们当初谈定的不是这个时间。我们约定我将在是一点发言，时间长度是90分钟而不是一个小时。</t>
+  </si>
+  <si>
+    <t>I'm returning your call about having the building open on Sunday. I'm just calling to say that's fine.</t>
+  </si>
+  <si>
+    <t>说话者的意思是“你的来电中曾询问周日大楼开放之事。我回电话是告诉你没问题”。</t>
+  </si>
+  <si>
+    <t>Just a minute. I'll get a pen.</t>
+  </si>
+  <si>
+    <t>请等一下，我拿支笔。</t>
+  </si>
+  <si>
+    <t>I'll let him know, Mr.Brown.</t>
+  </si>
+  <si>
+    <t>我会转告他的，布朗先生。</t>
+  </si>
+  <si>
+    <t>No. I really need to talk to him personally.</t>
+  </si>
+  <si>
+    <t>不，我真的需要亲自跟他说。</t>
+  </si>
+  <si>
+    <t>Would you like to leave a message on his voicemail, then?</t>
+  </si>
+  <si>
+    <t>那您要不要留话在他的语音信箱里？</t>
+  </si>
+  <si>
+    <t>Hold on and I'll transfer you.</t>
+  </si>
+  <si>
+    <t>稍候，我会帮您转接过去。</t>
+  </si>
+  <si>
+    <t>I'm not available to take your call, but please leave your name, number and a brief message.</t>
+  </si>
+  <si>
+    <t>我现在不能接您的电话，但请您留下您的姓名、电话号码和简短留言。</t>
+  </si>
+  <si>
+    <t>Please call me at 556-3243 when you get back.</t>
+  </si>
+  <si>
+    <t>你回来时请打556-3243找我。</t>
+  </si>
+  <si>
+    <t>courier service</t>
+  </si>
+  <si>
+    <t>快递服务公司</t>
+  </si>
+  <si>
+    <t>courier</t>
+  </si>
+  <si>
+    <t>n.快递员，邮件快递公司</t>
+  </si>
+  <si>
+    <t>estate agent's</t>
+  </si>
+  <si>
+    <t>地产经济公司，房产经济公司</t>
+  </si>
+  <si>
+    <t>bed and breakfast</t>
+  </si>
+  <si>
+    <t>住宿加早餐，含早餐的简易旅馆</t>
+  </si>
+  <si>
+    <t>gardening services</t>
+  </si>
+  <si>
+    <t>园艺服务公司</t>
+  </si>
+  <si>
+    <t>dating agency</t>
+  </si>
+  <si>
+    <t>婚姻介绍所</t>
+  </si>
+  <si>
+    <t>double-booked</t>
+  </si>
+  <si>
+    <t>adj.重复预定的，订给某人的由订给其他人了</t>
+  </si>
+  <si>
+    <t>Open University</t>
+  </si>
+  <si>
+    <t>开放大学</t>
+  </si>
+  <si>
+    <t>accountancy</t>
+  </si>
+  <si>
+    <t>n.会计学</t>
+  </si>
+  <si>
+    <t>invigilator</t>
+  </si>
+  <si>
+    <t>n.监考人</t>
+  </si>
+  <si>
+    <t>additional cost</t>
+  </si>
+  <si>
+    <t>额外的费用</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>n.研讨会，讲习班</t>
+  </si>
+  <si>
+    <t>spreadsheet</t>
+  </si>
+  <si>
+    <t>n.电子表格，数据表</t>
+  </si>
+  <si>
+    <t>drop out</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>chamber of commerce</t>
+  </si>
+  <si>
+    <t>商会</t>
+  </si>
+  <si>
+    <t>Basic Accounting</t>
+  </si>
+  <si>
+    <t>会计基础，基础会计学</t>
+  </si>
+  <si>
+    <t>apologetic</t>
+  </si>
+  <si>
+    <t>adj.充满歉意的，道歉的</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>柏林，德国首都，德国最大的城市</t>
+  </si>
+  <si>
+    <t>Routledge</t>
+  </si>
+  <si>
+    <t>劳特里奇(出版社名)</t>
+  </si>
+  <si>
+    <t>word of mouth</t>
+  </si>
+  <si>
+    <t>口碑，口头宣传，口头广告</t>
+  </si>
+  <si>
+    <t>mailshot</t>
+  </si>
+  <si>
+    <t>n.邮寄广告</t>
+  </si>
+  <si>
+    <t>billboard</t>
+  </si>
+  <si>
+    <t>n.布告栏，广告牌</t>
+  </si>
+  <si>
+    <t>spam</t>
+  </si>
+  <si>
+    <t>n.滥发邮件，垃圾邮件</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>n.横幅广告，标语广告</t>
+  </si>
+  <si>
+    <t>newspaper advert</t>
+  </si>
+  <si>
+    <t>报纸广告</t>
+  </si>
+  <si>
+    <t>internet advertising</t>
+  </si>
+  <si>
+    <t>网络广告，互联网广告</t>
+  </si>
+  <si>
+    <t>search engine</t>
+  </si>
+  <si>
+    <t>搜索引擎</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>目标，目的</t>
+  </si>
+  <si>
+    <t>case study</t>
+  </si>
+  <si>
+    <t>案例研究</t>
+  </si>
+  <si>
+    <t>ringtone</t>
+  </si>
+  <si>
+    <t>n.手机铃声</t>
+  </si>
+  <si>
+    <t>in small point</t>
+  </si>
+  <si>
+    <t>用小字</t>
+  </si>
+  <si>
+    <t>graphic</t>
+  </si>
+  <si>
+    <t>n.图形，插图</t>
+  </si>
+  <si>
+    <t>animation</t>
+  </si>
+  <si>
+    <t>n.动画</t>
+  </si>
+  <si>
+    <t>in bold</t>
+  </si>
+  <si>
+    <t>用粗体字</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>n.订购，订阅</t>
+  </si>
+  <si>
+    <t>subscription fee</t>
+  </si>
+  <si>
+    <t>入网费，开通服务费</t>
+  </si>
+  <si>
+    <t>launch a formal investigation</t>
+  </si>
+  <si>
+    <t>展开正式调查</t>
+  </si>
+  <si>
+    <t>soft drink</t>
+  </si>
+  <si>
+    <t>软饮料(不含酒精的饮料)</t>
+  </si>
+  <si>
+    <t>spit out</t>
+  </si>
+  <si>
+    <t>吐出</t>
+  </si>
+  <si>
+    <t>target audience</t>
+  </si>
+  <si>
+    <t>目标观众</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>adj.有机的，天然的</t>
+  </si>
+  <si>
+    <t>yoghurt</t>
+  </si>
+  <si>
+    <t>n.酸奶</t>
+  </si>
+  <si>
+    <t>Shape yoghurt</t>
+  </si>
+  <si>
+    <t>塑身酸奶(指帮助减肥保持身材的酸奶)</t>
+  </si>
+  <si>
+    <t>fat-free</t>
+  </si>
+  <si>
+    <t>adj.脱脂的，不含脂肪的</t>
+  </si>
+  <si>
+    <t>artificial sweetener</t>
+  </si>
+  <si>
+    <t>人工甜味剂</t>
+  </si>
+  <si>
+    <t>preservative</t>
+  </si>
+  <si>
+    <t>n.保鲜剂</t>
+  </si>
+  <si>
+    <t>colorant</t>
+  </si>
+  <si>
+    <t>n.色素</t>
+  </si>
+  <si>
+    <t>additive</t>
+  </si>
+  <si>
+    <t>n.添加剂</t>
+  </si>
+  <si>
+    <t>ingredients list</t>
+  </si>
+  <si>
+    <t>成分清单，成分列表</t>
+  </si>
+  <si>
+    <t>online complaints form</t>
+  </si>
+  <si>
+    <t>网上的投诉表</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>n.促销，推广，晋升</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>n.营销，市场营销</t>
+  </si>
+  <si>
+    <t>promotional gift</t>
+  </si>
+  <si>
+    <t>用于促销的赠品</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>American Standards Association 美国标准协会</t>
+  </si>
+  <si>
+    <t>Association of National Advertising</t>
+  </si>
+  <si>
+    <t>美国广告协会</t>
+  </si>
+  <si>
+    <t>awareness</t>
+  </si>
+  <si>
+    <t>受众意识</t>
+  </si>
+  <si>
+    <t>comprehension</t>
+  </si>
+  <si>
+    <t>易于理解</t>
+  </si>
+  <si>
+    <t>conviction</t>
+  </si>
+  <si>
+    <t>令人信服</t>
+  </si>
+  <si>
+    <t>selling power</t>
+  </si>
+  <si>
+    <t>推销能力</t>
+  </si>
+  <si>
+    <t>memory value</t>
+  </si>
+  <si>
+    <t>(广告)记忆价值</t>
+  </si>
+  <si>
+    <t>attention value</t>
+  </si>
+  <si>
+    <t>注意价值</t>
+  </si>
+  <si>
+    <t>readability</t>
+  </si>
+  <si>
+    <t>可读性</t>
+  </si>
+  <si>
+    <t>do mailshots</t>
+  </si>
+  <si>
+    <t>邮寄广告</t>
+  </si>
+  <si>
+    <t>throw the leaflet away</t>
+  </si>
+  <si>
+    <t>把传单扔掉</t>
+  </si>
+  <si>
+    <t>reach millions of people</t>
+  </si>
+  <si>
+    <t>能够传播到成百上千万受众</t>
+  </si>
+  <si>
+    <t>listen to friends' recommendation</t>
+  </si>
+  <si>
+    <t>听从朋友的推荐</t>
+  </si>
+  <si>
+    <t>find out what is available</t>
+  </si>
+  <si>
+    <t>找找有什么</t>
+  </si>
+  <si>
+    <t>I don't think I even notice them.</t>
+  </si>
+  <si>
+    <t>我觉得自己根本不会注意到他们。</t>
+  </si>
+  <si>
+    <t>anti-virus software</t>
+  </si>
+  <si>
+    <t>杀毒软件</t>
+  </si>
+  <si>
+    <t>to block any spam</t>
+  </si>
+  <si>
+    <t>阻止任何滥发的邮件</t>
+  </si>
+  <si>
+    <t>It's a good idea to spend some useful time and effort on getting your links on other sites.</t>
+  </si>
+  <si>
+    <t>建议花一些时间和经历使你能够与其他网站链接。</t>
+  </si>
+  <si>
+    <t>Email campaigns can work and are an easy way to traffic to the site.</t>
+  </si>
+  <si>
+    <t>电子邮件促销是有效的并能够提高网站的点击率。</t>
+  </si>
+  <si>
+    <t>Never to pay for advertising on the web</t>
+  </si>
+  <si>
+    <t>决不要付钱在网上做广告</t>
+  </si>
+  <si>
+    <t>Then there are contests with prizes or anything free</t>
+  </si>
+  <si>
+    <t>然后还可以举办有奖竞赛或提供免费礼物</t>
+  </si>
+  <si>
+    <t>Further down the page, in the small print, were details of the standard costs for tones, graphics and animations which amounted to £4.50. The daughter only saw '75p each' in bold and didn't realize the offer was a subscription service.</t>
+  </si>
+  <si>
+    <t>该页下方，用小字详细印着配上插图和动画的铃声标准价格，总共4.5英镑。女儿只看到“每款75便士”的粗体字样，没有意识到这个报价值是开通服务费。</t>
+  </si>
+  <si>
+    <t>When Ms A got the yoghurts home, she saw eleven additives on the ingredients list.</t>
+  </si>
+  <si>
+    <t>当A女士把酸奶买回家一看，成分栏里列着11种添加剂。</t>
+  </si>
+  <si>
+    <t>The company said their target audience was sixteen-to 24-year-olds and not younger children. However, the ASA was concerned that young children would see the advert as fun and encourage them to spit.</t>
+  </si>
+  <si>
+    <t>公司辩解称广告的对象是16岁到24岁的青少年而非儿童。然而，广告标准局(ASA)担心儿童看到该则广告，会把它当做鼓励他们乱吐口水的有趣镜头。</t>
+  </si>
+  <si>
+    <t>the advert could only be shown after into nine o'clock in the evening</t>
+  </si>
+  <si>
+    <t>广告只能在晚上九点以后播放</t>
+  </si>
+  <si>
+    <t>vt. &amp; vi. 托付，分派，移交</t>
+  </si>
+  <si>
+    <t>delegator</t>
+  </si>
+  <si>
+    <t>n.托付者，委派者，移交者</t>
+  </si>
+  <si>
+    <t>tailor</t>
+  </si>
+  <si>
+    <t>vt.修改，使合适，使适应</t>
+  </si>
+  <si>
+    <t>bits and pieces</t>
+  </si>
+  <si>
+    <t>零碎</t>
+  </si>
+  <si>
+    <t>ownership</t>
+  </si>
+  <si>
+    <t>n.所有权</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>adj.金融的，财政的</t>
+  </si>
+  <si>
+    <t>psychological</t>
+  </si>
+  <si>
+    <t>a.心理上的，精神上的</t>
+  </si>
+  <si>
+    <t>specify</t>
+  </si>
+  <si>
+    <t>vt.明确说明</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>n.最后期限</t>
+  </si>
+  <si>
+    <t>check up</t>
+  </si>
+  <si>
+    <t>校对，检验，检查，调查</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>n.反馈，反馈意见</t>
+  </si>
+  <si>
+    <t>constructive</t>
+  </si>
+  <si>
+    <t>adj.建设性的</t>
+  </si>
+  <si>
+    <t>criticism</t>
+  </si>
+  <si>
+    <t>n.批评，评论</t>
+  </si>
+  <si>
+    <t>a bad delegator</t>
+  </si>
+  <si>
+    <t>一个不擅分派工作的人</t>
+  </si>
+  <si>
+    <t>stationery</t>
+  </si>
+  <si>
+    <t>n.文具</t>
+  </si>
+  <si>
+    <t>stationary</t>
+  </si>
+  <si>
+    <t>a.不动的，静止的</t>
+  </si>
+  <si>
+    <t>confidential</t>
+  </si>
+  <si>
+    <t>a.保密的，秘密的</t>
+  </si>
+  <si>
+    <t>bad-time-keeper</t>
+  </si>
+  <si>
+    <t>不守时的人</t>
+  </si>
+  <si>
+    <t>local council</t>
+  </si>
+  <si>
+    <t>市政委员会，市议会</t>
+  </si>
+  <si>
+    <t>rota</t>
+  </si>
+  <si>
+    <t>n.值班名册，值班表</t>
+  </si>
+  <si>
+    <t>notice board</t>
+  </si>
+  <si>
+    <t>布告栏</t>
+  </si>
+  <si>
+    <t>post information</t>
+  </si>
+  <si>
+    <t>发布消息</t>
+  </si>
+  <si>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>n.调查表，调查问卷</t>
+  </si>
+  <si>
+    <t>dress code</t>
+  </si>
+  <si>
+    <t>着装要求，着装规定</t>
+  </si>
+  <si>
+    <t>take over</t>
+  </si>
+  <si>
+    <t>接管</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>n.货摊，摊位</t>
+  </si>
+  <si>
+    <t>valid for the next four weeks</t>
+  </si>
+  <si>
+    <t>在未来的四个月内有效</t>
+  </si>
+  <si>
+    <t>run a promotion</t>
+  </si>
+  <si>
+    <t>举办一个促销活动</t>
+  </si>
+  <si>
+    <t>offering you a 20% discount off</t>
+  </si>
+  <si>
+    <t>为你打八折</t>
+  </si>
+  <si>
+    <t>pay in advance</t>
+  </si>
+  <si>
+    <t>预先付款</t>
+  </si>
+  <si>
+    <t>pay in arrears</t>
+  </si>
+  <si>
+    <t>欠款，赊账</t>
+  </si>
+  <si>
+    <t>pay in part</t>
+  </si>
+  <si>
+    <t>部分欠款</t>
+  </si>
+  <si>
+    <t>pay in dollars</t>
+  </si>
+  <si>
+    <t>用美元付款</t>
+  </si>
+  <si>
+    <t>in addition to that...</t>
+  </si>
+  <si>
+    <t>除此之外。。。</t>
+  </si>
+  <si>
+    <t>be garanteed availability of the room size required</t>
+  </si>
+  <si>
+    <t>确保得到所要求房间面积的使用权</t>
+  </si>
+  <si>
+    <t>refundable</t>
+  </si>
+  <si>
+    <t>可以退款</t>
+  </si>
+  <si>
+    <t>We would be delighted if ...</t>
+  </si>
+  <si>
+    <t>如果。。。我们将非常高兴</t>
+  </si>
+  <si>
+    <t>attend a meeting</t>
+  </si>
+  <si>
+    <t>参加会议，出席会议</t>
+  </si>
+  <si>
+    <t>hold a meeting</t>
+  </si>
+  <si>
+    <t>举办会议，开会</t>
+  </si>
+  <si>
+    <t>reach an agreement</t>
+  </si>
+  <si>
+    <t>达成一份协议</t>
+  </si>
+  <si>
+    <t>to scource art</t>
+  </si>
+  <si>
+    <t>(为商务用途)选择艺术装饰品</t>
+  </si>
+  <si>
+    <t>regeneration</t>
+  </si>
+  <si>
+    <t>n.重建，再生</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>n.(尤指商业、贸易等的)部门，领域，行业</t>
+  </si>
+  <si>
+    <t>installation</t>
+  </si>
+  <si>
+    <t>n.安装</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>n.陈述，介绍，针对某一话题进行的发言</t>
+  </si>
+  <si>
+    <t>run a meeting</t>
+  </si>
+  <si>
+    <t>开会，使会议进行下去</t>
+  </si>
+  <si>
+    <t>referral</t>
+  </si>
+  <si>
+    <t>n.推荐人，保荐人</t>
+  </si>
+  <si>
+    <t>specialist knowledge</t>
+  </si>
+  <si>
+    <t>专业知识</t>
+  </si>
+  <si>
+    <t>expertise</t>
+  </si>
+  <si>
+    <t>n.专家意见，专门技术或知识</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>n.美术馆，画廊</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>a.视觉的，可视的</t>
+  </si>
+  <si>
+    <t>reference database</t>
+  </si>
+  <si>
+    <t>n.参考数据库</t>
+  </si>
+  <si>
+    <t>premise</t>
+  </si>
+  <si>
+    <t>n.楼宇，单位，住所</t>
+  </si>
+  <si>
+    <t>direct speech</t>
+  </si>
+  <si>
+    <t>直接引语</t>
+  </si>
+  <si>
+    <t>anecdotal things</t>
+  </si>
+  <si>
+    <t>n.轶事，闲文轶事</t>
+  </si>
+  <si>
+    <t>social norm</t>
+  </si>
+  <si>
+    <t>社会规范</t>
+  </si>
+  <si>
+    <t>goal-oriented</t>
+  </si>
+  <si>
+    <t>adj.目标明确的</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>n.输入的内容(信息、数据等)</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>n.交际</t>
+  </si>
+  <si>
+    <t>office decoration</t>
+  </si>
+  <si>
+    <t>办公室装饰</t>
+  </si>
+  <si>
+    <t>training budget</t>
+  </si>
+  <si>
+    <t>培训预算</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>n.主持，小组的主席</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>n.主办方，主办单位，赞助单位</t>
+  </si>
+  <si>
+    <t>evening buffet</t>
+  </si>
+  <si>
+    <t>自助晚餐</t>
+  </si>
+  <si>
+    <t>International Art Consultants</t>
+  </si>
+  <si>
+    <t>国际艺术顾问公司(总部设在夏威夷，其主要作用是为公司提供一系列会话、雕塑、园艺等作品。)</t>
+  </si>
+  <si>
+    <t>The first stage in selecting art is normally for one of our art consultants to visit you on site to assess the location, the size of the area and the style of the building and so on.</t>
+  </si>
+  <si>
+    <t>第一步要做的事情是请艺术顾问到现场，评估地点、场地大小、建筑的风格等。</t>
+  </si>
+  <si>
+    <t>chairperson</t>
+  </si>
+  <si>
+    <t>n.主席(可兼指男性或女性)</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>n.备忘录</t>
+  </si>
+  <si>
+    <t>minutes of a meeting</t>
+  </si>
+  <si>
+    <t>会议的记录</t>
+  </si>
+  <si>
+    <t>take the minutes</t>
+  </si>
+  <si>
+    <t>作会议记录</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>n.议事日程</t>
+  </si>
+  <si>
+    <t>set the agenda</t>
+  </si>
+  <si>
+    <t>制定议程</t>
+  </si>
+  <si>
+    <t>move on (to the next point)</t>
+  </si>
+  <si>
+    <t>进入(下一点)</t>
+  </si>
+  <si>
+    <t>see somebody's point</t>
+  </si>
+  <si>
+    <t>明白某人的观点</t>
+  </si>
+  <si>
+    <t>go along (with somebody) on the point</t>
+  </si>
+  <si>
+    <t>(正式用语)同意某人的某个观点</t>
+  </si>
+  <si>
+    <t>head of a coin</t>
+  </si>
+  <si>
+    <t>硬币的正面</t>
+  </si>
+  <si>
+    <t>tail of a coin</t>
+  </si>
+  <si>
+    <t>硬币的反面</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>n.筹码</t>
+  </si>
+  <si>
+    <t>abstract art</t>
+  </si>
+  <si>
+    <t>抽象艺术品</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>n.原件，真品</t>
+  </si>
+  <si>
+    <t>in favour of</t>
+  </si>
+  <si>
+    <t>喜欢，偏好</t>
+  </si>
+  <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t>n.雇主，工厂，企业</t>
+  </si>
+  <si>
+    <t>public relations</t>
+  </si>
+  <si>
+    <t>公共关系，公关</t>
+  </si>
+  <si>
+    <t>environmental pressure group</t>
+  </si>
+  <si>
+    <t>环保组织</t>
+  </si>
+  <si>
+    <t>open day</t>
+  </si>
+  <si>
+    <t>开放日</t>
+  </si>
+  <si>
+    <t>joint company</t>
+  </si>
+  <si>
+    <t>联合公司，合作公司，合资公司</t>
+  </si>
+  <si>
+    <t>local press</t>
+  </si>
+  <si>
+    <t>当地媒体，当地报社</t>
+  </si>
+  <si>
+    <t>comply with</t>
+  </si>
+  <si>
+    <t>与。。。一致</t>
+  </si>
+  <si>
+    <t>migraine</t>
+  </si>
+  <si>
+    <t>n.偏头痛</t>
+  </si>
+  <si>
+    <t>body-piercing studio</t>
+  </si>
+  <si>
+    <t>人体穿环工作室(一种从事人体美容的地方)</t>
+  </si>
+  <si>
+    <t>arrange an interview</t>
+  </si>
+  <si>
+    <t>安排会面</t>
+  </si>
+  <si>
+    <t>automated message</t>
+  </si>
+  <si>
+    <t>自动信息</t>
+  </si>
+  <si>
+    <t>lottery</t>
+  </si>
+  <si>
+    <t>彩票</t>
+  </si>
+  <si>
+    <t>win lottery</t>
+  </si>
+  <si>
+    <t>中彩票，中奖</t>
+  </si>
+  <si>
+    <t>car plant</t>
+  </si>
+  <si>
+    <t>汽车制造厂</t>
+  </si>
+  <si>
+    <t>pay off</t>
+  </si>
+  <si>
+    <t>还清欠债，取得成功</t>
+  </si>
+  <si>
+    <t>martgage</t>
+  </si>
+  <si>
+    <t>n.抵押，按揭</t>
+  </si>
+  <si>
+    <t>cutback</t>
+  </si>
+  <si>
+    <t>n.削减，减少</t>
+  </si>
+  <si>
+    <t>discriplinary procedures</t>
+  </si>
+  <si>
+    <t>惩戒程序，纪律程序</t>
+  </si>
+  <si>
+    <t>carry out</t>
+  </si>
+  <si>
+    <t>执行，实行</t>
+  </si>
+  <si>
+    <t>without proper procedure</t>
+  </si>
+  <si>
+    <t>没有正确的程序</t>
+  </si>
+  <si>
+    <t>without pre-warning</t>
+  </si>
+  <si>
+    <t>没有预先警告</t>
+  </si>
+  <si>
+    <t>early retirement</t>
+  </si>
+  <si>
+    <t>提早退休</t>
+  </si>
+  <si>
+    <t>good for one's health</t>
+  </si>
+  <si>
+    <t>对某人的身体健康有益</t>
+  </si>
+  <si>
+    <t>take someone on</t>
+  </si>
+  <si>
+    <t>录用某人</t>
+  </si>
+  <si>
+    <t>雇用</t>
+  </si>
+  <si>
+    <t>recruit</t>
+  </si>
+  <si>
+    <t>招聘，招募</t>
+  </si>
+  <si>
+    <t>employ</t>
+  </si>
+  <si>
+    <t>dismiss</t>
+  </si>
+  <si>
+    <t>解雇</t>
+  </si>
+  <si>
+    <t>sack</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>lay off</t>
+  </si>
+  <si>
+    <t>(临时)解雇</t>
+  </si>
+  <si>
+    <t>make redundant</t>
+  </si>
+  <si>
+    <t>裁员</t>
+  </si>
+  <si>
+    <t>give notice</t>
+  </si>
+  <si>
+    <t>预先通知(解雇、辞职等)</t>
+  </si>
+  <si>
+    <t>resign</t>
+  </si>
+  <si>
+    <t>辞职</t>
+  </si>
+  <si>
+    <t>take voluntary redundancy</t>
+  </si>
+  <si>
+    <t>自愿接受裁退</t>
   </si>
 </sst>
 </file>
@@ -3782,7 +5181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3815,6 +5214,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4164,12 +5566,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:B748"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B515" sqref="B515"/>
+      <selection pane="bottomLeft" activeCell="B750" sqref="B750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -8277,6 +9679,1886 @@
       </c>
       <c r="B513" s="6" t="s">
         <v>1022</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="519" ht="50.4" spans="1:2">
+      <c r="A519" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="520" ht="100.8" spans="1:2">
+      <c r="A520" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="521" ht="50.4" spans="1:2">
+      <c r="A521" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="522" ht="33.6" spans="1:2">
+      <c r="A522" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="523" ht="50.4" spans="1:2">
+      <c r="A523" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="524" ht="84" spans="1:2">
+      <c r="A524" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="525" ht="67.2" spans="1:2">
+      <c r="A525" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="526" ht="50.4" spans="1:2">
+      <c r="A526" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="527" ht="100.8" spans="1:2">
+      <c r="A527" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="528" ht="33.6" spans="1:2">
+      <c r="A528" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="529" ht="33.6" spans="1:2">
+      <c r="A529" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="531" ht="33.6" spans="1:2">
+      <c r="A531" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="532" ht="33.6" spans="1:2">
+      <c r="A532" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="534" ht="100.8" spans="1:2">
+      <c r="A534" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="535" ht="134.4" spans="1:2">
+      <c r="A535" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="536" ht="33.6" spans="1:2">
+      <c r="A536" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="537" ht="50.4" spans="1:2">
+      <c r="A537" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="538" ht="50.4" spans="1:2">
+      <c r="A538" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="539" ht="33.6" spans="1:2">
+      <c r="A539" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B541" s="6" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="544" ht="100.8" spans="1:2">
+      <c r="A544" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="545" ht="134.4" spans="1:2">
+      <c r="A545" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="546" ht="151.2" spans="1:2">
+      <c r="A546" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="547" ht="84" spans="1:2">
+      <c r="A547" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="548" ht="33.6" spans="1:2">
+      <c r="A548" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="549" ht="33.6" spans="1:2">
+      <c r="A549" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="550" ht="33.6" spans="1:2">
+      <c r="A550" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="551" ht="50.4" spans="1:2">
+      <c r="A551" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="552" ht="33.6" spans="1:2">
+      <c r="A552" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="553" ht="67.2" spans="1:2">
+      <c r="A553" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="554" ht="33.6" spans="1:2">
+      <c r="A554" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="558" ht="33.6" spans="1:2">
+      <c r="A558" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="561" ht="33.6" spans="1:2">
+      <c r="A561" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B565" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B566" s="6" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B567" s="6" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B570" s="6" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B571" s="6" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="572" ht="33.6" spans="1:2">
+      <c r="A572" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B574" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B575" s="6" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B576" s="6" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B577" s="6" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B578" s="6" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B579" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B580" s="6" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B581" s="6" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B582" s="6" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B583" s="6" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B586" s="6" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B587" s="6" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="591" ht="33.6" spans="1:2">
+      <c r="A591" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="597" ht="33.6" spans="1:2">
+      <c r="A597" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B598" s="6" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B599" s="6" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B600" s="6" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B601" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B602" s="6" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B603" s="6" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B604" s="6" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B605" s="6" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B606" s="6" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B607" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="608" ht="33.6" spans="1:2">
+      <c r="A608" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B608" s="6" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="609" ht="33.6" spans="1:2">
+      <c r="A609" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B609" s="6" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B610" s="6" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B611" s="6" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B613" s="6" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B614" s="6" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B615" s="6" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B616" s="6" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B617" s="6" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B619" s="6" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="620" ht="33.6" spans="1:2">
+      <c r="A620" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B620" s="6" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B621" s="6" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="622" ht="33.6" spans="1:2">
+      <c r="A622" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B622" s="6" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B623" s="6" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B624" s="6" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="625" ht="67.2" spans="1:2">
+      <c r="A625" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B625" s="6" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="626" ht="50.4" spans="1:2">
+      <c r="A626" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B626" s="6" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="627" ht="33.6" spans="1:2">
+      <c r="A627" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B627" s="6" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="628" ht="50.4" spans="1:2">
+      <c r="A628" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B628" s="6" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="629" ht="168" spans="1:2">
+      <c r="A629" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B629" s="6" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="630" ht="67.2" spans="1:2">
+      <c r="A630" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B630" s="6" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="631" ht="151.2" spans="1:2">
+      <c r="A631" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B631" s="6" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="632" ht="50.4" spans="1:2">
+      <c r="A632" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B632" s="6" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B634" s="6" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B635" s="6" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B636" s="6" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B637" s="6" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B638" s="6" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B639" s="6" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B640" s="6" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B641" s="6" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B642" s="6" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B643" s="6" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B644" s="6" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B645" s="6" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B646" s="6" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B647" s="6" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B648" s="6" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B650" s="6" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B652" s="6" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B653" s="6" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B654" s="6" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B655" s="6" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B656" s="6" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B657" s="6" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B658" s="6" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="659" ht="33.6" spans="1:2">
+      <c r="A659" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B659" s="6" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B660" s="6" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="661" ht="33.6" spans="1:2">
+      <c r="A661" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B661" s="6" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B662" s="6" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B663" s="6" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B664" s="6" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B666" s="6" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="667" ht="33.6" spans="1:2">
+      <c r="A667" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B667" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B668" s="6" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="669" ht="33.6" spans="1:2">
+      <c r="A669" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B669" s="6" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B670" s="6" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B671" s="6" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B673" s="6" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B674" s="6" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="675" ht="33.6" spans="1:2">
+      <c r="A675" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B675" s="6" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B676" s="6" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="677" ht="33.6" spans="1:2">
+      <c r="A677" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B677" s="6" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B678" s="6" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B679" s="6" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B680" s="6" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B681" s="11" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B682" s="6" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B683" s="6" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B684" s="6" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B685" s="6" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B686" s="6" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B688" s="6" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B689" s="6" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B690" s="11" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B693" s="6" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="695" ht="33.6" spans="1:2">
+      <c r="A695" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B695" s="6" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B696" s="6" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="697" ht="67.2" spans="1:2">
+      <c r="A697" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B697" s="6" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="698" ht="134.4" spans="1:2">
+      <c r="A698" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B698" s="6" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B699" s="6" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B700" s="6" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="6" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B701" s="6" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="6" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B702" s="6" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="6" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B703" s="6" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B704" s="6" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="705" ht="33.6" spans="1:2">
+      <c r="A705" s="6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B705" s="6" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B706" s="6" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="707" ht="33.6" spans="1:2">
+      <c r="A707" s="6" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B707" s="6" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B708" s="6" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B709" s="6" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B710" s="6" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B711" s="6" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B712" s="6" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B713" s="6" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B714" s="6" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B715" s="6" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="716" ht="33.6" spans="1:2">
+      <c r="A716" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B716" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="6" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B717" s="6" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="718" ht="33.6" spans="1:2">
+      <c r="A718" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B718" s="6" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B719" s="6" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B720" s="6" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B721" s="6" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="722" ht="33.6" spans="1:2">
+      <c r="A722" s="6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B722" s="6" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B723" s="6" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B724" s="6" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="6" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B725" s="6" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="6" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B726" s="6" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B727" s="6" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B728" s="6" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B729" s="6" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B730" s="6" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="6" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B731" s="6" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B732" s="6" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B733" s="6" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B734" s="6" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B735" s="6" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B736" s="6" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B737" s="6" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B738" s="6" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="6" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B739" s="6" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B740" s="6" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B741" s="6" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B742" s="6" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="6" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B743" s="6" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B744" s="6" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B745" s="6" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B746" s="6" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="6" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B747" s="6" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B748" s="6" t="s">
+        <v>1487</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/05-词汇相关/BEC词汇随身记.xlsx
+++ b/BEC/05-词汇相关/BEC词汇随身记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1829">
   <si>
     <t>英语</t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>手续费，管理费</t>
+  </si>
+  <si>
+    <t>administration staff</t>
+  </si>
+  <si>
+    <t>行政人员，行政管理人员</t>
   </si>
   <si>
     <t>refinance credits</t>
@@ -3208,7 +3214,10 @@
     <t>launch a company / set up a company</t>
   </si>
   <si>
-    <t>开办一家公司</t>
+    <t>开办一家公司
+set up 一般用于具体而非抽象的事物
+establish 表抽象的东西
+establish trust 建立信任</t>
   </si>
   <si>
     <t>a huge growth in orders</t>
@@ -3230,7 +3239,8 @@
   <si>
     <t>登录，上网
 log on to the internet without cables 无线上网
-Anyone can log on to the computer. 任何人都可以登陆这台计算机。</t>
+Anyone can log on to the computer. 任何人都可以登陆这台计算机。
+log on the system 进入系统</t>
   </si>
   <si>
     <t>Security are opening the room at three.</t>
@@ -3395,6 +3405,12 @@
     <t>开放大学</t>
   </si>
   <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>n.会计</t>
+  </si>
+  <si>
     <t>accountancy</t>
   </si>
   <si>
@@ -4494,6 +4510,1031 @@
   </si>
   <si>
     <t>自愿接受裁退</t>
+  </si>
+  <si>
+    <t>The people there were great and I really liked my supervisor but it was too boring.</t>
+  </si>
+  <si>
+    <t>那里的人们很好，我真的很喜欢我的上司但是工作太单调乏味了。</t>
+  </si>
+  <si>
+    <t>unethical</t>
+  </si>
+  <si>
+    <t>不道德的</t>
+  </si>
+  <si>
+    <t>make a final decision</t>
+  </si>
+  <si>
+    <t>做出最终决定</t>
+  </si>
+  <si>
+    <t>the person in question</t>
+  </si>
+  <si>
+    <t>有关人员</t>
+  </si>
+  <si>
+    <t>good communication</t>
+  </si>
+  <si>
+    <t>良好的沟通</t>
+  </si>
+  <si>
+    <t>potential problem</t>
+  </si>
+  <si>
+    <t>潜在的问题</t>
+  </si>
+  <si>
+    <t>reasonable period</t>
+  </si>
+  <si>
+    <t>合理的时间，合理的期限</t>
+  </si>
+  <si>
+    <t>depend upon</t>
+  </si>
+  <si>
+    <t>取决于</t>
+  </si>
+  <si>
+    <t>level of the post</t>
+  </si>
+  <si>
+    <t>职位的高低</t>
+  </si>
+  <si>
+    <t>notice period</t>
+  </si>
+  <si>
+    <t>通知期限，关注期</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>推荐人，介绍人</t>
+  </si>
+  <si>
+    <t>character and personality</t>
+  </si>
+  <si>
+    <t>性格，品格</t>
+  </si>
+  <si>
+    <t>verbal warning</t>
+  </si>
+  <si>
+    <t>口头警告</t>
+  </si>
+  <si>
+    <t>written warning</t>
+  </si>
+  <si>
+    <t>书面警告</t>
+  </si>
+  <si>
+    <t>sexual harassment</t>
+  </si>
+  <si>
+    <t>性骚扰</t>
+  </si>
+  <si>
+    <t>using the Internet for personal use</t>
+  </si>
+  <si>
+    <t>用互联网干私事</t>
+  </si>
+  <si>
+    <t>be honest with somebody</t>
+  </si>
+  <si>
+    <t>对某人诚实守信</t>
+  </si>
+  <si>
+    <t>appropriate</t>
+  </si>
+  <si>
+    <t>合适的，恰当的</t>
+  </si>
+  <si>
+    <t>All letters are placed in this tray for delivery.</t>
+  </si>
+  <si>
+    <t>所有的信件都放在这个盘子里等待寄送。</t>
+  </si>
+  <si>
+    <t>The raw materials are left here for production.</t>
+  </si>
+  <si>
+    <t>原材料留在这里用于生产。</t>
+  </si>
+  <si>
+    <t>It is reported that the figures will be reviewed in a month.</t>
+  </si>
+  <si>
+    <t>据报道这些数字一个月后将得到核查。</t>
+  </si>
+  <si>
+    <t>It was concluded that over half the people questioned wouldn't buy the product.</t>
+  </si>
+  <si>
+    <t>结论是，被问到的人们中有一半将不会购买此产品。</t>
+  </si>
+  <si>
+    <t>She is reported to have said that it was none of his business.</t>
+  </si>
+  <si>
+    <t>据说，她说过着不关经理的事情。</t>
+  </si>
+  <si>
+    <t>The line manager gave her a written warning.</t>
+  </si>
+  <si>
+    <t>部门经理给了她一个书面警告。</t>
+  </si>
+  <si>
+    <t>She was dismissed with immediate effect.</t>
+  </si>
+  <si>
+    <t>她立即就被解雇了。</t>
+  </si>
+  <si>
+    <t>The manager appears to have followed the correct course of action.</t>
+  </si>
+  <si>
+    <t>经理看起来已经遵循了正确的行动程序。</t>
+  </si>
+  <si>
+    <t>This will help to avoid any similar situation.</t>
+  </si>
+  <si>
+    <t>这有助于避免任何类型的情况。</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>vt.发电子邮件</t>
+  </si>
+  <si>
+    <t>inbox</t>
+  </si>
+  <si>
+    <t>n.收件箱</t>
+  </si>
+  <si>
+    <t>check the inbox</t>
+  </si>
+  <si>
+    <t>检查收件箱</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t>n.接收人，收件人</t>
+  </si>
+  <si>
+    <t>CC the email</t>
+  </si>
+  <si>
+    <t>转发邮件</t>
+  </si>
+  <si>
+    <t>in case</t>
+  </si>
+  <si>
+    <t>如果，万一</t>
+  </si>
+  <si>
+    <t>email addict</t>
+  </si>
+  <si>
+    <t>电子邮件狂(指过分频繁收发电子邮件的人)</t>
+  </si>
+  <si>
+    <t>save emails</t>
+  </si>
+  <si>
+    <t>保存电子邮件</t>
+  </si>
+  <si>
+    <t>file email</t>
+  </si>
+  <si>
+    <t>给电子邮件归档</t>
+  </si>
+  <si>
+    <t>delete emials</t>
+  </si>
+  <si>
+    <t>删除邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>subject line</t>
+  </si>
+  <si>
+    <t>主题栏</t>
+  </si>
+  <si>
+    <t>charity</t>
+  </si>
+  <si>
+    <t>n.法庭，裁判机关</t>
+  </si>
+  <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t>n.赔偿，补偿</t>
+  </si>
+  <si>
+    <t>in the loop</t>
+  </si>
+  <si>
+    <t>在圈内</t>
+  </si>
+  <si>
+    <t>fire off</t>
+  </si>
+  <si>
+    <t>发送(信件、电子邮件等)</t>
+  </si>
+  <si>
+    <t>warehouse / storage</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>in trouble</t>
+  </si>
+  <si>
+    <t>处于困境中</t>
+  </si>
+  <si>
+    <t>with regard to ...</t>
+  </si>
+  <si>
+    <t>关于，至于</t>
+  </si>
+  <si>
+    <t>lorry</t>
+  </si>
+  <si>
+    <t>卡车</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>n.现货，存货</t>
+  </si>
+  <si>
+    <t>project development officer</t>
+  </si>
+  <si>
+    <t>项目开发执行官</t>
+  </si>
+  <si>
+    <t>He would like to be a salesman rather than a marketing manager because he likes communicating with customers.</t>
+  </si>
+  <si>
+    <t>他宁可当销售员而不当营销经理，因为他喜欢和顾客交流。</t>
+  </si>
+  <si>
+    <t>prospective employer</t>
+  </si>
+  <si>
+    <t>未来的雇主，可能的雇主</t>
+  </si>
+  <si>
+    <t>to avoid making verbal contact</t>
+  </si>
+  <si>
+    <t>为了避免面谈
+to avoid doing something 避免做某事
+He didn't have breakfast to avoid being late.他为了避免迟到没吃早餐。</t>
+  </si>
+  <si>
+    <t>to gossip about someone</t>
+  </si>
+  <si>
+    <t>说某人的闲话，搬弄某人的是非</t>
+  </si>
+  <si>
+    <t>use email just to gossip about work colleagues</t>
+  </si>
+  <si>
+    <t>使用电子邮件只是为了说同事的闲话</t>
+  </si>
+  <si>
+    <t>it is a safe bet to guess that ...</t>
+  </si>
+  <si>
+    <t>可以大胆地猜测。。。</t>
+  </si>
+  <si>
+    <t>Constant access leads to compulsion to keep the communication going.</t>
+  </si>
+  <si>
+    <t>经常开邮箱导致强迫性地维持邮件交流。
+lead to 导致，造成
+Panic buying leads to shortage of oil in the station. 抢购导致加油站的油慌。</t>
+  </si>
+  <si>
+    <t>Email makes many things so much easier - including making someone redundant.</t>
+  </si>
+  <si>
+    <t>电子邮件使得许多事情变得简单得多——包括裁员。</t>
+  </si>
+  <si>
+    <t>Unable to believe it, the 29-year-old, who had been working as a project development officer with a charity, took the case to a tribunal.</t>
+  </si>
+  <si>
+    <t>她不相信这件事，这个一直为一家慈善机构担任项目发展执行官的29岁员工，把此事告上了仲裁法庭。</t>
+  </si>
+  <si>
+    <t>But these bosses who dismiss workers by email aren't necessarily evil, cowardly people - they're mostly people just like you and me who have developed the habit of using email too much.</t>
+  </si>
+  <si>
+    <t>这些通过电子邮件解聘员工的老板并不一定是邪恶胆小的人，他们大多数是和你我一样养成滥用电子邮件习惯的人。</t>
+  </si>
+  <si>
+    <t>They meet people and exchange email addresses rather than phone numbers.</t>
+  </si>
+  <si>
+    <t>他们会见人们时交换的是电子邮件的地址而不是电话号码。</t>
+  </si>
+  <si>
+    <t>Regardless of the field in which you work, it is a safe bet to guess that your first course of action on any given workday is to log on to your PC and begin checking your inbox.</t>
+  </si>
+  <si>
+    <t>不管你所从事的是什么领域的工作，可以大胆地猜测在你工作日的每一天，第一件事就是登陆计算机开始查收邮箱。</t>
+  </si>
+  <si>
+    <t>You don't want them to read it and the next thing you know you're sending even more emails to try and undo the damage.</t>
+  </si>
+  <si>
+    <t>你想让他们看它，于是你知道下一步就要发出更多的邮件努力为所造成的不变道歉。</t>
+  </si>
+  <si>
+    <t>stress out</t>
+  </si>
+  <si>
+    <t>担忧</t>
+  </si>
+  <si>
+    <t>workaholics</t>
+  </si>
+  <si>
+    <t>n.工作狂</t>
+  </si>
+  <si>
+    <t>joining fee</t>
+  </si>
+  <si>
+    <t>入会费</t>
+  </si>
+  <si>
+    <t>requirement for membership</t>
+  </si>
+  <si>
+    <t>成为会员的要求</t>
+  </si>
+  <si>
+    <t>Dolphin Beach Resort</t>
+  </si>
+  <si>
+    <t>海豚海滩度假中心</t>
+  </si>
+  <si>
+    <t>fighter pilot</t>
+  </si>
+  <si>
+    <t>战斗机飞行员</t>
+  </si>
+  <si>
+    <t>shake off</t>
+  </si>
+  <si>
+    <t>摆脱，甩掉
+shake off its unglamorous image 摆脱其乏味的形象
+shake off responsibility 摆脱责任</t>
+  </si>
+  <si>
+    <t>glamorous</t>
+  </si>
+  <si>
+    <t>adj.耀眼的，光鲜的</t>
+  </si>
+  <si>
+    <t>unglamorous</t>
+  </si>
+  <si>
+    <t>adj.没有魅力的，乏味的</t>
+  </si>
+  <si>
+    <t>unglamorous image</t>
+  </si>
+  <si>
+    <t>单调的形象</t>
+  </si>
+  <si>
+    <t>association with</t>
+  </si>
+  <si>
+    <t>与。。。的联系
+association with something rather dishonest 和某种不诚实守信的因素紧紧相联</t>
+  </si>
+  <si>
+    <t>jolly</t>
+  </si>
+  <si>
+    <t>n.痛快，刺激</t>
+  </si>
+  <si>
+    <t>gamble</t>
+  </si>
+  <si>
+    <t>vi.投机，赌博
+The gamble paid off. 这种投机做法奏效了。
+pay off 成功
+The advertisement paid off. 广告取得了成功。</t>
+  </si>
+  <si>
+    <t>tangible</t>
+  </si>
+  <si>
+    <t>adj.有形的，具体的，切实的</t>
+  </si>
+  <si>
+    <t>buzz</t>
+  </si>
+  <si>
+    <t>n.(俚语)极度兴奋，微醉</t>
+  </si>
+  <si>
+    <t>commercial director</t>
+  </si>
+  <si>
+    <t>销售总监</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>n.程度，(文化、知识、教育、能力等方面的)水平</t>
+  </si>
+  <si>
+    <t>sales pitch</t>
+  </si>
+  <si>
+    <t>推销商品的口才</t>
+  </si>
+  <si>
+    <t>a firm of archiects</t>
+  </si>
+  <si>
+    <t>建筑设计公司</t>
+  </si>
+  <si>
+    <t>driving lesson</t>
+  </si>
+  <si>
+    <t>驾驶课</t>
+  </si>
+  <si>
+    <t>conveyor belt</t>
+  </si>
+  <si>
+    <t>传送带，输送带</t>
+  </si>
+  <si>
+    <t>replace A with B</t>
+  </si>
+  <si>
+    <t>用B来代替A</t>
+  </si>
+  <si>
+    <t>cold calling</t>
+  </si>
+  <si>
+    <t>(向潜在客户拨打的)冷不防电话，无约电话
+sales means door-to-door work and cold calling 销售意味着挨家挨户的推销，进行不期而至的拜访或拨打不期而至的电话</t>
+  </si>
+  <si>
+    <t>outnumber</t>
+  </si>
+  <si>
+    <t>vt.树木上超过，数量上超过</t>
+  </si>
+  <si>
+    <t>be highly qualified</t>
+  </si>
+  <si>
+    <t>需要有很高的资质</t>
+  </si>
+  <si>
+    <t>deal with health</t>
+  </si>
+  <si>
+    <t>与健康有关</t>
+  </si>
+  <si>
+    <t>deal only with people</t>
+  </si>
+  <si>
+    <t>只与人打交道</t>
+  </si>
+  <si>
+    <t>working with animals is less difficult</t>
+  </si>
+  <si>
+    <t>服务对象是动物难度较低</t>
+  </si>
+  <si>
+    <t>excellent health</t>
+  </si>
+  <si>
+    <t>非常健康的身体</t>
+  </si>
+  <si>
+    <t>excellent heart condition</t>
+  </si>
+  <si>
+    <t>非常健康的心脏</t>
+  </si>
+  <si>
+    <t>excellent vision</t>
+  </si>
+  <si>
+    <t>视力很好</t>
+  </si>
+  <si>
+    <t>more challenging and dangerous</t>
+  </si>
+  <si>
+    <t>更有挑战性，危险性更大</t>
+  </si>
+  <si>
+    <t>more tedious</t>
+  </si>
+  <si>
+    <t>更单调乏味</t>
+  </si>
+  <si>
+    <t>Charities are nowadays a great deal more business-like in their approach to problems and the management of their affairs than they were a decade ago.</t>
+  </si>
+  <si>
+    <t>在处理问题的方式和事务管理方面如今的慈善机构管理更商业化。</t>
+  </si>
+  <si>
+    <t>Many charities are bound by their original specific charitable purposes.</t>
+  </si>
+  <si>
+    <t>许多慈善机构都受到原有的特定慈善目的的限制。</t>
+  </si>
+  <si>
+    <t>Both face the public and should be eloquent.</t>
+  </si>
+  <si>
+    <t>二者都要面对公众，都需要有雄辩的口才。</t>
+  </si>
+  <si>
+    <t>Both need good public relation skill.</t>
+  </si>
+  <si>
+    <t>二者都需要良好的公关技巧。</t>
+  </si>
+  <si>
+    <t>Being a politician, every day you must face the horny media, possibly must face the stern criticism.</t>
+  </si>
+  <si>
+    <t>当一名政治家，每天都得面对苛刻的媒体，有时要面对严厉的批评。</t>
+  </si>
+  <si>
+    <t>As a journalist, one always comes across new people and learns new things.</t>
+  </si>
+  <si>
+    <t>当记者可以经常接触新的人和新事物。</t>
+  </si>
+  <si>
+    <t>Sales professional in the UK outnumber people in marketing by about 200,000.</t>
+  </si>
+  <si>
+    <t>在英国，从事销售职业的人数比营销人员多出大约20万人。</t>
+  </si>
+  <si>
+    <t>Unlike marketing, sales in tangible. It has direct impact on a company's results.</t>
+  </si>
+  <si>
+    <t>与营销不同的是，销售更具体实在。销售对公司的业绩有直接影响。</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>误导人的</t>
+  </si>
+  <si>
+    <t>it isn't anything like as awful as the myths suggest</t>
+  </si>
+  <si>
+    <t>那些投身销售工作的人们意识到销售工作根本不像传言中的那么可怕
+myth 传言</t>
+  </si>
+  <si>
+    <t>retain an air of glamour</t>
+  </si>
+  <si>
+    <t>显得很风光
+retain an air of 带着。。。的样子
+retain an air of cheerfulness 保持一种欢喜的样子</t>
+  </si>
+  <si>
+    <t>Getting promoted means more responsibilities and higher salary</t>
+  </si>
+  <si>
+    <t>得到提拔意味着更多的责任和更高的薪水</t>
+  </si>
+  <si>
+    <t>sales quota</t>
+  </si>
+  <si>
+    <t>销售定额</t>
+  </si>
+  <si>
+    <t>sales figure</t>
+  </si>
+  <si>
+    <t>销售数字</t>
+  </si>
+  <si>
+    <t>substantial financial rewards</t>
+  </si>
+  <si>
+    <t>切实的经济回报</t>
+  </si>
+  <si>
+    <t>help buyers satisfy their wants and needs</t>
+  </si>
+  <si>
+    <t>帮助顾客满足他们的需求</t>
+  </si>
+  <si>
+    <t>communicate knowledge face to face</t>
+  </si>
+  <si>
+    <t>面对面地传播知识</t>
+  </si>
+  <si>
+    <t>Most of the time it was booking people in with the same three-minute conversation over and over again.</t>
+  </si>
+  <si>
+    <t>大多数时间都是反复进行同样的三分钟通话，为它们预约时间。</t>
+  </si>
+  <si>
+    <t>My mother's job was to stand at the corner, eight hours a day, with a pole to help the sixth bag round.</t>
+  </si>
+  <si>
+    <t>我母亲的工作就是每天八个小时站在角落里，手里拿着一根杆子，让第六包糖果顺利通过。</t>
+  </si>
+  <si>
+    <t>her strangest invention</t>
+  </si>
+  <si>
+    <t>她最奇怪的发明</t>
+  </si>
+  <si>
+    <t>All emails had to be copied into a Word document, printed, and signed at the bottom by someone.</t>
+  </si>
+  <si>
+    <t>要求所有的电子邮件必须拷成Word文档，打印出来，由某人在下方签名。</t>
+  </si>
+  <si>
+    <t>Later she heard they replaced her with a piece of plastic on the corner.</t>
+  </si>
+  <si>
+    <t>后来她听说他们在拐弯处放了一个塑料片代替了原先她所从事的工作。</t>
+  </si>
+  <si>
+    <t>repetitive</t>
+  </si>
+  <si>
+    <t>重复的</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>令人沮丧的</t>
+  </si>
+  <si>
+    <t>varied</t>
+  </si>
+  <si>
+    <t>不同的，有变化的</t>
+  </si>
+  <si>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>具有挑战性的，困难的</t>
+  </si>
+  <si>
+    <t>well-paid</t>
+  </si>
+  <si>
+    <t>报酬高的</t>
+  </si>
+  <si>
+    <t>job description</t>
+  </si>
+  <si>
+    <t>职务说明，工作说明</t>
+  </si>
+  <si>
+    <t>distrust</t>
+  </si>
+  <si>
+    <t>vt.不信任，不相信</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>n.材料，原料</t>
+  </si>
+  <si>
+    <t>overload</t>
+  </si>
+  <si>
+    <t>vt.超载，使过度承载</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>personality type</t>
+  </si>
+  <si>
+    <t>性格类型</t>
+  </si>
+  <si>
+    <t>knockback</t>
+  </si>
+  <si>
+    <t>n.拒绝，打击</t>
+  </si>
+  <si>
+    <t>hang up</t>
+  </si>
+  <si>
+    <t>挂断电话</t>
+  </si>
+  <si>
+    <t>home improvement</t>
+  </si>
+  <si>
+    <t>重新装修，居家修缮</t>
+  </si>
+  <si>
+    <t>insulation</t>
+  </si>
+  <si>
+    <t>n.绝缘，绝热，隔离</t>
+  </si>
+  <si>
+    <t>offce space</t>
+  </si>
+  <si>
+    <t>写字楼，办公室</t>
+  </si>
+  <si>
+    <t>n.可能性，有效，可用</t>
+  </si>
+  <si>
+    <t>a prompt decision</t>
+  </si>
+  <si>
+    <t>快速决定</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>n.地，地段</t>
+  </si>
+  <si>
+    <t>persuasive</t>
+  </si>
+  <si>
+    <t>有说服力的</t>
+  </si>
+  <si>
+    <t>positive qualities</t>
+  </si>
+  <si>
+    <t>正面的性格，积极的性格</t>
+  </si>
+  <si>
+    <t>kindness, courage, confidence, honesty, loyalty, good health, and cheerfulness</t>
+  </si>
+  <si>
+    <t>友善、勇气、自信、诚实、忠诚、健康、乐观</t>
+  </si>
+  <si>
+    <t>keen observation</t>
+  </si>
+  <si>
+    <t>敏锐的观察力</t>
+  </si>
+  <si>
+    <t>knowledge about the products he is selling</t>
+  </si>
+  <si>
+    <t>对所销售产品的了解</t>
+  </si>
+  <si>
+    <t>The ability to make friends and to get along with the people is one of the most valuable assets.</t>
+  </si>
+  <si>
+    <t>善于交友、与人相处的能力是最宝贵的优点。</t>
+  </si>
+  <si>
+    <t>every product specification</t>
+  </si>
+  <si>
+    <t>所有产品细节</t>
+  </si>
+  <si>
+    <t>make their life better</t>
+  </si>
+  <si>
+    <t>改善他们的生活</t>
+  </si>
+  <si>
+    <t>the clasic image of a salesman</t>
+  </si>
+  <si>
+    <t>推销员的代表性形象</t>
+  </si>
+  <si>
+    <t>Sales is full of knockbacks so don't get hung up on it.</t>
+  </si>
+  <si>
+    <t>销售的过程中经常会被拒绝，因此不要为此心神不宁。</t>
+  </si>
+  <si>
+    <t>Move on to the next customer</t>
+  </si>
+  <si>
+    <t>继续去征服下一位顾客</t>
+  </si>
+  <si>
+    <t>So is extra advertising something you might be interested in?</t>
+  </si>
+  <si>
+    <t>那么你有兴趣做一些额外的广告吗？</t>
+  </si>
+  <si>
+    <t>Perhaps radio or mailshot could be useful?</t>
+  </si>
+  <si>
+    <t>也许广播或是邮寄广告会有效果？</t>
+  </si>
+  <si>
+    <t>backseat airbag</t>
+  </si>
+  <si>
+    <t>后座安全气囊</t>
+  </si>
+  <si>
+    <t>the back for luggage</t>
+  </si>
+  <si>
+    <t>行李后备箱</t>
+  </si>
+  <si>
+    <t>the braking system</t>
+  </si>
+  <si>
+    <t>刹车系统</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>仪表板</t>
+  </si>
+  <si>
+    <t>spacesaver</t>
+  </si>
+  <si>
+    <t>空间节省王</t>
+  </si>
+  <si>
+    <t>circular storage</t>
+  </si>
+  <si>
+    <t>环形仓库</t>
+  </si>
+  <si>
+    <t>day-to-day administration</t>
+  </si>
+  <si>
+    <t>日常管理</t>
+  </si>
+  <si>
+    <t>client complaints</t>
+  </si>
+  <si>
+    <t>客户投诉</t>
+  </si>
+  <si>
+    <t>quality of service</t>
+  </si>
+  <si>
+    <t>服务质量</t>
+  </si>
+  <si>
+    <t>public image</t>
+  </si>
+  <si>
+    <t>公众形象</t>
+  </si>
+  <si>
+    <t>adj.有变化的</t>
+  </si>
+  <si>
+    <t>software developer</t>
+  </si>
+  <si>
+    <t>软件工程师</t>
+  </si>
+  <si>
+    <t>travel agent</t>
+  </si>
+  <si>
+    <t>旅行代理人，旅行社代理</t>
+  </si>
+  <si>
+    <t>golf club</t>
+  </si>
+  <si>
+    <t>高尔夫球棒</t>
+  </si>
+  <si>
+    <t>online course</t>
+  </si>
+  <si>
+    <t>网络课程</t>
+  </si>
+  <si>
+    <t>kitchen knife</t>
+  </si>
+  <si>
+    <t>厨房用刀，厨房刀具</t>
+  </si>
+  <si>
+    <t>leather briefcase</t>
+  </si>
+  <si>
+    <t>皮箱</t>
+  </si>
+  <si>
+    <t>automatic translator</t>
+  </si>
+  <si>
+    <t>自动翻译机</t>
+  </si>
+  <si>
+    <t>portable</t>
+  </si>
+  <si>
+    <t>adj.便携的，手提的</t>
+  </si>
+  <si>
+    <t>ear plug</t>
+  </si>
+  <si>
+    <t>耳塞</t>
+  </si>
+  <si>
+    <t>etiquette</t>
+  </si>
+  <si>
+    <t>n.礼仪，礼节</t>
   </si>
 </sst>
 </file>
@@ -5566,15 +6607,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B748"/>
+  <dimension ref="A1:C919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A906" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B750" sqref="B750"/>
+      <selection pane="bottomLeft" activeCell="B922" sqref="B922"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="33.6666666666667" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.7777777777778" style="6" customWidth="1"/>
@@ -6717,7 +7758,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" ht="17.55" spans="1:2">
+    <row r="143" spans="1:2">
       <c r="A143" s="6" t="s">
         <v>284</v>
       </c>
@@ -6729,7 +7770,7 @@
       <c r="A144" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="6" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6757,7 +7798,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" ht="34.35" spans="1:2">
+    <row r="148" ht="17.55" spans="1:2">
       <c r="A148" s="6" t="s">
         <v>294</v>
       </c>
@@ -6765,7 +7806,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" ht="17.55" spans="1:2">
+    <row r="149" ht="34.35" spans="1:2">
       <c r="A149" s="6" t="s">
         <v>296</v>
       </c>
@@ -6861,7 +7902,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" ht="34.35" spans="1:2">
+    <row r="161" ht="17.55" spans="1:2">
       <c r="A161" s="6" t="s">
         <v>320</v>
       </c>
@@ -6869,11 +7910,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" ht="34.35" spans="1:2">
       <c r="A162" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="8" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6901,7 +7942,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" ht="33.6" spans="1:2">
+    <row r="166" spans="1:2">
       <c r="A166" s="6" t="s">
         <v>330</v>
       </c>
@@ -6909,7 +7950,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" ht="33.6" spans="1:2">
       <c r="A167" s="6" t="s">
         <v>332</v>
       </c>
@@ -6981,7 +8022,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" ht="67.2" spans="1:2">
+    <row r="176" spans="1:2">
       <c r="A176" s="6" t="s">
         <v>350</v>
       </c>
@@ -6989,7 +8030,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" ht="33.6" spans="1:2">
+    <row r="177" ht="67.2" spans="1:2">
       <c r="A177" s="6" t="s">
         <v>352</v>
       </c>
@@ -6997,7 +8038,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" ht="33.6" spans="1:2">
       <c r="A178" s="6" t="s">
         <v>354</v>
       </c>
@@ -7013,7 +8054,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" ht="50.4" spans="1:2">
+    <row r="180" spans="1:2">
       <c r="A180" s="6" t="s">
         <v>358</v>
       </c>
@@ -7021,7 +8062,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" ht="50.4" spans="1:2">
       <c r="A181" s="6" t="s">
         <v>360</v>
       </c>
@@ -7045,7 +8086,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" ht="33.6" spans="1:2">
+    <row r="184" spans="1:2">
       <c r="A184" s="6" t="s">
         <v>366</v>
       </c>
@@ -7053,7 +8094,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" ht="33.6" spans="1:2">
       <c r="A185" s="6" t="s">
         <v>368</v>
       </c>
@@ -7061,7 +8102,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" ht="33.6" spans="1:2">
+    <row r="186" spans="1:2">
       <c r="A186" s="6" t="s">
         <v>370</v>
       </c>
@@ -7069,7 +8110,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" ht="33.6" spans="1:2">
       <c r="A187" s="6" t="s">
         <v>372</v>
       </c>
@@ -7077,7 +8118,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" ht="33.6" spans="1:2">
+    <row r="188" spans="1:2">
       <c r="A188" s="6" t="s">
         <v>374</v>
       </c>
@@ -7085,7 +8126,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" ht="33.6" spans="1:2">
       <c r="A189" s="6" t="s">
         <v>376</v>
       </c>
@@ -7149,7 +8190,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" ht="33.6" spans="1:2">
+    <row r="197" spans="1:2">
       <c r="A197" s="6" t="s">
         <v>392</v>
       </c>
@@ -7165,7 +8206,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" ht="33.6" spans="1:2">
       <c r="A199" s="6" t="s">
         <v>396</v>
       </c>
@@ -7181,7 +8222,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" ht="33.6" spans="1:2">
+    <row r="201" spans="1:2">
       <c r="A201" s="6" t="s">
         <v>400</v>
       </c>
@@ -7189,7 +8230,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" ht="67.2" spans="1:2">
+    <row r="202" ht="33.6" spans="1:2">
       <c r="A202" s="6" t="s">
         <v>402</v>
       </c>
@@ -7197,7 +8238,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" ht="50.4" spans="1:2">
+    <row r="203" ht="67.2" spans="1:2">
       <c r="A203" s="6" t="s">
         <v>404</v>
       </c>
@@ -7205,7 +8246,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" ht="50.4" spans="1:2">
       <c r="A204" s="6" t="s">
         <v>406</v>
       </c>
@@ -7221,7 +8262,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206" ht="50.4" spans="1:2">
+    <row r="206" spans="1:2">
       <c r="A206" s="6" t="s">
         <v>410</v>
       </c>
@@ -7237,7 +8278,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" ht="33.6" spans="1:2">
+    <row r="208" ht="50.4" spans="1:2">
       <c r="A208" s="6" t="s">
         <v>414</v>
       </c>
@@ -7245,7 +8286,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" ht="33.6" spans="1:2">
       <c r="A209" s="6" t="s">
         <v>416</v>
       </c>
@@ -7301,7 +8342,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="216" ht="67.2" spans="1:2">
+    <row r="216" spans="1:2">
       <c r="A216" s="6" t="s">
         <v>430</v>
       </c>
@@ -7317,21 +8358,21 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="9" t="s">
+    <row r="218" ht="67.2" spans="1:2">
+      <c r="A218" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B218" s="9"/>
-    </row>
-    <row r="219" ht="33.6" spans="1:2">
+      <c r="B218" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B219" s="9" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
+      <c r="B219" s="9"/>
+    </row>
+    <row r="220" ht="33.6" spans="1:2">
       <c r="A220" s="9" t="s">
         <v>437</v>
       </c>
@@ -7347,7 +8388,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="222" ht="33.6" spans="1:2">
+    <row r="222" spans="1:2">
       <c r="A222" s="9" t="s">
         <v>441</v>
       </c>
@@ -7355,7 +8396,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="223" ht="67.2" spans="1:2">
+    <row r="223" ht="33.6" spans="1:2">
       <c r="A223" s="9" t="s">
         <v>443</v>
       </c>
@@ -7363,19 +8404,19 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="10" t="s">
+    <row r="224" ht="67.2" spans="1:2">
+      <c r="A224" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="B224" s="10"/>
-    </row>
-    <row r="225" ht="33.6" spans="1:2">
+      <c r="B224" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B225" s="10" t="s">
         <v>447</v>
       </c>
+      <c r="B225" s="10"/>
     </row>
     <row r="226" ht="33.6" spans="1:2">
       <c r="A226" s="10" t="s">
@@ -7385,7 +8426,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" ht="33.6" spans="1:2">
       <c r="A227" s="10" t="s">
         <v>450</v>
       </c>
@@ -7393,7 +8434,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="228" ht="50.4" spans="1:2">
+    <row r="228" spans="1:2">
       <c r="A228" s="10" t="s">
         <v>452</v>
       </c>
@@ -7401,7 +8442,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="229" ht="84" spans="1:2">
+    <row r="229" ht="50.4" spans="1:2">
       <c r="A229" s="10" t="s">
         <v>454</v>
       </c>
@@ -7409,15 +8450,15 @@
         <v>455</v>
       </c>
     </row>
-    <row r="230" ht="50.4" spans="1:2">
-      <c r="A230" s="6" t="s">
+    <row r="230" ht="84" spans="1:2">
+      <c r="A230" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" ht="50.4" spans="1:2">
       <c r="A231" s="6" t="s">
         <v>458</v>
       </c>
@@ -7425,7 +8466,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="232" ht="33.6" spans="1:2">
+    <row r="232" spans="1:2">
       <c r="A232" s="6" t="s">
         <v>460</v>
       </c>
@@ -7433,7 +8474,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="233" ht="50.4" spans="1:2">
+    <row r="233" ht="33.6" spans="1:2">
       <c r="A233" s="6" t="s">
         <v>462</v>
       </c>
@@ -7449,7 +8490,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="235" ht="33.6" spans="1:2">
+    <row r="235" ht="50.4" spans="1:2">
       <c r="A235" s="6" t="s">
         <v>466</v>
       </c>
@@ -7457,7 +8498,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" ht="33.6" spans="1:2">
       <c r="A236" s="6" t="s">
         <v>468</v>
       </c>
@@ -7465,7 +8506,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="237" ht="50.4" spans="1:2">
+    <row r="237" spans="1:2">
       <c r="A237" s="6" t="s">
         <v>470</v>
       </c>
@@ -7473,7 +8514,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="238" ht="33.6" spans="1:2">
+    <row r="238" ht="50.4" spans="1:2">
       <c r="A238" s="6" t="s">
         <v>472</v>
       </c>
@@ -7481,7 +8522,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" ht="33.6" spans="1:2">
       <c r="A239" s="6" t="s">
         <v>474</v>
       </c>
@@ -7497,7 +8538,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="241" ht="33.6" spans="1:2">
+    <row r="241" spans="1:2">
       <c r="A241" s="6" t="s">
         <v>478</v>
       </c>
@@ -7505,7 +8546,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" ht="50.4" spans="1:2">
+    <row r="242" ht="33.6" spans="1:2">
       <c r="A242" s="6" t="s">
         <v>480</v>
       </c>
@@ -7513,7 +8554,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" ht="50.4" spans="1:2">
       <c r="A243" s="6" t="s">
         <v>482</v>
       </c>
@@ -7609,7 +8650,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="255" ht="50.4" spans="1:2">
+    <row r="255" spans="1:2">
       <c r="A255" s="6" t="s">
         <v>506</v>
       </c>
@@ -7617,7 +8658,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" ht="50.4" spans="1:2">
       <c r="A256" s="6" t="s">
         <v>508</v>
       </c>
@@ -7649,7 +8690,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="260" ht="50.4" spans="1:2">
+    <row r="260" spans="1:2">
       <c r="A260" s="6" t="s">
         <v>516</v>
       </c>
@@ -7657,7 +8698,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="261" ht="67.2" spans="1:2">
+    <row r="261" ht="50.4" spans="1:2">
       <c r="A261" s="6" t="s">
         <v>518</v>
       </c>
@@ -7673,7 +8714,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="263" ht="50.4" spans="1:2">
+    <row r="263" ht="67.2" spans="1:2">
       <c r="A263" s="6" t="s">
         <v>522</v>
       </c>
@@ -7681,7 +8722,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" ht="50.4" spans="1:2">
       <c r="A264" s="6" t="s">
         <v>524</v>
       </c>
@@ -7689,7 +8730,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="265" ht="50.4" spans="1:2">
+    <row r="265" spans="1:2">
       <c r="A265" s="6" t="s">
         <v>526</v>
       </c>
@@ -7697,7 +8738,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="266" ht="33.6" spans="1:2">
+    <row r="266" ht="50.4" spans="1:2">
       <c r="A266" s="6" t="s">
         <v>528</v>
       </c>
@@ -7737,7 +8778,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" ht="33.6" spans="1:2">
       <c r="A271" s="6" t="s">
         <v>538</v>
       </c>
@@ -7785,7 +8826,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="277" ht="33.6" spans="1:2">
+    <row r="277" spans="1:2">
       <c r="A277" s="6" t="s">
         <v>550</v>
       </c>
@@ -7793,7 +8834,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" ht="33.6" spans="1:2">
       <c r="A278" s="6" t="s">
         <v>552</v>
       </c>
@@ -7809,7 +8850,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="280" ht="50.4" spans="1:2">
+    <row r="280" spans="1:2">
       <c r="A280" s="6" t="s">
         <v>556</v>
       </c>
@@ -7817,7 +8858,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="281" ht="67.2" spans="1:2">
+    <row r="281" ht="50.4" spans="1:2">
       <c r="A281" s="6" t="s">
         <v>558</v>
       </c>
@@ -7825,7 +8866,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="282" ht="50.4" spans="1:2">
+    <row r="282" ht="67.2" spans="1:2">
       <c r="A282" s="6" t="s">
         <v>560</v>
       </c>
@@ -7841,7 +8882,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="284" ht="67.2" spans="1:2">
+    <row r="284" ht="50.4" spans="1:2">
       <c r="A284" s="6" t="s">
         <v>564</v>
       </c>
@@ -7849,7 +8890,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="285" ht="33.6" spans="1:2">
+    <row r="285" ht="67.2" spans="1:2">
       <c r="A285" s="6" t="s">
         <v>566</v>
       </c>
@@ -7857,7 +8898,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="286" ht="50.4" spans="1:2">
+    <row r="286" ht="33.6" spans="1:2">
       <c r="A286" s="6" t="s">
         <v>568</v>
       </c>
@@ -7865,7 +8906,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="287" ht="67.2" spans="1:2">
+    <row r="287" ht="50.4" spans="1:2">
       <c r="A287" s="6" t="s">
         <v>570</v>
       </c>
@@ -7873,7 +8914,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" ht="67.2" spans="1:2">
       <c r="A288" s="6" t="s">
         <v>572</v>
       </c>
@@ -7913,7 +8954,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="293" ht="33.6" spans="1:2">
+    <row r="293" spans="1:2">
       <c r="A293" s="6" t="s">
         <v>582</v>
       </c>
@@ -7921,7 +8962,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" ht="33.6" spans="1:2">
       <c r="A294" s="6" t="s">
         <v>584</v>
       </c>
@@ -7961,7 +9002,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="299" ht="33.6" spans="1:2">
+    <row r="299" spans="1:2">
       <c r="A299" s="6" t="s">
         <v>594</v>
       </c>
@@ -7969,7 +9010,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" ht="33.6" spans="1:2">
       <c r="A300" s="6" t="s">
         <v>596</v>
       </c>
@@ -8089,7 +9130,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="315" ht="33.6" spans="1:2">
+    <row r="315" spans="1:2">
       <c r="A315" s="6" t="s">
         <v>626</v>
       </c>
@@ -8097,7 +9138,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" ht="33.6" spans="1:2">
       <c r="A316" s="6" t="s">
         <v>628</v>
       </c>
@@ -8241,7 +9282,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="334" ht="33.6" spans="1:2">
+    <row r="334" spans="1:2">
       <c r="A334" s="6" t="s">
         <v>664</v>
       </c>
@@ -8249,7 +9290,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" ht="33.6" spans="1:2">
       <c r="A335" s="6" t="s">
         <v>666</v>
       </c>
@@ -8281,7 +9322,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="339" ht="50.4" spans="1:2">
+    <row r="339" spans="1:2">
       <c r="A339" s="6" t="s">
         <v>674</v>
       </c>
@@ -8289,7 +9330,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" ht="50.4" spans="1:2">
       <c r="A340" s="6" t="s">
         <v>676</v>
       </c>
@@ -8297,7 +9338,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="341" ht="33.6" spans="1:2">
+    <row r="341" spans="1:2">
       <c r="A341" s="6" t="s">
         <v>678</v>
       </c>
@@ -8305,7 +9346,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="342" ht="50.4" spans="1:2">
+    <row r="342" ht="33.6" spans="1:2">
       <c r="A342" s="6" t="s">
         <v>680</v>
       </c>
@@ -8313,7 +9354,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="343" ht="84" spans="1:2">
+    <row r="343" ht="50.4" spans="1:2">
       <c r="A343" s="6" t="s">
         <v>682</v>
       </c>
@@ -8321,7 +9362,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="344" ht="100.8" spans="1:2">
+    <row r="344" ht="84" spans="1:2">
       <c r="A344" s="6" t="s">
         <v>684</v>
       </c>
@@ -8329,7 +9370,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="345" ht="67.2" spans="1:2">
+    <row r="345" ht="100.8" spans="1:2">
       <c r="A345" s="6" t="s">
         <v>686</v>
       </c>
@@ -8345,7 +9386,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="347" ht="84" spans="1:2">
+    <row r="347" ht="67.2" spans="1:2">
       <c r="A347" s="6" t="s">
         <v>690</v>
       </c>
@@ -8353,7 +9394,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" ht="67.2" spans="1:2">
+    <row r="348" ht="84" spans="1:2">
       <c r="A348" s="6" t="s">
         <v>692</v>
       </c>
@@ -8361,7 +9402,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="349" ht="100.8" spans="1:2">
+    <row r="349" ht="67.2" spans="1:2">
       <c r="A349" s="6" t="s">
         <v>694</v>
       </c>
@@ -8369,7 +9410,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="350" ht="67.2" spans="1:2">
+    <row r="350" ht="100.8" spans="1:2">
       <c r="A350" s="6" t="s">
         <v>696</v>
       </c>
@@ -8385,7 +9426,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="352" ht="50.4" spans="1:2">
+    <row r="352" ht="67.2" spans="1:2">
       <c r="A352" s="6" t="s">
         <v>700</v>
       </c>
@@ -8393,7 +9434,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="353" ht="33.6" spans="1:2">
+    <row r="353" ht="50.4" spans="1:2">
       <c r="A353" s="6" t="s">
         <v>702</v>
       </c>
@@ -8401,7 +9442,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="354" ht="67.2" spans="1:2">
+    <row r="354" ht="33.6" spans="1:2">
       <c r="A354" s="6" t="s">
         <v>704</v>
       </c>
@@ -8417,7 +9458,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" ht="67.2" spans="1:2">
       <c r="A356" s="6" t="s">
         <v>708</v>
       </c>
@@ -8425,7 +9466,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="357" ht="117.6" spans="1:2">
+    <row r="357" spans="1:2">
       <c r="A357" s="6" t="s">
         <v>710</v>
       </c>
@@ -8433,7 +9474,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="358" ht="100.8" spans="1:2">
+    <row r="358" ht="117.6" spans="1:2">
       <c r="A358" s="6" t="s">
         <v>712</v>
       </c>
@@ -8441,7 +9482,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="359" ht="50.4" spans="1:2">
+    <row r="359" ht="100.8" spans="1:2">
       <c r="A359" s="6" t="s">
         <v>714</v>
       </c>
@@ -8449,7 +9490,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="360" ht="117.6" spans="1:2">
+    <row r="360" ht="50.4" spans="1:2">
       <c r="A360" s="6" t="s">
         <v>716</v>
       </c>
@@ -8457,7 +9498,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" ht="117.6" spans="1:2">
       <c r="A361" s="6" t="s">
         <v>718</v>
       </c>
@@ -8481,7 +9522,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="364" ht="33.6" spans="1:2">
+    <row r="364" spans="1:2">
       <c r="A364" s="6" t="s">
         <v>724</v>
       </c>
@@ -8489,7 +9530,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" ht="33.6" spans="1:2">
       <c r="A365" s="6" t="s">
         <v>726</v>
       </c>
@@ -8505,7 +9546,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="367" ht="33.6" spans="1:2">
+    <row r="367" spans="1:2">
       <c r="A367" s="6" t="s">
         <v>730</v>
       </c>
@@ -8513,7 +9554,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" ht="33.6" spans="1:2">
       <c r="A368" s="6" t="s">
         <v>732</v>
       </c>
@@ -8521,7 +9562,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="369" ht="33.6" spans="1:2">
+    <row r="369" spans="1:2">
       <c r="A369" s="6" t="s">
         <v>734</v>
       </c>
@@ -8529,7 +9570,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" ht="33.6" spans="1:2">
       <c r="A370" s="6" t="s">
         <v>736</v>
       </c>
@@ -8561,7 +9602,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="374" ht="33.6" spans="1:2">
+    <row r="374" spans="1:2">
       <c r="A374" s="6" t="s">
         <v>744</v>
       </c>
@@ -8569,7 +9610,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" ht="33.6" spans="1:2">
       <c r="A375" s="6" t="s">
         <v>746</v>
       </c>
@@ -8577,7 +9618,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="376" ht="33.6" spans="1:2">
+    <row r="376" spans="1:2">
       <c r="A376" s="6" t="s">
         <v>748</v>
       </c>
@@ -8585,7 +9626,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" ht="33.6" spans="1:2">
       <c r="A377" s="6" t="s">
         <v>750</v>
       </c>
@@ -8593,7 +9634,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="378" ht="33.6" spans="1:2">
+    <row r="378" spans="1:2">
       <c r="A378" s="6" t="s">
         <v>752</v>
       </c>
@@ -8601,7 +9642,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" ht="33.6" spans="1:2">
       <c r="A379" s="6" t="s">
         <v>754</v>
       </c>
@@ -8633,7 +9674,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="383" ht="33.6" spans="1:2">
+    <row r="383" spans="1:2">
       <c r="A383" s="6" t="s">
         <v>762</v>
       </c>
@@ -8641,7 +9682,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" ht="33.6" spans="1:2">
       <c r="A384" s="6" t="s">
         <v>764</v>
       </c>
@@ -8657,7 +9698,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="386" ht="33.6" spans="1:2">
+    <row r="386" spans="1:2">
       <c r="A386" s="6" t="s">
         <v>768</v>
       </c>
@@ -8665,7 +9706,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" ht="33.6" spans="1:2">
       <c r="A387" s="6" t="s">
         <v>770</v>
       </c>
@@ -8689,7 +9730,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="390" ht="33.6" spans="1:2">
+    <row r="390" spans="1:2">
       <c r="A390" s="6" t="s">
         <v>776</v>
       </c>
@@ -8697,7 +9738,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" ht="33.6" spans="1:2">
       <c r="A391" s="6" t="s">
         <v>778</v>
       </c>
@@ -8705,7 +9746,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="392" ht="33.6" spans="1:2">
+    <row r="392" spans="1:2">
       <c r="A392" s="6" t="s">
         <v>780</v>
       </c>
@@ -8713,7 +9754,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" ht="33.6" spans="1:2">
       <c r="A393" s="6" t="s">
         <v>782</v>
       </c>
@@ -8753,7 +9794,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="398" ht="117.6" spans="1:2">
+    <row r="398" spans="1:2">
       <c r="A398" s="6" t="s">
         <v>792</v>
       </c>
@@ -8761,7 +9802,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" ht="117.6" spans="1:2">
       <c r="A399" s="6" t="s">
         <v>794</v>
       </c>
@@ -8769,7 +9810,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="400" ht="33.6" spans="1:2">
+    <row r="400" spans="1:2">
       <c r="A400" s="6" t="s">
         <v>796</v>
       </c>
@@ -8777,7 +9818,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" ht="33.6" spans="1:2">
       <c r="A401" s="6" t="s">
         <v>798</v>
       </c>
@@ -8817,7 +9858,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="406" ht="33.6" spans="1:2">
+    <row r="406" spans="1:2">
       <c r="A406" s="6" t="s">
         <v>808</v>
       </c>
@@ -8825,7 +9866,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" ht="33.6" spans="1:2">
       <c r="A407" s="6" t="s">
         <v>810</v>
       </c>
@@ -8865,7 +9906,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="412" ht="33.6" spans="1:2">
+    <row r="412" spans="1:2">
       <c r="A412" s="6" t="s">
         <v>820</v>
       </c>
@@ -8881,7 +9922,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" ht="33.6" spans="1:2">
       <c r="A414" s="6" t="s">
         <v>824</v>
       </c>
@@ -8937,7 +9978,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="421" ht="33.6" spans="1:2">
+    <row r="421" spans="1:2">
       <c r="A421" s="6" t="s">
         <v>838</v>
       </c>
@@ -8945,7 +9986,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="422" ht="50.4" spans="1:2">
+    <row r="422" ht="33.6" spans="1:2">
       <c r="A422" s="6" t="s">
         <v>840</v>
       </c>
@@ -8953,7 +9994,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="423" ht="134.4" spans="1:2">
+    <row r="423" ht="50.4" spans="1:2">
       <c r="A423" s="6" t="s">
         <v>842</v>
       </c>
@@ -8961,7 +10002,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" ht="134.4" spans="1:2">
       <c r="A424" s="6" t="s">
         <v>844</v>
       </c>
@@ -8969,7 +10010,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="425" ht="33.6" spans="1:2">
+    <row r="425" spans="1:2">
       <c r="A425" s="6" t="s">
         <v>846</v>
       </c>
@@ -8977,7 +10018,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="426" ht="50.4" spans="1:2">
+    <row r="426" ht="33.6" spans="1:2">
       <c r="A426" s="6" t="s">
         <v>848</v>
       </c>
@@ -8993,7 +10034,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="428" ht="117.6" spans="1:2">
+    <row r="428" ht="50.4" spans="1:2">
       <c r="A428" s="6" t="s">
         <v>852</v>
       </c>
@@ -9009,7 +10050,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="430" ht="84" spans="1:2">
+    <row r="430" ht="117.6" spans="1:2">
       <c r="A430" s="6" t="s">
         <v>856</v>
       </c>
@@ -9017,7 +10058,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="431" ht="50.4" spans="1:2">
+    <row r="431" ht="84" spans="1:2">
       <c r="A431" s="6" t="s">
         <v>858</v>
       </c>
@@ -9025,7 +10066,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="432" ht="84" spans="1:2">
+    <row r="432" ht="50.4" spans="1:2">
       <c r="A432" s="6" t="s">
         <v>860</v>
       </c>
@@ -9033,7 +10074,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" ht="84" spans="1:2">
       <c r="A433" s="6" t="s">
         <v>862</v>
       </c>
@@ -9057,7 +10098,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="436" ht="50.4" spans="1:2">
+    <row r="436" spans="1:2">
       <c r="A436" s="6" t="s">
         <v>868</v>
       </c>
@@ -9065,7 +10106,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="437" ht="84" spans="1:2">
+    <row r="437" ht="50.4" spans="1:2">
       <c r="A437" s="6" t="s">
         <v>870</v>
       </c>
@@ -9073,7 +10114,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="438" ht="50.4" spans="1:2">
+    <row r="438" ht="84" spans="1:2">
       <c r="A438" s="6" t="s">
         <v>872</v>
       </c>
@@ -9081,7 +10122,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="439" ht="67.2" spans="1:2">
+    <row r="439" ht="50.4" spans="1:2">
       <c r="A439" s="6" t="s">
         <v>874</v>
       </c>
@@ -9089,7 +10130,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="440" ht="84" spans="1:2">
+    <row r="440" ht="67.2" spans="1:2">
       <c r="A440" s="6" t="s">
         <v>876</v>
       </c>
@@ -9097,7 +10138,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="441" ht="33.6" spans="1:2">
+    <row r="441" ht="84" spans="1:2">
       <c r="A441" s="6" t="s">
         <v>878</v>
       </c>
@@ -9105,7 +10146,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="442" ht="50.4" spans="1:2">
+    <row r="442" ht="33.6" spans="1:2">
       <c r="A442" s="6" t="s">
         <v>880</v>
       </c>
@@ -9113,7 +10154,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="443" ht="33.6" spans="1:2">
+    <row r="443" ht="50.4" spans="1:2">
       <c r="A443" s="6" t="s">
         <v>882</v>
       </c>
@@ -9121,7 +10162,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="444" ht="50.4" spans="1:2">
+    <row r="444" ht="33.6" spans="1:2">
       <c r="A444" s="6" t="s">
         <v>884</v>
       </c>
@@ -9129,7 +10170,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="445" ht="67.2" spans="1:2">
+    <row r="445" ht="50.4" spans="1:2">
       <c r="A445" s="6" t="s">
         <v>886</v>
       </c>
@@ -9161,7 +10202,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="449" ht="84" spans="1:2">
+    <row r="449" ht="67.2" spans="1:2">
       <c r="A449" s="6" t="s">
         <v>894</v>
       </c>
@@ -9169,7 +10210,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="450" ht="50.4" spans="1:2">
+    <row r="450" ht="84" spans="1:2">
       <c r="A450" s="6" t="s">
         <v>896</v>
       </c>
@@ -9185,7 +10226,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" ht="50.4" spans="1:2">
       <c r="A452" s="6" t="s">
         <v>900</v>
       </c>
@@ -9201,7 +10242,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="454" ht="33.6" spans="1:2">
+    <row r="454" spans="1:2">
       <c r="A454" s="6" t="s">
         <v>904</v>
       </c>
@@ -9209,7 +10250,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" ht="33.6" spans="1:2">
       <c r="A455" s="6" t="s">
         <v>906</v>
       </c>
@@ -9225,7 +10266,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="457" ht="33.6" spans="1:2">
+    <row r="457" spans="1:2">
       <c r="A457" s="6" t="s">
         <v>910</v>
       </c>
@@ -9233,7 +10274,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="458" ht="50.4" spans="1:2">
+    <row r="458" ht="33.6" spans="1:2">
       <c r="A458" s="6" t="s">
         <v>912</v>
       </c>
@@ -9241,7 +10282,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="459" ht="67.2" spans="1:2">
+    <row r="459" ht="50.4" spans="1:2">
       <c r="A459" s="6" t="s">
         <v>914</v>
       </c>
@@ -9249,7 +10290,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" ht="67.2" spans="1:2">
       <c r="A460" s="6" t="s">
         <v>916</v>
       </c>
@@ -9297,7 +10338,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="466" ht="33.6" spans="1:2">
+    <row r="466" spans="1:2">
       <c r="A466" s="6" t="s">
         <v>928</v>
       </c>
@@ -9313,7 +10354,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" ht="33.6" spans="1:2">
       <c r="A468" s="6" t="s">
         <v>932</v>
       </c>
@@ -9329,7 +10370,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="470" ht="33.6" spans="1:2">
+    <row r="470" spans="1:2">
       <c r="A470" s="6" t="s">
         <v>936</v>
       </c>
@@ -9337,7 +10378,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" ht="33.6" spans="1:2">
       <c r="A471" s="6" t="s">
         <v>938</v>
       </c>
@@ -9353,7 +10394,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="473" ht="50.4" spans="1:2">
+    <row r="473" spans="1:2">
       <c r="A473" s="6" t="s">
         <v>942</v>
       </c>
@@ -9361,7 +10402,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="474" ht="84" spans="1:2">
+    <row r="474" ht="50.4" spans="1:2">
       <c r="A474" s="6" t="s">
         <v>944</v>
       </c>
@@ -9369,7 +10410,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="475" ht="33.6" spans="1:2">
+    <row r="475" ht="84" spans="1:2">
       <c r="A475" s="6" t="s">
         <v>946</v>
       </c>
@@ -9377,7 +10418,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" ht="33.6" spans="1:2">
       <c r="A476" s="6" t="s">
         <v>948</v>
       </c>
@@ -9401,7 +10442,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="479" ht="41" customHeight="1" spans="1:2">
+    <row r="479" spans="1:2">
       <c r="A479" s="6" t="s">
         <v>954</v>
       </c>
@@ -9409,7 +10450,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" ht="41" customHeight="1" spans="1:2">
       <c r="A480" s="6" t="s">
         <v>956</v>
       </c>
@@ -9427,15 +10468,15 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="6" t="s">
-        <v>926</v>
+        <v>960</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="483" ht="67.2" spans="1:2">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
       <c r="A483" s="6" t="s">
-        <v>961</v>
+        <v>928</v>
       </c>
       <c r="B483" s="6" t="s">
         <v>962</v>
@@ -9449,7 +10490,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="485" ht="84" spans="1:2">
+    <row r="485" ht="67.2" spans="1:2">
       <c r="A485" s="6" t="s">
         <v>965</v>
       </c>
@@ -9457,7 +10498,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="486" ht="67.2" spans="1:2">
+    <row r="486" ht="84" spans="1:2">
       <c r="A486" s="6" t="s">
         <v>967</v>
       </c>
@@ -9465,7 +10506,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="487" ht="84" spans="1:2">
+    <row r="487" ht="67.2" spans="1:2">
       <c r="A487" s="6" t="s">
         <v>969</v>
       </c>
@@ -9473,7 +10514,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="488" ht="33.6" spans="1:2">
+    <row r="488" ht="84" spans="1:2">
       <c r="A488" s="6" t="s">
         <v>971</v>
       </c>
@@ -9481,7 +10522,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="489" ht="67.2" spans="1:2">
+    <row r="489" ht="33.6" spans="1:2">
       <c r="A489" s="6" t="s">
         <v>973</v>
       </c>
@@ -9489,7 +10530,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="490" ht="50.4" spans="1:2">
+    <row r="490" ht="67.2" spans="1:2">
       <c r="A490" s="6" t="s">
         <v>975</v>
       </c>
@@ -9497,7 +10538,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="491" ht="67.2" spans="1:2">
+    <row r="491" ht="50.4" spans="1:2">
       <c r="A491" s="6" t="s">
         <v>977</v>
       </c>
@@ -9505,7 +10546,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" ht="67.2" spans="1:2">
       <c r="A492" s="6" t="s">
         <v>979</v>
       </c>
@@ -9521,7 +10562,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="494" ht="33.6" spans="1:2">
+    <row r="494" spans="1:2">
       <c r="A494" s="6" t="s">
         <v>983</v>
       </c>
@@ -9529,7 +10570,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" ht="33.6" spans="1:2">
       <c r="A495" s="6" t="s">
         <v>985</v>
       </c>
@@ -9553,7 +10594,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="498" ht="50.4" spans="1:2">
+    <row r="498" spans="1:2">
       <c r="A498" s="6" t="s">
         <v>991</v>
       </c>
@@ -9561,7 +10602,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" ht="50.4" spans="1:2">
       <c r="A499" s="6" t="s">
         <v>993</v>
       </c>
@@ -9569,7 +10610,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="500" ht="33.6" spans="1:2">
+    <row r="500" spans="1:2">
       <c r="A500" s="6" t="s">
         <v>995</v>
       </c>
@@ -9577,7 +10618,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" ht="33.6" spans="1:2">
       <c r="A501" s="6" t="s">
         <v>997</v>
       </c>
@@ -9593,7 +10634,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="503" ht="117.6" spans="1:2">
+    <row r="503" spans="1:2">
       <c r="A503" s="6" t="s">
         <v>1001</v>
       </c>
@@ -9601,7 +10642,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" ht="117.6" spans="1:2">
       <c r="A504" s="6" t="s">
         <v>1003</v>
       </c>
@@ -9609,7 +10650,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="505" ht="33.6" spans="1:2">
+    <row r="505" spans="1:2">
       <c r="A505" s="6" t="s">
         <v>1005</v>
       </c>
@@ -9617,7 +10658,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" ht="33.6" spans="1:2">
       <c r="A506" s="6" t="s">
         <v>1007</v>
       </c>
@@ -9665,7 +10706,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="512" ht="67.2" spans="1:2">
+    <row r="512" spans="1:2">
       <c r="A512" s="6" t="s">
         <v>1019</v>
       </c>
@@ -9673,7 +10714,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="513" ht="33.6" spans="1:2">
+    <row r="513" ht="67.2" spans="1:2">
       <c r="A513" s="6" t="s">
         <v>1021</v>
       </c>
@@ -9681,7 +10722,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" ht="33.6" spans="1:2">
       <c r="A514" s="6" t="s">
         <v>1023</v>
       </c>
@@ -9721,7 +10762,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="519" ht="50.4" spans="1:2">
+    <row r="519" spans="1:2">
       <c r="A519" s="6" t="s">
         <v>1033</v>
       </c>
@@ -9729,7 +10770,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="520" ht="100.8" spans="1:2">
+    <row r="520" ht="50.4" spans="1:2">
       <c r="A520" s="6" t="s">
         <v>1035</v>
       </c>
@@ -9737,7 +10778,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="521" ht="50.4" spans="1:2">
+    <row r="521" ht="100.8" spans="1:2">
       <c r="A521" s="6" t="s">
         <v>1037</v>
       </c>
@@ -9745,7 +10786,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="522" ht="33.6" spans="1:2">
+    <row r="522" ht="50.4" spans="1:2">
       <c r="A522" s="6" t="s">
         <v>1039</v>
       </c>
@@ -9753,7 +10794,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="523" ht="50.4" spans="1:2">
+    <row r="523" ht="33.6" spans="1:2">
       <c r="A523" s="6" t="s">
         <v>1041</v>
       </c>
@@ -9761,7 +10802,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="524" ht="84" spans="1:2">
+    <row r="524" ht="50.4" spans="1:2">
       <c r="A524" s="6" t="s">
         <v>1043</v>
       </c>
@@ -9769,7 +10810,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="525" ht="67.2" spans="1:2">
+    <row r="525" ht="84" spans="1:2">
       <c r="A525" s="6" t="s">
         <v>1045</v>
       </c>
@@ -9777,7 +10818,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="526" ht="50.4" spans="1:2">
+    <row r="526" ht="67.2" spans="1:2">
       <c r="A526" s="6" t="s">
         <v>1047</v>
       </c>
@@ -9785,7 +10826,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="527" ht="100.8" spans="1:2">
+    <row r="527" ht="50.4" spans="1:2">
       <c r="A527" s="6" t="s">
         <v>1049</v>
       </c>
@@ -9793,7 +10834,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="528" ht="33.6" spans="1:2">
+    <row r="528" ht="100.8" spans="1:2">
       <c r="A528" s="6" t="s">
         <v>1051</v>
       </c>
@@ -9809,7 +10850,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" ht="33.6" spans="1:2">
       <c r="A530" s="6" t="s">
         <v>1055</v>
       </c>
@@ -9817,7 +10858,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="531" ht="33.6" spans="1:2">
+    <row r="531" spans="1:2">
       <c r="A531" s="6" t="s">
         <v>1057</v>
       </c>
@@ -9833,7 +10874,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" ht="84" spans="1:2">
       <c r="A533" s="6" t="s">
         <v>1061</v>
       </c>
@@ -9841,7 +10882,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="534" ht="100.8" spans="1:2">
+    <row r="534" spans="1:2">
       <c r="A534" s="6" t="s">
         <v>1063</v>
       </c>
@@ -9849,7 +10890,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="535" ht="134.4" spans="1:2">
+    <row r="535" ht="100.8" spans="1:2">
       <c r="A535" s="6" t="s">
         <v>1065</v>
       </c>
@@ -9857,7 +10898,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="536" ht="33.6" spans="1:2">
+    <row r="536" ht="168" spans="1:2">
       <c r="A536" s="6" t="s">
         <v>1067</v>
       </c>
@@ -9865,7 +10906,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="537" ht="50.4" spans="1:2">
+    <row r="537" ht="33.6" spans="1:2">
       <c r="A537" s="6" t="s">
         <v>1069</v>
       </c>
@@ -9881,7 +10922,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="539" ht="33.6" spans="1:2">
+    <row r="539" ht="50.4" spans="1:2">
       <c r="A539" s="6" t="s">
         <v>1073</v>
       </c>
@@ -9889,7 +10930,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="540" spans="1:2">
+    <row r="540" ht="33.6" spans="1:2">
       <c r="A540" s="6" t="s">
         <v>1075</v>
       </c>
@@ -9921,7 +10962,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="544" ht="100.8" spans="1:2">
+    <row r="544" spans="1:2">
       <c r="A544" s="6" t="s">
         <v>1083</v>
       </c>
@@ -9929,7 +10970,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="545" ht="134.4" spans="1:2">
+    <row r="545" ht="100.8" spans="1:2">
       <c r="A545" s="6" t="s">
         <v>1085</v>
       </c>
@@ -9937,7 +10978,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="546" ht="151.2" spans="1:2">
+    <row r="546" ht="134.4" spans="1:2">
       <c r="A546" s="6" t="s">
         <v>1087</v>
       </c>
@@ -9945,7 +10986,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="547" ht="84" spans="1:2">
+    <row r="547" ht="151.2" spans="1:2">
       <c r="A547" s="6" t="s">
         <v>1089</v>
       </c>
@@ -9953,7 +10994,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="548" ht="33.6" spans="1:2">
+    <row r="548" ht="84" spans="1:2">
       <c r="A548" s="6" t="s">
         <v>1091</v>
       </c>
@@ -9977,7 +11018,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="551" ht="50.4" spans="1:2">
+    <row r="551" ht="33.6" spans="1:2">
       <c r="A551" s="6" t="s">
         <v>1097</v>
       </c>
@@ -9985,7 +11026,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="552" ht="33.6" spans="1:2">
+    <row r="552" ht="50.4" spans="1:2">
       <c r="A552" s="6" t="s">
         <v>1099</v>
       </c>
@@ -9993,7 +11034,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="553" ht="67.2" spans="1:2">
+    <row r="553" ht="33.6" spans="1:2">
       <c r="A553" s="6" t="s">
         <v>1101</v>
       </c>
@@ -10001,7 +11042,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="554" ht="33.6" spans="1:2">
+    <row r="554" ht="67.2" spans="1:2">
       <c r="A554" s="6" t="s">
         <v>1103</v>
       </c>
@@ -10009,7 +11050,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" ht="33.6" spans="1:2">
       <c r="A555" s="6" t="s">
         <v>1105</v>
       </c>
@@ -10033,7 +11074,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="558" ht="33.6" spans="1:2">
+    <row r="558" spans="1:2">
       <c r="A558" s="6" t="s">
         <v>1111</v>
       </c>
@@ -10041,7 +11082,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" ht="33.6" spans="1:2">
       <c r="A559" s="6" t="s">
         <v>1113</v>
       </c>
@@ -10057,7 +11098,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="561" ht="33.6" spans="1:2">
+    <row r="561" spans="1:2">
       <c r="A561" s="6" t="s">
         <v>1117</v>
       </c>
@@ -10065,7 +11106,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" ht="33.6" spans="1:2">
       <c r="A562" s="6" t="s">
         <v>1119</v>
       </c>
@@ -10145,7 +11186,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="572" ht="33.6" spans="1:2">
+    <row r="572" spans="1:2">
       <c r="A572" s="6" t="s">
         <v>1139</v>
       </c>
@@ -10161,7 +11202,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" ht="33.6" spans="1:2">
       <c r="A574" s="6" t="s">
         <v>1143</v>
       </c>
@@ -10297,7 +11338,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="591" ht="33.6" spans="1:2">
+    <row r="591" spans="1:2">
       <c r="A591" s="6" t="s">
         <v>1177</v>
       </c>
@@ -10313,7 +11354,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" ht="33.6" spans="1:2">
       <c r="A593" s="6" t="s">
         <v>1181</v>
       </c>
@@ -10345,7 +11386,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="597" ht="33.6" spans="1:2">
+    <row r="597" spans="1:2">
       <c r="A597" s="6" t="s">
         <v>1189</v>
       </c>
@@ -10361,7 +11402,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" ht="33.6" spans="1:2">
       <c r="A599" s="6" t="s">
         <v>1193</v>
       </c>
@@ -10433,7 +11474,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="608" ht="33.6" spans="1:2">
+    <row r="608" spans="1:2">
       <c r="A608" s="6" t="s">
         <v>1211</v>
       </c>
@@ -10441,7 +11482,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="609" ht="33.6" spans="1:2">
+    <row r="609" spans="1:2">
       <c r="A609" s="6" t="s">
         <v>1213</v>
       </c>
@@ -10449,7 +11490,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" ht="33.6" spans="1:2">
       <c r="A610" s="6" t="s">
         <v>1215</v>
       </c>
@@ -10457,7 +11498,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" ht="33.6" spans="1:2">
       <c r="A611" s="6" t="s">
         <v>1217</v>
       </c>
@@ -10529,7 +11570,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="620" ht="33.6" spans="1:2">
+    <row r="620" spans="1:2">
       <c r="A620" s="6" t="s">
         <v>1235</v>
       </c>
@@ -10561,7 +11602,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" ht="33.6" spans="1:2">
       <c r="A624" s="6" t="s">
         <v>1243</v>
       </c>
@@ -10569,7 +11610,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="625" ht="67.2" spans="1:2">
+    <row r="625" spans="1:2">
       <c r="A625" s="6" t="s">
         <v>1245</v>
       </c>
@@ -10577,7 +11618,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="626" ht="50.4" spans="1:2">
+    <row r="626" spans="1:2">
       <c r="A626" s="6" t="s">
         <v>1247</v>
       </c>
@@ -10585,7 +11626,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="627" ht="33.6" spans="1:2">
+    <row r="627" ht="67.2" spans="1:2">
       <c r="A627" s="6" t="s">
         <v>1249</v>
       </c>
@@ -10601,7 +11642,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="629" ht="168" spans="1:2">
+    <row r="629" ht="33.6" spans="1:2">
       <c r="A629" s="6" t="s">
         <v>1253</v>
       </c>
@@ -10609,7 +11650,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="630" ht="67.2" spans="1:2">
+    <row r="630" ht="50.4" spans="1:2">
       <c r="A630" s="6" t="s">
         <v>1255</v>
       </c>
@@ -10617,7 +11658,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="631" ht="151.2" spans="1:2">
+    <row r="631" ht="168" spans="1:2">
       <c r="A631" s="6" t="s">
         <v>1257</v>
       </c>
@@ -10625,7 +11666,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="632" ht="50.4" spans="1:2">
+    <row r="632" ht="67.2" spans="1:2">
       <c r="A632" s="6" t="s">
         <v>1259</v>
       </c>
@@ -10633,25 +11674,25 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" ht="151.2" spans="1:2">
       <c r="A633" s="6" t="s">
-        <v>364</v>
+        <v>1261</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="634" ht="50.4" spans="1:2">
       <c r="A634" s="6" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B634" s="6" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="6" t="s">
-        <v>1264</v>
+        <v>366</v>
       </c>
       <c r="B635" s="6" t="s">
         <v>1265</v>
@@ -10841,7 +11882,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="659" ht="33.6" spans="1:2">
+    <row r="659" spans="1:2">
       <c r="A659" s="6" t="s">
         <v>1312</v>
       </c>
@@ -10873,7 +11914,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" ht="33.6" spans="1:2">
       <c r="A663" s="6" t="s">
         <v>1320</v>
       </c>
@@ -10905,7 +11946,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="667" ht="33.6" spans="1:2">
+    <row r="667" spans="1:2">
       <c r="A667" s="6" t="s">
         <v>1328</v>
       </c>
@@ -10937,7 +11978,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" ht="33.6" spans="1:2">
       <c r="A671" s="6" t="s">
         <v>1336</v>
       </c>
@@ -10969,7 +12010,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="675" ht="33.6" spans="1:2">
+    <row r="675" spans="1:2">
       <c r="A675" s="6" t="s">
         <v>1344</v>
       </c>
@@ -11001,7 +12042,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="679" spans="1:2">
+    <row r="679" ht="33.6" spans="1:2">
       <c r="A679" s="6" t="s">
         <v>1352</v>
       </c>
@@ -11021,7 +12062,7 @@
       <c r="A681" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="B681" s="11" t="s">
+      <c r="B681" s="6" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -11037,7 +12078,7 @@
       <c r="A683" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="B683" s="6" t="s">
+      <c r="B683" s="11" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -11093,7 +12134,7 @@
       <c r="A690" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="B690" s="11" t="s">
+      <c r="B690" s="6" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -11109,7 +12150,7 @@
       <c r="A692" s="6" t="s">
         <v>1378</v>
       </c>
-      <c r="B692" s="6" t="s">
+      <c r="B692" s="11" t="s">
         <v>1379</v>
       </c>
     </row>
@@ -11129,7 +12170,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="695" ht="33.6" spans="1:2">
+    <row r="695" spans="1:2">
       <c r="A695" s="6" t="s">
         <v>1384</v>
       </c>
@@ -11145,7 +12186,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="697" ht="67.2" spans="1:2">
+    <row r="697" ht="33.6" spans="1:2">
       <c r="A697" s="6" t="s">
         <v>1388</v>
       </c>
@@ -11153,7 +12194,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="698" ht="134.4" spans="1:2">
+    <row r="698" spans="1:2">
       <c r="A698" s="6" t="s">
         <v>1390</v>
       </c>
@@ -11161,7 +12202,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="699" spans="1:2">
+    <row r="699" ht="67.2" spans="1:2">
       <c r="A699" s="6" t="s">
         <v>1392</v>
       </c>
@@ -11169,7 +12210,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="700" spans="1:2">
+    <row r="700" ht="134.4" spans="1:2">
       <c r="A700" s="6" t="s">
         <v>1394</v>
       </c>
@@ -11209,7 +12250,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="705" ht="33.6" spans="1:2">
+    <row r="705" spans="1:2">
       <c r="A705" s="6" t="s">
         <v>1404</v>
       </c>
@@ -11241,7 +12282,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="709" spans="1:2">
+    <row r="709" ht="33.6" spans="1:2">
       <c r="A709" s="6" t="s">
         <v>1412</v>
       </c>
@@ -11297,7 +12338,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="716" ht="33.6" spans="1:2">
+    <row r="716" spans="1:2">
       <c r="A716" s="6" t="s">
         <v>1426</v>
       </c>
@@ -11329,7 +12370,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="720" spans="1:2">
+    <row r="720" ht="33.6" spans="1:2">
       <c r="A720" s="6" t="s">
         <v>1434</v>
       </c>
@@ -11345,7 +12386,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="722" ht="33.6" spans="1:2">
+    <row r="722" spans="1:2">
       <c r="A722" s="6" t="s">
         <v>1438</v>
       </c>
@@ -11361,7 +12402,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="724" spans="1:2">
+    <row r="724" ht="33.6" spans="1:2">
       <c r="A724" s="6" t="s">
         <v>1442</v>
       </c>
@@ -11475,55 +12516,55 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="6" t="s">
-        <v>602</v>
+        <v>1470</v>
       </c>
       <c r="B738" s="6" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="6" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B739" s="6" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="6" t="s">
-        <v>1473</v>
+        <v>604</v>
       </c>
       <c r="B740" s="6" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="6" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B742" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="6" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B743" s="6" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="6" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B744" s="6" t="s">
         <v>1479</v>
@@ -11531,10 +12572,10 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="6" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B745" s="6" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -11559,6 +12600,1377 @@
       </c>
       <c r="B748" s="6" t="s">
         <v>1487</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B749" s="6" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B750" s="6" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="751" ht="67.2" spans="1:2">
+      <c r="A751" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B751" s="6" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B752" s="6" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B753" s="6" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B754" s="6" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B755" s="6" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B756" s="6" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B757" s="6" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B758" s="6" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="6" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B759" s="6" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="6" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B760" s="6" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B761" s="6" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B762" s="6" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B763" s="6" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B764" s="6" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B765" s="6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="766" ht="33.6" spans="1:2">
+      <c r="A766" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B766" s="6" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B767" s="6" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B768" s="6" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="769" ht="33.6" spans="1:2">
+      <c r="A769" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B769" s="6" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="770" ht="33.6" spans="1:2">
+      <c r="A770" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B770" s="6" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="771" ht="50.4" spans="1:2">
+      <c r="A771" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B771" s="6" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="772" ht="50.4" spans="1:2">
+      <c r="A772" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B772" s="6" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="773" ht="50.4" spans="1:2">
+      <c r="A773" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B773" s="6" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="774" ht="33.6" spans="1:2">
+      <c r="A774" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B774" s="6" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="775" ht="33.6" spans="1:2">
+      <c r="A775" s="6" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B775" s="6" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="776" ht="50.4" spans="1:2">
+      <c r="A776" s="6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B776" s="6" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="777" ht="33.6" spans="1:2">
+      <c r="A777" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B777" s="6" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B778" s="6" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B779" s="6" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="6" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B780" s="6" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B781" s="6" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B782" s="6" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B783" s="6" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="784" ht="33.6" spans="1:2">
+      <c r="A784" s="6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B784" s="6" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B785" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="6" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B786" s="6" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3">
+      <c r="A787" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B787" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C787" s="5" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B788" s="6" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B789" s="6" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B790" s="6" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B791" s="6" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B792" s="6" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B793" s="6" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B794" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B795" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B796" s="6" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B797" s="6" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="798" ht="33.6" spans="1:2">
+      <c r="A798" s="6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B798" s="6" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="799" ht="84" spans="1:2">
+      <c r="A799" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B799" s="6" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="6" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B800" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="801" ht="100.8" spans="1:2">
+      <c r="A801" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B801" s="6" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="802" ht="33.6" spans="1:2">
+      <c r="A802" s="6" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B802" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="803" ht="33.6" spans="1:2">
+      <c r="A803" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B803" s="6" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="804" ht="33.6" spans="1:2">
+      <c r="A804" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B804" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="805" ht="134.4" spans="1:2">
+      <c r="A805" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B805" s="6" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="806" ht="50.4" spans="1:2">
+      <c r="A806" s="6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B806" s="6" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="807" ht="100.8" spans="1:2">
+      <c r="A807" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B807" s="6" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="808" ht="134.4" spans="1:2">
+      <c r="A808" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B808" s="6" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="809" ht="50.4" spans="1:2">
+      <c r="A809" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B809" s="6" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="810" ht="134.4" spans="1:2">
+      <c r="A810" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B810" s="6" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="811" ht="84" spans="1:2">
+      <c r="A811" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B811" s="6" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="6" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B812" s="6" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B813" s="6" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B814" s="6" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B815" s="6" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="6" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B816" s="6" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="6" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B817" s="6" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="818" ht="117.6" spans="1:2">
+      <c r="A818" s="6" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B818" s="6" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="6" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B819" s="6" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B820" s="6" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B821" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="822" ht="84" spans="1:2">
+      <c r="A822" s="6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B822" s="6" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B823" s="6" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="824" ht="117.6" spans="1:2">
+      <c r="A824" s="6" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B824" s="6" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B825" s="11" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B826" s="6" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="6" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B827" s="6" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="828" ht="33.6" spans="1:2">
+      <c r="A828" s="6" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B828" s="6" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="6" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B829" s="6" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="6" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B830" s="6" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B831" s="6" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B832" s="6" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B833" s="6" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="834" ht="134.4" spans="1:2">
+      <c r="A834" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B834" s="6" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B835" s="6" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="6" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B836" s="6" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="6" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B837" s="6" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="6" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B838" s="6" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="839" ht="33.6" spans="1:2">
+      <c r="A839" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B839" s="6" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="6" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B840" s="6" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B841" s="6" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="6" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B842" s="6" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="843" ht="33.6" spans="1:2">
+      <c r="A843" s="6" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B843" s="6" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="6" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B844" s="6" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="845" ht="117.6" spans="1:2">
+      <c r="A845" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B845" s="6" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="846" ht="50.4" spans="1:2">
+      <c r="A846" s="6" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="847" ht="33.6" spans="1:2">
+      <c r="A847" s="6" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B847" s="6" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="848" ht="33.6" spans="1:2">
+      <c r="A848" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B848" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="849" ht="67.2" spans="1:2">
+      <c r="A849" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B849" s="6" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="850" ht="67.2" spans="1:2">
+      <c r="A850" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B850" s="6" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="851" ht="67.2" spans="1:2">
+      <c r="A851" s="6" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B851" s="6" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="852" ht="67.2" spans="1:2">
+      <c r="A852" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B852" s="6" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B853" s="6" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="854" ht="84" spans="1:2">
+      <c r="A854" s="6" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B854" s="6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="855" ht="117.6" spans="1:2">
+      <c r="A855" s="6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B855" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="856" ht="50.4" spans="1:2">
+      <c r="A856" s="6" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B856" s="6" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B857" s="6" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B858" s="6" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="859" ht="33.6" spans="1:2">
+      <c r="A859" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B859" s="6" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="860" ht="33.6" spans="1:2">
+      <c r="A860" s="6" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B860" s="6" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="861" ht="33.6" spans="1:2">
+      <c r="A861" s="6" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B861" s="6" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="862" ht="84" spans="1:2">
+      <c r="A862" s="6" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B862" s="6" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="863" ht="84" spans="1:2">
+      <c r="A863" s="6" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B863" s="6" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B864" s="6" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="865" ht="84" spans="1:2">
+      <c r="A865" s="6" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B865" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="866" ht="50.4" spans="1:2">
+      <c r="A866" s="6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B866" s="6" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B867" s="6" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B868" s="6" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="6" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B869" s="6" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="6" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B870" s="6" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="6" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B871" s="6" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="6" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B872" s="6" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="6" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B873" s="6" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="6" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B874" s="6" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="6" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B875" s="6" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="6" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B876" s="6" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="6" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B877" s="6" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="6" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B878" s="6" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="6" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B879" s="6" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="6" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B880" s="6" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="6" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B881" s="6" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="6" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B882" s="6" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B883" s="6" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B884" s="6" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="6" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B885" s="6" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B886" s="6" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="6" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B887" s="6" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="888" ht="67.2" spans="1:2">
+      <c r="A888" s="6" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B888" s="6" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B889" s="6" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="890" ht="33.6" spans="1:2">
+      <c r="A890" s="6" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B890" s="6" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="891" ht="67.2" spans="1:2">
+      <c r="A891" s="6" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B891" s="6" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="892" ht="33.6" spans="1:2">
+      <c r="A892" s="6" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B892" s="6" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="6" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B893" s="6" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="894" ht="33.6" spans="1:2">
+      <c r="A894" s="6" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B894" s="6" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="895" ht="50.4" spans="1:2">
+      <c r="A895" s="6" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B895" s="6" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="896" ht="33.6" spans="1:2">
+      <c r="A896" s="6" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B896" s="6" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="897" ht="50.4" spans="1:2">
+      <c r="A897" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B897" s="6" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="898" ht="33.6" spans="1:2">
+      <c r="A898" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B898" s="6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="6" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B899" s="6" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="6" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B900" s="6" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B901" s="6" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="6" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B902" s="6" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="6" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B903" s="6" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="6" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B904" s="6" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="6" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B905" s="6" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="6" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B906" s="6" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="6" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B907" s="6" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="6" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B908" s="6" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="6" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B909" s="6" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="6" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B910" s="6" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="6" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B911" s="6" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="6" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B912" s="6" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="6" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B913" s="6" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B914" s="6" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="6" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B915" s="6" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="6" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B916" s="6" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="6" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B917" s="6" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="6" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B918" s="6" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B919" s="6" t="s">
+        <v>1828</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/05-词汇相关/BEC词汇随身记.xlsx
+++ b/BEC/05-词汇相关/BEC词汇随身记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="2272">
   <si>
     <t>英语</t>
   </si>
@@ -871,6 +871,12 @@
   </si>
   <si>
     <t>商业运动，商业活动</t>
+  </si>
+  <si>
+    <t>communications director</t>
+  </si>
+  <si>
+    <t>公共关系总监/主管</t>
   </si>
   <si>
     <t>green grocery</t>
@@ -2047,6 +2053,12 @@
     <t>n.赠券，礼券，购物优惠券</t>
   </si>
   <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>n.优惠奖券</t>
+  </si>
+  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -2380,7 +2392,8 @@
     <t>budget</t>
   </si>
   <si>
-    <t>n.预算</t>
+    <t>n.&amp; adj.预算; 低廉的，收费公道的
+budget airline 低票价航空公司</t>
   </si>
   <si>
     <t>non-cash reward</t>
@@ -2803,6 +2816,12 @@
   </si>
   <si>
     <t>n.收入，收益</t>
+  </si>
+  <si>
+    <t>earning</t>
+  </si>
+  <si>
+    <t>n.收入</t>
   </si>
   <si>
     <t>mission statement</t>
@@ -3501,6 +3520,12 @@
     <t>n.滥发邮件，垃圾邮件</t>
   </si>
   <si>
+    <t>junk email</t>
+  </si>
+  <si>
+    <t>垃圾邮件</t>
+  </si>
+  <si>
     <t>banner</t>
   </si>
   <si>
@@ -3510,7 +3535,8 @@
     <t>newspaper advert</t>
   </si>
   <si>
-    <t>报纸广告</t>
+    <t>报纸广告
+advert(非正式)</t>
   </si>
   <si>
     <t>internet advertising</t>
@@ -4038,6 +4064,12 @@
     <t>确保得到所要求房间面积的使用权</t>
   </si>
   <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>n.退款</t>
+  </si>
+  <si>
     <t>refundable</t>
   </si>
   <si>
@@ -4332,6 +4364,12 @@
     <t>环保组织</t>
   </si>
   <si>
+    <t>environmental image</t>
+  </si>
+  <si>
+    <t>环境形象</t>
+  </si>
+  <si>
     <t>open day</t>
   </si>
   <si>
@@ -4401,7 +4439,8 @@
     <t>pay off</t>
   </si>
   <si>
-    <t>还清欠债，取得成功</t>
+    <t>还清欠债，取得成功
+pay off part of my loan 还清部分贷款</t>
   </si>
   <si>
     <t>martgage</t>
@@ -4782,7 +4821,8 @@
     <t>with regard to ...</t>
   </si>
   <si>
-    <t>关于，至于</t>
+    <t>关于，至于 = in regard to
+errors with/in regard to spelling 拼写方面的错误</t>
   </si>
   <si>
     <t>lorry</t>
@@ -5348,6 +5388,12 @@
     <t>正面的性格，积极的性格</t>
   </si>
   <si>
+    <t>positive effect</t>
+  </si>
+  <si>
+    <t>正面效果</t>
+  </si>
+  <si>
     <t>kindness, courage, confidence, honesty, loyalty, good health, and cheerfulness</t>
   </si>
   <si>
@@ -5535,6 +5581,1311 @@
   </si>
   <si>
     <t>n.礼仪，礼节</t>
+  </si>
+  <si>
+    <t>Closing date for application within 28 days.</t>
+  </si>
+  <si>
+    <t>有兴趣应聘该职位的人有个期限。</t>
+  </si>
+  <si>
+    <t>The newly-created finance manager is to ...</t>
+  </si>
+  <si>
+    <t>新设的财会经理的职责是。。。</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>n.便利，方便，容易，简易</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>n.设施，设备</t>
+  </si>
+  <si>
+    <t>facilitate</t>
+  </si>
+  <si>
+    <t>vt.帮助，促进</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>n.方法，途径</t>
+  </si>
+  <si>
+    <t>extras</t>
+  </si>
+  <si>
+    <t>n.额外的好处(特色)</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>n.使舒适的物品</t>
+  </si>
+  <si>
+    <t>distance learning</t>
+  </si>
+  <si>
+    <t>远程教育</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>n.下属单位</t>
+  </si>
+  <si>
+    <t>VAT abbr. value-added tax</t>
+  </si>
+  <si>
+    <t>增值税，也做vat</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>n.理由，论据，论点</t>
+  </si>
+  <si>
+    <t>excursion</t>
+  </si>
+  <si>
+    <t>n.远足</t>
+  </si>
+  <si>
+    <t>hustle</t>
+  </si>
+  <si>
+    <t>n.忙碌</t>
+  </si>
+  <si>
+    <t>bustle</t>
+  </si>
+  <si>
+    <t>n.喧闹</t>
+  </si>
+  <si>
+    <t>prosper</t>
+  </si>
+  <si>
+    <t>vi.&amp;vt.成功，繁荣</t>
+  </si>
+  <si>
+    <t>relaxation</t>
+  </si>
+  <si>
+    <t>n.放松，休息</t>
+  </si>
+  <si>
+    <t>self-disciplined</t>
+  </si>
+  <si>
+    <t>adj.有自制力的，自律的</t>
+  </si>
+  <si>
+    <t>self-motivated</t>
+  </si>
+  <si>
+    <t>adj.自身有动力的</t>
+  </si>
+  <si>
+    <t>differentiate</t>
+  </si>
+  <si>
+    <t>vi.&amp;vt. 区分，鉴别</t>
+  </si>
+  <si>
+    <t>cross-cultural awareness</t>
+  </si>
+  <si>
+    <t>跨文化意识</t>
+  </si>
+  <si>
+    <t>leading a project</t>
+  </si>
+  <si>
+    <t>领导一个项目</t>
+  </si>
+  <si>
+    <t>project-based teams</t>
+  </si>
+  <si>
+    <t>项目小组</t>
+  </si>
+  <si>
+    <t>relaxed and more comfortable</t>
+  </si>
+  <si>
+    <t>更放松、舒适</t>
+  </si>
+  <si>
+    <t>more flexible, may do it any time and anywhere</t>
+  </si>
+  <si>
+    <t>更有弹性，任何时候、任何时间都可以学</t>
+  </si>
+  <si>
+    <t>face-to-face training</t>
+  </si>
+  <si>
+    <t>面对面培训</t>
+  </si>
+  <si>
+    <t>more personal and interactive</t>
+  </si>
+  <si>
+    <t>更亲近，互动更好</t>
+  </si>
+  <si>
+    <t>more direct, closer, hearing the voice of the other person in real time</t>
+  </si>
+  <si>
+    <t>更直接，更靠近，能即时直接听到另一个人的声音</t>
+  </si>
+  <si>
+    <t>more natural, feel better</t>
+  </si>
+  <si>
+    <t>更自然，感觉更好</t>
+  </si>
+  <si>
+    <t>giving reasons for and against</t>
+  </si>
+  <si>
+    <t>给出赞同或反对的理由</t>
+  </si>
+  <si>
+    <t>exciting because it feels like an excursion</t>
+  </si>
+  <si>
+    <t>令人激动，感觉就像去远足</t>
+  </si>
+  <si>
+    <t>a good opportunity to do a course while enjoying the country view</t>
+  </si>
+  <si>
+    <t>在参加课程的同时欣赏乡村景色</t>
+  </si>
+  <si>
+    <t>good to be away from the hustle and bustle of the city and get close to nature</t>
+  </si>
+  <si>
+    <t>能够离开忙碌喧闹的城市，接近自然，真好</t>
+  </si>
+  <si>
+    <t>achieve a better balance between work and life</t>
+  </si>
+  <si>
+    <t>取得工作和生活的更好平衡</t>
+  </si>
+  <si>
+    <t>can have more time for further education and learning new skills</t>
+  </si>
+  <si>
+    <t>有更多时间进修，学习新的技能</t>
+  </si>
+  <si>
+    <t>help those with families spend more time together</t>
+  </si>
+  <si>
+    <t>让那些有家庭的人有更多时间与家人在一起</t>
+  </si>
+  <si>
+    <t>can reduce child care costs and have more time with families</t>
+  </si>
+  <si>
+    <t>降低照顾孩子的成本，有更多时间与家人相处</t>
+  </si>
+  <si>
+    <t>Jobs today require a working knowledge of certain computer skills.</t>
+  </si>
+  <si>
+    <t>当今的工作需要掌握某种电脑技能的实用知识。</t>
+  </si>
+  <si>
+    <t>Computer skills are important to help raise efficiency.</t>
+  </si>
+  <si>
+    <t>电脑技能对提高效率很重要。</t>
+  </si>
+  <si>
+    <t>Computer skills are something you need to survive and prosper in today's fast-changing.</t>
+  </si>
+  <si>
+    <t>在当今快速变化的工作场所，要想生存和得到好的发展，需要电脑技能。</t>
+  </si>
+  <si>
+    <t>want to spend the weekend with family</t>
+  </si>
+  <si>
+    <t>周末想与家人度过</t>
+  </si>
+  <si>
+    <t>Weekend is the time for relaxation after a week's work, not a time for work.</t>
+  </si>
+  <si>
+    <t>周末是工作一周后的休息时间，不是工作时间。</t>
+  </si>
+  <si>
+    <t>need to be self-discipliined and self-motivated</t>
+  </si>
+  <si>
+    <t>需要有自制力和来自自身的动力</t>
+  </si>
+  <si>
+    <t>Sometimes it is hard to differentiate between work time and private time.</t>
+  </si>
+  <si>
+    <t>有时很难区分工作时间和私人时间。</t>
+  </si>
+  <si>
+    <t>can be hard to stay motivated without the support of colleagues</t>
+  </si>
+  <si>
+    <t>缺乏同事的支持，很难保持动力</t>
+  </si>
+  <si>
+    <t>Compared to computer skill, English is more important for a company in international trde.</t>
+  </si>
+  <si>
+    <t>与电脑技能相比，英语对从事国际贸易的公司更为重要。</t>
+  </si>
+  <si>
+    <t>English is important for Internet marketing since it is the universal language on the Internet.</t>
+  </si>
+  <si>
+    <t>英语对网络营销很重要，因为英语是互联网上的通用语言。</t>
+  </si>
+  <si>
+    <t>English is useful in doing business with foreign clients since it is a commonly used language.</t>
+  </si>
+  <si>
+    <t>在与国外客户打交道时，英语很有用处，因为它是通用语言。</t>
+  </si>
+  <si>
+    <t>If a company wants to go global, its staff should be good at English.</t>
+  </si>
+  <si>
+    <t>一个公司如果想要打入国际市场，其员工必须掌握好英语。</t>
+  </si>
+  <si>
+    <t>Have you thought of moving into sales?</t>
+  </si>
+  <si>
+    <t>你想到过改行做销售吗？</t>
+  </si>
+  <si>
+    <t>I'm interested in seeing your plan for this.</t>
+  </si>
+  <si>
+    <t>我有兴趣看看你做的这个计划。</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>adj.相关的</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>vt.&amp; vi.指导</t>
+  </si>
+  <si>
+    <t>reserve</t>
+  </si>
+  <si>
+    <t>vt.推迟做出，暂时不做</t>
+  </si>
+  <si>
+    <t>interruption</t>
+  </si>
+  <si>
+    <t>n.打断</t>
+  </si>
+  <si>
+    <t>formulate</t>
+  </si>
+  <si>
+    <t>vt.系统地阐述(说明、表达)</t>
+  </si>
+  <si>
+    <t>restructure</t>
+  </si>
+  <si>
+    <t>vt.&amp; vi. 结构重组、调整</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>n.气氛</t>
+  </si>
+  <si>
+    <t>Intranet</t>
+  </si>
+  <si>
+    <t>n.公司内部网</t>
+  </si>
+  <si>
+    <t>misleading information</t>
+  </si>
+  <si>
+    <t>误导的信息</t>
+  </si>
+  <si>
+    <t>legal action</t>
+  </si>
+  <si>
+    <t>法律诉讼</t>
+  </si>
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
+    <t>n.替代(物)，接替者</t>
+  </si>
+  <si>
+    <t>discovery approach</t>
+  </si>
+  <si>
+    <t>"发现法"教学模式</t>
+  </si>
+  <si>
+    <t>room service</t>
+  </si>
+  <si>
+    <t>酒店客房送餐服务</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>n.交换</t>
+  </si>
+  <si>
+    <t>reception</t>
+  </si>
+  <si>
+    <t>n.(酒店等的)接待处，前台</t>
+  </si>
+  <si>
+    <t>doubled-boook</t>
+  </si>
+  <si>
+    <t>vt.(为避免有人取消预订而使房间闲置而)接收两家预订</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>n.感情色彩</t>
+  </si>
+  <si>
+    <t>a pretty good listener</t>
+  </si>
+  <si>
+    <t>善于倾听的人</t>
+  </si>
+  <si>
+    <t>a bad listener</t>
+  </si>
+  <si>
+    <t>不善于倾听的人</t>
+  </si>
+  <si>
+    <t>show interest</t>
+  </si>
+  <si>
+    <t>表现出兴趣</t>
+  </si>
+  <si>
+    <t>communicate caring and respect</t>
+  </si>
+  <si>
+    <t>传达关心和尊重</t>
+  </si>
+  <si>
+    <t>not doing other work, like answering emails, or looking at the screen of his/her computer</t>
+  </si>
+  <si>
+    <t>没有同时在做其他事情，诸如回复电子邮件，或是眼睛盯着电脑屏幕</t>
+  </si>
+  <si>
+    <t>with direct eye-contact and an attentive expression</t>
+  </si>
+  <si>
+    <t>目光接触，带着专心听的表情</t>
+  </si>
+  <si>
+    <t>without any look of distractions</t>
+  </si>
+  <si>
+    <t>看上去全神贯注</t>
+  </si>
+  <si>
+    <t>get a deal</t>
+  </si>
+  <si>
+    <t>达成交易，也作 strike a deal</t>
+  </si>
+  <si>
+    <t>online purchase</t>
+  </si>
+  <si>
+    <t>网上购买的商品
+The children helped to carry their mohters' purchase from the shops. 孩子们帮妈妈提从商店里购买的东西。</t>
+  </si>
+  <si>
+    <t>run a project</t>
+  </si>
+  <si>
+    <t>管理一个项目</t>
+  </si>
+  <si>
+    <t>work in a good atmosphere where people feel motivated</t>
+  </si>
+  <si>
+    <t>在一个好的气氛中工作，人人都充满动力</t>
+  </si>
+  <si>
+    <t>"environmentally friendlyl" policy</t>
+  </si>
+  <si>
+    <t>环境保护政策</t>
+  </si>
+  <si>
+    <t>local paper</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>n.(企业、机关等的)管理人员、管理部门、经理部</t>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>n.技术员</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>n.打印机</t>
+  </si>
+  <si>
+    <t>socialise</t>
+  </si>
+  <si>
+    <t>vi.社交，交往，交际</t>
+  </si>
+  <si>
+    <t>global director</t>
+  </si>
+  <si>
+    <t>总监，环球业务总监</t>
+  </si>
+  <si>
+    <t>trainer</t>
+  </si>
+  <si>
+    <t>n.培训教师</t>
+  </si>
+  <si>
+    <t>trainee</t>
+  </si>
+  <si>
+    <t>n.培训班学员</t>
+  </si>
+  <si>
+    <t>satisfactory</t>
+  </si>
+  <si>
+    <t>adj.令人满意的</t>
+  </si>
+  <si>
+    <t>disastrous</t>
+  </si>
+  <si>
+    <t>adj.惨败的</t>
+  </si>
+  <si>
+    <t>With their reputation, they can't afford to treat their customer badly.</t>
+  </si>
+  <si>
+    <t>以他们的声誉，他们不会粗暴地对待顾客。</t>
+  </si>
+  <si>
+    <t>As a trainer, I'm interested in helping people improve their skills.</t>
+  </si>
+  <si>
+    <t>作为培训教师，我对帮助人们提高技能很感兴趣。</t>
+  </si>
+  <si>
+    <t>visual aids</t>
+  </si>
+  <si>
+    <t>直观教具，借助视觉材料</t>
+  </si>
+  <si>
+    <t>pointless</t>
+  </si>
+  <si>
+    <t>adj.无意义的，没意思的</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>adj.吹毛求疵的，挑剔的</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>n.罢工</t>
+  </si>
+  <si>
+    <t>simplify</t>
+  </si>
+  <si>
+    <t>vt.简化</t>
+  </si>
+  <si>
+    <t>complicated</t>
+  </si>
+  <si>
+    <t>adj.复杂的</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>n.优点，长处</t>
+  </si>
+  <si>
+    <t>weakness</t>
+  </si>
+  <si>
+    <t>n.缺点，短处</t>
+  </si>
+  <si>
+    <t>site manager</t>
+  </si>
+  <si>
+    <t>工地负责人，工地经理</t>
+  </si>
+  <si>
+    <t>overdraft</t>
+  </si>
+  <si>
+    <t>n.透支，透支额</t>
+  </si>
+  <si>
+    <t>overdraft facility</t>
+  </si>
+  <si>
+    <t>透支服务</t>
+  </si>
+  <si>
+    <t>online banking</t>
+  </si>
+  <si>
+    <t>网上银行</t>
+  </si>
+  <si>
+    <t>online account</t>
+  </si>
+  <si>
+    <t>网上账户</t>
+  </si>
+  <si>
+    <t>pull on each other's strengths and weaknesses</t>
+  </si>
+  <si>
+    <t>相互间取长补短，扬长避短
+pull on 拉紧，穿上，戴上; 抽，吸</t>
+  </si>
+  <si>
+    <t>aroma</t>
+  </si>
+  <si>
+    <t>n.香味</t>
+  </si>
+  <si>
+    <t>fragrance</t>
+  </si>
+  <si>
+    <t>n.芳香，花香</t>
+  </si>
+  <si>
+    <t>odour</t>
+  </si>
+  <si>
+    <t>n.气味</t>
+  </si>
+  <si>
+    <t>waffle-cone</t>
+  </si>
+  <si>
+    <t>圆锥形华夫卷筒</t>
+  </si>
+  <si>
+    <t>paper strip</t>
+  </si>
+  <si>
+    <t>小纸条</t>
+  </si>
+  <si>
+    <t>brand idnetity</t>
+  </si>
+  <si>
+    <t>品牌识别特征</t>
+  </si>
+  <si>
+    <t>marketing tool</t>
+  </si>
+  <si>
+    <t>营销工具</t>
+  </si>
+  <si>
+    <t>slogan</t>
+  </si>
+  <si>
+    <t>口号</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>标识</t>
+  </si>
+  <si>
+    <t>jingle</t>
+  </si>
+  <si>
+    <t>n.(简明易记的)广告歌</t>
+  </si>
+  <si>
+    <t>vanilla</t>
+  </si>
+  <si>
+    <t>n.香草</t>
+  </si>
+  <si>
+    <t>mandarin</t>
+  </si>
+  <si>
+    <t>n.柑橘</t>
+  </si>
+  <si>
+    <t>whiff</t>
+  </si>
+  <si>
+    <t>n.(风、空气、气味、烟雾等)一阵，一吹</t>
+  </si>
+  <si>
+    <t>chocolate chip cookies</t>
+  </si>
+  <si>
+    <t>巧克力碎饼</t>
+  </si>
+  <si>
+    <t>duadruple</t>
+  </si>
+  <si>
+    <t>vi.成为四倍</t>
+  </si>
+  <si>
+    <t>liquid aroma</t>
+  </si>
+  <si>
+    <t>芳香型</t>
+  </si>
+  <si>
+    <t>marketer</t>
+  </si>
+  <si>
+    <t>n.商家，专营特定商品的公司</t>
+  </si>
+  <si>
+    <t>cartridge</t>
+  </si>
+  <si>
+    <t>n.芯式容器，套筒</t>
+  </si>
+  <si>
+    <t>dial</t>
+  </si>
+  <si>
+    <t>n.调节控制器</t>
+  </si>
+  <si>
+    <t>refill</t>
+  </si>
+  <si>
+    <t>n.重新装满，重新注满</t>
+  </si>
+  <si>
+    <t>out-of-the-way</t>
+  </si>
+  <si>
+    <t>偏僻的，不为人知的</t>
+  </si>
+  <si>
+    <t>lavender</t>
+  </si>
+  <si>
+    <t>n.薰衣草</t>
+  </si>
+  <si>
+    <t>jumble</t>
+  </si>
+  <si>
+    <t>vt.打乱，使混乱</t>
+  </si>
+  <si>
+    <t>controlling share</t>
+  </si>
+  <si>
+    <t>占主要股份</t>
+  </si>
+  <si>
+    <t>stake</t>
+  </si>
+  <si>
+    <t>n.(商业、财产、思想上的)股份，利害关系，经济利益</t>
+  </si>
+  <si>
+    <t>incidentally</t>
+  </si>
+  <si>
+    <t>adv.偶然地，顺便提一句</t>
+  </si>
+  <si>
+    <t>multinational</t>
+  </si>
+  <si>
+    <t>n.跨国公司</t>
+  </si>
+  <si>
+    <t>biggest seller</t>
+  </si>
+  <si>
+    <t>卖得最多的产品</t>
+  </si>
+  <si>
+    <t>in-tray</t>
+  </si>
+  <si>
+    <t>(办公室存放待处理的来函来文等的)收文篮</t>
+  </si>
+  <si>
+    <t>luxury brand</t>
+  </si>
+  <si>
+    <t>高档品牌，奢侈品</t>
+  </si>
+  <si>
+    <t>top brand</t>
+  </si>
+  <si>
+    <t>顶级品牌</t>
+  </si>
+  <si>
+    <t>boutique</t>
+  </si>
+  <si>
+    <t>n.专卖店</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>n.具有某种特点的人(或物)，重要的人或事</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>n.收藏品，收集的东西</t>
+  </si>
+  <si>
+    <t>refit</t>
+  </si>
+  <si>
+    <t>n.重修，改装</t>
+  </si>
+  <si>
+    <t>Doubletree Hotels</t>
+  </si>
+  <si>
+    <t>两棵树连锁酒店(美国国际酒店集团)</t>
+  </si>
+  <si>
+    <t>Westin Hotels and Resorts</t>
+  </si>
+  <si>
+    <t>威斯汀酒店及度假村(美国国际酒店集团)</t>
+  </si>
+  <si>
+    <t>LG Electronics</t>
+  </si>
+  <si>
+    <t>LG 电子产品公司(韩国电子、电器制造商)</t>
+  </si>
+  <si>
+    <t>Louis Vuitton</t>
+  </si>
+  <si>
+    <t>路易威登公司(美国著名时尚产品制造商)</t>
+  </si>
+  <si>
+    <t>Gucci</t>
+  </si>
+  <si>
+    <t>古奇皮草饰品公司(意大利著名服装、化妆品和时尚产品制造商)</t>
+  </si>
+  <si>
+    <t>Burberry</t>
+  </si>
+  <si>
+    <t>巴宝莉公司(英国服装公司，1856年创建，专门制作风雨衣)</t>
+  </si>
+  <si>
+    <t>ScentAir Technologies</t>
+  </si>
+  <si>
+    <t>芬芳空气技术公司</t>
+  </si>
+  <si>
+    <t>Frozen Products</t>
+  </si>
+  <si>
+    <t>冷冻食品</t>
+  </si>
+  <si>
+    <t>pharmaceuticals</t>
+  </si>
+  <si>
+    <t>药品，表示“制药公司”</t>
+  </si>
+  <si>
+    <t>airlines</t>
+  </si>
+  <si>
+    <t>飞机，表示“航空公司”</t>
+  </si>
+  <si>
+    <t>airline industry</t>
+  </si>
+  <si>
+    <t>航空业</t>
+  </si>
+  <si>
+    <t>aroma, odour, fragrance, scent, smell</t>
+  </si>
+  <si>
+    <t>都可指气味
+aroma 指(食物等的)香味
+a strong, pleasant smell, especially of food
+odour 指(特别的)气味，可指香味，也可指难闻的气味，如Body odour(体味);
+fragrance通常指(花草、植物、空气等的)香气
+scent 指(香水、熏香等的)香气，芬芳，该词也可指动物等的气味
+smell泛指气味</t>
+  </si>
+  <si>
+    <t>customer care</t>
+  </si>
+  <si>
+    <t>客户服务中心</t>
+  </si>
+  <si>
+    <t>text message</t>
+  </si>
+  <si>
+    <t>短信</t>
+  </si>
+  <si>
+    <t>lunch break</t>
+  </si>
+  <si>
+    <t>午休时间</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>n.提供的选择</t>
+  </si>
+  <si>
+    <t>quality assurance</t>
+  </si>
+  <si>
+    <t>质量保证</t>
+  </si>
+  <si>
+    <t>speech recongnition technology</t>
+  </si>
+  <si>
+    <t>语音识别技术</t>
+  </si>
+  <si>
+    <t>jubject line</t>
+  </si>
+  <si>
+    <t>主题句</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>n.清单</t>
+  </si>
+  <si>
+    <t>repayment</t>
+  </si>
+  <si>
+    <t>n.偿还</t>
+  </si>
+  <si>
+    <t>account number</t>
+  </si>
+  <si>
+    <t>n.账号</t>
+  </si>
+  <si>
+    <t>particle</t>
+  </si>
+  <si>
+    <t>n.小品词，语助词</t>
+  </si>
+  <si>
+    <t>email marketing</t>
+  </si>
+  <si>
+    <t>邮件营销</t>
+  </si>
+  <si>
+    <t>online marketer</t>
+  </si>
+  <si>
+    <t>网络营销商</t>
+  </si>
+  <si>
+    <t>newsletter</t>
+  </si>
+  <si>
+    <t>n.通讯</t>
+  </si>
+  <si>
+    <t>email newsletter</t>
+  </si>
+  <si>
+    <t>电子邮件通讯</t>
+  </si>
+  <si>
+    <t>infopreneur</t>
+  </si>
+  <si>
+    <t>n.信息企业家</t>
+  </si>
+  <si>
+    <t>italics</t>
+  </si>
+  <si>
+    <t>n.斜体字，夸张的语调</t>
+  </si>
+  <si>
+    <t>shout</t>
+  </si>
+  <si>
+    <t>vi.引人注目，触目</t>
+  </si>
+  <si>
+    <t>paediatric</t>
+  </si>
+  <si>
+    <t>adj.儿科的，儿科学的</t>
+  </si>
+  <si>
+    <t>pediatrician
+/ˌpiːdiəˈtrɪʃn/</t>
+  </si>
+  <si>
+    <t>儿科医生(paediatrician 的美式拼写)</t>
+  </si>
+  <si>
+    <t>testimonial advertising</t>
+  </si>
+  <si>
+    <t>(利用影星、球星等名人来推荐产品的)推荐广告</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>n.文件夹</t>
+  </si>
+  <si>
+    <t>brand development</t>
+  </si>
+  <si>
+    <t>品牌开发</t>
+  </si>
+  <si>
+    <t>Automatic Speech Recognition(ASR)</t>
+  </si>
+  <si>
+    <t>语音识别</t>
+  </si>
+  <si>
+    <t>Can you bear with me for a second?</t>
+  </si>
+  <si>
+    <t>你能耐心等一会儿吗？
+bear with 除“忍受，容忍”等常用意思外，在口语中还可用bear with me 来请他人耐心听或等。
+Please bear with me while I point out a mistake you have made. 请耐心听我说你犯的一个错误。</t>
+  </si>
+  <si>
+    <t>I'm just going to put you on hold.</t>
+  </si>
+  <si>
+    <t>请稍候。
+put someone on hold 在电话对话中，意为对方“在线等一下，拿着电话等一下”。</t>
+  </si>
+  <si>
+    <t>may have something I've been booking for</t>
+  </si>
+  <si>
+    <t>也许有我一直在寻找的东西</t>
+  </si>
+  <si>
+    <t>may have useful information</t>
+  </si>
+  <si>
+    <t>可能会有有用的东西</t>
+  </si>
+  <si>
+    <t>curious about what they may contain</t>
+  </si>
+  <si>
+    <t>好奇里面会有什么内容</t>
+  </si>
+  <si>
+    <t>unwanted emails</t>
+  </si>
+  <si>
+    <t>不想要的邮件</t>
+  </si>
+  <si>
+    <t>may contain a virus</t>
+  </si>
+  <si>
+    <t>可能携带病毒</t>
+  </si>
+  <si>
+    <t>They're junk mails and I don't want to waste my time to open them.</t>
+  </si>
+  <si>
+    <t>都是垃圾邮件，不想浪费时间去打开它们。</t>
+  </si>
+  <si>
+    <t>pass on</t>
+  </si>
+  <si>
+    <t>1. 把。。。传给另一个
+2. 对。。。提出意见，对。。。作出鉴定
+3. (口语)放过。。。不要
+He is passing on his knowledge to teammates. 他把知识传给队友。
+The college passed on his appliccation and found him acceptable. 学院审查了他的申请书，认为可以收下。
+I'll pass on the French fries, but take the onions. 法式炸薯条我就不要了，洋葱还是要的。</t>
+  </si>
+  <si>
+    <t>news story</t>
+  </si>
+  <si>
+    <t>新闻报道</t>
+  </si>
+  <si>
+    <t>chief executive</t>
+  </si>
+  <si>
+    <t>总裁，总经理</t>
+  </si>
+  <si>
+    <t>access fee</t>
+  </si>
+  <si>
+    <t>使用费</t>
+  </si>
+  <si>
+    <t>executive departure lounge</t>
+  </si>
+  <si>
+    <t>贵宾候机室</t>
+  </si>
+  <si>
+    <t>loyalty card</t>
+  </si>
+  <si>
+    <t>积分卡</t>
+  </si>
+  <si>
+    <t>air miles</t>
+  </si>
+  <si>
+    <t>里程奖(亦作 air miles awards)</t>
+  </si>
+  <si>
+    <t>package holiday</t>
+  </si>
+  <si>
+    <t>包价旅游(等于package tour)</t>
+  </si>
+  <si>
+    <t>priority boarding</t>
+  </si>
+  <si>
+    <t>优先登机服务</t>
+  </si>
+  <si>
+    <t>on-board</t>
+  </si>
+  <si>
+    <t>adj.机上的(车上的，船上的)</t>
+  </si>
+  <si>
+    <t>complementary</t>
+  </si>
+  <si>
+    <t>adj.互补的，互相补充的</t>
+  </si>
+  <si>
+    <t>complimentary</t>
+  </si>
+  <si>
+    <t>adj.免费赠送的</t>
+  </si>
+  <si>
+    <t>car insurance</t>
+  </si>
+  <si>
+    <t>汽车保险</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>n.(投保人向保险公司支付的)保险费</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>n.保险单
+policy number 保单号</t>
+  </si>
+  <si>
+    <t>bank account</t>
+  </si>
+  <si>
+    <t>银行账户</t>
+  </si>
+  <si>
+    <t>overdraw</t>
+  </si>
+  <si>
+    <t>vi.&amp; vt. 透支(银行账户)</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>vt.要求支付。。。的费用</t>
+  </si>
+  <si>
+    <t>flat rate</t>
+  </si>
+  <si>
+    <t>统一价格，统一收费</t>
+  </si>
+  <si>
+    <t>technical support desk</t>
+  </si>
+  <si>
+    <t>技术支持桌面软件(通常为IT部门及客户服务中心设计)</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>n.(未来可能发生的)局面，情况，趋势</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>n.(核对用的)一览表</t>
+  </si>
+  <si>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>n.标题</t>
+  </si>
+  <si>
+    <t>subheading</t>
+  </si>
+  <si>
+    <t>n.小标题</t>
+  </si>
+  <si>
+    <t>focus group</t>
+  </si>
+  <si>
+    <t>专题调查小组，小组座谈会</t>
+  </si>
+  <si>
+    <t>diet drink</t>
+  </si>
+  <si>
+    <t>低热量健怡饮料</t>
+  </si>
+  <si>
+    <t>diet version</t>
+  </si>
+  <si>
+    <t>低热量型</t>
+  </si>
+  <si>
+    <t>artificial taste</t>
+  </si>
+  <si>
+    <t>味道不够天然</t>
+  </si>
+  <si>
+    <t>preference</t>
+  </si>
+  <si>
+    <t>n.喜好，偏爱</t>
+  </si>
+  <si>
+    <t>medium preference</t>
+  </si>
+  <si>
+    <t>喜好程度一般</t>
   </si>
 </sst>
 </file>
@@ -6607,12 +7958,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C919"/>
+  <dimension ref="A1:C1141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A906" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1132" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B922" sqref="B922"/>
+      <selection pane="bottomLeft" activeCell="A1142" sqref="A1142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -7766,7 +9117,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" ht="17.55" spans="1:2">
+    <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
         <v>286</v>
       </c>
@@ -7778,7 +9129,7 @@
       <c r="A145" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="6" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7806,7 +9157,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" ht="34.35" spans="1:2">
+    <row r="149" ht="17.55" spans="1:2">
       <c r="A149" s="6" t="s">
         <v>296</v>
       </c>
@@ -7814,7 +9165,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" ht="17.55" spans="1:2">
+    <row r="150" ht="34.35" spans="1:2">
       <c r="A150" s="6" t="s">
         <v>298</v>
       </c>
@@ -7910,7 +9261,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" ht="34.35" spans="1:2">
+    <row r="162" ht="17.55" spans="1:2">
       <c r="A162" s="6" t="s">
         <v>322</v>
       </c>
@@ -7918,11 +9269,11 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" ht="34.35" spans="1:2">
       <c r="A163" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="8" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7950,7 +9301,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" ht="33.6" spans="1:2">
+    <row r="167" spans="1:2">
       <c r="A167" s="6" t="s">
         <v>332</v>
       </c>
@@ -7958,7 +9309,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" ht="33.6" spans="1:2">
       <c r="A168" s="6" t="s">
         <v>334</v>
       </c>
@@ -8030,7 +9381,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" ht="67.2" spans="1:2">
+    <row r="177" spans="1:2">
       <c r="A177" s="6" t="s">
         <v>352</v>
       </c>
@@ -8038,7 +9389,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" ht="33.6" spans="1:2">
+    <row r="178" ht="67.2" spans="1:2">
       <c r="A178" s="6" t="s">
         <v>354</v>
       </c>
@@ -8046,7 +9397,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" ht="33.6" spans="1:2">
       <c r="A179" s="6" t="s">
         <v>356</v>
       </c>
@@ -8062,7 +9413,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" ht="50.4" spans="1:2">
+    <row r="181" spans="1:2">
       <c r="A181" s="6" t="s">
         <v>360</v>
       </c>
@@ -8070,7 +9421,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" ht="50.4" spans="1:2">
       <c r="A182" s="6" t="s">
         <v>362</v>
       </c>
@@ -8094,7 +9445,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" ht="33.6" spans="1:2">
+    <row r="185" spans="1:2">
       <c r="A185" s="6" t="s">
         <v>368</v>
       </c>
@@ -8102,7 +9453,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" ht="33.6" spans="1:2">
       <c r="A186" s="6" t="s">
         <v>370</v>
       </c>
@@ -8110,7 +9461,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" ht="33.6" spans="1:2">
+    <row r="187" spans="1:2">
       <c r="A187" s="6" t="s">
         <v>372</v>
       </c>
@@ -8118,7 +9469,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" ht="33.6" spans="1:2">
       <c r="A188" s="6" t="s">
         <v>374</v>
       </c>
@@ -8126,7 +9477,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" ht="33.6" spans="1:2">
+    <row r="189" spans="1:2">
       <c r="A189" s="6" t="s">
         <v>376</v>
       </c>
@@ -8134,7 +9485,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" ht="33.6" spans="1:2">
       <c r="A190" s="6" t="s">
         <v>378</v>
       </c>
@@ -8198,7 +9549,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198" ht="33.6" spans="1:2">
+    <row r="198" spans="1:2">
       <c r="A198" s="6" t="s">
         <v>394</v>
       </c>
@@ -8214,7 +9565,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" ht="33.6" spans="1:2">
       <c r="A200" s="6" t="s">
         <v>398</v>
       </c>
@@ -8230,7 +9581,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" ht="33.6" spans="1:2">
+    <row r="202" spans="1:2">
       <c r="A202" s="6" t="s">
         <v>402</v>
       </c>
@@ -8238,7 +9589,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" ht="67.2" spans="1:2">
+    <row r="203" ht="33.6" spans="1:2">
       <c r="A203" s="6" t="s">
         <v>404</v>
       </c>
@@ -8246,7 +9597,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" ht="50.4" spans="1:2">
+    <row r="204" ht="67.2" spans="1:2">
       <c r="A204" s="6" t="s">
         <v>406</v>
       </c>
@@ -8254,7 +9605,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" ht="50.4" spans="1:2">
       <c r="A205" s="6" t="s">
         <v>408</v>
       </c>
@@ -8270,7 +9621,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" ht="50.4" spans="1:2">
+    <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
         <v>412</v>
       </c>
@@ -8286,7 +9637,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" ht="33.6" spans="1:2">
+    <row r="209" ht="50.4" spans="1:2">
       <c r="A209" s="6" t="s">
         <v>416</v>
       </c>
@@ -8294,7 +9645,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" ht="33.6" spans="1:2">
       <c r="A210" s="6" t="s">
         <v>418</v>
       </c>
@@ -8350,7 +9701,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217" ht="67.2" spans="1:2">
+    <row r="217" spans="1:2">
       <c r="A217" s="6" t="s">
         <v>432</v>
       </c>
@@ -8366,21 +9717,21 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="9" t="s">
+    <row r="219" ht="67.2" spans="1:2">
+      <c r="A219" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B219" s="9"/>
-    </row>
-    <row r="220" ht="33.6" spans="1:2">
+      <c r="B219" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B220" s="9" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="B220" s="9"/>
+    </row>
+    <row r="221" ht="33.6" spans="1:2">
       <c r="A221" s="9" t="s">
         <v>439</v>
       </c>
@@ -8396,7 +9747,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="223" ht="33.6" spans="1:2">
+    <row r="223" spans="1:2">
       <c r="A223" s="9" t="s">
         <v>443</v>
       </c>
@@ -8404,7 +9755,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" ht="67.2" spans="1:2">
+    <row r="224" ht="33.6" spans="1:2">
       <c r="A224" s="9" t="s">
         <v>445</v>
       </c>
@@ -8412,19 +9763,19 @@
         <v>446</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="10" t="s">
+    <row r="225" ht="67.2" spans="1:2">
+      <c r="A225" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="B225" s="10"/>
-    </row>
-    <row r="226" ht="33.6" spans="1:2">
+      <c r="B225" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B226" s="10" t="s">
         <v>449</v>
       </c>
+      <c r="B226" s="10"/>
     </row>
     <row r="227" ht="33.6" spans="1:2">
       <c r="A227" s="10" t="s">
@@ -8434,7 +9785,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" ht="33.6" spans="1:2">
       <c r="A228" s="10" t="s">
         <v>452</v>
       </c>
@@ -8442,7 +9793,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="229" ht="50.4" spans="1:2">
+    <row r="229" spans="1:2">
       <c r="A229" s="10" t="s">
         <v>454</v>
       </c>
@@ -8450,7 +9801,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="230" ht="84" spans="1:2">
+    <row r="230" ht="50.4" spans="1:2">
       <c r="A230" s="10" t="s">
         <v>456</v>
       </c>
@@ -8458,15 +9809,15 @@
         <v>457</v>
       </c>
     </row>
-    <row r="231" ht="50.4" spans="1:2">
-      <c r="A231" s="6" t="s">
+    <row r="231" ht="84" spans="1:2">
+      <c r="A231" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="10" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" ht="50.4" spans="1:2">
       <c r="A232" s="6" t="s">
         <v>460</v>
       </c>
@@ -8474,7 +9825,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="233" ht="33.6" spans="1:2">
+    <row r="233" spans="1:2">
       <c r="A233" s="6" t="s">
         <v>462</v>
       </c>
@@ -8482,7 +9833,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="234" ht="50.4" spans="1:2">
+    <row r="234" ht="33.6" spans="1:2">
       <c r="A234" s="6" t="s">
         <v>464</v>
       </c>
@@ -8498,7 +9849,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="236" ht="33.6" spans="1:2">
+    <row r="236" ht="50.4" spans="1:2">
       <c r="A236" s="6" t="s">
         <v>468</v>
       </c>
@@ -8506,7 +9857,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" ht="33.6" spans="1:2">
       <c r="A237" s="6" t="s">
         <v>470</v>
       </c>
@@ -8514,7 +9865,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="238" ht="50.4" spans="1:2">
+    <row r="238" spans="1:2">
       <c r="A238" s="6" t="s">
         <v>472</v>
       </c>
@@ -8522,7 +9873,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="239" ht="33.6" spans="1:2">
+    <row r="239" ht="50.4" spans="1:2">
       <c r="A239" s="6" t="s">
         <v>474</v>
       </c>
@@ -8530,7 +9881,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" ht="33.6" spans="1:2">
       <c r="A240" s="6" t="s">
         <v>476</v>
       </c>
@@ -8546,7 +9897,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" ht="33.6" spans="1:2">
+    <row r="242" spans="1:2">
       <c r="A242" s="6" t="s">
         <v>480</v>
       </c>
@@ -8554,7 +9905,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="243" ht="50.4" spans="1:2">
+    <row r="243" ht="33.6" spans="1:2">
       <c r="A243" s="6" t="s">
         <v>482</v>
       </c>
@@ -8562,7 +9913,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" ht="50.4" spans="1:2">
       <c r="A244" s="6" t="s">
         <v>484</v>
       </c>
@@ -8658,7 +10009,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="256" ht="50.4" spans="1:2">
+    <row r="256" spans="1:2">
       <c r="A256" s="6" t="s">
         <v>508</v>
       </c>
@@ -8666,7 +10017,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" ht="50.4" spans="1:2">
       <c r="A257" s="6" t="s">
         <v>510</v>
       </c>
@@ -8698,7 +10049,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="261" ht="50.4" spans="1:2">
+    <row r="261" spans="1:2">
       <c r="A261" s="6" t="s">
         <v>518</v>
       </c>
@@ -8706,7 +10057,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="262" ht="67.2" spans="1:2">
+    <row r="262" ht="50.4" spans="1:2">
       <c r="A262" s="6" t="s">
         <v>520</v>
       </c>
@@ -8722,7 +10073,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="264" ht="50.4" spans="1:2">
+    <row r="264" ht="67.2" spans="1:2">
       <c r="A264" s="6" t="s">
         <v>524</v>
       </c>
@@ -8730,7 +10081,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" ht="50.4" spans="1:2">
       <c r="A265" s="6" t="s">
         <v>526</v>
       </c>
@@ -8738,7 +10089,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="266" ht="50.4" spans="1:2">
+    <row r="266" spans="1:2">
       <c r="A266" s="6" t="s">
         <v>528</v>
       </c>
@@ -8746,7 +10097,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="267" ht="33.6" spans="1:2">
+    <row r="267" ht="50.4" spans="1:2">
       <c r="A267" s="6" t="s">
         <v>530</v>
       </c>
@@ -8786,7 +10137,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" ht="33.6" spans="1:2">
       <c r="A272" s="6" t="s">
         <v>540</v>
       </c>
@@ -8834,7 +10185,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="278" ht="33.6" spans="1:2">
+    <row r="278" spans="1:2">
       <c r="A278" s="6" t="s">
         <v>552</v>
       </c>
@@ -8842,7 +10193,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" ht="33.6" spans="1:2">
       <c r="A279" s="6" t="s">
         <v>554</v>
       </c>
@@ -8858,7 +10209,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="281" ht="50.4" spans="1:2">
+    <row r="281" spans="1:2">
       <c r="A281" s="6" t="s">
         <v>558</v>
       </c>
@@ -8866,7 +10217,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="282" ht="67.2" spans="1:2">
+    <row r="282" ht="50.4" spans="1:2">
       <c r="A282" s="6" t="s">
         <v>560</v>
       </c>
@@ -8874,7 +10225,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="283" ht="50.4" spans="1:2">
+    <row r="283" ht="67.2" spans="1:2">
       <c r="A283" s="6" t="s">
         <v>562</v>
       </c>
@@ -8890,7 +10241,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="285" ht="67.2" spans="1:2">
+    <row r="285" ht="50.4" spans="1:2">
       <c r="A285" s="6" t="s">
         <v>566</v>
       </c>
@@ -8898,7 +10249,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="286" ht="33.6" spans="1:2">
+    <row r="286" ht="67.2" spans="1:2">
       <c r="A286" s="6" t="s">
         <v>568</v>
       </c>
@@ -8906,7 +10257,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="287" ht="50.4" spans="1:2">
+    <row r="287" ht="33.6" spans="1:2">
       <c r="A287" s="6" t="s">
         <v>570</v>
       </c>
@@ -8914,7 +10265,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="288" ht="67.2" spans="1:2">
+    <row r="288" ht="50.4" spans="1:2">
       <c r="A288" s="6" t="s">
         <v>572</v>
       </c>
@@ -8922,7 +10273,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" ht="67.2" spans="1:2">
       <c r="A289" s="6" t="s">
         <v>574</v>
       </c>
@@ -8962,7 +10313,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="294" ht="33.6" spans="1:2">
+    <row r="294" spans="1:2">
       <c r="A294" s="6" t="s">
         <v>584</v>
       </c>
@@ -8970,7 +10321,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" ht="33.6" spans="1:2">
       <c r="A295" s="6" t="s">
         <v>586</v>
       </c>
@@ -9010,7 +10361,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="300" ht="33.6" spans="1:2">
+    <row r="300" spans="1:2">
       <c r="A300" s="6" t="s">
         <v>596</v>
       </c>
@@ -9018,7 +10369,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" ht="33.6" spans="1:2">
       <c r="A301" s="6" t="s">
         <v>598</v>
       </c>
@@ -9138,7 +10489,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="316" ht="33.6" spans="1:2">
+    <row r="316" spans="1:2">
       <c r="A316" s="6" t="s">
         <v>628</v>
       </c>
@@ -9146,7 +10497,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" ht="33.6" spans="1:2">
       <c r="A317" s="6" t="s">
         <v>630</v>
       </c>
@@ -9290,7 +10641,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="335" ht="33.6" spans="1:2">
+    <row r="335" spans="1:2">
       <c r="A335" s="6" t="s">
         <v>666</v>
       </c>
@@ -9298,7 +10649,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" ht="33.6" spans="1:2">
       <c r="A336" s="6" t="s">
         <v>668</v>
       </c>
@@ -9330,7 +10681,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="340" ht="50.4" spans="1:2">
+    <row r="340" spans="1:2">
       <c r="A340" s="6" t="s">
         <v>676</v>
       </c>
@@ -9346,7 +10697,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="342" ht="33.6" spans="1:2">
+    <row r="342" ht="50.4" spans="1:2">
       <c r="A342" s="6" t="s">
         <v>680</v>
       </c>
@@ -9354,7 +10705,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="343" ht="50.4" spans="1:2">
+    <row r="343" spans="1:2">
       <c r="A343" s="6" t="s">
         <v>682</v>
       </c>
@@ -9362,7 +10713,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="344" ht="84" spans="1:2">
+    <row r="344" ht="33.6" spans="1:2">
       <c r="A344" s="6" t="s">
         <v>684</v>
       </c>
@@ -9370,7 +10721,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="345" ht="100.8" spans="1:2">
+    <row r="345" ht="50.4" spans="1:2">
       <c r="A345" s="6" t="s">
         <v>686</v>
       </c>
@@ -9378,7 +10729,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="346" ht="67.2" spans="1:2">
+    <row r="346" ht="84" spans="1:2">
       <c r="A346" s="6" t="s">
         <v>688</v>
       </c>
@@ -9386,7 +10737,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="347" ht="67.2" spans="1:2">
+    <row r="347" ht="100.8" spans="1:2">
       <c r="A347" s="6" t="s">
         <v>690</v>
       </c>
@@ -9394,7 +10745,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" ht="84" spans="1:2">
+    <row r="348" ht="67.2" spans="1:2">
       <c r="A348" s="6" t="s">
         <v>692</v>
       </c>
@@ -9410,7 +10761,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="350" ht="100.8" spans="1:2">
+    <row r="350" ht="84" spans="1:2">
       <c r="A350" s="6" t="s">
         <v>696</v>
       </c>
@@ -9426,7 +10777,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="352" ht="67.2" spans="1:2">
+    <row r="352" ht="100.8" spans="1:2">
       <c r="A352" s="6" t="s">
         <v>700</v>
       </c>
@@ -9434,7 +10785,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="353" ht="50.4" spans="1:2">
+    <row r="353" ht="67.2" spans="1:2">
       <c r="A353" s="6" t="s">
         <v>702</v>
       </c>
@@ -9442,7 +10793,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="354" ht="33.6" spans="1:2">
+    <row r="354" ht="67.2" spans="1:2">
       <c r="A354" s="6" t="s">
         <v>704</v>
       </c>
@@ -9450,7 +10801,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="355" ht="67.2" spans="1:2">
+    <row r="355" ht="50.4" spans="1:2">
       <c r="A355" s="6" t="s">
         <v>706</v>
       </c>
@@ -9458,7 +10809,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="356" ht="67.2" spans="1:2">
+    <row r="356" ht="33.6" spans="1:2">
       <c r="A356" s="6" t="s">
         <v>708</v>
       </c>
@@ -9466,7 +10817,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" ht="67.2" spans="1:2">
       <c r="A357" s="6" t="s">
         <v>710</v>
       </c>
@@ -9474,7 +10825,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="358" ht="117.6" spans="1:2">
+    <row r="358" ht="67.2" spans="1:2">
       <c r="A358" s="6" t="s">
         <v>712</v>
       </c>
@@ -9482,7 +10833,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="359" ht="100.8" spans="1:2">
+    <row r="359" spans="1:2">
       <c r="A359" s="6" t="s">
         <v>714</v>
       </c>
@@ -9490,7 +10841,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="360" ht="50.4" spans="1:2">
+    <row r="360" ht="117.6" spans="1:2">
       <c r="A360" s="6" t="s">
         <v>716</v>
       </c>
@@ -9498,7 +10849,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="361" ht="117.6" spans="1:2">
+    <row r="361" ht="100.8" spans="1:2">
       <c r="A361" s="6" t="s">
         <v>718</v>
       </c>
@@ -9506,7 +10857,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" ht="50.4" spans="1:2">
       <c r="A362" s="6" t="s">
         <v>720</v>
       </c>
@@ -9514,7 +10865,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" ht="117.6" spans="1:2">
       <c r="A363" s="6" t="s">
         <v>722</v>
       </c>
@@ -9530,7 +10881,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="365" ht="33.6" spans="1:2">
+    <row r="365" spans="1:2">
       <c r="A365" s="6" t="s">
         <v>726</v>
       </c>
@@ -9546,7 +10897,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" ht="33.6" spans="1:2">
       <c r="A367" s="6" t="s">
         <v>730</v>
       </c>
@@ -9554,7 +10905,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="368" ht="33.6" spans="1:2">
+    <row r="368" spans="1:2">
       <c r="A368" s="6" t="s">
         <v>732</v>
       </c>
@@ -9586,7 +10937,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" ht="33.6" spans="1:2">
       <c r="A372" s="6" t="s">
         <v>740</v>
       </c>
@@ -9610,7 +10961,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="375" ht="33.6" spans="1:2">
+    <row r="375" spans="1:2">
       <c r="A375" s="6" t="s">
         <v>746</v>
       </c>
@@ -9658,7 +11009,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" ht="33.6" spans="1:2">
       <c r="A381" s="6" t="s">
         <v>758</v>
       </c>
@@ -9682,7 +11033,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="384" ht="33.6" spans="1:2">
+    <row r="384" spans="1:2">
       <c r="A384" s="6" t="s">
         <v>764</v>
       </c>
@@ -9698,7 +11049,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" ht="33.6" spans="1:2">
       <c r="A386" s="6" t="s">
         <v>768</v>
       </c>
@@ -9706,7 +11057,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="387" ht="33.6" spans="1:2">
+    <row r="387" spans="1:2">
       <c r="A387" s="6" t="s">
         <v>770</v>
       </c>
@@ -9722,7 +11073,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" ht="33.6" spans="1:2">
       <c r="A389" s="6" t="s">
         <v>774</v>
       </c>
@@ -9738,7 +11089,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="391" ht="33.6" spans="1:2">
+    <row r="391" spans="1:2">
       <c r="A391" s="6" t="s">
         <v>778</v>
       </c>
@@ -9770,7 +11121,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" ht="33.6" spans="1:2">
       <c r="A395" s="6" t="s">
         <v>786</v>
       </c>
@@ -9778,7 +11129,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" ht="67.2" spans="1:2">
       <c r="A396" s="6" t="s">
         <v>788</v>
       </c>
@@ -9802,7 +11153,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="399" ht="117.6" spans="1:2">
+    <row r="399" spans="1:2">
       <c r="A399" s="6" t="s">
         <v>794</v>
       </c>
@@ -9818,7 +11169,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="401" ht="33.6" spans="1:2">
+    <row r="401" ht="117.6" spans="1:2">
       <c r="A401" s="6" t="s">
         <v>798</v>
       </c>
@@ -9834,7 +11185,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" ht="33.6" spans="1:2">
       <c r="A403" s="6" t="s">
         <v>802</v>
       </c>
@@ -9866,7 +11217,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="407" ht="33.6" spans="1:2">
+    <row r="407" spans="1:2">
       <c r="A407" s="6" t="s">
         <v>810</v>
       </c>
@@ -9882,7 +11233,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" ht="33.6" spans="1:2">
       <c r="A409" s="6" t="s">
         <v>814</v>
       </c>
@@ -9914,7 +11265,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="413" ht="33.6" spans="1:2">
+    <row r="413" spans="1:2">
       <c r="A413" s="6" t="s">
         <v>822</v>
       </c>
@@ -9922,7 +11273,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="414" ht="33.6" spans="1:2">
+    <row r="414" spans="1:2">
       <c r="A414" s="6" t="s">
         <v>824</v>
       </c>
@@ -9930,7 +11281,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" ht="33.6" spans="1:2">
       <c r="A415" s="6" t="s">
         <v>826</v>
       </c>
@@ -9938,7 +11289,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" ht="33.6" spans="1:2">
       <c r="A416" s="6" t="s">
         <v>828</v>
       </c>
@@ -9986,7 +11337,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="422" ht="33.6" spans="1:2">
+    <row r="422" spans="1:2">
       <c r="A422" s="6" t="s">
         <v>840</v>
       </c>
@@ -9994,7 +11345,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="423" ht="50.4" spans="1:2">
+    <row r="423" spans="1:2">
       <c r="A423" s="6" t="s">
         <v>842</v>
       </c>
@@ -10002,7 +11353,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="424" ht="134.4" spans="1:2">
+    <row r="424" ht="33.6" spans="1:2">
       <c r="A424" s="6" t="s">
         <v>844</v>
       </c>
@@ -10010,7 +11361,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" ht="50.4" spans="1:2">
       <c r="A425" s="6" t="s">
         <v>846</v>
       </c>
@@ -10018,7 +11369,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="426" ht="33.6" spans="1:2">
+    <row r="426" ht="134.4" spans="1:2">
       <c r="A426" s="6" t="s">
         <v>848</v>
       </c>
@@ -10026,7 +11377,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="427" ht="50.4" spans="1:2">
+    <row r="427" spans="1:2">
       <c r="A427" s="6" t="s">
         <v>850</v>
       </c>
@@ -10034,7 +11385,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="428" ht="50.4" spans="1:2">
+    <row r="428" ht="33.6" spans="1:2">
       <c r="A428" s="6" t="s">
         <v>852</v>
       </c>
@@ -10042,7 +11393,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="429" ht="117.6" spans="1:2">
+    <row r="429" ht="50.4" spans="1:2">
       <c r="A429" s="6" t="s">
         <v>854</v>
       </c>
@@ -10050,7 +11401,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="430" ht="117.6" spans="1:2">
+    <row r="430" ht="50.4" spans="1:2">
       <c r="A430" s="6" t="s">
         <v>856</v>
       </c>
@@ -10058,7 +11409,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="431" ht="84" spans="1:2">
+    <row r="431" ht="117.6" spans="1:2">
       <c r="A431" s="6" t="s">
         <v>858</v>
       </c>
@@ -10066,7 +11417,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="432" ht="50.4" spans="1:2">
+    <row r="432" ht="117.6" spans="1:2">
       <c r="A432" s="6" t="s">
         <v>860</v>
       </c>
@@ -10082,7 +11433,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" ht="50.4" spans="1:2">
       <c r="A434" s="6" t="s">
         <v>864</v>
       </c>
@@ -10090,7 +11441,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" ht="84" spans="1:2">
       <c r="A435" s="6" t="s">
         <v>866</v>
       </c>
@@ -10106,7 +11457,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="437" ht="50.4" spans="1:2">
+    <row r="437" spans="1:2">
       <c r="A437" s="6" t="s">
         <v>870</v>
       </c>
@@ -10114,7 +11465,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="438" ht="84" spans="1:2">
+    <row r="438" spans="1:2">
       <c r="A438" s="6" t="s">
         <v>872</v>
       </c>
@@ -10130,7 +11481,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="440" ht="67.2" spans="1:2">
+    <row r="440" ht="84" spans="1:2">
       <c r="A440" s="6" t="s">
         <v>876</v>
       </c>
@@ -10138,7 +11489,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="441" ht="84" spans="1:2">
+    <row r="441" ht="50.4" spans="1:2">
       <c r="A441" s="6" t="s">
         <v>878</v>
       </c>
@@ -10146,7 +11497,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="442" ht="33.6" spans="1:2">
+    <row r="442" ht="67.2" spans="1:2">
       <c r="A442" s="6" t="s">
         <v>880</v>
       </c>
@@ -10154,7 +11505,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="443" ht="50.4" spans="1:2">
+    <row r="443" ht="84" spans="1:2">
       <c r="A443" s="6" t="s">
         <v>882</v>
       </c>
@@ -10178,7 +11529,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="446" ht="67.2" spans="1:2">
+    <row r="446" ht="33.6" spans="1:2">
       <c r="A446" s="6" t="s">
         <v>888</v>
       </c>
@@ -10186,7 +11537,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="447" ht="67.2" spans="1:2">
+    <row r="447" ht="50.4" spans="1:2">
       <c r="A447" s="6" t="s">
         <v>890</v>
       </c>
@@ -10210,7 +11561,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="450" ht="84" spans="1:2">
+    <row r="450" ht="67.2" spans="1:2">
       <c r="A450" s="6" t="s">
         <v>896</v>
       </c>
@@ -10218,7 +11569,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="451" ht="50.4" spans="1:2">
+    <row r="451" ht="67.2" spans="1:2">
       <c r="A451" s="6" t="s">
         <v>898</v>
       </c>
@@ -10226,7 +11577,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="452" ht="50.4" spans="1:2">
+    <row r="452" ht="84" spans="1:2">
       <c r="A452" s="6" t="s">
         <v>900</v>
       </c>
@@ -10234,7 +11585,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" ht="50.4" spans="1:2">
       <c r="A453" s="6" t="s">
         <v>902</v>
       </c>
@@ -10242,7 +11593,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" ht="50.4" spans="1:2">
       <c r="A454" s="6" t="s">
         <v>904</v>
       </c>
@@ -10250,7 +11601,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="455" ht="33.6" spans="1:2">
+    <row r="455" spans="1:2">
       <c r="A455" s="6" t="s">
         <v>906</v>
       </c>
@@ -10266,7 +11617,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" ht="33.6" spans="1:2">
       <c r="A457" s="6" t="s">
         <v>910</v>
       </c>
@@ -10274,7 +11625,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="458" ht="33.6" spans="1:2">
+    <row r="458" spans="1:2">
       <c r="A458" s="6" t="s">
         <v>912</v>
       </c>
@@ -10282,7 +11633,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="459" ht="50.4" spans="1:2">
+    <row r="459" spans="1:2">
       <c r="A459" s="6" t="s">
         <v>914</v>
       </c>
@@ -10290,7 +11641,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="460" ht="67.2" spans="1:2">
+    <row r="460" ht="33.6" spans="1:2">
       <c r="A460" s="6" t="s">
         <v>916</v>
       </c>
@@ -10298,7 +11649,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" ht="50.4" spans="1:2">
       <c r="A461" s="6" t="s">
         <v>918</v>
       </c>
@@ -10306,7 +11657,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" ht="67.2" spans="1:2">
       <c r="A462" s="6" t="s">
         <v>920</v>
       </c>
@@ -10346,7 +11697,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="467" ht="33.6" spans="1:2">
+    <row r="467" spans="1:2">
       <c r="A467" s="6" t="s">
         <v>930</v>
       </c>
@@ -10354,7 +11705,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="468" ht="33.6" spans="1:2">
+    <row r="468" spans="1:2">
       <c r="A468" s="6" t="s">
         <v>932</v>
       </c>
@@ -10370,7 +11721,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" ht="33.6" spans="1:2">
       <c r="A470" s="6" t="s">
         <v>936</v>
       </c>
@@ -10402,7 +11753,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="474" ht="50.4" spans="1:2">
+    <row r="474" ht="33.6" spans="1:2">
       <c r="A474" s="6" t="s">
         <v>944</v>
       </c>
@@ -10410,7 +11761,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="475" ht="84" spans="1:2">
+    <row r="475" spans="1:2">
       <c r="A475" s="6" t="s">
         <v>946</v>
       </c>
@@ -10418,7 +11769,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="476" ht="33.6" spans="1:2">
+    <row r="476" spans="1:2">
       <c r="A476" s="6" t="s">
         <v>948</v>
       </c>
@@ -10426,7 +11777,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" ht="50.4" spans="1:2">
       <c r="A477" s="6" t="s">
         <v>950</v>
       </c>
@@ -10434,7 +11785,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" ht="84" spans="1:2">
       <c r="A478" s="6" t="s">
         <v>952</v>
       </c>
@@ -10442,7 +11793,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" ht="33.6" spans="1:2">
       <c r="A479" s="6" t="s">
         <v>954</v>
       </c>
@@ -10450,7 +11801,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="480" ht="41" customHeight="1" spans="1:2">
+    <row r="480" spans="1:2">
       <c r="A480" s="6" t="s">
         <v>956</v>
       </c>
@@ -10474,33 +11825,33 @@
         <v>961</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" ht="41" customHeight="1" spans="1:2">
       <c r="A483" s="6" t="s">
-        <v>928</v>
+        <v>962</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="484" ht="67.2" spans="1:2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
       <c r="A484" s="6" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="485" ht="67.2" spans="1:2">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
       <c r="A485" s="6" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="486" ht="84" spans="1:2">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
       <c r="A486" s="6" t="s">
-        <v>967</v>
+        <v>934</v>
       </c>
       <c r="B486" s="6" t="s">
         <v>968</v>
@@ -10514,7 +11865,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="488" ht="84" spans="1:2">
+    <row r="488" ht="67.2" spans="1:2">
       <c r="A488" s="6" t="s">
         <v>971</v>
       </c>
@@ -10522,7 +11873,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="489" ht="33.6" spans="1:2">
+    <row r="489" ht="84" spans="1:2">
       <c r="A489" s="6" t="s">
         <v>973</v>
       </c>
@@ -10538,7 +11889,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="491" ht="50.4" spans="1:2">
+    <row r="491" ht="84" spans="1:2">
       <c r="A491" s="6" t="s">
         <v>977</v>
       </c>
@@ -10546,7 +11897,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="492" ht="67.2" spans="1:2">
+    <row r="492" ht="33.6" spans="1:2">
       <c r="A492" s="6" t="s">
         <v>979</v>
       </c>
@@ -10554,7 +11905,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" ht="67.2" spans="1:2">
       <c r="A493" s="6" t="s">
         <v>981</v>
       </c>
@@ -10562,7 +11913,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" ht="50.4" spans="1:2">
       <c r="A494" s="6" t="s">
         <v>983</v>
       </c>
@@ -10570,7 +11921,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="495" ht="33.6" spans="1:2">
+    <row r="495" ht="67.2" spans="1:2">
       <c r="A495" s="6" t="s">
         <v>985</v>
       </c>
@@ -10594,7 +11945,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" ht="33.6" spans="1:2">
       <c r="A498" s="6" t="s">
         <v>991</v>
       </c>
@@ -10602,7 +11953,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="499" ht="50.4" spans="1:2">
+    <row r="499" spans="1:2">
       <c r="A499" s="6" t="s">
         <v>993</v>
       </c>
@@ -10618,7 +11969,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="501" ht="33.6" spans="1:2">
+    <row r="501" spans="1:2">
       <c r="A501" s="6" t="s">
         <v>997</v>
       </c>
@@ -10626,7 +11977,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" ht="50.4" spans="1:2">
       <c r="A502" s="6" t="s">
         <v>999</v>
       </c>
@@ -10642,7 +11993,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="504" ht="117.6" spans="1:2">
+    <row r="504" ht="33.6" spans="1:2">
       <c r="A504" s="6" t="s">
         <v>1003</v>
       </c>
@@ -10658,7 +12009,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="506" ht="33.6" spans="1:2">
+    <row r="506" spans="1:2">
       <c r="A506" s="6" t="s">
         <v>1007</v>
       </c>
@@ -10666,7 +12017,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" ht="117.6" spans="1:2">
       <c r="A507" s="6" t="s">
         <v>1009</v>
       </c>
@@ -10682,7 +12033,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" ht="33.6" spans="1:2">
       <c r="A509" s="6" t="s">
         <v>1013</v>
       </c>
@@ -10714,7 +12065,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="513" ht="67.2" spans="1:2">
+    <row r="513" spans="1:2">
       <c r="A513" s="6" t="s">
         <v>1021</v>
       </c>
@@ -10722,7 +12073,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="514" ht="33.6" spans="1:2">
+    <row r="514" spans="1:2">
       <c r="A514" s="6" t="s">
         <v>1023</v>
       </c>
@@ -10738,7 +12089,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" ht="67.2" spans="1:2">
       <c r="A516" s="6" t="s">
         <v>1027</v>
       </c>
@@ -10746,7 +12097,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" ht="33.6" spans="1:2">
       <c r="A517" s="6" t="s">
         <v>1029</v>
       </c>
@@ -10770,7 +12121,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="520" ht="50.4" spans="1:2">
+    <row r="520" spans="1:2">
       <c r="A520" s="6" t="s">
         <v>1035</v>
       </c>
@@ -10778,7 +12129,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="521" ht="100.8" spans="1:2">
+    <row r="521" spans="1:2">
       <c r="A521" s="6" t="s">
         <v>1037</v>
       </c>
@@ -10786,7 +12137,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="522" ht="50.4" spans="1:2">
+    <row r="522" spans="1:2">
       <c r="A522" s="6" t="s">
         <v>1039</v>
       </c>
@@ -10794,7 +12145,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="523" ht="33.6" spans="1:2">
+    <row r="523" ht="50.4" spans="1:2">
       <c r="A523" s="6" t="s">
         <v>1041</v>
       </c>
@@ -10802,7 +12153,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="524" ht="50.4" spans="1:2">
+    <row r="524" ht="100.8" spans="1:2">
       <c r="A524" s="6" t="s">
         <v>1043</v>
       </c>
@@ -10810,7 +12161,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="525" ht="84" spans="1:2">
+    <row r="525" ht="50.4" spans="1:2">
       <c r="A525" s="6" t="s">
         <v>1045</v>
       </c>
@@ -10818,7 +12169,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="526" ht="67.2" spans="1:2">
+    <row r="526" ht="33.6" spans="1:2">
       <c r="A526" s="6" t="s">
         <v>1047</v>
       </c>
@@ -10834,7 +12185,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="528" ht="100.8" spans="1:2">
+    <row r="528" ht="84" spans="1:2">
       <c r="A528" s="6" t="s">
         <v>1051</v>
       </c>
@@ -10842,7 +12193,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="529" ht="33.6" spans="1:2">
+    <row r="529" ht="67.2" spans="1:2">
       <c r="A529" s="6" t="s">
         <v>1053</v>
       </c>
@@ -10850,7 +12201,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="530" ht="33.6" spans="1:2">
+    <row r="530" ht="50.4" spans="1:2">
       <c r="A530" s="6" t="s">
         <v>1055</v>
       </c>
@@ -10858,7 +12209,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" ht="100.8" spans="1:2">
       <c r="A531" s="6" t="s">
         <v>1057</v>
       </c>
@@ -10874,7 +12225,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="533" ht="84" spans="1:2">
+    <row r="533" ht="33.6" spans="1:2">
       <c r="A533" s="6" t="s">
         <v>1061</v>
       </c>
@@ -10890,7 +12241,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="535" ht="100.8" spans="1:2">
+    <row r="535" ht="33.6" spans="1:2">
       <c r="A535" s="6" t="s">
         <v>1065</v>
       </c>
@@ -10898,7 +12249,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="536" ht="168" spans="1:2">
+    <row r="536" ht="84" spans="1:2">
       <c r="A536" s="6" t="s">
         <v>1067</v>
       </c>
@@ -10906,7 +12257,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="537" ht="33.6" spans="1:2">
+    <row r="537" spans="1:2">
       <c r="A537" s="6" t="s">
         <v>1069</v>
       </c>
@@ -10914,7 +12265,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="538" ht="50.4" spans="1:2">
+    <row r="538" ht="100.8" spans="1:2">
       <c r="A538" s="6" t="s">
         <v>1071</v>
       </c>
@@ -10922,7 +12273,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="539" ht="50.4" spans="1:2">
+    <row r="539" ht="168" spans="1:2">
       <c r="A539" s="6" t="s">
         <v>1073</v>
       </c>
@@ -10938,7 +12289,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" ht="50.4" spans="1:2">
       <c r="A541" s="6" t="s">
         <v>1077</v>
       </c>
@@ -10946,7 +12297,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" ht="50.4" spans="1:2">
       <c r="A542" s="6" t="s">
         <v>1079</v>
       </c>
@@ -10954,7 +12305,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" ht="33.6" spans="1:2">
       <c r="A543" s="6" t="s">
         <v>1081</v>
       </c>
@@ -10970,7 +12321,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="545" ht="100.8" spans="1:2">
+    <row r="545" spans="1:2">
       <c r="A545" s="6" t="s">
         <v>1085</v>
       </c>
@@ -10978,7 +12329,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="546" ht="134.4" spans="1:2">
+    <row r="546" spans="1:2">
       <c r="A546" s="6" t="s">
         <v>1087</v>
       </c>
@@ -10986,7 +12337,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="547" ht="151.2" spans="1:2">
+    <row r="547" spans="1:2">
       <c r="A547" s="6" t="s">
         <v>1089</v>
       </c>
@@ -10994,7 +12345,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="548" ht="84" spans="1:2">
+    <row r="548" ht="100.8" spans="1:2">
       <c r="A548" s="6" t="s">
         <v>1091</v>
       </c>
@@ -11002,7 +12353,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="549" ht="33.6" spans="1:2">
+    <row r="549" ht="134.4" spans="1:2">
       <c r="A549" s="6" t="s">
         <v>1093</v>
       </c>
@@ -11010,7 +12361,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="550" ht="33.6" spans="1:2">
+    <row r="550" ht="151.2" spans="1:2">
       <c r="A550" s="6" t="s">
         <v>1095</v>
       </c>
@@ -11018,7 +12369,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="551" ht="33.6" spans="1:2">
+    <row r="551" ht="84" spans="1:2">
       <c r="A551" s="6" t="s">
         <v>1097</v>
       </c>
@@ -11026,7 +12377,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="552" ht="50.4" spans="1:2">
+    <row r="552" ht="33.6" spans="1:2">
       <c r="A552" s="6" t="s">
         <v>1099</v>
       </c>
@@ -11042,7 +12393,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="554" ht="67.2" spans="1:2">
+    <row r="554" ht="33.6" spans="1:2">
       <c r="A554" s="6" t="s">
         <v>1103</v>
       </c>
@@ -11050,7 +12401,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="555" ht="33.6" spans="1:2">
+    <row r="555" ht="50.4" spans="1:2">
       <c r="A555" s="6" t="s">
         <v>1105</v>
       </c>
@@ -11058,7 +12409,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" ht="33.6" spans="1:2">
       <c r="A556" s="6" t="s">
         <v>1107</v>
       </c>
@@ -11066,7 +12417,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" ht="67.2" spans="1:2">
       <c r="A557" s="6" t="s">
         <v>1109</v>
       </c>
@@ -11074,7 +12425,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" ht="33.6" spans="1:2">
       <c r="A558" s="6" t="s">
         <v>1111</v>
       </c>
@@ -11082,7 +12433,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="559" ht="33.6" spans="1:2">
+    <row r="559" spans="1:2">
       <c r="A559" s="6" t="s">
         <v>1113</v>
       </c>
@@ -11130,7 +12481,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" ht="33.6" spans="1:2">
       <c r="A565" s="6" t="s">
         <v>1125</v>
       </c>
@@ -11202,7 +12553,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="574" ht="33.6" spans="1:2">
+    <row r="574" spans="1:2">
       <c r="A574" s="6" t="s">
         <v>1143</v>
       </c>
@@ -11226,7 +12577,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" ht="33.6" spans="1:2">
       <c r="A577" s="6" t="s">
         <v>1149</v>
       </c>
@@ -11290,7 +12641,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" ht="50.4" spans="1:2">
       <c r="A585" s="6" t="s">
         <v>1165</v>
       </c>
@@ -11354,7 +12705,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="593" ht="33.6" spans="1:2">
+    <row r="593" spans="1:2">
       <c r="A593" s="6" t="s">
         <v>1181</v>
       </c>
@@ -11386,7 +12737,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="597" spans="1:2">
+    <row r="597" ht="33.6" spans="1:2">
       <c r="A597" s="6" t="s">
         <v>1189</v>
       </c>
@@ -11402,7 +12753,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="599" ht="33.6" spans="1:2">
+    <row r="599" spans="1:2">
       <c r="A599" s="6" t="s">
         <v>1193</v>
       </c>
@@ -11434,7 +12785,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" ht="33.6" spans="1:2">
       <c r="A603" s="6" t="s">
         <v>1201</v>
       </c>
@@ -11490,7 +12841,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="610" ht="33.6" spans="1:2">
+    <row r="610" spans="1:2">
       <c r="A610" s="6" t="s">
         <v>1215</v>
       </c>
@@ -11498,7 +12849,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="611" ht="33.6" spans="1:2">
+    <row r="611" spans="1:2">
       <c r="A611" s="6" t="s">
         <v>1217</v>
       </c>
@@ -11522,7 +12873,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" ht="33.6" spans="1:2">
       <c r="A614" s="6" t="s">
         <v>1223</v>
       </c>
@@ -11530,7 +12881,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="615" spans="1:2">
+    <row r="615" ht="33.6" spans="1:2">
       <c r="A615" s="6" t="s">
         <v>1225</v>
       </c>
@@ -11586,7 +12937,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="622" ht="33.6" spans="1:2">
+    <row r="622" spans="1:2">
       <c r="A622" s="6" t="s">
         <v>1239</v>
       </c>
@@ -11602,7 +12953,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="624" ht="33.6" spans="1:2">
+    <row r="624" spans="1:2">
       <c r="A624" s="6" t="s">
         <v>1243</v>
       </c>
@@ -11618,7 +12969,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" ht="33.6" spans="1:2">
       <c r="A626" s="6" t="s">
         <v>1247</v>
       </c>
@@ -11626,7 +12977,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="627" ht="67.2" spans="1:2">
+    <row r="627" spans="1:2">
       <c r="A627" s="6" t="s">
         <v>1249</v>
       </c>
@@ -11634,7 +12985,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="628" ht="50.4" spans="1:2">
+    <row r="628" ht="33.6" spans="1:2">
       <c r="A628" s="6" t="s">
         <v>1251</v>
       </c>
@@ -11642,7 +12993,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="629" ht="33.6" spans="1:2">
+    <row r="629" spans="1:2">
       <c r="A629" s="6" t="s">
         <v>1253</v>
       </c>
@@ -11650,7 +13001,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="630" ht="50.4" spans="1:2">
+    <row r="630" spans="1:2">
       <c r="A630" s="6" t="s">
         <v>1255</v>
       </c>
@@ -11658,7 +13009,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="631" ht="168" spans="1:2">
+    <row r="631" ht="67.2" spans="1:2">
       <c r="A631" s="6" t="s">
         <v>1257</v>
       </c>
@@ -11666,7 +13017,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="632" ht="67.2" spans="1:2">
+    <row r="632" ht="50.4" spans="1:2">
       <c r="A632" s="6" t="s">
         <v>1259</v>
       </c>
@@ -11674,7 +13025,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="633" ht="151.2" spans="1:2">
+    <row r="633" ht="33.6" spans="1:2">
       <c r="A633" s="6" t="s">
         <v>1261</v>
       </c>
@@ -11690,41 +13041,41 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" ht="168" spans="1:2">
       <c r="A635" s="6" t="s">
-        <v>366</v>
+        <v>1265</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="636" ht="67.2" spans="1:2">
       <c r="A636" s="6" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B636" s="6" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="637" ht="151.2" spans="1:2">
       <c r="A637" s="6" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="638" ht="50.4" spans="1:2">
       <c r="A638" s="6" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="6" t="s">
-        <v>1272</v>
+        <v>368</v>
       </c>
       <c r="B639" s="6" t="s">
         <v>1273</v>
@@ -11898,7 +13249,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="661" ht="33.6" spans="1:2">
+    <row r="661" spans="1:2">
       <c r="A661" s="6" t="s">
         <v>1316</v>
       </c>
@@ -11914,7 +13265,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="663" ht="33.6" spans="1:2">
+    <row r="663" spans="1:2">
       <c r="A663" s="6" t="s">
         <v>1320</v>
       </c>
@@ -11930,7 +13281,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" ht="33.6" spans="1:2">
       <c r="A665" s="6" t="s">
         <v>1324</v>
       </c>
@@ -11946,7 +13297,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" ht="33.6" spans="1:2">
       <c r="A667" s="6" t="s">
         <v>1328</v>
       </c>
@@ -11962,7 +13313,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="669" ht="33.6" spans="1:2">
+    <row r="669" spans="1:2">
       <c r="A669" s="6" t="s">
         <v>1332</v>
       </c>
@@ -11978,7 +13329,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="671" ht="33.6" spans="1:2">
+    <row r="671" spans="1:2">
       <c r="A671" s="6" t="s">
         <v>1336</v>
       </c>
@@ -11994,7 +13345,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="673" spans="1:2">
+    <row r="673" ht="33.6" spans="1:2">
       <c r="A673" s="6" t="s">
         <v>1340</v>
       </c>
@@ -12018,7 +13369,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="676" spans="1:2">
+    <row r="676" ht="33.6" spans="1:2">
       <c r="A676" s="6" t="s">
         <v>1346</v>
       </c>
@@ -12026,7 +13377,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="677" ht="33.6" spans="1:2">
+    <row r="677" spans="1:2">
       <c r="A677" s="6" t="s">
         <v>1348</v>
       </c>
@@ -12042,7 +13393,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="679" ht="33.6" spans="1:2">
+    <row r="679" spans="1:2">
       <c r="A679" s="6" t="s">
         <v>1352</v>
       </c>
@@ -12066,7 +13417,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="682" spans="1:2">
+    <row r="682" ht="33.6" spans="1:2">
       <c r="A682" s="6" t="s">
         <v>1358</v>
       </c>
@@ -12078,11 +13429,11 @@
       <c r="A683" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="B683" s="11" t="s">
+      <c r="B683" s="6" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="684" spans="1:2">
+    <row r="684" ht="33.6" spans="1:2">
       <c r="A684" s="6" t="s">
         <v>1362</v>
       </c>
@@ -12118,7 +13469,7 @@
       <c r="A688" s="6" t="s">
         <v>1370</v>
       </c>
-      <c r="B688" s="6" t="s">
+      <c r="B688" s="11" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -12150,7 +13501,7 @@
       <c r="A692" s="6" t="s">
         <v>1378</v>
       </c>
-      <c r="B692" s="11" t="s">
+      <c r="B692" s="6" t="s">
         <v>1379</v>
       </c>
     </row>
@@ -12186,11 +13537,11 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="697" ht="33.6" spans="1:2">
+    <row r="697" spans="1:2">
       <c r="A697" s="6" t="s">
         <v>1388</v>
       </c>
-      <c r="B697" s="6" t="s">
+      <c r="B697" s="11" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -12202,7 +13553,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="699" ht="67.2" spans="1:2">
+    <row r="699" spans="1:2">
       <c r="A699" s="6" t="s">
         <v>1392</v>
       </c>
@@ -12210,7 +13561,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="700" ht="134.4" spans="1:2">
+    <row r="700" spans="1:2">
       <c r="A700" s="6" t="s">
         <v>1394</v>
       </c>
@@ -12226,7 +13577,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="702" spans="1:2">
+    <row r="702" ht="33.6" spans="1:2">
       <c r="A702" s="6" t="s">
         <v>1398</v>
       </c>
@@ -12242,7 +13593,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="704" spans="1:2">
+    <row r="704" ht="67.2" spans="1:2">
       <c r="A704" s="6" t="s">
         <v>1402</v>
       </c>
@@ -12250,7 +13601,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="705" spans="1:2">
+    <row r="705" ht="134.4" spans="1:2">
       <c r="A705" s="6" t="s">
         <v>1404</v>
       </c>
@@ -12266,7 +13617,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="707" ht="33.6" spans="1:2">
+    <row r="707" spans="1:2">
       <c r="A707" s="6" t="s">
         <v>1408</v>
       </c>
@@ -12282,7 +13633,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="709" ht="33.6" spans="1:2">
+    <row r="709" spans="1:2">
       <c r="A709" s="6" t="s">
         <v>1412</v>
       </c>
@@ -12306,7 +13657,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="712" spans="1:2">
+    <row r="712" ht="33.6" spans="1:2">
       <c r="A712" s="6" t="s">
         <v>1418</v>
       </c>
@@ -12322,7 +13673,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="714" spans="1:2">
+    <row r="714" ht="33.6" spans="1:2">
       <c r="A714" s="6" t="s">
         <v>1422</v>
       </c>
@@ -12354,7 +13705,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="718" ht="33.6" spans="1:2">
+    <row r="718" spans="1:2">
       <c r="A718" s="6" t="s">
         <v>1430</v>
       </c>
@@ -12370,7 +13721,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="720" ht="33.6" spans="1:2">
+    <row r="720" spans="1:2">
       <c r="A720" s="6" t="s">
         <v>1434</v>
       </c>
@@ -12394,7 +13745,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="723" spans="1:2">
+    <row r="723" ht="33.6" spans="1:2">
       <c r="A723" s="6" t="s">
         <v>1440</v>
       </c>
@@ -12402,7 +13753,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="724" ht="33.6" spans="1:2">
+    <row r="724" spans="1:2">
       <c r="A724" s="6" t="s">
         <v>1442</v>
       </c>
@@ -12418,7 +13769,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="726" spans="1:2">
+    <row r="726" ht="33.6" spans="1:2">
       <c r="A726" s="6" t="s">
         <v>1446</v>
       </c>
@@ -12450,7 +13801,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="730" spans="1:2">
+    <row r="730" ht="33.6" spans="1:2">
       <c r="A730" s="6" t="s">
         <v>1454</v>
       </c>
@@ -12498,7 +13849,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="736" spans="1:2">
+    <row r="736" ht="67.2" spans="1:2">
       <c r="A736" s="6" t="s">
         <v>1466</v>
       </c>
@@ -12532,98 +13883,98 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="6" t="s">
-        <v>604</v>
+        <v>1474</v>
       </c>
       <c r="B740" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="6" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="6" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B742" s="6" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="6" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B743" s="6" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="6" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B744" s="6" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="6" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="B745" s="6" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="6" t="s">
-        <v>1482</v>
+        <v>606</v>
       </c>
       <c r="B746" s="6" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="6" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="B747" s="6" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B748" s="6" t="s">
         <v>1486</v>
-      </c>
-      <c r="B748" s="6" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="6" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="B749" s="6" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="6" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B750" s="6" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="751" ht="67.2" spans="1:2">
+    <row r="751" spans="1:2">
       <c r="A751" s="6" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B751" s="6" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -12666,7 +14017,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="757" spans="1:2">
+    <row r="757" ht="67.2" spans="1:2">
       <c r="A757" s="6" t="s">
         <v>1504</v>
       </c>
@@ -12738,7 +14089,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="766" ht="33.6" spans="1:2">
+    <row r="766" spans="1:2">
       <c r="A766" s="6" t="s">
         <v>1522</v>
       </c>
@@ -12762,7 +14113,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="769" ht="33.6" spans="1:2">
+    <row r="769" spans="1:2">
       <c r="A769" s="6" t="s">
         <v>1528</v>
       </c>
@@ -12770,7 +14121,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="770" ht="33.6" spans="1:2">
+    <row r="770" spans="1:2">
       <c r="A770" s="6" t="s">
         <v>1530</v>
       </c>
@@ -12778,7 +14129,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="771" ht="50.4" spans="1:2">
+    <row r="771" spans="1:2">
       <c r="A771" s="6" t="s">
         <v>1532</v>
       </c>
@@ -12786,7 +14137,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="772" ht="50.4" spans="1:2">
+    <row r="772" ht="33.6" spans="1:2">
       <c r="A772" s="6" t="s">
         <v>1534</v>
       </c>
@@ -12794,7 +14145,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="773" ht="50.4" spans="1:2">
+    <row r="773" spans="1:2">
       <c r="A773" s="6" t="s">
         <v>1536</v>
       </c>
@@ -12802,7 +14153,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="774" ht="33.6" spans="1:2">
+    <row r="774" spans="1:2">
       <c r="A774" s="6" t="s">
         <v>1538</v>
       </c>
@@ -12818,7 +14169,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="776" ht="50.4" spans="1:2">
+    <row r="776" ht="33.6" spans="1:2">
       <c r="A776" s="6" t="s">
         <v>1542</v>
       </c>
@@ -12826,7 +14177,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="777" ht="33.6" spans="1:2">
+    <row r="777" ht="50.4" spans="1:2">
       <c r="A777" s="6" t="s">
         <v>1544</v>
       </c>
@@ -12834,7 +14185,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="778" spans="1:2">
+    <row r="778" ht="50.4" spans="1:2">
       <c r="A778" s="6" t="s">
         <v>1546</v>
       </c>
@@ -12842,7 +14193,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="779" spans="1:2">
+    <row r="779" ht="50.4" spans="1:2">
       <c r="A779" s="6" t="s">
         <v>1548</v>
       </c>
@@ -12850,7 +14201,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="780" spans="1:2">
+    <row r="780" ht="33.6" spans="1:2">
       <c r="A780" s="6" t="s">
         <v>1550</v>
       </c>
@@ -12858,7 +14209,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="781" spans="1:2">
+    <row r="781" ht="33.6" spans="1:2">
       <c r="A781" s="6" t="s">
         <v>1552</v>
       </c>
@@ -12866,7 +14217,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="782" spans="1:2">
+    <row r="782" ht="50.4" spans="1:2">
       <c r="A782" s="6" t="s">
         <v>1554</v>
       </c>
@@ -12874,7 +14225,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="783" spans="1:2">
+    <row r="783" ht="33.6" spans="1:2">
       <c r="A783" s="6" t="s">
         <v>1556</v>
       </c>
@@ -12882,7 +14233,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="784" ht="33.6" spans="1:2">
+    <row r="784" spans="1:2">
       <c r="A784" s="6" t="s">
         <v>1558</v>
       </c>
@@ -12906,62 +14257,62 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" spans="1:2">
       <c r="A787" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="B787" s="6" t="s">
         <v>1565</v>
       </c>
-      <c r="C787" s="5" t="s">
-        <v>1566</v>
-      </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B788" s="6" t="s">
         <v>1567</v>
-      </c>
-      <c r="B788" s="6" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B789" s="6" t="s">
         <v>1569</v>
       </c>
-      <c r="B789" s="6" t="s">
+    </row>
+    <row r="790" ht="33.6" spans="1:2">
+      <c r="A790" s="6" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="790" spans="1:2">
-      <c r="A790" s="6" t="s">
+      <c r="B790" s="6" t="s">
         <v>1571</v>
-      </c>
-      <c r="B790" s="6" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B791" s="6" t="s">
         <v>1573</v>
-      </c>
-      <c r="B791" s="6" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B792" s="6" t="s">
         <v>1575</v>
       </c>
-      <c r="B792" s="6" t="s">
+    </row>
+    <row r="793" spans="1:3">
+      <c r="A793" s="6" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="793" spans="1:2">
-      <c r="A793" s="6" t="s">
+      <c r="B793" s="6" t="s">
         <v>1577</v>
       </c>
-      <c r="B793" s="6" t="s">
+      <c r="C793" s="5" t="s">
         <v>1578</v>
       </c>
     </row>
@@ -12997,7 +14348,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="798" ht="33.6" spans="1:2">
+    <row r="798" spans="1:2">
       <c r="A798" s="6" t="s">
         <v>1587</v>
       </c>
@@ -13005,7 +14356,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="799" ht="84" spans="1:2">
+    <row r="799" spans="1:2">
       <c r="A799" s="6" t="s">
         <v>1589</v>
       </c>
@@ -13021,7 +14372,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="801" ht="100.8" spans="1:2">
+    <row r="801" ht="67.2" spans="1:2">
       <c r="A801" s="6" t="s">
         <v>1593</v>
       </c>
@@ -13029,7 +14380,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="802" ht="33.6" spans="1:2">
+    <row r="802" spans="1:2">
       <c r="A802" s="6" t="s">
         <v>1595</v>
       </c>
@@ -13037,7 +14388,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="803" ht="33.6" spans="1:2">
+    <row r="803" spans="1:2">
       <c r="A803" s="6" t="s">
         <v>1597</v>
       </c>
@@ -13053,7 +14404,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="805" ht="134.4" spans="1:2">
+    <row r="805" ht="84" spans="1:2">
       <c r="A805" s="6" t="s">
         <v>1601</v>
       </c>
@@ -13061,7 +14412,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="806" ht="50.4" spans="1:2">
+    <row r="806" spans="1:2">
       <c r="A806" s="6" t="s">
         <v>1603</v>
       </c>
@@ -13077,7 +14428,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="808" ht="134.4" spans="1:2">
+    <row r="808" ht="33.6" spans="1:2">
       <c r="A808" s="6" t="s">
         <v>1607</v>
       </c>
@@ -13085,7 +14436,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="809" ht="50.4" spans="1:2">
+    <row r="809" ht="33.6" spans="1:2">
       <c r="A809" s="6" t="s">
         <v>1609</v>
       </c>
@@ -13093,7 +14444,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="810" ht="134.4" spans="1:2">
+    <row r="810" ht="33.6" spans="1:2">
       <c r="A810" s="6" t="s">
         <v>1611</v>
       </c>
@@ -13101,7 +14452,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="811" ht="84" spans="1:2">
+    <row r="811" ht="134.4" spans="1:2">
       <c r="A811" s="6" t="s">
         <v>1613</v>
       </c>
@@ -13109,7 +14460,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="812" spans="1:2">
+    <row r="812" ht="50.4" spans="1:2">
       <c r="A812" s="6" t="s">
         <v>1615</v>
       </c>
@@ -13117,7 +14468,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="813" spans="1:2">
+    <row r="813" ht="100.8" spans="1:2">
       <c r="A813" s="6" t="s">
         <v>1617</v>
       </c>
@@ -13125,7 +14476,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="814" spans="1:2">
+    <row r="814" ht="134.4" spans="1:2">
       <c r="A814" s="6" t="s">
         <v>1619</v>
       </c>
@@ -13133,7 +14484,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="815" spans="1:2">
+    <row r="815" ht="50.4" spans="1:2">
       <c r="A815" s="6" t="s">
         <v>1621</v>
       </c>
@@ -13141,7 +14492,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="816" spans="1:2">
+    <row r="816" ht="134.4" spans="1:2">
       <c r="A816" s="6" t="s">
         <v>1623</v>
       </c>
@@ -13149,7 +14500,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="817" spans="1:2">
+    <row r="817" ht="84" spans="1:2">
       <c r="A817" s="6" t="s">
         <v>1625</v>
       </c>
@@ -13157,7 +14508,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="818" ht="117.6" spans="1:2">
+    <row r="818" spans="1:2">
       <c r="A818" s="6" t="s">
         <v>1627</v>
       </c>
@@ -13189,7 +14540,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="822" ht="84" spans="1:2">
+    <row r="822" spans="1:2">
       <c r="A822" s="6" t="s">
         <v>1635</v>
       </c>
@@ -13217,7 +14568,7 @@
       <c r="A825" s="6" t="s">
         <v>1641</v>
       </c>
-      <c r="B825" s="11" t="s">
+      <c r="B825" s="6" t="s">
         <v>1642</v>
       </c>
     </row>
@@ -13237,7 +14588,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="828" ht="33.6" spans="1:2">
+    <row r="828" ht="84" spans="1:2">
       <c r="A828" s="6" t="s">
         <v>1647</v>
       </c>
@@ -13253,7 +14604,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="830" spans="1:2">
+    <row r="830" ht="117.6" spans="1:2">
       <c r="A830" s="6" t="s">
         <v>1651</v>
       </c>
@@ -13265,7 +14616,7 @@
       <c r="A831" s="6" t="s">
         <v>1653</v>
       </c>
-      <c r="B831" s="6" t="s">
+      <c r="B831" s="11" t="s">
         <v>1654</v>
       </c>
     </row>
@@ -13285,7 +14636,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="834" ht="134.4" spans="1:2">
+    <row r="834" ht="33.6" spans="1:2">
       <c r="A834" s="6" t="s">
         <v>1659</v>
       </c>
@@ -13325,7 +14676,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="839" ht="33.6" spans="1:2">
+    <row r="839" spans="1:2">
       <c r="A839" s="6" t="s">
         <v>1669</v>
       </c>
@@ -13333,7 +14684,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="840" spans="1:2">
+    <row r="840" ht="134.4" spans="1:2">
       <c r="A840" s="6" t="s">
         <v>1671</v>
       </c>
@@ -13357,7 +14708,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="843" ht="33.6" spans="1:2">
+    <row r="843" spans="1:2">
       <c r="A843" s="6" t="s">
         <v>1677</v>
       </c>
@@ -13373,7 +14724,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="845" ht="117.6" spans="1:2">
+    <row r="845" ht="33.6" spans="1:2">
       <c r="A845" s="6" t="s">
         <v>1681</v>
       </c>
@@ -13381,7 +14732,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="846" ht="50.4" spans="1:2">
+    <row r="846" spans="1:2">
       <c r="A846" s="6" t="s">
         <v>1683</v>
       </c>
@@ -13389,7 +14740,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="847" ht="33.6" spans="1:2">
+    <row r="847" spans="1:2">
       <c r="A847" s="6" t="s">
         <v>1685</v>
       </c>
@@ -13397,7 +14748,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="848" ht="33.6" spans="1:2">
+    <row r="848" spans="1:2">
       <c r="A848" s="6" t="s">
         <v>1687</v>
       </c>
@@ -13405,7 +14756,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="849" ht="67.2" spans="1:2">
+    <row r="849" ht="33.6" spans="1:2">
       <c r="A849" s="6" t="s">
         <v>1689</v>
       </c>
@@ -13413,7 +14764,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="850" ht="67.2" spans="1:2">
+    <row r="850" spans="1:2">
       <c r="A850" s="6" t="s">
         <v>1691</v>
       </c>
@@ -13421,7 +14772,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="851" ht="67.2" spans="1:2">
+    <row r="851" ht="117.6" spans="1:2">
       <c r="A851" s="6" t="s">
         <v>1693</v>
       </c>
@@ -13429,7 +14780,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="852" ht="67.2" spans="1:2">
+    <row r="852" ht="50.4" spans="1:2">
       <c r="A852" s="6" t="s">
         <v>1695</v>
       </c>
@@ -13437,7 +14788,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="853" spans="1:2">
+    <row r="853" ht="33.6" spans="1:2">
       <c r="A853" s="6" t="s">
         <v>1697</v>
       </c>
@@ -13445,7 +14796,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="854" ht="84" spans="1:2">
+    <row r="854" ht="33.6" spans="1:2">
       <c r="A854" s="6" t="s">
         <v>1699</v>
       </c>
@@ -13453,7 +14804,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="855" ht="117.6" spans="1:2">
+    <row r="855" ht="67.2" spans="1:2">
       <c r="A855" s="6" t="s">
         <v>1701</v>
       </c>
@@ -13461,7 +14812,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="856" ht="50.4" spans="1:2">
+    <row r="856" ht="67.2" spans="1:2">
       <c r="A856" s="6" t="s">
         <v>1703</v>
       </c>
@@ -13469,7 +14820,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="857" spans="1:2">
+    <row r="857" ht="67.2" spans="1:2">
       <c r="A857" s="6" t="s">
         <v>1705</v>
       </c>
@@ -13477,7 +14828,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="858" spans="1:2">
+    <row r="858" ht="67.2" spans="1:2">
       <c r="A858" s="6" t="s">
         <v>1707</v>
       </c>
@@ -13485,7 +14836,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="859" ht="33.6" spans="1:2">
+    <row r="859" spans="1:2">
       <c r="A859" s="6" t="s">
         <v>1709</v>
       </c>
@@ -13493,7 +14844,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="860" ht="33.6" spans="1:2">
+    <row r="860" ht="84" spans="1:2">
       <c r="A860" s="6" t="s">
         <v>1711</v>
       </c>
@@ -13501,7 +14852,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="861" ht="33.6" spans="1:2">
+    <row r="861" ht="117.6" spans="1:2">
       <c r="A861" s="6" t="s">
         <v>1713</v>
       </c>
@@ -13509,7 +14860,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="862" ht="84" spans="1:2">
+    <row r="862" ht="50.4" spans="1:2">
       <c r="A862" s="6" t="s">
         <v>1715</v>
       </c>
@@ -13517,7 +14868,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="863" ht="84" spans="1:2">
+    <row r="863" spans="1:2">
       <c r="A863" s="6" t="s">
         <v>1717</v>
       </c>
@@ -13533,7 +14884,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="865" ht="84" spans="1:2">
+    <row r="865" ht="33.6" spans="1:2">
       <c r="A865" s="6" t="s">
         <v>1721</v>
       </c>
@@ -13541,7 +14892,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="866" ht="50.4" spans="1:2">
+    <row r="866" ht="33.6" spans="1:2">
       <c r="A866" s="6" t="s">
         <v>1723</v>
       </c>
@@ -13549,7 +14900,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="867" spans="1:2">
+    <row r="867" ht="33.6" spans="1:2">
       <c r="A867" s="6" t="s">
         <v>1725</v>
       </c>
@@ -13557,7 +14908,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="868" spans="1:2">
+    <row r="868" ht="84" spans="1:2">
       <c r="A868" s="6" t="s">
         <v>1727</v>
       </c>
@@ -13565,7 +14916,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="869" spans="1:2">
+    <row r="869" ht="84" spans="1:2">
       <c r="A869" s="6" t="s">
         <v>1729</v>
       </c>
@@ -13581,7 +14932,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="871" spans="1:2">
+    <row r="871" ht="84" spans="1:2">
       <c r="A871" s="6" t="s">
         <v>1733</v>
       </c>
@@ -13589,7 +14940,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="872" spans="1:2">
+    <row r="872" ht="50.4" spans="1:2">
       <c r="A872" s="6" t="s">
         <v>1735</v>
       </c>
@@ -13679,61 +15030,61 @@
     </row>
     <row r="883" spans="1:2">
       <c r="A883" s="6" t="s">
-        <v>368</v>
+        <v>1757</v>
       </c>
       <c r="B883" s="6" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" s="6" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B884" s="6" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" s="6" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B885" s="6" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" s="6" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B886" s="6" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" s="6" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B887" s="6" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="888" ht="67.2" spans="1:2">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
       <c r="A888" s="6" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B888" s="6" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" s="6" t="s">
-        <v>1768</v>
+        <v>370</v>
       </c>
       <c r="B889" s="6" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="890" ht="33.6" spans="1:2">
+    <row r="890" spans="1:2">
       <c r="A890" s="6" t="s">
         <v>1770</v>
       </c>
@@ -13741,7 +15092,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="891" ht="67.2" spans="1:2">
+    <row r="891" spans="1:2">
       <c r="A891" s="6" t="s">
         <v>1772</v>
       </c>
@@ -13749,7 +15100,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="892" ht="33.6" spans="1:2">
+    <row r="892" spans="1:2">
       <c r="A892" s="6" t="s">
         <v>1774</v>
       </c>
@@ -13765,7 +15116,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="894" ht="33.6" spans="1:2">
+    <row r="894" spans="1:2">
       <c r="A894" s="6" t="s">
         <v>1778</v>
       </c>
@@ -13773,7 +15124,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="895" ht="50.4" spans="1:2">
+    <row r="895" ht="67.2" spans="1:2">
       <c r="A895" s="6" t="s">
         <v>1780</v>
       </c>
@@ -13781,7 +15132,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="896" ht="33.6" spans="1:2">
+    <row r="896" spans="1:2">
       <c r="A896" s="6" t="s">
         <v>1782</v>
       </c>
@@ -13789,7 +15140,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="897" ht="50.4" spans="1:2">
+    <row r="897" ht="33.6" spans="1:2">
       <c r="A897" s="6" t="s">
         <v>1784</v>
       </c>
@@ -13797,7 +15148,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="898" ht="33.6" spans="1:2">
+    <row r="898" ht="67.2" spans="1:2">
       <c r="A898" s="6" t="s">
         <v>1786</v>
       </c>
@@ -13805,7 +15156,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="899" spans="1:2">
+    <row r="899" ht="33.6" spans="1:2">
       <c r="A899" s="6" t="s">
         <v>1788</v>
       </c>
@@ -13821,7 +15172,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="901" spans="1:2">
+    <row r="901" ht="33.6" spans="1:2">
       <c r="A901" s="6" t="s">
         <v>1792</v>
       </c>
@@ -13829,7 +15180,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="902" spans="1:2">
+    <row r="902" ht="50.4" spans="1:2">
       <c r="A902" s="6" t="s">
         <v>1794</v>
       </c>
@@ -13837,7 +15188,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="903" spans="1:2">
+    <row r="903" ht="33.6" spans="1:2">
       <c r="A903" s="6" t="s">
         <v>1796</v>
       </c>
@@ -13845,7 +15196,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="904" spans="1:2">
+    <row r="904" ht="50.4" spans="1:2">
       <c r="A904" s="6" t="s">
         <v>1798</v>
       </c>
@@ -13853,7 +15204,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="905" spans="1:2">
+    <row r="905" ht="33.6" spans="1:2">
       <c r="A905" s="6" t="s">
         <v>1800</v>
       </c>
@@ -13887,63 +15238,63 @@
     </row>
     <row r="909" spans="1:2">
       <c r="A909" s="6" t="s">
-        <v>1729</v>
+        <v>1808</v>
       </c>
       <c r="B909" s="6" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" s="6" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B910" s="6" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" s="6" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B911" s="6" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" s="6" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B912" s="6" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" s="6" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B913" s="6" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" s="6" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B914" s="6" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" s="6" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B915" s="6" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" s="6" t="s">
-        <v>1821</v>
+        <v>1741</v>
       </c>
       <c r="B916" s="6" t="s">
         <v>1822</v>
@@ -13971,6 +15322,1782 @@
       </c>
       <c r="B919" s="6" t="s">
         <v>1828</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="6" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B920" s="6" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="6" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B921" s="6" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="6" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B922" s="6" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="6" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B923" s="6" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="6" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B924" s="6" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="6" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B925" s="6" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="6" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B926" s="6" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="927" ht="50.4" spans="1:2">
+      <c r="A927" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B927" s="6" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="928" ht="33.6" spans="1:2">
+      <c r="A928" s="6" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B928" s="6" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="6" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B929" s="6" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B930" s="6" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B931" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="6" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B932" s="6" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="6" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B933" s="6" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B934" s="6" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B935" s="6" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B936" s="6" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="6" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B937" s="6" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="6" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B938" s="6" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B939" s="6" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B940" s="6" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="6" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B941" s="6" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="6" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B942" s="6" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="6" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B943" s="6" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="6" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B944" s="6" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="6" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B945" s="6" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="6" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B946" s="6" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="6" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B947" s="6" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="6" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B948" s="6" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="6" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B949" s="6" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="950" ht="33.6" spans="1:2">
+      <c r="A950" s="6" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B950" s="6" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="951" ht="33.6" spans="1:2">
+      <c r="A951" s="6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B951" s="6" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="6" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B952" s="6" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="953" ht="33.6" spans="1:2">
+      <c r="A953" s="6" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B953" s="6" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="954" ht="50.4" spans="1:2">
+      <c r="A954" s="6" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B954" s="6" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="6" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B955" s="6" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="956" ht="33.6" spans="1:2">
+      <c r="A956" s="6" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B956" s="6" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="957" ht="33.6" spans="1:2">
+      <c r="A957" s="6" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B957" s="6" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="958" ht="50.4" spans="1:2">
+      <c r="A958" s="6" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B958" s="6" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="959" ht="67.2" spans="1:2">
+      <c r="A959" s="6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B959" s="6" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="960" ht="33.6" spans="1:2">
+      <c r="A960" s="6" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B960" s="6" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="961" ht="50.4" spans="1:2">
+      <c r="A961" s="6" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B961" s="6" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="962" ht="33.6" spans="1:2">
+      <c r="A962" s="6" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B962" s="6" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="963" ht="50.4" spans="1:2">
+      <c r="A963" s="6" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B963" s="6" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="964" ht="50.4" spans="1:2">
+      <c r="A964" s="6" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B964" s="6" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="965" ht="50.4" spans="1:2">
+      <c r="A965" s="6" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B965" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="966" ht="67.2" spans="1:2">
+      <c r="A966" s="6" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B966" s="6" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="967" ht="33.6" spans="1:2">
+      <c r="A967" s="6" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B967" s="6" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="968" ht="50.4" spans="1:2">
+      <c r="A968" s="6" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B968" s="6" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="969" ht="50.4" spans="1:2">
+      <c r="A969" s="6" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B969" s="6" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="970" ht="50.4" spans="1:2">
+      <c r="A970" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B970" s="6" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="971" ht="50.4" spans="1:2">
+      <c r="A971" s="6" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B971" s="6" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="972" ht="67.2" spans="1:2">
+      <c r="A972" s="6" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B972" s="6" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="973" ht="67.2" spans="1:2">
+      <c r="A973" s="6" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B973" s="6" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="974" ht="67.2" spans="1:2">
+      <c r="A974" s="6" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B974" s="6" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="975" ht="50.4" spans="1:2">
+      <c r="A975" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B975" s="6" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="976" ht="33.6" spans="1:2">
+      <c r="A976" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B976" s="6" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="977" ht="33.6" spans="1:2">
+      <c r="A977" s="6" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B977" s="6" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="6" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B978" s="6" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="6" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B979" s="6" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="6" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B980" s="6" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="6" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B981" s="6" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="6" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B982" s="6" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="6" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B983" s="6" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="6" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B984" s="6" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="6" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B985" s="6" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="6" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B986" s="6" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="6" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B987" s="6" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="6" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B988" s="6" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" s="6" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B989" s="6" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" s="6" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B990" s="6" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" s="6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B991" s="6" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" s="6" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B992" s="6" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="993" ht="33.6" spans="1:2">
+      <c r="A993" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B993" s="6" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="6" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B994" s="6" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B995" s="6" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B996" s="6" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B997" s="6" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="998" ht="33.6" spans="1:2">
+      <c r="A998" s="6" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B998" s="6" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="999" ht="67.2" spans="1:2">
+      <c r="A999" s="6" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B999" s="6" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1000" ht="50.4" spans="1:2">
+      <c r="A1000" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1000" s="6" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1001" ht="33.6" spans="1:2">
+      <c r="A1001" s="6" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1001" s="6" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1002" ht="33.6" spans="1:2">
+      <c r="A1002" s="6" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1002" s="6" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1003" ht="117.6" spans="1:2">
+      <c r="A1003" s="6" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1003" s="6" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1004" s="6" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1005" ht="50.4" spans="1:2">
+      <c r="A1005" s="6" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1005" s="6" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1006" ht="33.6" spans="1:2">
+      <c r="A1006" s="6" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1006" s="6" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" s="6" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1007" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1008" ht="33.6" spans="1:2">
+      <c r="A1008" s="6" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1008" s="6" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" s="6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1009" s="6" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" s="6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1010" s="6" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="6" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1011" s="6" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="6" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1012" s="6" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="6" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1013" s="6" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1014" s="6" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="6" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1015" s="6" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" s="6" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1016" s="6" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1017" ht="50.4" spans="1:2">
+      <c r="A1017" s="6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1017" s="6" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1018" ht="67.2" spans="1:2">
+      <c r="A1018" s="6" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1018" s="6" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" s="6" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1019" s="6" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" s="6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1020" s="6" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" s="6" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1021" s="6" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="A1022" s="6" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1022" s="6" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="A1023" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1023" s="6" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" s="6" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1024" s="6" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" s="6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1025" s="6" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="6" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1026" s="6" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1027" s="6" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="6" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1028" s="6" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="A1029" s="6" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1029" s="6" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" s="6" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1030" s="6" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2">
+      <c r="A1031" s="6" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1031" s="6" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1032" ht="67.2" spans="1:2">
+      <c r="A1032" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1032" s="6" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2">
+      <c r="A1033" s="6" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1033" s="6" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" s="6" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1034" s="6" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2">
+      <c r="A1035" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1035" s="6" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="6" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1036" s="6" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2">
+      <c r="A1037" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1037" s="6" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038" s="6" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1038" s="6" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2">
+      <c r="A1039" s="6" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1039" s="6" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2">
+      <c r="A1040" s="6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1040" s="6" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2">
+      <c r="A1041" s="6" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1041" s="6" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2">
+      <c r="A1042" s="6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1042" s="6" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2">
+      <c r="A1043" s="6" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1043" s="6" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2">
+      <c r="A1044" s="6" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1044" s="6" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1045" ht="33.6" spans="1:2">
+      <c r="A1045" s="6" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1045" s="6" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2">
+      <c r="A1046" s="6" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1046" s="6" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2">
+      <c r="A1047" s="6" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1047" s="6" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2">
+      <c r="A1048" s="6" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1048" s="6" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2">
+      <c r="A1049" s="6" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1049" s="11" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2">
+      <c r="A1050" s="6" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1050" s="6" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2">
+      <c r="A1051" s="6" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1051" s="6" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2">
+      <c r="A1052" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B1052" s="6" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2">
+      <c r="A1053" s="6" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B1053" s="6" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2">
+      <c r="A1054" s="6" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1054" s="6" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2">
+      <c r="A1055" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1055" s="6" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="A1056" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1056" s="6" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1057" ht="33.6" spans="1:2">
+      <c r="A1057" s="6" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1057" s="6" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2">
+      <c r="A1058" s="6" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1058" s="6" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2">
+      <c r="A1059" s="6" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B1059" s="6" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2">
+      <c r="A1060" s="6" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1060" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1061" ht="33.6" spans="1:2">
+      <c r="A1061" s="6" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B1061" s="6" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2">
+      <c r="A1062" s="6" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1062" s="6" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2">
+      <c r="A1063" s="6" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1063" s="6" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2">
+      <c r="A1064" s="6" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B1064" s="6" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1065" ht="33.6" spans="1:2">
+      <c r="A1065" s="6" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1065" s="6" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="A1066" s="6" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1066" s="6" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2">
+      <c r="A1067" s="6" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1067" s="6" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1068" ht="33.6" spans="1:2">
+      <c r="A1068" s="6" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1068" s="6" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1069" ht="33.6" spans="1:2">
+      <c r="A1069" s="6" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B1069" s="6" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1070" ht="33.6" spans="1:2">
+      <c r="A1070" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1070" s="6" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1071" ht="33.6" spans="1:2">
+      <c r="A1071" s="6" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1071" s="6" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1072" ht="50.4" spans="1:2">
+      <c r="A1072" s="6" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1072" s="6" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1073" ht="50.4" spans="1:2">
+      <c r="A1073" s="6" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1073" s="6" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="A1074" s="6" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1074" s="6" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2">
+      <c r="A1075" s="6" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1075" s="6" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2">
+      <c r="A1076" s="6" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1076" s="6" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2">
+      <c r="A1077" s="6" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1077" s="6" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2">
+      <c r="A1078" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1078" s="6" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1079" ht="285.6" spans="1:2">
+      <c r="A1079" s="6" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1079" s="6" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2">
+      <c r="A1080" s="6" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1080" s="6" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2">
+      <c r="A1081" s="6" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1081" s="6" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2">
+      <c r="A1082" s="6" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B1082" s="6" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2">
+      <c r="A1083" s="6" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B1083" s="6" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2">
+      <c r="A1084" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B1084" s="6" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1085" ht="33.6" spans="1:2">
+      <c r="A1085" s="6" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B1085" s="6" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2">
+      <c r="A1086" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B1086" s="6" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2">
+      <c r="A1087" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B1087" s="6" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2">
+      <c r="A1088" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1088" s="6" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2">
+      <c r="A1089" s="6" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B1089" s="6" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2">
+      <c r="A1090" s="6" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B1090" s="6" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2">
+      <c r="A1091" s="6" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B1091" s="6" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2">
+      <c r="A1092" s="6" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1092" s="6" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2">
+      <c r="A1093" s="6" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1093" s="6" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2">
+      <c r="A1094" s="6" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B1094" s="6" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2">
+      <c r="A1095" s="6" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1095" s="6" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2">
+      <c r="A1096" s="6" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1096" s="6" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2">
+      <c r="A1097" s="6" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1097" s="6" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="A1098" s="6" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1098" s="6" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1099" ht="33.6" spans="1:2">
+      <c r="A1099" s="6" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1099" s="6" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1100" ht="33.6" spans="1:2">
+      <c r="A1100" s="6" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1100" s="6" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2">
+      <c r="A1101" s="6" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B1101" s="6" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2">
+      <c r="A1102" s="6" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1102" s="6" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1103" ht="33.6" spans="1:2">
+      <c r="A1103" s="6" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1103" s="6" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1104" ht="184.8" spans="1:2">
+      <c r="A1104" s="6" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1104" s="6" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="1105" ht="67.2" spans="1:2">
+      <c r="A1105" s="6" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1105" s="6" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1106" ht="33.6" spans="1:2">
+      <c r="A1106" s="6" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1106" s="6" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="1107" ht="33.6" spans="1:2">
+      <c r="A1107" s="6" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1107" s="6" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="1108" ht="33.6" spans="1:2">
+      <c r="A1108" s="6" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1108" s="6" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="A1109" s="6" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1109" s="6" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="A1110" s="6" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1110" s="6" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1111" ht="50.4" spans="1:2">
+      <c r="A1111" s="6" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1111" s="6" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1112" ht="285.6" spans="1:2">
+      <c r="A1112" s="6" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B1112" s="6" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2">
+      <c r="A1113" s="6" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1113" s="6" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2">
+      <c r="A1114" s="6" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1114" s="6" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2">
+      <c r="A1115" s="6" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1115" s="6" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2">
+      <c r="A1116" s="6" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1116" s="6" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="A1117" s="6" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1117" s="6" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1118" ht="33.6" spans="1:2">
+      <c r="A1118" s="6" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1118" s="6" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="A1119" s="6" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1119" s="11" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="6" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1120" s="6" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2">
+      <c r="A1121" s="6" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B1121" s="11" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="A1122" s="6" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1122" s="6" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="A1123" s="6" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1123" s="6" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2">
+      <c r="A1124" s="6" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1124" s="6" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1125" ht="33.6" spans="1:2">
+      <c r="A1125" s="6" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B1125" s="6" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1126" ht="50.4" spans="1:2">
+      <c r="A1126" s="6" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B1126" s="6" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="6" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1127" s="6" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" s="6" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B1128" s="6" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="6" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1129" s="6" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="A1130" s="6" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1130" s="6" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1131" ht="33.6" spans="1:2">
+      <c r="A1131" s="6" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1131" s="6" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1132" ht="33.6" spans="1:2">
+      <c r="A1132" s="6" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B1132" s="6" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2">
+      <c r="A1133" s="6" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B1133" s="6" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="A1134" s="6" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B1134" s="6" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="A1135" s="6" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B1135" s="6" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2">
+      <c r="A1136" s="6" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1136" s="6" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="A1137" s="6" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1137" s="6" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="A1138" s="6" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1138" s="6" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="A1139" s="6" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1139" s="6" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="A1140" s="6" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1140" s="6" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="6" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1141" s="6" t="s">
+        <v>2271</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/05-词汇相关/BEC词汇随身记.xlsx
+++ b/BEC/05-词汇相关/BEC词汇随身记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9000" windowHeight="9155" tabRatio="820"/>
+    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="词汇汇总" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="词汇4" sheetId="4" r:id="rId4"/>
     <sheet name="词汇5" sheetId="5" r:id="rId5"/>
     <sheet name="词汇6" sheetId="6" r:id="rId6"/>
-    <sheet name="其他" sheetId="7" r:id="rId7"/>
+    <sheet name="考试攻略" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="3108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="3241">
   <si>
     <t>英语</t>
   </si>
@@ -1679,7 +1679,8 @@
     <t>be in charge of</t>
   </si>
   <si>
-    <t>负责</t>
+    <t>负责
+= be responsible for</t>
   </si>
   <si>
     <t>run a network</t>
@@ -4837,7 +4838,8 @@
     <t>compensation</t>
   </si>
   <si>
-    <t>n.赔偿，补偿</t>
+    <t>n.赔偿，补偿
+compensation payment</t>
   </si>
   <si>
     <t>in the loop</t>
@@ -8444,6 +8446,14 @@
     <t>商标法</t>
   </si>
   <si>
+    <t>fringe</t>
+  </si>
+  <si>
+    <t>n.刘海，额头前短垂发
+vt.形成。。。的边缘
+The beach was fringed by coconut palms. 沿海岸边长者椰子树。</t>
+  </si>
+  <si>
     <t>infringe</t>
   </si>
   <si>
@@ -8939,6 +8949,9 @@
     <t>adj.谨慎的，慎重的</t>
   </si>
   <si>
+    <t>share options</t>
+  </si>
+  <si>
     <t>stock option</t>
   </si>
   <si>
@@ -9423,9 +9436,288 @@
     <t>限制员工扩大职业关系网/交往面</t>
   </si>
   <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>中级的，中等程度的</t>
+  </si>
+  <si>
+    <t>upper-intermediate</t>
+  </si>
+  <si>
+    <t>中高级的</t>
+  </si>
+  <si>
+    <t>20 people work under me.</t>
+  </si>
+  <si>
+    <t>我手下有20个人。</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>括号</t>
+  </si>
+  <si>
+    <t>All these words are used in front of 'job' and 'work':</t>
+  </si>
+  <si>
+    <t>1.satisfying, stimulating, fascinating, exciting: the work is interesting and gives you positive feelings.</t>
+  </si>
+  <si>
+    <t>2.dull, boring, uninteresting, unstimulating: the work is not interesting.</t>
+  </si>
+  <si>
+    <t>3.repetitive, routine: the work involves doing the same things again and again.</t>
+  </si>
+  <si>
+    <t>4.tiring, tough, hard, demanding: the work is difficult and makes you tired.</t>
+  </si>
+  <si>
+    <t>flight attendant</t>
+  </si>
+  <si>
+    <t>空中乘务员</t>
+  </si>
+  <si>
+    <t>Do you have a nine-to-five job?</t>
+  </si>
+  <si>
+    <t>你的工作是朝九晚五吗？</t>
+  </si>
+  <si>
+    <t>Do you have to clock on and off?</t>
+  </si>
+  <si>
+    <t>你必须打卡上班吗？</t>
+  </si>
+  <si>
+    <t>psychometric</t>
+  </si>
+  <si>
+    <t>adj.心理测量的</t>
+  </si>
+  <si>
+    <t>crossword</t>
+  </si>
+  <si>
+    <t>填字游戏</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>in-house training</t>
+  </si>
+  <si>
+    <t>内部训练</t>
+  </si>
+  <si>
+    <t>These words are often used in job advertisements. Companies look for people who are:</t>
+  </si>
+  <si>
+    <t>1.self-starters, proactive, self-motivated, or self-driven</t>
+  </si>
+  <si>
+    <t>good at working on their own.</t>
+  </si>
+  <si>
+    <t>2.methodical,systematic and organized</t>
+  </si>
+  <si>
+    <t>can work in a planned, orderly way.</t>
+  </si>
+  <si>
+    <t>3.computer-literate</t>
+  </si>
+  <si>
+    <t>good with computers.</t>
+  </si>
+  <si>
+    <t>4.numerate</t>
+  </si>
+  <si>
+    <t>good with numbers.</t>
+  </si>
+  <si>
+    <t>5.motivated</t>
+  </si>
+  <si>
+    <t>very keen to do well in their job.</t>
+  </si>
+  <si>
+    <t>6.talented</t>
+  </si>
+  <si>
+    <t>naturally very good at what they do.</t>
+  </si>
+  <si>
+    <t>7.team players</t>
+  </si>
+  <si>
+    <t>people who work well with other people.</t>
+  </si>
+  <si>
+    <t>brain surgeon</t>
+  </si>
+  <si>
+    <t>脑外科医生</t>
+  </si>
+  <si>
+    <t>remuneration</t>
+  </si>
+  <si>
+    <t>performance-related bonuses</t>
+  </si>
+  <si>
+    <t>a boardroom row</t>
+  </si>
+  <si>
+    <t>white-collar workers</t>
+  </si>
+  <si>
+    <t>manual/blue-collar workers</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>payroll</t>
+  </si>
+  <si>
+    <t>personnel</t>
+  </si>
+  <si>
+    <t>open-plan offices</t>
+  </si>
+  <si>
+    <t>administrative staff</t>
+  </si>
+  <si>
+    <t>support staff</t>
+  </si>
+  <si>
+    <t>spread over</t>
+  </si>
+  <si>
+    <t>When workers are not happy with pay or conditions, they may take industrial action:</t>
+  </si>
+  <si>
+    <t>1.strike,stoppage or walk-out: workers stop working for a time.</t>
+  </si>
+  <si>
+    <t>2.a go-slow: workers continue to work, but more slowly than usual.</t>
+  </si>
+  <si>
+    <t>3.an overtime ban: workers refuse to work more than the normal number of hours.</t>
+  </si>
+  <si>
+    <t>career ladder</t>
+  </si>
+  <si>
+    <t>delayer</t>
+  </si>
+  <si>
+    <t>delayer the company</t>
+  </si>
+  <si>
+    <t>If you do something wrong, you are...</t>
+  </si>
+  <si>
+    <t>1.dismissed</t>
+  </si>
+  <si>
+    <t>2.fired</t>
+  </si>
+  <si>
+    <t>3.sacked</t>
+  </si>
+  <si>
+    <t>sack sb.</t>
+  </si>
+  <si>
+    <t>4.terminated</t>
+  </si>
+  <si>
+    <t>If you've done noting wrong, you are...</t>
+  </si>
+  <si>
+    <t>1.laid off</t>
+  </si>
+  <si>
+    <t>2.made redundant</t>
+  </si>
+  <si>
+    <t>3.offered early retirement</t>
+  </si>
+  <si>
+    <t>outplacement advice</t>
+  </si>
+  <si>
+    <t>demotion</t>
+  </si>
+  <si>
+    <t>insecure</t>
+  </si>
+  <si>
+    <t>passive smoking</t>
+  </si>
+  <si>
+    <t>hazardous substances</t>
+  </si>
+  <si>
+    <t>fire hazards</t>
+  </si>
+  <si>
+    <t>fire precautions</t>
+  </si>
+  <si>
+    <t>verbally</t>
+  </si>
+  <si>
+    <t>harass</t>
+  </si>
+  <si>
+    <t>sex discrimination</t>
+  </si>
+  <si>
+    <t>glass ceiling</t>
+  </si>
+  <si>
+    <t>racial discrimination or racism</t>
+  </si>
+  <si>
+    <t>affirmative action</t>
+  </si>
+  <si>
+    <t>equal opportunities</t>
+  </si>
+  <si>
+    <t>dignity at work policy</t>
+  </si>
+  <si>
     <t>考试攻略</t>
   </si>
   <si>
+    <t>听力建议</t>
+  </si>
+  <si>
+    <t>1.听之前必须推敲要填空的表格或笔记。</t>
+  </si>
+  <si>
+    <t>2.利用笔记中现有的信息预测将要听到的内容。</t>
+  </si>
+  <si>
+    <t>3.每个空格只能填写一到两个词。</t>
+  </si>
+  <si>
+    <t>4.如果第一遍没有听懂任何内容，不要慌张。你可以听两遍。</t>
+  </si>
+  <si>
     <t>1.听之前仔细阅读题目</t>
   </si>
   <si>
@@ -9439,6 +9731,119 @@
   </si>
   <si>
     <t>5.对回答不了的问题可以猜答案。千万不要放空。</t>
+  </si>
+  <si>
+    <t>BEC中级考试中，写作第一部分要求考生写一份40-50字的短笺，便条，备忘录或电子邮件。</t>
+  </si>
+  <si>
+    <t>口试中的建议</t>
+  </si>
+  <si>
+    <t>1.仔细听问题。</t>
+  </si>
+  <si>
+    <t>2.回答要切题。</t>
+  </si>
+  <si>
+    <t>3.必要时请考官重复所问问题。</t>
+  </si>
+  <si>
+    <t>4.阐述自己的观点，用例证加以说明。</t>
+  </si>
+  <si>
+    <t>5.回答不要太简单，要稍作扩展。</t>
+  </si>
+  <si>
+    <t>6.这部分测试考生的英语水平，而非商务知识。</t>
+  </si>
+  <si>
+    <t>口语中考官会问到的商务话题</t>
+  </si>
+  <si>
+    <t>1.在你家乡或国家的商务活动。</t>
+  </si>
+  <si>
+    <t>2.英语在商务活动中的重要性。</t>
+  </si>
+  <si>
+    <t>3.商务活动中科技力量的重要性。</t>
+  </si>
+  <si>
+    <t>4.现在和未来职场生活的变化。</t>
+  </si>
+  <si>
+    <t>5.工作场所的培训与事业发展。</t>
+  </si>
+  <si>
+    <t>6.推销产品或服务的方法。</t>
+  </si>
+  <si>
+    <t>阅读建议</t>
+  </si>
+  <si>
+    <t>真实考试中要求阅读一篇文章后完成六道选择题，每道选择题有四个选择项。考生要快速通读文章，然后读懂选择题，在文章中找到与其中一个选项意义相同或相近的答案。
+考生必须读懂文章蕴含的意思。一般来说，考生可以按顺序在文章中找到有助于回答问题的相关句子。</t>
+  </si>
+  <si>
+    <t>在阅读考试的第二部分</t>
+  </si>
+  <si>
+    <t>必须特别注意语篇中的衔接词。
+这些词语包括指代其他词语的词语，例如代词：this, these, that, those, he, she, they, his, hers, us, them, which等。</t>
+  </si>
+  <si>
+    <t>如果BEC中级考试要求写一份备忘录，在写之前问自己以下五个问题。答案有的在题目中，有的需要自己构思。</t>
+  </si>
+  <si>
+    <t>1.备忘录是写给谁的？</t>
+  </si>
+  <si>
+    <t>2.谁会对该信息感兴趣？</t>
+  </si>
+  <si>
+    <t>3.发生了什么？</t>
+  </si>
+  <si>
+    <t>4.事情的结果怎样？</t>
+  </si>
+  <si>
+    <t>5.需要采取什么行动？</t>
+  </si>
+  <si>
+    <t>动笔之前，首先要找出：</t>
+  </si>
+  <si>
+    <t>1.在该情境中本人扮演什么角色(例如经理、培训者、助手)？</t>
+  </si>
+  <si>
+    <t>2.这是什么形式的内部交流(例如电子邮件、便条)？</t>
+  </si>
+  <si>
+    <t>3.交流的对象是谁？</t>
+  </si>
+  <si>
+    <t>4.作文中必须包含哪三个信息？</t>
+  </si>
+  <si>
+    <t>第二部分写作可能是报告</t>
+  </si>
+  <si>
+    <t>1.开始报告时要先说说报告的内容是什么。</t>
+  </si>
+  <si>
+    <t>2.清除地分点说明。</t>
+  </si>
+  <si>
+    <t>3.说明各点之间有什么联系。</t>
+  </si>
+  <si>
+    <t>4.没一点都举例说明。</t>
+  </si>
+  <si>
+    <t>口语考试第三部分的最后</t>
+  </si>
+  <si>
+    <t>考官可能会就某个商务话题问你一些问题。回答时，避免仅仅使用一两个词，说明理由来支撑你的观点。</t>
   </si>
 </sst>
 </file>
@@ -10514,12 +10919,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1562"/>
+  <dimension ref="A1:C1631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1562" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1629" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1566" sqref="B1566"/>
+      <selection pane="bottomLeft" activeCell="B1638" sqref="B1638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -10561,7 +10966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="33.6" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -11889,7 +12294,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" ht="33.6" spans="1:2">
+    <row r="171" spans="1:2">
       <c r="A171" s="7" t="s">
         <v>340</v>
       </c>
@@ -12733,7 +13138,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" ht="33.6" spans="1:2">
       <c r="A277" s="7" t="s">
         <v>550</v>
       </c>
@@ -14245,7 +14650,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="466" ht="67.2" spans="1:2">
+    <row r="466" ht="50.4" spans="1:2">
       <c r="A466" s="7" t="s">
         <v>928</v>
       </c>
@@ -14565,7 +14970,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="506" ht="50.4" spans="1:2">
+    <row r="506" ht="33.6" spans="1:2">
       <c r="A506" s="7" t="s">
         <v>1007</v>
       </c>
@@ -16944,7 +17349,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="803" spans="1:2">
+    <row r="803" ht="50.4" spans="1:2">
       <c r="A803" s="7" t="s">
         <v>1597</v>
       </c>
@@ -19176,7 +19581,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="1082" ht="50.4" spans="1:2">
+    <row r="1082" ht="33.6" spans="1:2">
       <c r="A1082" s="7" t="s">
         <v>2152</v>
       </c>
@@ -19792,7 +20197,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="1159" ht="33.6" spans="1:2">
+    <row r="1159" spans="1:2">
       <c r="A1159" s="7" t="s">
         <v>2306</v>
       </c>
@@ -19912,7 +20317,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="1174" ht="84" spans="1:2">
+    <row r="1174" ht="67.2" spans="1:2">
       <c r="A1174" s="7" t="s">
         <v>2335</v>
       </c>
@@ -20104,7 +20509,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="1198" ht="117.6" spans="1:2">
+    <row r="1198" ht="100.8" spans="1:2">
       <c r="A1198" s="7" t="s">
         <v>2383</v>
       </c>
@@ -20112,7 +20517,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="1199" ht="117.6" spans="1:2">
+    <row r="1199" ht="100.8" spans="1:2">
       <c r="A1199" s="7" t="s">
         <v>2385</v>
       </c>
@@ -21720,7 +22125,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="1400" spans="1:2">
+    <row r="1400" ht="84" spans="1:2">
       <c r="A1400" s="7" t="s">
         <v>2780</v>
       </c>
@@ -21728,7 +22133,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="1401" ht="33.6" spans="1:2">
+    <row r="1401" spans="1:2">
       <c r="A1401" s="7" t="s">
         <v>2782</v>
       </c>
@@ -21736,7 +22141,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="1402" spans="1:2">
+    <row r="1402" ht="33.6" spans="1:2">
       <c r="A1402" s="7" t="s">
         <v>2784</v>
       </c>
@@ -21744,7 +22149,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="1403" ht="34.35" spans="1:2">
+    <row r="1403" spans="1:2">
       <c r="A1403" s="7" t="s">
         <v>2786</v>
       </c>
@@ -21752,23 +22157,23 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="1404" ht="17.55" spans="1:2">
+    <row r="1404" ht="34.35" spans="1:2">
       <c r="A1404" s="7" t="s">
         <v>2788</v>
       </c>
-      <c r="B1404" s="9" t="s">
+      <c r="B1404" s="7" t="s">
         <v>2789</v>
       </c>
     </row>
-    <row r="1405" ht="33.6" spans="1:2">
+    <row r="1405" ht="17.55" spans="1:2">
       <c r="A1405" s="7" t="s">
         <v>2790</v>
       </c>
-      <c r="B1405" s="7" t="s">
+      <c r="B1405" s="9" t="s">
         <v>2791</v>
       </c>
     </row>
-    <row r="1406" spans="1:2">
+    <row r="1406" ht="33.6" spans="1:2">
       <c r="A1406" s="7" t="s">
         <v>2792</v>
       </c>
@@ -21808,7 +22213,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="1411" ht="67.2" spans="1:2">
+    <row r="1411" spans="1:2">
       <c r="A1411" s="7" t="s">
         <v>2802</v>
       </c>
@@ -21816,17 +22221,17 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="1412" spans="1:2">
+    <row r="1412" ht="67.2" spans="1:2">
       <c r="A1412" s="7" t="s">
-        <v>1436</v>
+        <v>2804</v>
       </c>
       <c r="B1412" s="7" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="7" t="s">
-        <v>2805</v>
+        <v>1436</v>
       </c>
       <c r="B1413" s="7" t="s">
         <v>2806</v>
@@ -21840,7 +22245,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="1415" ht="50.4" spans="1:2">
+    <row r="1415" spans="1:2">
       <c r="A1415" s="7" t="s">
         <v>2809</v>
       </c>
@@ -21848,7 +22253,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="1416" spans="1:2">
+    <row r="1416" ht="50.4" spans="1:2">
       <c r="A1416" s="7" t="s">
         <v>2811</v>
       </c>
@@ -21856,7 +22261,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="1417" ht="33.6" spans="1:2">
+    <row r="1417" spans="1:2">
       <c r="A1417" s="7" t="s">
         <v>2813</v>
       </c>
@@ -21864,7 +22269,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="1418" ht="50.4" spans="1:2">
+    <row r="1418" ht="33.6" spans="1:2">
       <c r="A1418" s="7" t="s">
         <v>2815</v>
       </c>
@@ -21872,7 +22277,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="1419" ht="33.6" spans="1:2">
+    <row r="1419" ht="50.4" spans="1:2">
       <c r="A1419" s="7" t="s">
         <v>2817</v>
       </c>
@@ -21880,7 +22285,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="1420" ht="117.6" spans="1:2">
+    <row r="1420" ht="33.6" spans="1:2">
       <c r="A1420" s="7" t="s">
         <v>2819</v>
       </c>
@@ -21888,7 +22293,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="1421" ht="33.6" spans="1:2">
+    <row r="1421" ht="117.6" spans="1:2">
       <c r="A1421" s="7" t="s">
         <v>2821</v>
       </c>
@@ -21896,7 +22301,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="1422" spans="1:2">
+    <row r="1422" ht="33.6" spans="1:2">
       <c r="A1422" s="7" t="s">
         <v>2823</v>
       </c>
@@ -21904,7 +22309,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="1423" ht="84" spans="1:2">
+    <row r="1423" spans="1:2">
       <c r="A1423" s="7" t="s">
         <v>2825</v>
       </c>
@@ -21920,7 +22325,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="1425" ht="151.2" spans="1:2">
+    <row r="1425" ht="84" spans="1:2">
       <c r="A1425" s="7" t="s">
         <v>2829</v>
       </c>
@@ -21928,7 +22333,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="1426" spans="1:2">
+    <row r="1426" ht="151.2" spans="1:2">
       <c r="A1426" s="7" t="s">
         <v>2831</v>
       </c>
@@ -21936,7 +22341,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="1427" ht="50.4" spans="1:2">
+    <row r="1427" spans="1:2">
       <c r="A1427" s="7" t="s">
         <v>2833</v>
       </c>
@@ -21944,7 +22349,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="1428" spans="1:2">
+    <row r="1428" ht="50.4" spans="1:2">
       <c r="A1428" s="7" t="s">
         <v>2835</v>
       </c>
@@ -21962,15 +22367,15 @@
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="7" t="s">
-        <v>2258</v>
+        <v>2839</v>
       </c>
       <c r="B1430" s="7" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="7" t="s">
-        <v>2840</v>
+        <v>2258</v>
       </c>
       <c r="B1431" s="7" t="s">
         <v>2841</v>
@@ -21992,7 +22397,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="1434" ht="50.4" spans="1:2">
+    <row r="1434" spans="1:2">
       <c r="A1434" s="7" t="s">
         <v>2846</v>
       </c>
@@ -22000,7 +22405,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="1435" spans="1:2">
+    <row r="1435" ht="50.4" spans="1:2">
       <c r="A1435" s="7" t="s">
         <v>2848</v>
       </c>
@@ -22072,7 +22477,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="1444" ht="67.2" spans="1:2">
+    <row r="1444" spans="1:2">
       <c r="A1444" s="7" t="s">
         <v>2866</v>
       </c>
@@ -22080,7 +22485,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="1445" spans="1:2">
+    <row r="1445" ht="67.2" spans="1:2">
       <c r="A1445" s="7" t="s">
         <v>2868</v>
       </c>
@@ -22112,7 +22517,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="1449" ht="50.4" spans="1:2">
+    <row r="1449" spans="1:2">
       <c r="A1449" s="7" t="s">
         <v>2876</v>
       </c>
@@ -22120,7 +22525,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="1450" ht="33.6" spans="1:2">
+    <row r="1450" ht="50.4" spans="1:2">
       <c r="A1450" s="7" t="s">
         <v>2878</v>
       </c>
@@ -22128,7 +22533,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="1451" spans="1:2">
+    <row r="1451" ht="33.6" spans="1:2">
       <c r="A1451" s="7" t="s">
         <v>2880</v>
       </c>
@@ -22144,7 +22549,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="1453" ht="33.6" spans="1:2">
+    <row r="1453" spans="1:2">
       <c r="A1453" s="7" t="s">
         <v>2884</v>
       </c>
@@ -22152,7 +22557,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="1454" ht="50.4" spans="1:2">
+    <row r="1454" ht="33.6" spans="1:2">
       <c r="A1454" s="7" t="s">
         <v>2886</v>
       </c>
@@ -22160,7 +22565,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="1455" spans="1:2">
+    <row r="1455" ht="50.4" spans="1:2">
       <c r="A1455" s="7" t="s">
         <v>2888</v>
       </c>
@@ -22168,7 +22573,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="1456" ht="33.6" spans="1:2">
+    <row r="1456" spans="1:2">
       <c r="A1456" s="7" t="s">
         <v>2890</v>
       </c>
@@ -22176,7 +22581,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="1457" ht="50.4" spans="1:2">
+    <row r="1457" ht="33.6" spans="1:2">
       <c r="A1457" s="7" t="s">
         <v>2892</v>
       </c>
@@ -22184,7 +22589,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="1458" ht="67.2" spans="1:2">
+    <row r="1458" ht="50.4" spans="1:2">
       <c r="A1458" s="7" t="s">
         <v>2894</v>
       </c>
@@ -22192,7 +22597,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="1459" ht="84" spans="1:2">
+    <row r="1459" ht="67.2" spans="1:2">
       <c r="A1459" s="7" t="s">
         <v>2896</v>
       </c>
@@ -22200,7 +22605,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="1460" ht="33.6" spans="1:2">
+    <row r="1460" ht="84" spans="1:2">
       <c r="A1460" s="7" t="s">
         <v>2898</v>
       </c>
@@ -22208,7 +22613,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="1461" spans="1:2">
+    <row r="1461" ht="33.6" spans="1:2">
       <c r="A1461" s="7" t="s">
         <v>2900</v>
       </c>
@@ -22216,7 +22621,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="1462" ht="50.4" spans="1:2">
+    <row r="1462" spans="1:2">
       <c r="A1462" s="7" t="s">
         <v>2902</v>
       </c>
@@ -22224,7 +22629,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="1463" ht="84" spans="1:2">
+    <row r="1463" ht="50.4" spans="1:2">
       <c r="A1463" s="7" t="s">
         <v>2904</v>
       </c>
@@ -22240,7 +22645,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="1465" spans="1:2">
+    <row r="1465" ht="84" spans="1:2">
       <c r="A1465" s="7" t="s">
         <v>2908</v>
       </c>
@@ -22256,7 +22661,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="1467" ht="33.6" spans="1:2">
+    <row r="1467" spans="1:2">
       <c r="A1467" s="7" t="s">
         <v>2912</v>
       </c>
@@ -22264,7 +22669,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="1468" spans="1:2">
+    <row r="1468" ht="33.6" spans="1:2">
       <c r="A1468" s="7" t="s">
         <v>2914</v>
       </c>
@@ -22312,7 +22717,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="1474" ht="100.8" spans="1:2">
+    <row r="1474" spans="1:2">
       <c r="A1474" s="7" t="s">
         <v>2926</v>
       </c>
@@ -22320,7 +22725,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="1475" spans="1:2">
+    <row r="1475" ht="100.8" spans="1:2">
       <c r="A1475" s="7" t="s">
         <v>2928</v>
       </c>
@@ -22336,17 +22741,17 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="1477" ht="33.6" spans="1:2">
+    <row r="1477" spans="1:2">
       <c r="A1477" s="7" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1477" s="7" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1478" ht="33.6" spans="1:2">
+      <c r="A1478" s="7" t="s">
         <v>2323</v>
-      </c>
-      <c r="B1477" s="7" t="s">
-        <v>2932</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:2">
-      <c r="A1478" s="7" t="s">
-        <v>2933</v>
       </c>
       <c r="B1478" s="7" t="s">
         <v>2934</v>
@@ -22376,7 +22781,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="1482" ht="50.4" spans="1:2">
+    <row r="1482" spans="1:2">
       <c r="A1482" s="7" t="s">
         <v>2941</v>
       </c>
@@ -22384,57 +22789,54 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="1483" spans="1:2">
+    <row r="1483" spans="1:1">
       <c r="A1483" s="7" t="s">
         <v>2943</v>
       </c>
-      <c r="B1483" s="7" t="s">
+    </row>
+    <row r="1484" ht="50.4" spans="1:2">
+      <c r="A1484" s="7" t="s">
         <v>2944</v>
       </c>
-    </row>
-    <row r="1484" spans="1:2">
-      <c r="A1484" s="7" t="s">
+      <c r="B1484" s="7" t="s">
         <v>2945</v>
-      </c>
-      <c r="B1484" s="7" t="s">
-        <v>2946</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="7" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1485" s="7" t="s">
         <v>2947</v>
       </c>
-      <c r="B1485" s="7" t="s">
+    </row>
+    <row r="1486" spans="1:2">
+      <c r="A1486" s="7" t="s">
         <v>2948</v>
       </c>
-    </row>
-    <row r="1486" ht="67.2" spans="1:2">
-      <c r="A1486" s="7" t="s">
+      <c r="B1486" s="7" t="s">
         <v>2949</v>
-      </c>
-      <c r="B1486" s="7" t="s">
-        <v>2950</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="7" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1487" s="7" t="s">
         <v>2951</v>
       </c>
-      <c r="B1487" s="7" t="s">
+    </row>
+    <row r="1488" ht="67.2" spans="1:2">
+      <c r="A1488" s="7" t="s">
         <v>2952</v>
       </c>
-    </row>
-    <row r="1488" spans="1:2">
-      <c r="A1488" s="7" t="s">
+      <c r="B1488" s="7" t="s">
         <v>2953</v>
-      </c>
-      <c r="B1488" s="7" t="s">
-        <v>2954</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="7" t="s">
-        <v>2108</v>
+        <v>2954</v>
       </c>
       <c r="B1489" s="7" t="s">
         <v>2955</v>
@@ -22448,580 +22850,995 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="1491" ht="33.6" spans="1:2">
+    <row r="1491" spans="1:2">
       <c r="A1491" s="7" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1491" s="7" t="s">
         <v>2958</v>
-      </c>
-      <c r="B1491" s="7" t="s">
-        <v>2959</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="7" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B1492" s="7" t="s">
         <v>2960</v>
       </c>
-      <c r="B1492" s="7" t="s">
+    </row>
+    <row r="1493" ht="33.6" spans="1:2">
+      <c r="A1493" s="7" t="s">
         <v>2961</v>
       </c>
-    </row>
-    <row r="1493" spans="1:2">
-      <c r="A1493" s="7" t="s">
+      <c r="B1493" s="7" t="s">
         <v>2962</v>
       </c>
-      <c r="B1493" s="7" t="s">
+    </row>
+    <row r="1494" spans="1:2">
+      <c r="A1494" s="7" t="s">
         <v>2963</v>
       </c>
-    </row>
-    <row r="1494" ht="33.6" spans="1:2">
-      <c r="A1494" s="7" t="s">
+      <c r="B1494" s="7" t="s">
         <v>2964</v>
-      </c>
-      <c r="B1494" s="7" t="s">
-        <v>2965</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="7" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B1495" s="7" t="s">
         <v>2966</v>
       </c>
-      <c r="B1495" s="7" t="s">
+    </row>
+    <row r="1496" ht="33.6" spans="1:2">
+      <c r="A1496" s="7" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="1496" spans="1:2">
-      <c r="A1496" s="7" t="s">
+      <c r="B1496" s="7" t="s">
         <v>2968</v>
-      </c>
-      <c r="B1496" s="7" t="s">
-        <v>2969</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="7" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B1497" s="7" t="s">
         <v>2970</v>
-      </c>
-      <c r="B1497" s="7" t="s">
-        <v>2971</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="7" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B1498" s="7" t="s">
         <v>2972</v>
-      </c>
-      <c r="B1498" s="7" t="s">
-        <v>2973</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="7" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B1499" s="7" t="s">
         <v>2974</v>
       </c>
-      <c r="B1499" s="7" t="s">
+    </row>
+    <row r="1500" spans="1:2">
+      <c r="A1500" s="7" t="s">
         <v>2975</v>
       </c>
-    </row>
-    <row r="1500" ht="67.2" spans="1:2">
-      <c r="A1500" s="7" t="s">
+      <c r="B1500" s="7" t="s">
         <v>2976</v>
       </c>
-      <c r="B1500" s="7" t="s">
+    </row>
+    <row r="1501" spans="1:2">
+      <c r="A1501" s="7" t="s">
         <v>2977</v>
       </c>
-    </row>
-    <row r="1501" ht="33.6" spans="1:2">
-      <c r="A1501" s="7" t="s">
+      <c r="B1501" s="7" t="s">
         <v>2978</v>
       </c>
-      <c r="B1501" s="7" t="s">
+    </row>
+    <row r="1502" ht="67.2" spans="1:2">
+      <c r="A1502" s="7" t="s">
         <v>2979</v>
       </c>
-    </row>
-    <row r="1502" ht="33.6" spans="1:2">
-      <c r="A1502" s="7" t="s">
+      <c r="B1502" s="7" t="s">
         <v>2980</v>
       </c>
-      <c r="B1502" s="7" t="s">
+    </row>
+    <row r="1503" ht="33.6" spans="1:2">
+      <c r="A1503" s="7" t="s">
         <v>2981</v>
       </c>
-    </row>
-    <row r="1503" ht="117.6" spans="1:2">
-      <c r="A1503" s="7" t="s">
+      <c r="B1503" s="7" t="s">
         <v>2982</v>
       </c>
-      <c r="B1503" s="7" t="s">
+    </row>
+    <row r="1504" ht="33.6" spans="1:2">
+      <c r="A1504" s="7" t="s">
         <v>2983</v>
       </c>
-    </row>
-    <row r="1504" ht="117.6" spans="1:2">
-      <c r="A1504" s="7" t="s">
+      <c r="B1504" s="7" t="s">
         <v>2984</v>
       </c>
-      <c r="B1504" s="7" t="s">
+    </row>
+    <row r="1505" ht="117.6" spans="1:2">
+      <c r="A1505" s="7" t="s">
         <v>2985</v>
       </c>
-    </row>
-    <row r="1505" ht="50.4" spans="1:2">
-      <c r="A1505" s="7" t="s">
+      <c r="B1505" s="7" t="s">
         <v>2986</v>
       </c>
-      <c r="B1505" s="7" t="s">
+    </row>
+    <row r="1506" ht="117.6" spans="1:2">
+      <c r="A1506" s="7" t="s">
         <v>2987</v>
       </c>
-    </row>
-    <row r="1506" ht="67.2" spans="1:2">
-      <c r="A1506" s="7" t="s">
+      <c r="B1506" s="7" t="s">
         <v>2988</v>
       </c>
-      <c r="B1506" s="7" t="s">
+    </row>
+    <row r="1507" ht="50.4" spans="1:2">
+      <c r="A1507" s="7" t="s">
         <v>2989</v>
       </c>
-    </row>
-    <row r="1507" ht="117.6" spans="1:2">
-      <c r="A1507" s="7" t="s">
+      <c r="B1507" s="7" t="s">
         <v>2990</v>
       </c>
-      <c r="B1507" s="7" t="s">
+    </row>
+    <row r="1508" ht="67.2" spans="1:2">
+      <c r="A1508" s="7" t="s">
         <v>2991</v>
       </c>
-    </row>
-    <row r="1508" ht="84" spans="1:2">
-      <c r="A1508" s="7" t="s">
+      <c r="B1508" s="7" t="s">
         <v>2992</v>
       </c>
-      <c r="B1508" s="7" t="s">
+    </row>
+    <row r="1509" ht="117.6" spans="1:2">
+      <c r="A1509" s="7" t="s">
         <v>2993</v>
       </c>
-    </row>
-    <row r="1509" ht="67.2" spans="1:2">
-      <c r="A1509" s="7" t="s">
+      <c r="B1509" s="7" t="s">
         <v>2994</v>
       </c>
-      <c r="B1509" s="7" t="s">
+    </row>
+    <row r="1510" ht="84" spans="1:2">
+      <c r="A1510" s="7" t="s">
         <v>2995</v>
       </c>
-    </row>
-    <row r="1510" ht="50.4" spans="1:2">
-      <c r="A1510" s="7" t="s">
+      <c r="B1510" s="7" t="s">
         <v>2996</v>
       </c>
-      <c r="B1510" s="7" t="s">
+    </row>
+    <row r="1511" ht="67.2" spans="1:2">
+      <c r="A1511" s="7" t="s">
         <v>2997</v>
       </c>
-    </row>
-    <row r="1511" ht="50.4" spans="1:2">
-      <c r="A1511" s="7" t="s">
+      <c r="B1511" s="7" t="s">
         <v>2998</v>
       </c>
-      <c r="B1511" s="7" t="s">
+    </row>
+    <row r="1512" ht="50.4" spans="1:2">
+      <c r="A1512" s="7" t="s">
         <v>2999</v>
       </c>
-    </row>
-    <row r="1512" ht="33.6" spans="1:2">
-      <c r="A1512" s="7" t="s">
+      <c r="B1512" s="7" t="s">
         <v>3000</v>
-      </c>
-      <c r="B1512" s="7" t="s">
-        <v>3001</v>
       </c>
     </row>
     <row r="1513" ht="50.4" spans="1:2">
       <c r="A1513" s="7" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1513" s="7" t="s">
         <v>3002</v>
       </c>
-      <c r="B1513" s="7" t="s">
+    </row>
+    <row r="1514" ht="33.6" spans="1:2">
+      <c r="A1514" s="7" t="s">
         <v>3003</v>
       </c>
-    </row>
-    <row r="1514" ht="50.4" spans="1:2">
-      <c r="A1514" s="7" t="s">
+      <c r="B1514" s="7" t="s">
         <v>3004</v>
       </c>
-      <c r="B1514" s="7" t="s">
+    </row>
+    <row r="1515" ht="50.4" spans="1:2">
+      <c r="A1515" s="7" t="s">
         <v>3005</v>
       </c>
-    </row>
-    <row r="1515" ht="84" spans="1:2">
-      <c r="A1515" s="7" t="s">
+      <c r="B1515" s="7" t="s">
         <v>3006</v>
       </c>
-      <c r="B1515" s="7" t="s">
+    </row>
+    <row r="1516" ht="50.4" spans="1:2">
+      <c r="A1516" s="7" t="s">
         <v>3007</v>
       </c>
-    </row>
-    <row r="1516" ht="67.2" spans="1:2">
-      <c r="A1516" s="7" t="s">
+      <c r="B1516" s="7" t="s">
         <v>3008</v>
       </c>
-      <c r="B1516" s="7" t="s">
+    </row>
+    <row r="1517" ht="84" spans="1:2">
+      <c r="A1517" s="7" t="s">
         <v>3009</v>
       </c>
-    </row>
-    <row r="1517" spans="1:2">
-      <c r="A1517" s="7" t="s">
+      <c r="B1517" s="7" t="s">
         <v>3010</v>
       </c>
-      <c r="B1517" s="7" t="s">
+    </row>
+    <row r="1518" ht="67.2" spans="1:2">
+      <c r="A1518" s="7" t="s">
         <v>3011</v>
       </c>
-    </row>
-    <row r="1518" ht="33.6" spans="1:2">
-      <c r="A1518" s="7" t="s">
+      <c r="B1518" s="7" t="s">
         <v>3012</v>
       </c>
-      <c r="B1518" s="7" t="s">
+    </row>
+    <row r="1519" spans="1:2">
+      <c r="A1519" s="7" t="s">
         <v>3013</v>
       </c>
-    </row>
-    <row r="1519" ht="33.6" spans="1:2">
-      <c r="A1519" s="7" t="s">
+      <c r="B1519" s="7" t="s">
         <v>3014</v>
-      </c>
-      <c r="B1519" s="7" t="s">
-        <v>3015</v>
       </c>
     </row>
     <row r="1520" ht="33.6" spans="1:2">
       <c r="A1520" s="7" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1520" s="7" t="s">
         <v>3016</v>
       </c>
-      <c r="B1520" s="7" t="s">
+    </row>
+    <row r="1521" ht="33.6" spans="1:2">
+      <c r="A1521" s="7" t="s">
         <v>3017</v>
       </c>
-    </row>
-    <row r="1521" ht="50.4" spans="1:2">
-      <c r="A1521" s="7" t="s">
+      <c r="B1521" s="7" t="s">
         <v>3018</v>
       </c>
-      <c r="B1521" s="7" t="s">
+    </row>
+    <row r="1522" ht="33.6" spans="1:2">
+      <c r="A1522" s="7" t="s">
         <v>3019</v>
       </c>
-    </row>
-    <row r="1522" spans="1:2">
-      <c r="A1522" s="7" t="s">
+      <c r="B1522" s="7" t="s">
         <v>3020</v>
       </c>
-      <c r="B1522" s="7" t="s">
+    </row>
+    <row r="1523" ht="50.4" spans="1:2">
+      <c r="A1523" s="7" t="s">
         <v>3021</v>
       </c>
-    </row>
-    <row r="1523" ht="33.6" spans="1:2">
-      <c r="A1523" s="7" t="s">
+      <c r="B1523" s="7" t="s">
         <v>3022</v>
       </c>
-      <c r="B1523" s="7" t="s">
+    </row>
+    <row r="1524" spans="1:2">
+      <c r="A1524" s="7" t="s">
         <v>3023</v>
       </c>
-    </row>
-    <row r="1524" ht="33.6" spans="1:2">
-      <c r="A1524" s="7" t="s">
+      <c r="B1524" s="7" t="s">
         <v>3024</v>
       </c>
-      <c r="B1524" s="7" t="s">
+    </row>
+    <row r="1525" ht="33.6" spans="1:2">
+      <c r="A1525" s="7" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="1525" ht="50.4" spans="1:2">
-      <c r="A1525" s="7" t="s">
+      <c r="B1525" s="7" t="s">
         <v>3026</v>
-      </c>
-      <c r="B1525" s="7" t="s">
-        <v>3027</v>
       </c>
     </row>
     <row r="1526" ht="33.6" spans="1:2">
       <c r="A1526" s="7" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1526" s="7" t="s">
         <v>3028</v>
-      </c>
-      <c r="B1526" s="7" t="s">
-        <v>3029</v>
       </c>
     </row>
     <row r="1527" ht="50.4" spans="1:2">
       <c r="A1527" s="7" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B1527" s="7" t="s">
         <v>3030</v>
-      </c>
-      <c r="B1527" s="7" t="s">
-        <v>3031</v>
       </c>
     </row>
     <row r="1528" ht="33.6" spans="1:2">
       <c r="A1528" s="7" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B1528" s="7" t="s">
         <v>3032</v>
-      </c>
-      <c r="B1528" s="7" t="s">
-        <v>3033</v>
       </c>
     </row>
     <row r="1529" ht="50.4" spans="1:2">
       <c r="A1529" s="7" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B1529" s="7" t="s">
         <v>3034</v>
       </c>
-      <c r="B1529" s="7" t="s">
+    </row>
+    <row r="1530" ht="33.6" spans="1:2">
+      <c r="A1530" s="7" t="s">
         <v>3035</v>
       </c>
-    </row>
-    <row r="1530" ht="84" spans="1:2">
-      <c r="A1530" s="7" t="s">
+      <c r="B1530" s="7" t="s">
         <v>3036</v>
       </c>
-      <c r="B1530" s="7" t="s">
+    </row>
+    <row r="1531" ht="50.4" spans="1:2">
+      <c r="A1531" s="7" t="s">
         <v>3037</v>
       </c>
-    </row>
-    <row r="1531" ht="84" spans="1:2">
-      <c r="A1531" s="7" t="s">
+      <c r="B1531" s="7" t="s">
         <v>3038</v>
       </c>
-      <c r="B1531" s="7" t="s">
+    </row>
+    <row r="1532" ht="84" spans="1:2">
+      <c r="A1532" s="7" t="s">
         <v>3039</v>
       </c>
-    </row>
-    <row r="1532" ht="50.4" spans="1:2">
-      <c r="A1532" s="7" t="s">
+      <c r="B1532" s="7" t="s">
         <v>3040</v>
       </c>
-      <c r="B1532" s="7" t="s">
+    </row>
+    <row r="1533" ht="84" spans="1:2">
+      <c r="A1533" s="7" t="s">
         <v>3041</v>
       </c>
-    </row>
-    <row r="1533" ht="134.4" spans="1:2">
-      <c r="A1533" s="7" t="s">
+      <c r="B1533" s="7" t="s">
         <v>3042</v>
       </c>
-      <c r="B1533" s="7" t="s">
+    </row>
+    <row r="1534" ht="50.4" spans="1:2">
+      <c r="A1534" s="7" t="s">
         <v>3043</v>
       </c>
-    </row>
-    <row r="1534" ht="33.6" spans="1:2">
-      <c r="A1534" s="7" t="s">
+      <c r="B1534" s="7" t="s">
         <v>3044</v>
       </c>
-      <c r="B1534" s="7" t="s">
+    </row>
+    <row r="1535" ht="134.4" spans="1:2">
+      <c r="A1535" s="7" t="s">
         <v>3045</v>
       </c>
-    </row>
-    <row r="1535" ht="50.4" spans="1:2">
-      <c r="A1535" s="7" t="s">
+      <c r="B1535" s="7" t="s">
         <v>3046</v>
       </c>
-      <c r="B1535" s="7" t="s">
+    </row>
+    <row r="1536" ht="33.6" spans="1:2">
+      <c r="A1536" s="7" t="s">
         <v>3047</v>
       </c>
-    </row>
-    <row r="1536" ht="67.2" spans="1:2">
-      <c r="A1536" s="7" t="s">
+      <c r="B1536" s="7" t="s">
         <v>3048</v>
       </c>
-      <c r="B1536" s="7" t="s">
+    </row>
+    <row r="1537" ht="50.4" spans="1:2">
+      <c r="A1537" s="7" t="s">
         <v>3049</v>
       </c>
-    </row>
-    <row r="1537" ht="33.6" spans="1:2">
-      <c r="A1537" s="7" t="s">
+      <c r="B1537" s="7" t="s">
         <v>3050</v>
-      </c>
-      <c r="B1537" s="7" t="s">
-        <v>3051</v>
       </c>
     </row>
     <row r="1538" ht="67.2" spans="1:2">
       <c r="A1538" s="7" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B1538" s="7" t="s">
         <v>3052</v>
-      </c>
-      <c r="B1538" s="7" t="s">
-        <v>3053</v>
       </c>
     </row>
     <row r="1539" ht="33.6" spans="1:2">
       <c r="A1539" s="7" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B1539" s="7" t="s">
         <v>3054</v>
       </c>
-      <c r="B1539" s="7" t="s">
+    </row>
+    <row r="1540" ht="67.2" spans="1:2">
+      <c r="A1540" s="7" t="s">
         <v>3055</v>
       </c>
-    </row>
-    <row r="1540" ht="33.6" spans="1:2">
-      <c r="A1540" s="7" t="s">
+      <c r="B1540" s="7" t="s">
         <v>3056</v>
       </c>
-      <c r="B1540" s="7" t="s">
+    </row>
+    <row r="1541" ht="33.6" spans="1:2">
+      <c r="A1541" s="7" t="s">
         <v>3057</v>
       </c>
-    </row>
-    <row r="1541" ht="50.4" spans="1:2">
-      <c r="A1541" s="7" t="s">
+      <c r="B1541" s="7" t="s">
         <v>3058</v>
       </c>
-      <c r="B1541" s="7" t="s">
+    </row>
+    <row r="1542" ht="33.6" spans="1:2">
+      <c r="A1542" s="7" t="s">
         <v>3059</v>
       </c>
-    </row>
-    <row r="1542" ht="84" spans="1:2">
-      <c r="A1542" s="7" t="s">
+      <c r="B1542" s="7" t="s">
         <v>3060</v>
       </c>
-      <c r="B1542" s="7" t="s">
+    </row>
+    <row r="1543" ht="50.4" spans="1:2">
+      <c r="A1543" s="7" t="s">
         <v>3061</v>
       </c>
-    </row>
-    <row r="1543" ht="84" spans="1:2">
-      <c r="A1543" s="7" t="s">
+      <c r="B1543" s="7" t="s">
         <v>3062</v>
-      </c>
-      <c r="B1543" s="7" t="s">
-        <v>3063</v>
       </c>
     </row>
     <row r="1544" ht="84" spans="1:2">
       <c r="A1544" s="7" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B1544" s="7" t="s">
         <v>3064</v>
       </c>
-      <c r="B1544" s="7" t="s">
+    </row>
+    <row r="1545" ht="84" spans="1:2">
+      <c r="A1545" s="7" t="s">
         <v>3065</v>
       </c>
-    </row>
-    <row r="1545" spans="1:2">
-      <c r="A1545" s="7" t="s">
+      <c r="B1545" s="7" t="s">
         <v>3066</v>
       </c>
-      <c r="B1545" s="7" t="s">
+    </row>
+    <row r="1546" ht="84" spans="1:2">
+      <c r="A1546" s="7" t="s">
         <v>3067</v>
       </c>
-    </row>
-    <row r="1546" ht="33.6" spans="1:2">
-      <c r="A1546" s="7" t="s">
+      <c r="B1546" s="7" t="s">
         <v>3068</v>
-      </c>
-      <c r="B1546" s="7" t="s">
-        <v>3069</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="7" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B1547" s="7" t="s">
         <v>3070</v>
-      </c>
-      <c r="B1547" s="7" t="s">
-        <v>3071</v>
       </c>
     </row>
     <row r="1548" ht="33.6" spans="1:2">
       <c r="A1548" s="7" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B1548" s="7" t="s">
         <v>3072</v>
       </c>
-      <c r="B1548" s="7" t="s">
+    </row>
+    <row r="1549" spans="1:2">
+      <c r="A1549" s="7" t="s">
         <v>3073</v>
       </c>
-    </row>
-    <row r="1549" ht="33.6" spans="1:2">
-      <c r="A1549" s="7" t="s">
+      <c r="B1549" s="7" t="s">
         <v>3074</v>
-      </c>
-      <c r="B1549" s="7" t="s">
-        <v>3075</v>
       </c>
     </row>
     <row r="1550" ht="33.6" spans="1:2">
       <c r="A1550" s="7" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B1550" s="7" t="s">
         <v>3076</v>
       </c>
-      <c r="B1550" s="7" t="s">
+    </row>
+    <row r="1551" ht="33.6" spans="1:2">
+      <c r="A1551" s="7" t="s">
         <v>3077</v>
       </c>
-    </row>
-    <row r="1551" ht="100.8" spans="1:2">
-      <c r="A1551" s="7" t="s">
+      <c r="B1551" s="7" t="s">
         <v>3078</v>
       </c>
-      <c r="B1551" s="7" t="s">
+    </row>
+    <row r="1552" ht="33.6" spans="1:2">
+      <c r="A1552" s="7" t="s">
         <v>3079</v>
       </c>
-    </row>
-    <row r="1552" ht="117.6" spans="1:2">
-      <c r="A1552" s="7" t="s">
+      <c r="B1552" s="7" t="s">
         <v>3080</v>
       </c>
-      <c r="B1552" s="7" t="s">
+    </row>
+    <row r="1553" ht="100.8" spans="1:2">
+      <c r="A1553" s="7" t="s">
         <v>3081</v>
       </c>
-    </row>
-    <row r="1553" ht="33.6" spans="1:2">
-      <c r="A1553" s="7" t="s">
+      <c r="B1553" s="7" t="s">
         <v>3082</v>
       </c>
-      <c r="B1553" s="7" t="s">
+    </row>
+    <row r="1554" ht="117.6" spans="1:2">
+      <c r="A1554" s="7" t="s">
         <v>3083</v>
       </c>
-    </row>
-    <row r="1554" ht="33.6" spans="1:2">
-      <c r="A1554" s="7" t="s">
+      <c r="B1554" s="7" t="s">
         <v>3084</v>
-      </c>
-      <c r="B1554" s="7" t="s">
-        <v>3085</v>
       </c>
     </row>
     <row r="1555" ht="33.6" spans="1:2">
       <c r="A1555" s="7" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B1555" s="7" t="s">
         <v>3086</v>
       </c>
-      <c r="B1555" s="7" t="s">
+    </row>
+    <row r="1556" ht="33.6" spans="1:2">
+      <c r="A1556" s="7" t="s">
         <v>3087</v>
       </c>
-    </row>
-    <row r="1556" ht="50.4" spans="1:2">
-      <c r="A1556" s="7" t="s">
+      <c r="B1556" s="7" t="s">
         <v>3088</v>
       </c>
-      <c r="B1556" s="7" t="s">
+    </row>
+    <row r="1557" ht="33.6" spans="1:2">
+      <c r="A1557" s="7" t="s">
         <v>3089</v>
       </c>
-    </row>
-    <row r="1557" ht="67.2" spans="1:2">
-      <c r="A1557" s="7" t="s">
+      <c r="B1557" s="7" t="s">
         <v>3090</v>
-      </c>
-      <c r="B1557" s="7" t="s">
-        <v>3091</v>
       </c>
     </row>
     <row r="1558" ht="50.4" spans="1:2">
       <c r="A1558" s="7" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B1558" s="7" t="s">
         <v>3092</v>
       </c>
-      <c r="B1558" s="7" t="s">
+    </row>
+    <row r="1559" ht="67.2" spans="1:2">
+      <c r="A1559" s="7" t="s">
         <v>3093</v>
       </c>
-    </row>
-    <row r="1559" ht="84" spans="1:2">
-      <c r="A1559" s="7" t="s">
+      <c r="B1559" s="7" t="s">
         <v>3094</v>
       </c>
-      <c r="B1559" s="7" t="s">
+    </row>
+    <row r="1560" ht="50.4" spans="1:2">
+      <c r="A1560" s="7" t="s">
         <v>3095</v>
       </c>
-    </row>
-    <row r="1560" ht="84" spans="1:2">
-      <c r="A1560" s="7" t="s">
+      <c r="B1560" s="7" t="s">
         <v>3096</v>
       </c>
-      <c r="B1560" s="7" t="s">
+    </row>
+    <row r="1561" ht="84" spans="1:2">
+      <c r="A1561" s="7" t="s">
         <v>3097</v>
       </c>
-    </row>
-    <row r="1561" ht="67.2" spans="1:2">
-      <c r="A1561" s="7" t="s">
+      <c r="B1561" s="7" t="s">
         <v>3098</v>
       </c>
-      <c r="B1561" s="7" t="s">
+    </row>
+    <row r="1562" ht="84" spans="1:2">
+      <c r="A1562" s="7" t="s">
         <v>3099</v>
       </c>
-    </row>
-    <row r="1562" ht="50.4" spans="1:2">
-      <c r="A1562" s="7" t="s">
+      <c r="B1562" s="7" t="s">
         <v>3100</v>
       </c>
-      <c r="B1562" s="7" t="s">
+    </row>
+    <row r="1563" ht="67.2" spans="1:2">
+      <c r="A1563" s="7" t="s">
         <v>3101</v>
+      </c>
+      <c r="B1563" s="7" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="1564" ht="50.4" spans="1:2">
+      <c r="A1564" s="7" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B1564" s="7" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2">
+      <c r="A1565" s="7" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B1565" s="7" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2">
+      <c r="A1566" s="7" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B1566" s="7" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2">
+      <c r="A1567" s="7" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B1567" s="7" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2">
+      <c r="A1568" s="7" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B1568" s="7" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="1569" ht="50.4" spans="1:1">
+      <c r="A1569" s="7" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="1570" ht="84" spans="1:1">
+      <c r="A1570" s="11" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="1571" ht="67.2" spans="1:1">
+      <c r="A1571" s="11" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="1572" ht="67.2" spans="1:1">
+      <c r="A1572" s="11" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1573" ht="67.2" spans="1:1">
+      <c r="A1573" s="11" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2">
+      <c r="A1574" s="7" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1574" s="7" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="1575" ht="33.6" spans="1:2">
+      <c r="A1575" s="7" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B1575" s="7" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="1576" ht="33.6" spans="1:2">
+      <c r="A1576" s="7" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B1576" s="7" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2">
+      <c r="A1577" s="7" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B1577" s="7" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2">
+      <c r="A1578" s="7" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B1578" s="7" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2">
+      <c r="A1579" s="7" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B1579" s="7" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2">
+      <c r="A1580" s="7" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B1580" s="7" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="1581" ht="67.2" spans="1:2">
+      <c r="A1581" s="11" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1581" s="11"/>
+    </row>
+    <row r="1582" ht="50.4" spans="1:2">
+      <c r="A1582" s="11" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B1582" s="11" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="1583" ht="33.6" spans="1:2">
+      <c r="A1583" s="11" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B1583" s="11" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2">
+      <c r="A1584" s="11" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B1584" s="11" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2">
+      <c r="A1585" s="11" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B1585" s="11" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="1586" ht="33.6" spans="1:2">
+      <c r="A1586" s="11" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B1586" s="11" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="1587" ht="33.6" spans="1:2">
+      <c r="A1587" s="11" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B1587" s="11" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="1588" ht="33.6" spans="1:2">
+      <c r="A1588" s="11" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B1588" s="11" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2">
+      <c r="A1589" s="7" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B1589" s="7" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1">
+      <c r="A1590" s="7" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="1591" ht="33.6" spans="1:1">
+      <c r="A1591" s="7" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1">
+      <c r="A1592" s="7" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1">
+      <c r="A1593" s="7" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1">
+      <c r="A1594" s="7" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1">
+      <c r="A1595" s="7" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1">
+      <c r="A1596" s="7" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1">
+      <c r="A1597" s="7" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1">
+      <c r="A1598" s="7" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1">
+      <c r="A1599" s="7" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1">
+      <c r="A1600" s="7" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1">
+      <c r="A1601" s="7" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="1602" ht="67.2" spans="1:1">
+      <c r="A1602" s="11" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="1603" ht="50.4" spans="1:1">
+      <c r="A1603" s="11" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="1604" ht="50.4" spans="1:1">
+      <c r="A1604" s="11" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1605" ht="67.2" spans="1:1">
+      <c r="A1605" s="11" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1">
+      <c r="A1606" s="7" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2">
+      <c r="A1607" s="7" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B1607" s="7" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="1608" ht="33.6" spans="1:1">
+      <c r="A1608" s="11" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1">
+      <c r="A1609" s="11" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1">
+      <c r="A1610" s="11" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2">
+      <c r="A1611" s="11" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B1611" s="7" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1">
+      <c r="A1612" s="11" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="1613" ht="33.6" spans="1:1">
+      <c r="A1613" s="10" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1">
+      <c r="A1614" s="10" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1">
+      <c r="A1615" s="10" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1">
+      <c r="A1616" s="10" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:1">
+      <c r="A1617" s="7" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:1">
+      <c r="A1618" s="7" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:1">
+      <c r="A1619" s="7" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1">
+      <c r="A1620" s="7" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1">
+      <c r="A1621" s="7" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:1">
+      <c r="A1622" s="7" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:1">
+      <c r="A1623" s="7" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:1">
+      <c r="A1624" s="7" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:1">
+      <c r="A1625" s="7" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:1">
+      <c r="A1626" s="7" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:1">
+      <c r="A1627" s="7" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="1628" ht="33.6" spans="1:1">
+      <c r="A1628" s="7" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:1">
+      <c r="A1629" s="7" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:1">
+      <c r="A1630" s="7" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:1">
+      <c r="A1631" s="7" t="s">
+        <v>3192</v>
       </c>
     </row>
   </sheetData>
@@ -23184,45 +24001,305 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D13:D14"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>3102</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:1">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>3104</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>3105</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>3106</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>3107</v>
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="38" ht="115.2" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="42" ht="72" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="45" ht="43.2" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="54" ht="28.8" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="55" ht="28.8" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="61" ht="28.8" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="68" ht="43.2" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>3240</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/05-词汇相关/BEC词汇随身记.xlsx
+++ b/BEC/05-词汇相关/BEC词汇随身记.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="3241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="3435">
   <si>
     <t>英语</t>
   </si>
@@ -3496,7 +3496,8 @@
     <t>chamber of commerce</t>
   </si>
   <si>
-    <t>商会</t>
+    <t>商会
+commerce</t>
   </si>
   <si>
     <t>Basic Accounting</t>
@@ -6124,7 +6125,8 @@
     <t>management</t>
   </si>
   <si>
-    <t>n.(企业、机关等的)管理人员、管理部门、经理部</t>
+    <t>n.(企业、机关等的)管理人员、管理部门、经理部
+management organigram</t>
   </si>
   <si>
     <t>technician</t>
@@ -6372,6 +6374,9 @@
   </si>
   <si>
     <t>n.商家，专营特定商品的公司</t>
+  </si>
+  <si>
+    <t>marketeer</t>
   </si>
   <si>
     <t>cartridge</t>
@@ -6700,6 +6705,12 @@
     <t>n.文件夹</t>
   </si>
   <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>n.1.文件夹 2.投资组合 3.(公司或机构提供的)系列产品，系列服务</t>
+  </si>
+  <si>
     <t>brand development</t>
   </si>
   <si>
@@ -9698,6 +9709,593 @@
   </si>
   <si>
     <t>dignity at work policy</t>
+  </si>
+  <si>
+    <t>managers,executives and directors</t>
+  </si>
+  <si>
+    <t>non-executive directors</t>
+  </si>
+  <si>
+    <t>non-executive directors are not managers of the company; they are outsiders, often directors of other companies who have particular knowledge of the industry or of particular areas.</t>
+  </si>
+  <si>
+    <t>head up their departments</t>
+  </si>
+  <si>
+    <t>allocate</t>
+  </si>
+  <si>
+    <t>captains of industry</t>
+  </si>
+  <si>
+    <t>These words often occur in combinations such as these:</t>
+  </si>
+  <si>
+    <t>1.magnate</t>
+  </si>
+  <si>
+    <t>media
+press
+shipping
+oil</t>
+  </si>
+  <si>
+    <t>2.mogul</t>
+  </si>
+  <si>
+    <t>movie
+media
+shipping</t>
+  </si>
+  <si>
+    <t>3.tycoon</t>
+  </si>
+  <si>
+    <t>property
+software</t>
+  </si>
+  <si>
+    <t>risk-taking nature</t>
+  </si>
+  <si>
+    <t>self-employed person</t>
+  </si>
+  <si>
+    <t>state-owned</t>
+  </si>
+  <si>
+    <t>government-owned</t>
+  </si>
+  <si>
+    <t>bureaucratic</t>
+  </si>
+  <si>
+    <t>Sole owner and sole proprietor are also used both in BrE and AmE. Sole trader is not used in the US.</t>
+  </si>
+  <si>
+    <t>demutualized</t>
+  </si>
+  <si>
+    <t>demutualization</t>
+  </si>
+  <si>
+    <t>non-profit organizations</t>
+  </si>
+  <si>
+    <t>(BrE), not-for-profit organizations(AmE)</t>
+  </si>
+  <si>
+    <t>with loss-making companies</t>
+  </si>
+  <si>
+    <t>Here are some of the manufacturing industries that make up the manufacturing sector:</t>
+  </si>
+  <si>
+    <t>aerospace</t>
+  </si>
+  <si>
+    <t>planes and space vehicles</t>
+  </si>
+  <si>
+    <t>cars(BrE)
+automobiles(AmE)</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>computer hardware</t>
+  </si>
+  <si>
+    <t>computers, printers, etc.</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>defence(BrE)
+defense(AmE)</t>
+  </si>
+  <si>
+    <t>arms, weapons</t>
+  </si>
+  <si>
+    <t>food processing</t>
+  </si>
+  <si>
+    <t>canned,
+fronzen foods, etc.</t>
+  </si>
+  <si>
+    <t>household goods</t>
+  </si>
+  <si>
+    <t>washing machines,
+refrigerators,etc.</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>a stronger, more useful metal than iron</t>
+  </si>
+  <si>
+    <t>textiles</t>
+  </si>
+  <si>
+    <t>cloth and clothes</t>
+  </si>
+  <si>
+    <t>Here are some of the services or service industries that make up the service sector:</t>
+  </si>
+  <si>
+    <t>restaurants, bars, etc.</t>
+  </si>
+  <si>
+    <t>computer software</t>
+  </si>
+  <si>
+    <t>programs for computers</t>
+  </si>
+  <si>
+    <t>financial services</t>
+  </si>
+  <si>
+    <t>banking, insurance, etc.</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>leisure</t>
+  </si>
+  <si>
+    <t>sport, theme parks, etc.</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>books, newspapers, film, television</t>
+  </si>
+  <si>
+    <t>property(BrE)
+real estate(AmE)</t>
+  </si>
+  <si>
+    <t>buying, selling and managing buildings</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>telecommunications</t>
+  </si>
+  <si>
+    <t>phone, Internet services</t>
+  </si>
+  <si>
+    <t>tourism</t>
+  </si>
+  <si>
+    <t>travel and holidays</t>
+  </si>
+  <si>
+    <t>the development process</t>
+  </si>
+  <si>
+    <t>proprietary</t>
+  </si>
+  <si>
+    <t>proprietary information</t>
+  </si>
+  <si>
+    <t>下面的词是否是可数名词</t>
+  </si>
+  <si>
+    <t>1.a design / design</t>
+  </si>
+  <si>
+    <t>2.a development / development</t>
+  </si>
+  <si>
+    <t>3.an invention / in vention</t>
+  </si>
+  <si>
+    <t>4.an innovation / innovation</t>
+  </si>
+  <si>
+    <t>copyright infringement</t>
+  </si>
+  <si>
+    <t>patent application</t>
+  </si>
+  <si>
+    <t>royalty payment</t>
+  </si>
+  <si>
+    <t>licensing agreement</t>
+  </si>
+  <si>
+    <t>overproduction:</t>
+  </si>
+  <si>
+    <t>1.excess capacity</t>
+  </si>
+  <si>
+    <t>2.overcapacity</t>
+  </si>
+  <si>
+    <t>3.spare capacity</t>
+  </si>
+  <si>
+    <t>4.surplus capacity</t>
+  </si>
+  <si>
+    <t>cacuum cleaners</t>
+  </si>
+  <si>
+    <t>Quantities of raw materials, components, work-in-progress and finished goods in a particular place are stocks.</t>
+  </si>
+  <si>
+    <t>尺寸
+= sizes</t>
+  </si>
+  <si>
+    <t>conformity</t>
+  </si>
+  <si>
+    <t>zero defects</t>
+  </si>
+  <si>
+    <t>no faults at all.</t>
+  </si>
+  <si>
+    <t>street vendors</t>
+  </si>
+  <si>
+    <t>particular</t>
+  </si>
+  <si>
+    <t>adj.特定的，某一的，特别的，挑剔的</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>market segmentation</t>
+  </si>
+  <si>
+    <t>stiff</t>
+  </si>
+  <si>
+    <t>adj.生硬的，艰难的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketers often talk about market orientation: </t>
+  </si>
+  <si>
+    <t>the fact that everything they do is designed to meet the needs of the market. They may describe themselves as market-driven, market-led or market-oriented.</t>
+  </si>
+  <si>
+    <t>company-wide</t>
+  </si>
+  <si>
+    <t>many market-led growth businesses</t>
+  </si>
+  <si>
+    <t>Consumer goods that last a long time, such as cars and washing machines, are consumer durables.
+Consumber goods such as food products that sell quickly are fast-moving consumer goods, or FMCG.</t>
+  </si>
+  <si>
+    <t>product mix</t>
+  </si>
+  <si>
+    <t>soap powder</t>
+  </si>
+  <si>
+    <t>advertisements and hoardings</t>
+  </si>
+  <si>
+    <t>BrE: upmarket, downmarket</t>
+  </si>
+  <si>
+    <t>AmE: upscale, downscale</t>
+  </si>
+  <si>
+    <t>niches</t>
+  </si>
+  <si>
+    <t>A niche or niche market is a small group of buyers with special needs, which may be profitable to sell to. For example, soports cars are a niche in the car industry.</t>
+  </si>
+  <si>
+    <t>A shop(BrE) or store(AmE) is where people buy things. Companies may call it a retial outlet or sales outlet. Here are some types of shops:</t>
+  </si>
+  <si>
+    <t>1.chain store</t>
+  </si>
+  <si>
+    <t>part of a group of shops, all which the same name.</t>
+  </si>
+  <si>
+    <t>2.convenience store</t>
+  </si>
+  <si>
+    <t>small shop in a residential area and open long hours.</t>
+  </si>
+  <si>
+    <t>3.deep discounter</t>
+  </si>
+  <si>
+    <t>a supermarket with very low prices.</t>
+  </si>
+  <si>
+    <t>4.department store</t>
+  </si>
+  <si>
+    <t>very large shop with a wide variety of goods, usually in a town centre.</t>
+  </si>
+  <si>
+    <t>5.drugstore</t>
+  </si>
+  <si>
+    <t>shop in a town centre in the US which sells medicines; you can also have coffee and meals there.</t>
+  </si>
+  <si>
+    <t>6.hypermarket</t>
+  </si>
+  <si>
+    <t>very large shop with a wide variety of goods,usually outside a town.</t>
+  </si>
+  <si>
+    <t>7.supermarket</t>
+  </si>
+  <si>
+    <t>very large shop,selling mainly food.</t>
+  </si>
+  <si>
+    <t>a purpose-built area</t>
+  </si>
+  <si>
+    <t>salesforce</t>
+  </si>
+  <si>
+    <t>Promotions(uncountable)is all the activities supporting the sale of a product, including advertising. A promotion (countable) describes:</t>
+  </si>
+  <si>
+    <t>a special offer</t>
+  </si>
+  <si>
+    <t>such as a discount or reduced price.</t>
+  </si>
+  <si>
+    <t>a free sample</t>
+  </si>
+  <si>
+    <t>a small amount of the product to try or taste.</t>
+  </si>
+  <si>
+    <t>a free gift</t>
+  </si>
+  <si>
+    <t>given with the product.</t>
+  </si>
+  <si>
+    <t>compentitions with prizes</t>
+  </si>
+  <si>
+    <t>clicks-and-mortar</t>
+  </si>
+  <si>
+    <t>Here are some more uses of the word 'sale':</t>
+  </si>
+  <si>
+    <t>1.make a sale</t>
+  </si>
+  <si>
+    <t>sell something</t>
+  </si>
+  <si>
+    <t>2.be on sale</t>
+  </si>
+  <si>
+    <t>be available to buy</t>
+  </si>
+  <si>
+    <t>3.unit sales</t>
+  </si>
+  <si>
+    <t>the number of things sold</t>
+  </si>
+  <si>
+    <t>4.sales</t>
+  </si>
+  <si>
+    <t>a company department</t>
+  </si>
+  <si>
+    <t>5.a sale</t>
+  </si>
+  <si>
+    <t>a period when a shop is charging less than usual for goods</t>
+  </si>
+  <si>
+    <t>6.the sales</t>
+  </si>
+  <si>
+    <t>a peiod when a lot of shops are having a sale</t>
+  </si>
+  <si>
+    <t>The money that a business spends are its costs:</t>
+  </si>
+  <si>
+    <t>1.direct costs</t>
+  </si>
+  <si>
+    <t>direct costs are directly related to providing the product(e.g. salaries).</t>
+  </si>
+  <si>
+    <t>2.fixed costs</t>
+  </si>
+  <si>
+    <t>fixed costs do not change when production goes up or down(e.g. rent, heating, etc.).</t>
+  </si>
+  <si>
+    <t>3.variable costs</t>
+  </si>
+  <si>
+    <t>variable costs change when production goes up or down(e.g. materials).</t>
+  </si>
+  <si>
+    <t>4.cost of goods sold(COGS)</t>
+  </si>
+  <si>
+    <t>the various costs in making particular goods(e.g. materials and salaries).</t>
+  </si>
+  <si>
+    <t>5.indirect costs</t>
+  </si>
+  <si>
+    <t>overhead costs or overheads are not directly related to production(e.g. administration).</t>
+  </si>
+  <si>
+    <t>economies of scale and the learning curve</t>
+  </si>
+  <si>
+    <t>When you ask to buy something, you order it, or place an order for it. When the goods are ready, they are dispatched or shipped to you.</t>
+  </si>
+  <si>
+    <t>BrE: profit and loss account
+AmE: income statement</t>
+  </si>
+  <si>
+    <t>bleeding red ink or haemorrhaging red ink</t>
+  </si>
+  <si>
+    <t>A venture capitalist is someone who puts up money for a lot of new companies.</t>
+  </si>
+  <si>
+    <t>leverage</t>
+  </si>
+  <si>
+    <t>turnarounds and bailouts</t>
+  </si>
+  <si>
+    <t>high-street banks</t>
+  </si>
+  <si>
+    <t>current account</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>financial centres</t>
+  </si>
+  <si>
+    <t>London is a financial centre is called the City or the Square Mile, and New York is Wall Street.</t>
+  </si>
+  <si>
+    <t>financial institutions</t>
+  </si>
+  <si>
+    <t>Other financial products include:</t>
+  </si>
+  <si>
+    <t>1.commercial paper</t>
+  </si>
+  <si>
+    <t>short-term lending to business.</t>
+  </si>
+  <si>
+    <t>2.bonds</t>
+  </si>
+  <si>
+    <t>longer-term lending to business and the government.</t>
+  </si>
+  <si>
+    <t>3.currencies(foreign exchange or forex)</t>
+  </si>
+  <si>
+    <t>buying and selling the money of particular countries.</t>
+  </si>
+  <si>
+    <t>4.commodities</t>
+  </si>
+  <si>
+    <t>metals and farm products.</t>
+  </si>
+  <si>
+    <t>securities houses</t>
+  </si>
+  <si>
+    <t>derivatives</t>
+  </si>
+  <si>
+    <t>A futures contract is an agreement giving an obligation to sell a fixed amount of a security or commodity at a particular price on a particular future date.</t>
+  </si>
+  <si>
+    <t>期货合约是一种约定，约定在未来某一特定日期以特定价格出售固定数量的证券或商品。</t>
+  </si>
+  <si>
+    <t>An options contract is an agreement giving the right, but not the obligation, to buy or sell a security or commodity at a particular price at a particular future time, or in a period of future time.</t>
+  </si>
+  <si>
+    <t>spectacular declines</t>
+  </si>
+  <si>
+    <t>peaks and troughs</t>
+  </si>
+  <si>
+    <t>If a figure rises to a level and then stops rising, remaining at the level, it levels off and remains steady or stable.</t>
+  </si>
+  <si>
+    <t>If a figure reaches its highest level - a peak - and then goes down, it peaks at that level. If it reaches its lowest level - a trough - and then bottoms out, it falls to that level and then starts rising again.</t>
+  </si>
+  <si>
+    <t>Boom and bust</t>
+  </si>
+  <si>
+    <t>1.demand is the amount of goods and sevices that peope want in a particular period.</t>
+  </si>
+  <si>
+    <t>2.A boom is when there is rising demand, and other indicators are strong.</t>
+  </si>
+  <si>
+    <t>3.Stagnation is when the economy is growing slowly, or not at all.</t>
+  </si>
+  <si>
+    <t>4. Stagflation is when slow growth is combined with prices that are increasing fast.</t>
+  </si>
+  <si>
+    <t>5. Recession is a perios when there is negative growth, a period when the economy is producing less. A slump is a very bad recession. A depression is a very bad slump.</t>
   </si>
   <si>
     <t>考试攻略</t>
@@ -10919,12 +11517,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1631"/>
+  <dimension ref="A1:C1770"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1629" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1766" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1638" sqref="B1638"/>
+      <selection pane="bottomLeft" activeCell="C1770" sqref="C1770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -15546,7 +16144,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" ht="50.4" spans="1:2">
       <c r="A578" s="7" t="s">
         <v>1151</v>
       </c>
@@ -19053,7 +19651,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="1016" ht="33.6" spans="1:2">
+    <row r="1016" ht="67.2" spans="1:2">
       <c r="A1016" s="7" t="s">
         <v>2020</v>
       </c>
@@ -19389,828 +19987,825 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="1058" spans="1:2">
+    <row r="1058" spans="1:1">
       <c r="A1058" s="7" t="s">
         <v>2104</v>
       </c>
-      <c r="B1058" s="7" t="s">
-        <v>2105</v>
-      </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="7" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1059" s="7" t="s">
         <v>2106</v>
-      </c>
-      <c r="B1059" s="7" t="s">
-        <v>2107</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" s="7" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1060" s="7" t="s">
         <v>2108</v>
-      </c>
-      <c r="B1060" s="7" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" s="7" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1061" s="7" t="s">
         <v>2110</v>
-      </c>
-      <c r="B1061" s="7" t="s">
-        <v>2111</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" s="7" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1062" s="7" t="s">
         <v>2112</v>
-      </c>
-      <c r="B1062" s="7" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" s="7" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1063" s="7" t="s">
         <v>2114</v>
-      </c>
-      <c r="B1063" s="7" t="s">
-        <v>2115</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" s="7" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1064" s="7" t="s">
         <v>2116</v>
-      </c>
-      <c r="B1064" s="7" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" s="7" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B1065" s="7" t="s">
         <v>2118</v>
       </c>
-      <c r="B1065" s="7" t="s">
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="A1066" s="7" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="1066" ht="33.6" spans="1:2">
-      <c r="A1066" s="7" t="s">
+      <c r="B1066" s="7" t="s">
         <v>2120</v>
       </c>
-      <c r="B1066" s="7" t="s">
+    </row>
+    <row r="1067" ht="33.6" spans="1:2">
+      <c r="A1067" s="7" t="s">
         <v>2121</v>
       </c>
-    </row>
-    <row r="1067" spans="1:2">
-      <c r="A1067" s="7" t="s">
+      <c r="B1067" s="7" t="s">
         <v>2122</v>
-      </c>
-      <c r="B1067" s="7" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" s="7" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1068" s="7" t="s">
         <v>2124</v>
-      </c>
-      <c r="B1068" s="7" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" s="7" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1069" s="7" t="s">
         <v>2126</v>
       </c>
-      <c r="B1069" s="7" t="s">
+    </row>
+    <row r="1070" spans="1:2">
+      <c r="A1070" s="7" t="s">
         <v>2127</v>
       </c>
-    </row>
-    <row r="1070" ht="33.6" spans="1:2">
-      <c r="A1070" s="7" t="s">
+      <c r="B1070" s="7" t="s">
         <v>2128</v>
       </c>
-      <c r="B1070" s="7" t="s">
+    </row>
+    <row r="1071" ht="33.6" spans="1:2">
+      <c r="A1071" s="7" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="1071" spans="1:2">
-      <c r="A1071" s="7" t="s">
+      <c r="B1071" s="7" t="s">
         <v>2130</v>
-      </c>
-      <c r="B1071" s="7" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" s="7" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1072" s="7" t="s">
         <v>2132</v>
-      </c>
-      <c r="B1072" s="7" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" s="7" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1073" s="7" t="s">
         <v>2134</v>
       </c>
-      <c r="B1073" s="7" t="s">
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="A1074" s="7" t="s">
         <v>2135</v>
       </c>
-    </row>
-    <row r="1074" ht="33.6" spans="1:2">
-      <c r="A1074" s="7" t="s">
+      <c r="B1074" s="7" t="s">
         <v>2136</v>
       </c>
-      <c r="B1074" s="7" t="s">
+    </row>
+    <row r="1075" ht="33.6" spans="1:2">
+      <c r="A1075" s="7" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="1075" spans="1:2">
-      <c r="A1075" s="7" t="s">
+      <c r="B1075" s="7" t="s">
         <v>2138</v>
-      </c>
-      <c r="B1075" s="7" t="s">
-        <v>2139</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" s="7" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B1076" s="7" t="s">
         <v>2140</v>
       </c>
-      <c r="B1076" s="7" t="s">
+    </row>
+    <row r="1077" spans="1:2">
+      <c r="A1077" s="7" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="1077" ht="33.6" spans="1:2">
-      <c r="A1077" s="7" t="s">
+      <c r="B1077" s="7" t="s">
         <v>2142</v>
-      </c>
-      <c r="B1077" s="7" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="1078" ht="33.6" spans="1:2">
       <c r="A1078" s="7" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1078" s="7" t="s">
         <v>2144</v>
-      </c>
-      <c r="B1078" s="7" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="1079" ht="33.6" spans="1:2">
       <c r="A1079" s="7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1079" s="7" t="s">
         <v>2146</v>
-      </c>
-      <c r="B1079" s="7" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="1080" ht="33.6" spans="1:2">
       <c r="A1080" s="7" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1080" s="7" t="s">
         <v>2148</v>
       </c>
-      <c r="B1080" s="7" t="s">
+    </row>
+    <row r="1081" ht="33.6" spans="1:2">
+      <c r="A1081" s="7" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="1081" ht="50.4" spans="1:2">
-      <c r="A1081" s="7" t="s">
+      <c r="B1081" s="7" t="s">
         <v>2150</v>
       </c>
-      <c r="B1081" s="7" t="s">
+    </row>
+    <row r="1082" ht="50.4" spans="1:2">
+      <c r="A1082" s="7" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="1082" ht="33.6" spans="1:2">
-      <c r="A1082" s="7" t="s">
+      <c r="B1082" s="7" t="s">
         <v>2152</v>
       </c>
-      <c r="B1082" s="7" t="s">
+    </row>
+    <row r="1083" ht="33.6" spans="1:2">
+      <c r="A1083" s="7" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="1083" spans="1:2">
-      <c r="A1083" s="7" t="s">
+      <c r="B1083" s="7" t="s">
         <v>2154</v>
-      </c>
-      <c r="B1083" s="7" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" s="7" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1084" s="7" t="s">
         <v>2156</v>
       </c>
-      <c r="B1084" s="7" t="s">
+    </row>
+    <row r="1085" spans="1:2">
+      <c r="A1085" s="7" t="s">
         <v>2157</v>
       </c>
-    </row>
-    <row r="1085" ht="33.6" spans="1:2">
-      <c r="A1085" s="7" t="s">
+      <c r="B1085" s="7" t="s">
         <v>2158</v>
       </c>
-      <c r="B1085" s="7" t="s">
+    </row>
+    <row r="1086" ht="33.6" spans="1:2">
+      <c r="A1086" s="7" t="s">
         <v>2159</v>
       </c>
-    </row>
-    <row r="1086" spans="1:2">
-      <c r="A1086" s="7" t="s">
+      <c r="B1086" s="7" t="s">
         <v>2160</v>
-      </c>
-      <c r="B1086" s="7" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" s="7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1087" s="7" t="s">
         <v>2162</v>
       </c>
-      <c r="B1087" s="7" t="s">
+    </row>
+    <row r="1088" spans="1:2">
+      <c r="A1088" s="7" t="s">
         <v>2163</v>
       </c>
-    </row>
-    <row r="1088" ht="285.6" spans="1:2">
-      <c r="A1088" s="7" t="s">
+      <c r="B1088" s="7" t="s">
         <v>2164</v>
       </c>
-      <c r="B1088" s="7" t="s">
+    </row>
+    <row r="1089" ht="285.6" spans="1:2">
+      <c r="A1089" s="7" t="s">
         <v>2165</v>
       </c>
-    </row>
-    <row r="1089" ht="33.6" spans="1:2">
-      <c r="A1089" s="7" t="s">
+      <c r="B1089" s="7" t="s">
         <v>2166</v>
       </c>
-      <c r="B1089" s="7" t="s">
+    </row>
+    <row r="1090" ht="33.6" spans="1:2">
+      <c r="A1090" s="7" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="1090" spans="1:2">
-      <c r="A1090" s="7" t="s">
+      <c r="B1090" s="7" t="s">
         <v>2168</v>
-      </c>
-      <c r="B1090" s="7" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" s="7" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1091" s="7" t="s">
         <v>2170</v>
-      </c>
-      <c r="B1091" s="7" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" s="7" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1092" s="7" t="s">
         <v>2172</v>
-      </c>
-      <c r="B1092" s="7" t="s">
-        <v>2173</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" s="7" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B1093" s="7" t="s">
         <v>2174</v>
       </c>
-      <c r="B1093" s="7" t="s">
+    </row>
+    <row r="1094" spans="1:2">
+      <c r="A1094" s="7" t="s">
         <v>2175</v>
       </c>
-    </row>
-    <row r="1094" ht="33.6" spans="1:2">
-      <c r="A1094" s="7" t="s">
+      <c r="B1094" s="7" t="s">
         <v>2176</v>
       </c>
-      <c r="B1094" s="7" t="s">
+    </row>
+    <row r="1095" ht="33.6" spans="1:2">
+      <c r="A1095" s="7" t="s">
         <v>2177</v>
       </c>
-    </row>
-    <row r="1095" spans="1:2">
-      <c r="A1095" s="7" t="s">
+      <c r="B1095" s="7" t="s">
         <v>2178</v>
-      </c>
-      <c r="B1095" s="7" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" s="7" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1096" s="7" t="s">
         <v>2180</v>
-      </c>
-      <c r="B1096" s="7" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" s="7" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1097" s="7" t="s">
         <v>2182</v>
-      </c>
-      <c r="B1097" s="7" t="s">
-        <v>2183</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" s="7" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1098" s="7" t="s">
         <v>2184</v>
-      </c>
-      <c r="B1098" s="7" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" s="7" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1099" s="7" t="s">
         <v>2186</v>
-      </c>
-      <c r="B1099" s="7" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1100" s="7" t="s">
         <v>2188</v>
-      </c>
-      <c r="B1100" s="7" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" s="7" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1101" s="7" t="s">
         <v>2190</v>
-      </c>
-      <c r="B1101" s="7" t="s">
-        <v>2191</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="7" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1102" s="7" t="s">
         <v>2192</v>
-      </c>
-      <c r="B1102" s="7" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" s="7" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B1103" s="7" t="s">
         <v>2194</v>
-      </c>
-      <c r="B1103" s="7" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" s="7" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B1104" s="7" t="s">
         <v>2196</v>
-      </c>
-      <c r="B1104" s="7" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" s="7" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1105" s="7" t="s">
         <v>2198</v>
-      </c>
-      <c r="B1105" s="7" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1106" s="7" t="s">
         <v>2200</v>
-      </c>
-      <c r="B1106" s="7" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" s="7" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1107" s="7" t="s">
         <v>2202</v>
       </c>
-      <c r="B1107" s="7" t="s">
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="A1108" s="7" t="s">
         <v>2203</v>
       </c>
-    </row>
-    <row r="1108" ht="33.6" spans="1:2">
-      <c r="A1108" s="7" t="s">
+      <c r="B1108" s="7" t="s">
         <v>2204</v>
-      </c>
-      <c r="B1108" s="7" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="1109" ht="33.6" spans="1:2">
       <c r="A1109" s="7" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1109" s="7" t="s">
         <v>2206</v>
       </c>
-      <c r="B1109" s="7" t="s">
+    </row>
+    <row r="1110" ht="33.6" spans="1:2">
+      <c r="A1110" s="7" t="s">
         <v>2207</v>
       </c>
-    </row>
-    <row r="1110" spans="1:2">
-      <c r="A1110" s="7" t="s">
+      <c r="B1110" s="7" t="s">
         <v>2208</v>
-      </c>
-      <c r="B1110" s="7" t="s">
-        <v>2209</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" s="7" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1111" s="7" t="s">
         <v>2210</v>
       </c>
-      <c r="B1111" s="7" t="s">
+    </row>
+    <row r="1112" ht="50.4" spans="1:2">
+      <c r="A1112" s="7" t="s">
         <v>2211</v>
       </c>
-    </row>
-    <row r="1112" ht="33.6" spans="1:2">
-      <c r="A1112" s="7" t="s">
+      <c r="B1112" s="7" t="s">
         <v>2212</v>
       </c>
-      <c r="B1112" s="7" t="s">
+    </row>
+    <row r="1113" spans="1:2">
+      <c r="A1113" s="7" t="s">
         <v>2213</v>
       </c>
-    </row>
-    <row r="1113" ht="184.8" spans="1:2">
-      <c r="A1113" s="7" t="s">
+      <c r="B1113" s="7" t="s">
         <v>2214</v>
       </c>
-      <c r="B1113" s="7" t="s">
+    </row>
+    <row r="1114" ht="33.6" spans="1:2">
+      <c r="A1114" s="7" t="s">
         <v>2215</v>
       </c>
-    </row>
-    <row r="1114" ht="67.2" spans="1:2">
-      <c r="A1114" s="7" t="s">
+      <c r="B1114" s="7" t="s">
         <v>2216</v>
       </c>
-      <c r="B1114" s="7" t="s">
+    </row>
+    <row r="1115" ht="184.8" spans="1:2">
+      <c r="A1115" s="7" t="s">
         <v>2217</v>
       </c>
-    </row>
-    <row r="1115" ht="33.6" spans="1:2">
-      <c r="A1115" s="7" t="s">
+      <c r="B1115" s="7" t="s">
         <v>2218</v>
       </c>
-      <c r="B1115" s="7" t="s">
+    </row>
+    <row r="1116" ht="67.2" spans="1:2">
+      <c r="A1116" s="7" t="s">
         <v>2219</v>
       </c>
-    </row>
-    <row r="1116" ht="33.6" spans="1:2">
-      <c r="A1116" s="7" t="s">
+      <c r="B1116" s="7" t="s">
         <v>2220</v>
-      </c>
-      <c r="B1116" s="7" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="1117" ht="33.6" spans="1:2">
       <c r="A1117" s="7" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B1117" s="7" t="s">
         <v>2222</v>
       </c>
-      <c r="B1117" s="7" t="s">
+    </row>
+    <row r="1118" ht="33.6" spans="1:2">
+      <c r="A1118" s="7" t="s">
         <v>2223</v>
       </c>
-    </row>
-    <row r="1118" spans="1:2">
-      <c r="A1118" s="7" t="s">
+      <c r="B1118" s="7" t="s">
         <v>2224</v>
       </c>
-      <c r="B1118" s="7" t="s">
+    </row>
+    <row r="1119" ht="33.6" spans="1:2">
+      <c r="A1119" s="7" t="s">
         <v>2225</v>
       </c>
-    </row>
-    <row r="1119" spans="1:2">
-      <c r="A1119" s="7" t="s">
+      <c r="B1119" s="7" t="s">
         <v>2226</v>
       </c>
-      <c r="B1119" s="7" t="s">
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="7" t="s">
         <v>2227</v>
       </c>
-    </row>
-    <row r="1120" ht="50.4" spans="1:2">
-      <c r="A1120" s="7" t="s">
+      <c r="B1120" s="7" t="s">
         <v>2228</v>
       </c>
-      <c r="B1120" s="7" t="s">
+    </row>
+    <row r="1121" spans="1:2">
+      <c r="A1121" s="7" t="s">
         <v>2229</v>
       </c>
-    </row>
-    <row r="1121" ht="285.6" spans="1:2">
-      <c r="A1121" s="7" t="s">
+      <c r="B1121" s="7" t="s">
         <v>2230</v>
       </c>
-      <c r="B1121" s="7" t="s">
+    </row>
+    <row r="1122" ht="50.4" spans="1:2">
+      <c r="A1122" s="7" t="s">
         <v>2231</v>
       </c>
-    </row>
-    <row r="1122" spans="1:2">
-      <c r="A1122" s="7" t="s">
+      <c r="B1122" s="7" t="s">
         <v>2232</v>
       </c>
-      <c r="B1122" s="7" t="s">
+    </row>
+    <row r="1123" ht="285.6" spans="1:2">
+      <c r="A1123" s="7" t="s">
         <v>2233</v>
       </c>
-    </row>
-    <row r="1123" spans="1:2">
-      <c r="A1123" s="7" t="s">
+      <c r="B1123" s="7" t="s">
         <v>2234</v>
-      </c>
-      <c r="B1123" s="7" t="s">
-        <v>2235</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" s="7" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1124" s="7" t="s">
         <v>2236</v>
-      </c>
-      <c r="B1124" s="7" t="s">
-        <v>2237</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" s="7" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1125" s="7" t="s">
         <v>2238</v>
-      </c>
-      <c r="B1125" s="7" t="s">
-        <v>2239</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" s="7" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B1126" s="7" t="s">
         <v>2240</v>
       </c>
-      <c r="B1126" s="7" t="s">
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="7" t="s">
         <v>2241</v>
       </c>
-    </row>
-    <row r="1127" ht="33.6" spans="1:2">
-      <c r="A1127" s="7" t="s">
+      <c r="B1127" s="7" t="s">
         <v>2242</v>
-      </c>
-      <c r="B1127" s="7" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" s="7" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B1128" s="7" t="s">
         <v>2244</v>
       </c>
-      <c r="B1128" s="12" t="s">
+    </row>
+    <row r="1129" ht="33.6" spans="1:2">
+      <c r="A1129" s="7" t="s">
         <v>2245</v>
       </c>
-    </row>
-    <row r="1129" spans="1:2">
-      <c r="A1129" s="7" t="s">
+      <c r="B1129" s="7" t="s">
         <v>2246</v>
-      </c>
-      <c r="B1129" s="7" t="s">
-        <v>2247</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" s="7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B1130" s="12" t="s">
         <v>2248</v>
-      </c>
-      <c r="B1130" s="12" t="s">
-        <v>2249</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" s="7" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1131" s="7" t="s">
         <v>2250</v>
-      </c>
-      <c r="B1131" s="7" t="s">
-        <v>2251</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" s="7" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B1132" s="12" t="s">
         <v>2252</v>
-      </c>
-      <c r="B1132" s="7" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="7" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B1133" s="7" t="s">
         <v>2254</v>
       </c>
-      <c r="B1133" s="7" t="s">
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="A1134" s="7" t="s">
         <v>2255</v>
       </c>
-    </row>
-    <row r="1134" ht="33.6" spans="1:2">
-      <c r="A1134" s="7" t="s">
+      <c r="B1134" s="7" t="s">
         <v>2256</v>
       </c>
-      <c r="B1134" s="7" t="s">
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="A1135" s="7" t="s">
         <v>2257</v>
       </c>
-    </row>
-    <row r="1135" ht="50.4" spans="1:2">
-      <c r="A1135" s="7" t="s">
+      <c r="B1135" s="7" t="s">
         <v>2258</v>
       </c>
-      <c r="B1135" s="7" t="s">
+    </row>
+    <row r="1136" ht="33.6" spans="1:2">
+      <c r="A1136" s="7" t="s">
         <v>2259</v>
       </c>
-    </row>
-    <row r="1136" spans="1:2">
-      <c r="A1136" s="7" t="s">
+      <c r="B1136" s="7" t="s">
         <v>2260</v>
       </c>
-      <c r="B1136" s="7" t="s">
+    </row>
+    <row r="1137" ht="50.4" spans="1:2">
+      <c r="A1137" s="7" t="s">
         <v>2261</v>
       </c>
-    </row>
-    <row r="1137" spans="1:2">
-      <c r="A1137" s="7" t="s">
+      <c r="B1137" s="7" t="s">
         <v>2262</v>
-      </c>
-      <c r="B1137" s="7" t="s">
-        <v>2263</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B1138" s="7" t="s">
         <v>2264</v>
-      </c>
-      <c r="B1138" s="7" t="s">
-        <v>2265</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B1139" s="7" t="s">
         <v>2266</v>
       </c>
-      <c r="B1139" s="7" t="s">
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="A1140" s="7" t="s">
         <v>2267</v>
       </c>
-    </row>
-    <row r="1140" ht="33.6" spans="1:2">
-      <c r="A1140" s="7" t="s">
+      <c r="B1140" s="7" t="s">
         <v>2268</v>
       </c>
-      <c r="B1140" s="7" t="s">
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="7" t="s">
         <v>2269</v>
       </c>
-    </row>
-    <row r="1141" ht="33.6" spans="1:2">
-      <c r="A1141" s="7" t="s">
+      <c r="B1141" s="7" t="s">
         <v>2270</v>
       </c>
-      <c r="B1141" s="7" t="s">
+    </row>
+    <row r="1142" ht="33.6" spans="1:2">
+      <c r="A1142" s="7" t="s">
         <v>2271</v>
       </c>
-    </row>
-    <row r="1142" spans="1:2">
-      <c r="A1142" s="7" t="s">
+      <c r="B1142" s="7" t="s">
         <v>2272</v>
       </c>
-      <c r="B1142" s="7" t="s">
+    </row>
+    <row r="1143" ht="33.6" spans="1:2">
+      <c r="A1143" s="7" t="s">
         <v>2273</v>
       </c>
-    </row>
-    <row r="1143" spans="1:2">
-      <c r="A1143" s="7" t="s">
+      <c r="B1143" s="7" t="s">
         <v>2274</v>
-      </c>
-      <c r="B1143" s="7" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" s="7" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1144" s="7" t="s">
         <v>2276</v>
-      </c>
-      <c r="B1144" s="7" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" s="7" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1145" s="7" t="s">
         <v>2278</v>
-      </c>
-      <c r="B1145" s="7" t="s">
-        <v>2279</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" s="7" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1146" s="7" t="s">
         <v>2280</v>
-      </c>
-      <c r="B1146" s="7" t="s">
-        <v>2281</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" s="7" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1147" s="7" t="s">
         <v>2282</v>
-      </c>
-      <c r="B1147" s="7" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" s="7" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B1148" s="7" t="s">
         <v>2284</v>
-      </c>
-      <c r="B1148" s="7" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" s="7" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1149" s="7" t="s">
         <v>2286</v>
-      </c>
-      <c r="B1149" s="7" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" s="7" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1150" s="7" t="s">
         <v>2288</v>
-      </c>
-      <c r="B1150" s="7" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="7" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1151" s="7" t="s">
         <v>2290</v>
-      </c>
-      <c r="B1151" s="7" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" s="7" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B1152" s="7" t="s">
         <v>2292</v>
-      </c>
-      <c r="B1152" s="7" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" s="7" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1153" s="7" t="s">
         <v>2294</v>
-      </c>
-      <c r="B1153" s="7" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" s="7" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B1154" s="7" t="s">
         <v>2296</v>
-      </c>
-      <c r="B1154" s="7" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B1155" s="7" t="s">
         <v>2298</v>
       </c>
-      <c r="B1155" s="7" t="s">
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="A1156" s="7" t="s">
         <v>2299</v>
       </c>
-    </row>
-    <row r="1156" ht="33.6" spans="1:2">
-      <c r="A1156" s="7" t="s">
+      <c r="B1156" s="7" t="s">
         <v>2300</v>
-      </c>
-      <c r="B1156" s="7" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" s="7" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B1157" s="7" t="s">
         <v>2302</v>
-      </c>
-      <c r="B1157" s="7" t="s">
-        <v>2303</v>
       </c>
     </row>
     <row r="1158" ht="33.6" spans="1:2">
       <c r="A1158" s="7" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B1158" s="7" t="s">
         <v>2304</v>
-      </c>
-      <c r="B1158" s="7" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" s="7" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B1159" s="7" t="s">
         <v>2306</v>
       </c>
-      <c r="B1159" s="7" t="s">
+    </row>
+    <row r="1160" ht="33.6" spans="1:2">
+      <c r="A1160" s="7" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="1160" spans="1:2">
-      <c r="A1160" s="7" t="s">
+      <c r="B1160" s="7" t="s">
         <v>2308</v>
-      </c>
-      <c r="B1160" s="7" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -20226,418 +20821,418 @@
         <v>2311</v>
       </c>
       <c r="B1162" s="7" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2">
+      <c r="A1163" s="7" t="s">
         <v>2312</v>
       </c>
-    </row>
-    <row r="1163" ht="33.6" spans="1:2">
-      <c r="A1163" s="7" t="s">
+      <c r="B1163" s="7" t="s">
         <v>2313</v>
-      </c>
-      <c r="B1163" s="7" t="s">
-        <v>2314</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="7" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1164" s="7" t="s">
         <v>2315</v>
-      </c>
-      <c r="B1164" s="7" t="s">
-        <v>2316</v>
       </c>
     </row>
     <row r="1165" ht="33.6" spans="1:2">
       <c r="A1165" s="7" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1165" s="7" t="s">
         <v>2317</v>
       </c>
-      <c r="B1165" s="7" t="s">
+    </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" s="7" t="s">
         <v>2318</v>
       </c>
-    </row>
-    <row r="1166" ht="33.6" spans="1:2">
-      <c r="A1166" s="7" t="s">
+      <c r="B1166" s="7" t="s">
         <v>2319</v>
       </c>
-      <c r="B1166" s="7" t="s">
+    </row>
+    <row r="1167" ht="33.6" spans="1:2">
+      <c r="A1167" s="7" t="s">
         <v>2320</v>
       </c>
-    </row>
-    <row r="1167" spans="1:2">
-      <c r="A1167" s="7" t="s">
+      <c r="B1167" s="7" t="s">
         <v>2321</v>
-      </c>
-      <c r="B1167" s="7" t="s">
-        <v>2322</v>
       </c>
     </row>
     <row r="1168" ht="33.6" spans="1:2">
       <c r="A1168" s="7" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1168" s="7" t="s">
         <v>2323</v>
-      </c>
-      <c r="B1168" s="7" t="s">
-        <v>2324</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" s="7" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1169" s="7" t="s">
         <v>2325</v>
       </c>
-      <c r="B1169" s="7" t="s">
+    </row>
+    <row r="1170" ht="33.6" spans="1:2">
+      <c r="A1170" s="7" t="s">
         <v>2326</v>
       </c>
-    </row>
-    <row r="1170" spans="1:2">
-      <c r="A1170" s="7" t="s">
+      <c r="B1170" s="7" t="s">
         <v>2327</v>
       </c>
-      <c r="B1170" s="7" t="s">
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" s="7" t="s">
         <v>2328</v>
       </c>
-    </row>
-    <row r="1171" ht="100.8" spans="1:2">
-      <c r="A1171" s="7" t="s">
+      <c r="B1171" s="7" t="s">
         <v>2329</v>
-      </c>
-      <c r="B1171" s="7" t="s">
-        <v>2330</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" s="7" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1172" s="7" t="s">
         <v>2331</v>
       </c>
-      <c r="B1172" s="7" t="s">
+    </row>
+    <row r="1173" ht="100.8" spans="1:2">
+      <c r="A1173" s="7" t="s">
         <v>2332</v>
       </c>
-    </row>
-    <row r="1173" ht="117.6" spans="1:2">
-      <c r="A1173" s="7" t="s">
+      <c r="B1173" s="7" t="s">
         <v>2333</v>
       </c>
-      <c r="B1173" s="7" t="s">
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" s="7" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="1174" ht="67.2" spans="1:2">
-      <c r="A1174" s="7" t="s">
+      <c r="B1174" s="7" t="s">
         <v>2335</v>
       </c>
-      <c r="B1174" s="7" t="s">
+    </row>
+    <row r="1175" ht="117.6" spans="1:2">
+      <c r="A1175" s="7" t="s">
         <v>2336</v>
       </c>
-    </row>
-    <row r="1175" ht="67.2" spans="1:2">
-      <c r="A1175" s="7" t="s">
+      <c r="B1175" s="7" t="s">
         <v>2337</v>
       </c>
-      <c r="B1175" s="7" t="s">
+    </row>
+    <row r="1176" ht="67.2" spans="1:2">
+      <c r="A1176" s="7" t="s">
         <v>2338</v>
       </c>
-    </row>
-    <row r="1176" ht="50.4" spans="1:2">
-      <c r="A1176" s="7" t="s">
+      <c r="B1176" s="7" t="s">
         <v>2339</v>
       </c>
-      <c r="B1176" s="7" t="s">
+    </row>
+    <row r="1177" ht="67.2" spans="1:2">
+      <c r="A1177" s="7" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="1177" ht="100.8" spans="1:2">
-      <c r="A1177" s="7" t="s">
+      <c r="B1177" s="7" t="s">
         <v>2341</v>
-      </c>
-      <c r="B1177" s="7" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="1178" ht="50.4" spans="1:2">
       <c r="A1178" s="7" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1178" s="7" t="s">
         <v>2343</v>
       </c>
-      <c r="B1178" s="7" t="s">
+    </row>
+    <row r="1179" ht="100.8" spans="1:2">
+      <c r="A1179" s="7" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="1179" ht="50.4" spans="1:2">
-      <c r="A1179" s="7" t="s">
+      <c r="B1179" s="7" t="s">
         <v>2345</v>
-      </c>
-      <c r="B1179" s="7" t="s">
-        <v>2346</v>
       </c>
     </row>
     <row r="1180" ht="50.4" spans="1:2">
       <c r="A1180" s="7" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1180" s="7" t="s">
         <v>2347</v>
       </c>
-      <c r="B1180" s="7" t="s">
+    </row>
+    <row r="1181" ht="50.4" spans="1:2">
+      <c r="A1181" s="7" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="1181" ht="67.2" spans="1:2">
-      <c r="A1181" s="7" t="s">
+      <c r="B1181" s="7" t="s">
         <v>2349</v>
-      </c>
-      <c r="B1181" s="7" t="s">
-        <v>2350</v>
       </c>
     </row>
     <row r="1182" ht="50.4" spans="1:2">
       <c r="A1182" s="7" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1182" s="7" t="s">
         <v>2351</v>
       </c>
-      <c r="B1182" s="7" t="s">
+    </row>
+    <row r="1183" ht="67.2" spans="1:2">
+      <c r="A1183" s="7" t="s">
         <v>2352</v>
       </c>
-    </row>
-    <row r="1183" spans="1:2">
-      <c r="A1183" s="7" t="s">
+      <c r="B1183" s="7" t="s">
         <v>2353</v>
       </c>
-      <c r="B1183" s="7" t="s">
+    </row>
+    <row r="1184" ht="50.4" spans="1:2">
+      <c r="A1184" s="7" t="s">
         <v>2354</v>
       </c>
-    </row>
-    <row r="1184" spans="1:2">
-      <c r="A1184" s="7" t="s">
+      <c r="B1184" s="7" t="s">
         <v>2355</v>
-      </c>
-      <c r="B1184" s="7" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" s="7" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1185" s="7" t="s">
         <v>2357</v>
-      </c>
-      <c r="B1185" s="7" t="s">
-        <v>2358</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" s="7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1186" s="7" t="s">
         <v>2359</v>
-      </c>
-      <c r="B1186" s="7" t="s">
-        <v>2360</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" s="7" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1187" s="7" t="s">
         <v>2361</v>
-      </c>
-      <c r="B1187" s="7" t="s">
-        <v>2362</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" s="7" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1188" s="7" t="s">
         <v>2363</v>
       </c>
-      <c r="B1188" s="7" t="s">
+    </row>
+    <row r="1189" spans="1:2">
+      <c r="A1189" s="7" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="1189" ht="33.6" spans="1:2">
-      <c r="A1189" s="7" t="s">
+      <c r="B1189" s="7" t="s">
         <v>2365</v>
       </c>
-      <c r="B1189" s="7" t="s">
+    </row>
+    <row r="1190" spans="1:2">
+      <c r="A1190" s="7" t="s">
         <v>2366</v>
       </c>
-    </row>
-    <row r="1190" ht="50.4" spans="1:2">
-      <c r="A1190" s="7" t="s">
+      <c r="B1190" s="7" t="s">
         <v>2367</v>
       </c>
-      <c r="B1190" s="7" t="s">
+    </row>
+    <row r="1191" ht="33.6" spans="1:2">
+      <c r="A1191" s="7" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="1191" spans="1:2">
-      <c r="A1191" s="7" t="s">
+      <c r="B1191" s="7" t="s">
         <v>2369</v>
       </c>
-      <c r="B1191" s="7" t="s">
+    </row>
+    <row r="1192" ht="50.4" spans="1:2">
+      <c r="A1192" s="7" t="s">
         <v>2370</v>
       </c>
-    </row>
-    <row r="1192" spans="1:2">
-      <c r="A1192" s="7" t="s">
+      <c r="B1192" s="7" t="s">
         <v>2371</v>
-      </c>
-      <c r="B1192" s="7" t="s">
-        <v>2372</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
       <c r="A1193" s="7" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B1193" s="7" t="s">
         <v>2373</v>
-      </c>
-      <c r="B1193" s="7" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" s="7" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B1194" s="7" t="s">
         <v>2375</v>
-      </c>
-      <c r="B1194" s="7" t="s">
-        <v>2376</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" s="7" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B1195" s="7" t="s">
         <v>2377</v>
       </c>
-      <c r="B1195" s="7" t="s">
+    </row>
+    <row r="1196" spans="1:2">
+      <c r="A1196" s="7" t="s">
         <v>2378</v>
       </c>
-    </row>
-    <row r="1196" ht="33.6" spans="1:2">
-      <c r="A1196" s="7" t="s">
+      <c r="B1196" s="7" t="s">
         <v>2379</v>
       </c>
-      <c r="B1196" s="7" t="s">
+    </row>
+    <row r="1197" spans="1:2">
+      <c r="A1197" s="7" t="s">
         <v>2380</v>
       </c>
-    </row>
-    <row r="1197" ht="33.6" spans="1:2">
-      <c r="A1197" s="7" t="s">
+      <c r="B1197" s="7" t="s">
         <v>2381</v>
       </c>
-      <c r="B1197" s="7" t="s">
+    </row>
+    <row r="1198" ht="33.6" spans="1:2">
+      <c r="A1198" s="7" t="s">
         <v>2382</v>
       </c>
-    </row>
-    <row r="1198" ht="100.8" spans="1:2">
-      <c r="A1198" s="7" t="s">
+      <c r="B1198" s="7" t="s">
         <v>2383</v>
       </c>
-      <c r="B1198" s="7" t="s">
+    </row>
+    <row r="1199" ht="33.6" spans="1:2">
+      <c r="A1199" s="7" t="s">
         <v>2384</v>
       </c>
-    </row>
-    <row r="1199" ht="100.8" spans="1:2">
-      <c r="A1199" s="7" t="s">
+      <c r="B1199" s="7" t="s">
         <v>2385</v>
       </c>
-      <c r="B1199" s="7" t="s">
+    </row>
+    <row r="1200" ht="100.8" spans="1:2">
+      <c r="A1200" s="7" t="s">
         <v>2386</v>
       </c>
-    </row>
-    <row r="1200" ht="218.4" spans="1:2">
-      <c r="A1200" s="7" t="s">
+      <c r="B1200" s="7" t="s">
         <v>2387</v>
       </c>
-      <c r="B1200" s="7" t="s">
+    </row>
+    <row r="1201" ht="100.8" spans="1:2">
+      <c r="A1201" s="7" t="s">
         <v>2388</v>
       </c>
-    </row>
-    <row r="1201" spans="1:2">
-      <c r="A1201" s="7" t="s">
+      <c r="B1201" s="7" t="s">
         <v>2389</v>
       </c>
-      <c r="B1201" s="7" t="s">
+    </row>
+    <row r="1202" ht="218.4" spans="1:2">
+      <c r="A1202" s="7" t="s">
         <v>2390</v>
       </c>
-    </row>
-    <row r="1202" spans="1:2">
-      <c r="A1202" s="7" t="s">
+      <c r="B1202" s="7" t="s">
         <v>2391</v>
-      </c>
-      <c r="B1202" s="7" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203" s="7" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B1203" s="7" t="s">
         <v>2393</v>
       </c>
-      <c r="B1203" s="7" t="s">
+    </row>
+    <row r="1204" spans="1:2">
+      <c r="A1204" s="7" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="1204" ht="33.6" spans="1:2">
-      <c r="A1204" s="7" t="s">
+      <c r="B1204" s="7" t="s">
         <v>2395</v>
-      </c>
-      <c r="B1204" s="7" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" s="7" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1205" s="7" t="s">
         <v>2397</v>
       </c>
-      <c r="B1205" s="7" t="s">
+    </row>
+    <row r="1206" ht="33.6" spans="1:2">
+      <c r="A1206" s="7" t="s">
         <v>2398</v>
       </c>
-    </row>
-    <row r="1206" spans="1:2">
-      <c r="A1206" s="7" t="s">
+      <c r="B1206" s="7" t="s">
         <v>2399</v>
-      </c>
-      <c r="B1206" s="7" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" s="7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1207" s="7" t="s">
         <v>2401</v>
-      </c>
-      <c r="B1207" s="7" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" s="7" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1208" s="7" t="s">
         <v>2403</v>
-      </c>
-      <c r="B1208" s="7" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" s="7" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1209" s="7" t="s">
         <v>2405</v>
-      </c>
-      <c r="B1209" s="7" t="s">
-        <v>2406</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" s="7" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1210" s="7" t="s">
         <v>2407</v>
-      </c>
-      <c r="B1210" s="7" t="s">
-        <v>2408</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" s="7" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1211" s="7" t="s">
         <v>2409</v>
-      </c>
-      <c r="B1211" s="7" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" s="7" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1212" s="7" t="s">
         <v>2411</v>
-      </c>
-      <c r="B1212" s="7" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="7" t="s">
-        <v>654</v>
+        <v>2412</v>
       </c>
       <c r="B1213" s="7" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="1214" ht="67.2" spans="1:2">
+    <row r="1214" spans="1:2">
       <c r="A1214" s="7" t="s">
         <v>2414</v>
       </c>
@@ -20647,121 +21242,121 @@
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1215" s="7" t="s">
         <v>2416</v>
       </c>
-      <c r="B1215" s="7" t="s">
+    </row>
+    <row r="1216" ht="67.2" spans="1:2">
+      <c r="A1216" s="7" t="s">
         <v>2417</v>
       </c>
-    </row>
-    <row r="1216" spans="1:2">
-      <c r="A1216" s="7" t="s">
+      <c r="B1216" s="7" t="s">
         <v>2418</v>
-      </c>
-      <c r="B1216" s="7" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="7" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1217" s="7" t="s">
         <v>2420</v>
-      </c>
-      <c r="B1217" s="7" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" s="7" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1218" s="7" t="s">
         <v>2422</v>
-      </c>
-      <c r="B1218" s="7" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" s="7" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1219" s="7" t="s">
         <v>2424</v>
-      </c>
-      <c r="B1219" s="7" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
       <c r="A1220" s="7" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B1220" s="7" t="s">
         <v>2426</v>
-      </c>
-      <c r="B1220" s="7" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" s="7" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B1221" s="7" t="s">
         <v>2428</v>
-      </c>
-      <c r="B1221" s="7" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="7" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B1222" s="7" t="s">
         <v>2430</v>
-      </c>
-      <c r="B1222" s="7" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="7" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1223" s="7" t="s">
         <v>2432</v>
-      </c>
-      <c r="B1223" s="7" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" s="7" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1224" s="7" t="s">
         <v>2434</v>
-      </c>
-      <c r="B1224" s="7" t="s">
-        <v>2435</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
       <c r="A1225" s="7" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B1225" s="7" t="s">
         <v>2436</v>
-      </c>
-      <c r="B1225" s="7" t="s">
-        <v>2437</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
       <c r="A1226" s="7" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1226" s="7" t="s">
         <v>2438</v>
-      </c>
-      <c r="B1226" s="7" t="s">
-        <v>2439</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
       <c r="A1227" s="7" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1227" s="7" t="s">
         <v>2440</v>
-      </c>
-      <c r="B1227" s="12" t="s">
-        <v>2441</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" s="7" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B1228" s="7" t="s">
         <v>2442</v>
-      </c>
-      <c r="B1228" s="7" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1229" s="7" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B1229" s="12" t="s">
         <v>2444</v>
       </c>
     </row>
@@ -20775,839 +21370,839 @@
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1231" s="7" t="s">
         <v>2447</v>
-      </c>
-      <c r="B1231" s="7" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="7" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1232" s="7" t="s">
         <v>2449</v>
-      </c>
-      <c r="B1232" s="12" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="7" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B1233" s="7" t="s">
         <v>2451</v>
       </c>
-      <c r="B1233" s="7" t="s">
+    </row>
+    <row r="1234" spans="1:2">
+      <c r="A1234" s="7" t="s">
         <v>2452</v>
       </c>
-    </row>
-    <row r="1234" ht="33.6" spans="1:2">
-      <c r="A1234" s="7" t="s">
+      <c r="B1234" s="12" t="s">
         <v>2453</v>
       </c>
-      <c r="B1234" s="7" t="s">
+    </row>
+    <row r="1235" spans="1:2">
+      <c r="A1235" s="7" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="1235" ht="33.6" spans="1:2">
-      <c r="A1235" s="7" t="s">
+      <c r="B1235" s="7" t="s">
         <v>2455</v>
       </c>
-      <c r="B1235" s="7" t="s">
+    </row>
+    <row r="1236" ht="33.6" spans="1:2">
+      <c r="A1236" s="7" t="s">
         <v>2456</v>
       </c>
-    </row>
-    <row r="1236" spans="1:2">
-      <c r="A1236" s="7" t="s">
+      <c r="B1236" s="7" t="s">
         <v>2457</v>
       </c>
-      <c r="B1236" s="7" t="s">
+    </row>
+    <row r="1237" ht="33.6" spans="1:2">
+      <c r="A1237" s="7" t="s">
         <v>2458</v>
       </c>
-    </row>
-    <row r="1237" spans="1:2">
-      <c r="A1237" s="7" t="s">
+      <c r="B1237" s="7" t="s">
         <v>2459</v>
-      </c>
-      <c r="B1237" s="7" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
       <c r="A1238" s="7" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1238" s="7" t="s">
         <v>2461</v>
-      </c>
-      <c r="B1238" s="7" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
       <c r="A1239" s="7" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1239" s="7" t="s">
         <v>2463</v>
-      </c>
-      <c r="B1239" s="7" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="7" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1240" s="7" t="s">
         <v>2465</v>
-      </c>
-      <c r="B1240" s="7" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="7" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1241" s="7" t="s">
         <v>2467</v>
-      </c>
-      <c r="B1241" s="7" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
       <c r="A1242" s="7" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B1242" s="7" t="s">
         <v>2469</v>
-      </c>
-      <c r="B1242" s="7" t="s">
-        <v>2470</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
       <c r="A1243" s="7" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1243" s="7" t="s">
         <v>2471</v>
-      </c>
-      <c r="B1243" s="7" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="7" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1244" s="7" t="s">
         <v>2473</v>
-      </c>
-      <c r="B1244" s="7" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245" s="7" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B1245" s="7" t="s">
         <v>2475</v>
-      </c>
-      <c r="B1245" s="7" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
       <c r="A1246" s="7" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B1246" s="7" t="s">
         <v>2477</v>
       </c>
-      <c r="B1246" s="7" t="s">
+    </row>
+    <row r="1247" spans="1:2">
+      <c r="A1247" s="7" t="s">
         <v>2478</v>
       </c>
-    </row>
-    <row r="1247" ht="33.6" spans="1:2">
-      <c r="A1247" s="7" t="s">
+      <c r="B1247" s="7" t="s">
         <v>2479</v>
       </c>
-      <c r="B1247" s="7" t="s">
+    </row>
+    <row r="1248" spans="1:2">
+      <c r="A1248" s="7" t="s">
         <v>2480</v>
       </c>
-    </row>
-    <row r="1248" ht="134.4" spans="1:2">
-      <c r="A1248" s="7" t="s">
+      <c r="B1248" s="7" t="s">
         <v>2481</v>
-      </c>
-      <c r="B1248" s="7" t="s">
-        <v>2482</v>
       </c>
     </row>
     <row r="1249" ht="33.6" spans="1:2">
       <c r="A1249" s="7" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1249" s="7" t="s">
         <v>2483</v>
       </c>
-      <c r="B1249" s="7" t="s">
+    </row>
+    <row r="1250" ht="134.4" spans="1:2">
+      <c r="A1250" s="7" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="1250" spans="1:2">
-      <c r="A1250" s="7" t="s">
+      <c r="B1250" s="7" t="s">
         <v>2485</v>
-      </c>
-      <c r="B1250" s="7" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="1251" ht="33.6" spans="1:2">
       <c r="A1251" s="7" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B1251" s="7" t="s">
         <v>2487</v>
-      </c>
-      <c r="B1251" s="7" t="s">
-        <v>2488</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="7" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B1252" s="7" t="s">
         <v>2489</v>
       </c>
-      <c r="B1252" s="7" t="s">
+    </row>
+    <row r="1253" ht="33.6" spans="1:2">
+      <c r="A1253" s="7" t="s">
         <v>2490</v>
       </c>
-    </row>
-    <row r="1253" spans="1:2">
-      <c r="A1253" s="7" t="s">
+      <c r="B1253" s="7" t="s">
         <v>2491</v>
-      </c>
-      <c r="B1253" s="7" t="s">
-        <v>2492</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="7" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B1254" s="7" t="s">
         <v>2493</v>
-      </c>
-      <c r="B1254" s="7" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="7" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B1255" s="7" t="s">
         <v>2495</v>
-      </c>
-      <c r="B1255" s="7" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="7" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B1256" s="7" t="s">
         <v>2497</v>
-      </c>
-      <c r="B1256" s="7" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="7" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B1257" s="7" t="s">
         <v>2499</v>
       </c>
-      <c r="B1257" s="7" t="s">
+    </row>
+    <row r="1258" spans="1:2">
+      <c r="A1258" s="7" t="s">
         <v>2500</v>
       </c>
-    </row>
-    <row r="1258" ht="33.6" spans="1:2">
-      <c r="A1258" s="7" t="s">
+      <c r="B1258" s="7" t="s">
         <v>2501</v>
-      </c>
-      <c r="B1258" s="7" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="7" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B1259" s="7" t="s">
         <v>2503</v>
       </c>
-      <c r="B1259" s="7" t="s">
+    </row>
+    <row r="1260" ht="33.6" spans="1:2">
+      <c r="A1260" s="7" t="s">
         <v>2504</v>
       </c>
-    </row>
-    <row r="1260" spans="1:2">
-      <c r="A1260" s="7" t="s">
+      <c r="B1260" s="7" t="s">
         <v>2505</v>
-      </c>
-      <c r="B1260" s="7" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="7" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1261" s="7" t="s">
         <v>2507</v>
-      </c>
-      <c r="B1261" s="7" t="s">
-        <v>2508</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="7" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1262" s="7" t="s">
         <v>2509</v>
       </c>
-      <c r="B1262" s="7" t="s">
+    </row>
+    <row r="1263" spans="1:2">
+      <c r="A1263" s="7" t="s">
         <v>2510</v>
       </c>
-    </row>
-    <row r="1263" ht="84" spans="1:2">
-      <c r="A1263" s="7" t="s">
+      <c r="B1263" s="7" t="s">
         <v>2511</v>
       </c>
-      <c r="B1263" s="7" t="s">
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="A1264" s="7" t="s">
         <v>2512</v>
       </c>
-    </row>
-    <row r="1264" ht="117.6" spans="1:2">
-      <c r="A1264" s="7" t="s">
+      <c r="B1264" s="7" t="s">
         <v>2513</v>
       </c>
-      <c r="B1264" s="7" t="s">
+    </row>
+    <row r="1265" ht="84" spans="1:2">
+      <c r="A1265" s="7" t="s">
         <v>2514</v>
       </c>
-    </row>
-    <row r="1265" ht="100.8" spans="1:2">
-      <c r="A1265" s="7" t="s">
+      <c r="B1265" s="7" t="s">
         <v>2515</v>
       </c>
-      <c r="B1265" s="7" t="s">
+    </row>
+    <row r="1266" ht="117.6" spans="1:2">
+      <c r="A1266" s="7" t="s">
         <v>2516</v>
       </c>
-    </row>
-    <row r="1266" ht="33.6" spans="1:2">
-      <c r="A1266" s="7" t="s">
+      <c r="B1266" s="7" t="s">
         <v>2517</v>
       </c>
-      <c r="B1266" s="7" t="s">
+    </row>
+    <row r="1267" ht="100.8" spans="1:2">
+      <c r="A1267" s="7" t="s">
         <v>2518</v>
       </c>
-    </row>
-    <row r="1267" ht="50.4" spans="1:2">
-      <c r="A1267" s="7" t="s">
+      <c r="B1267" s="7" t="s">
         <v>2519</v>
       </c>
-      <c r="B1267" s="7" t="s">
+    </row>
+    <row r="1268" ht="33.6" spans="1:2">
+      <c r="A1268" s="7" t="s">
         <v>2520</v>
       </c>
-    </row>
-    <row r="1268" ht="100.8" spans="1:2">
-      <c r="A1268" s="7" t="s">
+      <c r="B1268" s="7" t="s">
         <v>2521</v>
       </c>
-      <c r="B1268" s="7" t="s">
+    </row>
+    <row r="1269" ht="50.4" spans="1:2">
+      <c r="A1269" s="7" t="s">
         <v>2522</v>
       </c>
-    </row>
-    <row r="1269" ht="67.2" spans="1:2">
-      <c r="A1269" s="7" t="s">
+      <c r="B1269" s="7" t="s">
         <v>2523</v>
       </c>
-      <c r="B1269" s="7" t="s">
+    </row>
+    <row r="1270" ht="100.8" spans="1:2">
+      <c r="A1270" s="7" t="s">
         <v>2524</v>
       </c>
-    </row>
-    <row r="1270" ht="84" spans="1:2">
-      <c r="A1270" s="7" t="s">
+      <c r="B1270" s="7" t="s">
         <v>2525</v>
       </c>
-      <c r="B1270" s="7" t="s">
+    </row>
+    <row r="1271" ht="67.2" spans="1:2">
+      <c r="A1271" s="7" t="s">
         <v>2526</v>
       </c>
-    </row>
-    <row r="1271" ht="33.6" spans="1:2">
-      <c r="A1271" s="7" t="s">
+      <c r="B1271" s="7" t="s">
         <v>2527</v>
       </c>
-      <c r="B1271" s="7" t="s">
+    </row>
+    <row r="1272" ht="84" spans="1:2">
+      <c r="A1272" s="7" t="s">
         <v>2528</v>
       </c>
-    </row>
-    <row r="1272" ht="67.2" spans="1:2">
-      <c r="A1272" s="7" t="s">
+      <c r="B1272" s="7" t="s">
         <v>2529</v>
       </c>
-      <c r="B1272" s="7" t="s">
+    </row>
+    <row r="1273" ht="33.6" spans="1:2">
+      <c r="A1273" s="7" t="s">
         <v>2530</v>
       </c>
-    </row>
-    <row r="1273" ht="151.2" spans="1:2">
-      <c r="A1273" s="7" t="s">
+      <c r="B1273" s="7" t="s">
         <v>2531</v>
       </c>
-      <c r="B1273" s="7" t="s">
+    </row>
+    <row r="1274" ht="67.2" spans="1:2">
+      <c r="A1274" s="7" t="s">
         <v>2532</v>
       </c>
-    </row>
-    <row r="1274" ht="33.6" spans="1:2">
-      <c r="A1274" s="7" t="s">
+      <c r="B1274" s="7" t="s">
         <v>2533</v>
       </c>
-      <c r="B1274" s="7" t="s">
+    </row>
+    <row r="1275" ht="151.2" spans="1:2">
+      <c r="A1275" s="7" t="s">
         <v>2534</v>
       </c>
-    </row>
-    <row r="1275" ht="50.4" spans="1:2">
-      <c r="A1275" s="7" t="s">
+      <c r="B1275" s="7" t="s">
         <v>2535</v>
       </c>
-      <c r="B1275" s="7" t="s">
+    </row>
+    <row r="1276" ht="33.6" spans="1:2">
+      <c r="A1276" s="7" t="s">
         <v>2536</v>
       </c>
-    </row>
-    <row r="1276" ht="50.4" spans="1:2">
-      <c r="A1276" s="7" t="s">
+      <c r="B1276" s="7" t="s">
         <v>2537</v>
       </c>
-      <c r="B1276" s="7" t="s">
+    </row>
+    <row r="1277" ht="50.4" spans="1:2">
+      <c r="A1277" s="7" t="s">
         <v>2538</v>
       </c>
-    </row>
-    <row r="1277" ht="100.8" spans="1:2">
-      <c r="A1277" s="7" t="s">
+      <c r="B1277" s="7" t="s">
         <v>2539</v>
       </c>
-      <c r="B1277" s="7" t="s">
+    </row>
+    <row r="1278" ht="50.4" spans="1:2">
+      <c r="A1278" s="7" t="s">
         <v>2540</v>
       </c>
-    </row>
-    <row r="1278" ht="100.8" spans="1:2">
-      <c r="A1278" s="7" t="s">
+      <c r="B1278" s="7" t="s">
         <v>2541</v>
       </c>
-      <c r="B1278" s="7" t="s">
+    </row>
+    <row r="1279" ht="100.8" spans="1:2">
+      <c r="A1279" s="7" t="s">
         <v>2542</v>
       </c>
-    </row>
-    <row r="1279" ht="117.6" spans="1:2">
-      <c r="A1279" s="7" t="s">
+      <c r="B1279" s="7" t="s">
         <v>2543</v>
       </c>
-      <c r="B1279" s="7" t="s">
+    </row>
+    <row r="1280" ht="100.8" spans="1:2">
+      <c r="A1280" s="7" t="s">
         <v>2544</v>
       </c>
-    </row>
-    <row r="1280" ht="67.2" spans="1:2">
-      <c r="A1280" s="7" t="s">
+      <c r="B1280" s="7" t="s">
         <v>2545</v>
       </c>
-      <c r="B1280" s="7" t="s">
+    </row>
+    <row r="1281" ht="117.6" spans="1:2">
+      <c r="A1281" s="7" t="s">
         <v>2546</v>
       </c>
-    </row>
-    <row r="1281" ht="67.2" spans="1:2">
-      <c r="A1281" s="7" t="s">
+      <c r="B1281" s="7" t="s">
         <v>2547</v>
       </c>
-      <c r="B1281" s="7" t="s">
+    </row>
+    <row r="1282" ht="67.2" spans="1:2">
+      <c r="A1282" s="7" t="s">
         <v>2548</v>
       </c>
-    </row>
-    <row r="1282" ht="117.6" spans="1:2">
-      <c r="A1282" s="7" t="s">
+      <c r="B1282" s="7" t="s">
         <v>2549</v>
       </c>
-      <c r="B1282" s="7" t="s">
+    </row>
+    <row r="1283" ht="67.2" spans="1:2">
+      <c r="A1283" s="7" t="s">
         <v>2550</v>
       </c>
-    </row>
-    <row r="1283" ht="33.6" spans="1:2">
-      <c r="A1283" s="7" t="s">
+      <c r="B1283" s="7" t="s">
         <v>2551</v>
       </c>
-      <c r="B1283" s="7" t="s">
+    </row>
+    <row r="1284" ht="117.6" spans="1:2">
+      <c r="A1284" s="7" t="s">
         <v>2552</v>
       </c>
-    </row>
-    <row r="1284" spans="1:2">
-      <c r="A1284" s="7" t="s">
+      <c r="B1284" s="7" t="s">
         <v>2553</v>
-      </c>
-      <c r="B1284" s="7" t="s">
-        <v>2554</v>
       </c>
     </row>
     <row r="1285" ht="33.6" spans="1:2">
       <c r="A1285" s="7" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1285" s="7" t="s">
         <v>2555</v>
       </c>
-      <c r="B1285" s="7" t="s">
+    </row>
+    <row r="1286" spans="1:2">
+      <c r="A1286" s="7" t="s">
         <v>2556</v>
       </c>
-    </row>
-    <row r="1286" ht="50.4" spans="1:2">
-      <c r="A1286" s="7" t="s">
+      <c r="B1286" s="7" t="s">
         <v>2557</v>
       </c>
-      <c r="B1286" s="7" t="s">
+    </row>
+    <row r="1287" ht="33.6" spans="1:2">
+      <c r="A1287" s="7" t="s">
         <v>2558</v>
       </c>
-    </row>
-    <row r="1287" spans="1:2">
-      <c r="A1287" s="7" t="s">
+      <c r="B1287" s="7" t="s">
         <v>2559</v>
-      </c>
-      <c r="B1287" s="7" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="1288" ht="50.4" spans="1:2">
       <c r="A1288" s="7" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B1288" s="7" t="s">
         <v>2561</v>
       </c>
-      <c r="B1288" s="7" t="s">
+    </row>
+    <row r="1289" spans="1:2">
+      <c r="A1289" s="7" t="s">
         <v>2562</v>
       </c>
-    </row>
-    <row r="1289" ht="33.6" spans="1:2">
-      <c r="A1289" s="7" t="s">
+      <c r="B1289" s="7" t="s">
         <v>2563</v>
       </c>
-      <c r="B1289" s="7" t="s">
+    </row>
+    <row r="1290" ht="50.4" spans="1:2">
+      <c r="A1290" s="7" t="s">
         <v>2564</v>
       </c>
-    </row>
-    <row r="1290" spans="1:2">
-      <c r="A1290" s="7" t="s">
+      <c r="B1290" s="7" t="s">
         <v>2565</v>
       </c>
-      <c r="B1290" s="7" t="s">
+    </row>
+    <row r="1291" ht="33.6" spans="1:2">
+      <c r="A1291" s="7" t="s">
         <v>2566</v>
       </c>
-    </row>
-    <row r="1291" ht="201.6" spans="1:2">
-      <c r="A1291" s="7" t="s">
+      <c r="B1291" s="7" t="s">
         <v>2567</v>
       </c>
-      <c r="B1291" s="7" t="s">
+    </row>
+    <row r="1292" spans="1:2">
+      <c r="A1292" s="7" t="s">
         <v>2568</v>
       </c>
-    </row>
-    <row r="1292" ht="33.6" spans="1:2">
-      <c r="A1292" s="7" t="s">
+      <c r="B1292" s="7" t="s">
         <v>2569</v>
       </c>
-      <c r="B1292" s="7" t="s">
+    </row>
+    <row r="1293" ht="201.6" spans="1:2">
+      <c r="A1293" s="7" t="s">
         <v>2570</v>
       </c>
-    </row>
-    <row r="1293" ht="50.4" spans="1:2">
-      <c r="A1293" s="7" t="s">
+      <c r="B1293" s="7" t="s">
         <v>2571</v>
       </c>
-      <c r="B1293" s="7" t="s">
+    </row>
+    <row r="1294" ht="33.6" spans="1:2">
+      <c r="A1294" s="7" t="s">
         <v>2572</v>
       </c>
-    </row>
-    <row r="1294" ht="50.4" spans="1:2">
-      <c r="A1294" s="7" t="s">
+      <c r="B1294" s="7" t="s">
         <v>2573</v>
-      </c>
-      <c r="B1294" s="7" t="s">
-        <v>2574</v>
       </c>
     </row>
     <row r="1295" ht="50.4" spans="1:2">
       <c r="A1295" s="7" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1295" s="7" t="s">
         <v>2575</v>
-      </c>
-      <c r="B1295" s="7" t="s">
-        <v>2576</v>
       </c>
     </row>
     <row r="1296" ht="50.4" spans="1:2">
       <c r="A1296" s="7" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1296" s="7" t="s">
         <v>2577</v>
       </c>
-      <c r="B1296" s="7" t="s">
+    </row>
+    <row r="1297" ht="50.4" spans="1:2">
+      <c r="A1297" s="7" t="s">
         <v>2578</v>
       </c>
-    </row>
-    <row r="1297" ht="33.6" spans="1:2">
-      <c r="A1297" s="7" t="s">
+      <c r="B1297" s="7" t="s">
         <v>2579</v>
       </c>
-      <c r="B1297" s="7" t="s">
+    </row>
+    <row r="1298" ht="50.4" spans="1:2">
+      <c r="A1298" s="7" t="s">
         <v>2580</v>
       </c>
-    </row>
-    <row r="1298" spans="1:2">
-      <c r="A1298" s="7" t="s">
+      <c r="B1298" s="7" t="s">
         <v>2581</v>
       </c>
-      <c r="B1298" s="7" t="s">
+    </row>
+    <row r="1299" ht="33.6" spans="1:2">
+      <c r="A1299" s="7" t="s">
         <v>2582</v>
       </c>
-    </row>
-    <row r="1299" spans="1:2">
-      <c r="A1299" s="7" t="s">
+      <c r="B1299" s="7" t="s">
         <v>2583</v>
-      </c>
-      <c r="B1299" s="7" t="s">
-        <v>2584</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="7" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B1300" s="7" t="s">
         <v>2585</v>
-      </c>
-      <c r="B1300" s="7" t="s">
-        <v>2586</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="7" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B1301" s="7" t="s">
         <v>2587</v>
-      </c>
-      <c r="B1301" s="7" t="s">
-        <v>2588</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="7" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1302" s="7" t="s">
         <v>2589</v>
-      </c>
-      <c r="B1302" s="7" t="s">
-        <v>2590</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="7" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B1303" s="7" t="s">
         <v>2591</v>
-      </c>
-      <c r="B1303" s="7" t="s">
-        <v>2592</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="7" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B1304" s="7" t="s">
         <v>2593</v>
-      </c>
-      <c r="B1304" s="7" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="7" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B1305" s="7" t="s">
         <v>2595</v>
-      </c>
-      <c r="B1305" s="7" t="s">
-        <v>2596</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="7" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1306" s="7" t="s">
         <v>2597</v>
-      </c>
-      <c r="B1306" s="7" t="s">
-        <v>2598</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="7" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B1307" s="7" t="s">
         <v>2599</v>
-      </c>
-      <c r="B1307" s="7" t="s">
-        <v>2600</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="7" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B1308" s="7" t="s">
         <v>2601</v>
-      </c>
-      <c r="B1308" s="7" t="s">
-        <v>2602</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="7" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1309" s="7" t="s">
         <v>2603</v>
-      </c>
-      <c r="B1309" s="7" t="s">
-        <v>2604</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="7" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B1310" s="7" t="s">
         <v>2605</v>
-      </c>
-      <c r="B1310" s="7" t="s">
-        <v>2606</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="7" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B1311" s="7" t="s">
         <v>2607</v>
-      </c>
-      <c r="B1311" s="7" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="7" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1312" s="7" t="s">
         <v>2609</v>
-      </c>
-      <c r="B1312" s="7" t="s">
-        <v>2610</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="7" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1313" s="7" t="s">
         <v>2611</v>
-      </c>
-      <c r="B1313" s="7" t="s">
-        <v>2612</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="7" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1314" s="7" t="s">
         <v>2613</v>
-      </c>
-      <c r="B1314" s="7" t="s">
-        <v>2614</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="7" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1315" s="7" t="s">
         <v>2615</v>
       </c>
-      <c r="B1315" s="7" t="s">
+    </row>
+    <row r="1316" spans="1:2">
+      <c r="A1316" s="7" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="1316" ht="33.6" spans="1:2">
-      <c r="A1316" s="7" t="s">
+      <c r="B1316" s="7" t="s">
         <v>2617</v>
-      </c>
-      <c r="B1316" s="7" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="7" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B1317" s="7" t="s">
         <v>2619</v>
       </c>
-      <c r="B1317" s="7" t="s">
+    </row>
+    <row r="1318" ht="33.6" spans="1:2">
+      <c r="A1318" s="7" t="s">
         <v>2620</v>
       </c>
-    </row>
-    <row r="1318" spans="1:2">
-      <c r="A1318" s="7" t="s">
+      <c r="B1318" s="7" t="s">
         <v>2621</v>
-      </c>
-      <c r="B1318" s="7" t="s">
-        <v>2622</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="7" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1319" s="7" t="s">
         <v>2623</v>
-      </c>
-      <c r="B1319" s="7" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="7" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B1320" s="7" t="s">
         <v>2625</v>
-      </c>
-      <c r="B1320" s="7" t="s">
-        <v>2626</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="7" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B1321" s="7" t="s">
         <v>2627</v>
       </c>
-      <c r="B1321" s="7" t="s">
+    </row>
+    <row r="1322" spans="1:2">
+      <c r="A1322" s="7" t="s">
         <v>2628</v>
       </c>
-    </row>
-    <row r="1322" ht="33.6" spans="1:2">
-      <c r="A1322" s="7" t="s">
+      <c r="B1322" s="7" t="s">
         <v>2629</v>
-      </c>
-      <c r="B1322" s="7" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="7" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B1323" s="7" t="s">
         <v>2631</v>
       </c>
-      <c r="B1323" s="7" t="s">
+    </row>
+    <row r="1324" ht="33.6" spans="1:2">
+      <c r="A1324" s="7" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="1324" spans="1:2">
-      <c r="A1324" s="7" t="s">
+      <c r="B1324" s="7" t="s">
         <v>2633</v>
-      </c>
-      <c r="B1324" s="7" t="s">
-        <v>2634</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="7" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B1325" s="7" t="s">
         <v>2635</v>
-      </c>
-      <c r="B1325" s="7" t="s">
-        <v>2636</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="7" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1326" s="7" t="s">
         <v>2637</v>
-      </c>
-      <c r="B1326" s="7" t="s">
-        <v>2638</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="7" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1327" s="7" t="s">
         <v>2639</v>
-      </c>
-      <c r="B1327" s="7" t="s">
-        <v>2640</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="7" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1328" s="7" t="s">
         <v>2641</v>
-      </c>
-      <c r="B1328" s="7" t="s">
-        <v>2642</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="7" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1329" s="7" t="s">
         <v>2643</v>
-      </c>
-      <c r="B1329" s="7" t="s">
-        <v>2644</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="7" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1330" s="7" t="s">
         <v>2645</v>
-      </c>
-      <c r="B1330" s="7" t="s">
-        <v>2646</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="7" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B1331" s="7" t="s">
         <v>2647</v>
-      </c>
-      <c r="B1331" s="7" t="s">
-        <v>2648</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="7" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B1332" s="7" t="s">
         <v>2649</v>
-      </c>
-      <c r="B1332" s="7" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="7" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B1333" s="7" t="s">
         <v>2651</v>
-      </c>
-      <c r="B1333" s="7" t="s">
-        <v>2652</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="7" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B1334" s="7" t="s">
         <v>2653</v>
-      </c>
-      <c r="B1334" s="7" t="s">
-        <v>2654</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="7" t="s">
-        <v>830</v>
+        <v>2654</v>
       </c>
       <c r="B1335" s="7" t="s">
         <v>2655</v>
@@ -21623,309 +22218,309 @@
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="B1337" s="7" t="s">
         <v>2658</v>
       </c>
-      <c r="B1337" s="7" t="s">
+    </row>
+    <row r="1338" spans="1:2">
+      <c r="A1338" s="7" t="s">
         <v>2659</v>
       </c>
-    </row>
-    <row r="1338" ht="117.6" spans="1:2">
-      <c r="A1338" s="7" t="s">
+      <c r="B1338" s="7" t="s">
         <v>2660</v>
       </c>
-      <c r="B1338" s="7" t="s">
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="A1339" s="7" t="s">
         <v>2661</v>
       </c>
-    </row>
-    <row r="1339" ht="67.2" spans="1:2">
-      <c r="A1339" s="7" t="s">
+      <c r="B1339" s="7" t="s">
         <v>2662</v>
       </c>
-      <c r="B1339" s="7" t="s">
+    </row>
+    <row r="1340" ht="117.6" spans="1:2">
+      <c r="A1340" s="7" t="s">
         <v>2663</v>
       </c>
-    </row>
-    <row r="1340" ht="67.2" spans="1:2">
-      <c r="A1340" s="7" t="s">
+      <c r="B1340" s="7" t="s">
         <v>2664</v>
       </c>
-      <c r="B1340" s="7" t="s">
+    </row>
+    <row r="1341" ht="67.2" spans="1:2">
+      <c r="A1341" s="7" t="s">
         <v>2665</v>
       </c>
-    </row>
-    <row r="1341" ht="117.6" spans="1:2">
-      <c r="A1341" s="7" t="s">
+      <c r="B1341" s="7" t="s">
         <v>2666</v>
       </c>
-      <c r="B1341" s="7" t="s">
+    </row>
+    <row r="1342" ht="67.2" spans="1:2">
+      <c r="A1342" s="7" t="s">
         <v>2667</v>
       </c>
-    </row>
-    <row r="1342" ht="134.4" spans="1:2">
-      <c r="A1342" s="7" t="s">
+      <c r="B1342" s="7" t="s">
         <v>2668</v>
       </c>
-      <c r="B1342" s="7" t="s">
+    </row>
+    <row r="1343" ht="117.6" spans="1:2">
+      <c r="A1343" s="7" t="s">
         <v>2669</v>
       </c>
-    </row>
-    <row r="1343" ht="50.4" spans="1:2">
-      <c r="A1343" s="7" t="s">
+      <c r="B1343" s="7" t="s">
         <v>2670</v>
       </c>
-      <c r="B1343" s="7" t="s">
+    </row>
+    <row r="1344" ht="134.4" spans="1:2">
+      <c r="A1344" s="7" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="1344" ht="67.2" spans="1:2">
-      <c r="A1344" s="7" t="s">
+      <c r="B1344" s="7" t="s">
         <v>2672</v>
       </c>
-      <c r="B1344" s="7" t="s">
+    </row>
+    <row r="1345" ht="50.4" spans="1:2">
+      <c r="A1345" s="7" t="s">
         <v>2673</v>
       </c>
-    </row>
-    <row r="1345" ht="67.2" spans="1:2">
-      <c r="A1345" s="7" t="s">
+      <c r="B1345" s="7" t="s">
         <v>2674</v>
-      </c>
-      <c r="B1345" s="7" t="s">
-        <v>2675</v>
       </c>
     </row>
     <row r="1346" ht="67.2" spans="1:2">
       <c r="A1346" s="7" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1346" s="7" t="s">
         <v>2676</v>
-      </c>
-      <c r="B1346" s="7" t="s">
-        <v>2677</v>
       </c>
     </row>
     <row r="1347" ht="67.2" spans="1:2">
       <c r="A1347" s="7" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B1347" s="7" t="s">
         <v>2678</v>
       </c>
-      <c r="B1347" s="7" t="s">
+    </row>
+    <row r="1348" ht="67.2" spans="1:2">
+      <c r="A1348" s="7" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="1348" ht="84" spans="1:2">
-      <c r="A1348" s="7" t="s">
+      <c r="B1348" s="7" t="s">
         <v>2680</v>
-      </c>
-      <c r="B1348" s="7" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="1349" ht="67.2" spans="1:2">
       <c r="A1349" s="7" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1349" s="7" t="s">
         <v>2682</v>
-      </c>
-      <c r="B1349" s="7" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="1350" ht="84" spans="1:2">
       <c r="A1350" s="7" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B1350" s="7" t="s">
         <v>2684</v>
       </c>
-      <c r="B1350" s="7" t="s">
+    </row>
+    <row r="1351" ht="67.2" spans="1:2">
+      <c r="A1351" s="7" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="1351" ht="84" spans="1:2">
-      <c r="A1351" s="7" t="s">
+      <c r="B1351" s="7" t="s">
         <v>2686</v>
-      </c>
-      <c r="B1351" s="7" t="s">
-        <v>2687</v>
       </c>
     </row>
     <row r="1352" ht="84" spans="1:2">
       <c r="A1352" s="7" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B1352" s="7" t="s">
         <v>2688</v>
       </c>
-      <c r="B1352" s="7" t="s">
+    </row>
+    <row r="1353" ht="84" spans="1:2">
+      <c r="A1353" s="7" t="s">
         <v>2689</v>
       </c>
-    </row>
-    <row r="1353" ht="50.4" spans="1:2">
-      <c r="A1353" s="7" t="s">
+      <c r="B1353" s="7" t="s">
         <v>2690</v>
-      </c>
-      <c r="B1353" s="7" t="s">
-        <v>2691</v>
       </c>
     </row>
     <row r="1354" ht="84" spans="1:2">
       <c r="A1354" s="7" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B1354" s="7" t="s">
         <v>2692</v>
       </c>
-      <c r="B1354" s="7" t="s">
+    </row>
+    <row r="1355" ht="50.4" spans="1:2">
+      <c r="A1355" s="7" t="s">
         <v>2693</v>
       </c>
-    </row>
-    <row r="1355" ht="67.2" spans="1:2">
-      <c r="A1355" s="7" t="s">
+      <c r="B1355" s="7" t="s">
         <v>2694</v>
       </c>
-      <c r="B1355" s="7" t="s">
+    </row>
+    <row r="1356" ht="84" spans="1:2">
+      <c r="A1356" s="7" t="s">
         <v>2695</v>
       </c>
-    </row>
-    <row r="1356" ht="67.2" spans="1:2">
-      <c r="A1356" s="7" t="s">
+      <c r="B1356" s="7" t="s">
         <v>2696</v>
       </c>
-      <c r="B1356" s="7" t="s">
+    </row>
+    <row r="1357" ht="67.2" spans="1:2">
+      <c r="A1357" s="7" t="s">
         <v>2697</v>
       </c>
-    </row>
-    <row r="1357" ht="100.8" spans="1:2">
-      <c r="A1357" s="7" t="s">
+      <c r="B1357" s="7" t="s">
         <v>2698</v>
       </c>
-      <c r="B1357" s="7" t="s">
+    </row>
+    <row r="1358" ht="67.2" spans="1:2">
+      <c r="A1358" s="7" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="1358" spans="1:2">
-      <c r="A1358" s="7" t="s">
+      <c r="B1358" s="7" t="s">
         <v>2700</v>
       </c>
-      <c r="B1358" s="7" t="s">
+    </row>
+    <row r="1359" ht="100.8" spans="1:2">
+      <c r="A1359" s="7" t="s">
         <v>2701</v>
       </c>
-    </row>
-    <row r="1359" ht="33.6" spans="1:2">
-      <c r="A1359" s="7" t="s">
+      <c r="B1359" s="7" t="s">
         <v>2702</v>
-      </c>
-      <c r="B1359" s="7" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B1360" s="7" t="s">
         <v>2704</v>
       </c>
-      <c r="B1360" s="7" t="s">
+    </row>
+    <row r="1361" ht="33.6" spans="1:2">
+      <c r="A1361" s="7" t="s">
         <v>2705</v>
       </c>
-    </row>
-    <row r="1361" spans="1:2">
-      <c r="A1361" s="7" t="s">
+      <c r="B1361" s="7" t="s">
         <v>2706</v>
-      </c>
-      <c r="B1361" s="7" t="s">
-        <v>2707</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="7" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B1362" s="7" t="s">
         <v>2708</v>
-      </c>
-      <c r="B1362" s="7" t="s">
-        <v>2709</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="7" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B1363" s="7" t="s">
         <v>2710</v>
-      </c>
-      <c r="B1363" s="7" t="s">
-        <v>2711</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="7" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1364" s="7" t="s">
         <v>2712</v>
-      </c>
-      <c r="B1364" s="7" t="s">
-        <v>2713</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="7" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B1365" s="7" t="s">
         <v>2714</v>
-      </c>
-      <c r="B1365" s="7" t="s">
-        <v>2715</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="7" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B1366" s="7" t="s">
         <v>2716</v>
-      </c>
-      <c r="B1366" s="7" t="s">
-        <v>2717</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="7" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B1367" s="7" t="s">
         <v>2718</v>
-      </c>
-      <c r="B1367" s="7" t="s">
-        <v>2719</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="7" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B1368" s="7" t="s">
         <v>2720</v>
       </c>
-      <c r="B1368" s="7" t="s">
+    </row>
+    <row r="1369" spans="1:2">
+      <c r="A1369" s="7" t="s">
         <v>2721</v>
       </c>
-    </row>
-    <row r="1369" ht="201.6" spans="1:2">
-      <c r="A1369" s="7" t="s">
+      <c r="B1369" s="7" t="s">
         <v>2722</v>
-      </c>
-      <c r="B1369" s="7" t="s">
-        <v>2723</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="7" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B1370" s="7" t="s">
         <v>2724</v>
       </c>
-      <c r="B1370" s="7" t="s">
+    </row>
+    <row r="1371" ht="201.6" spans="1:2">
+      <c r="A1371" s="7" t="s">
         <v>2725</v>
       </c>
-    </row>
-    <row r="1371" spans="1:2">
-      <c r="A1371" s="7" t="s">
+      <c r="B1371" s="7" t="s">
         <v>2726</v>
-      </c>
-      <c r="B1371" s="7" t="s">
-        <v>2727</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="7" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1372" s="7" t="s">
         <v>2728</v>
       </c>
-      <c r="B1372" s="7" t="s">
+    </row>
+    <row r="1373" spans="1:2">
+      <c r="A1373" s="7" t="s">
         <v>2729</v>
       </c>
-    </row>
-    <row r="1373" ht="33.6" spans="1:2">
-      <c r="A1373" s="7" t="s">
+      <c r="B1373" s="7" t="s">
         <v>2730</v>
-      </c>
-      <c r="B1373" s="7" t="s">
-        <v>2731</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="7" t="s">
-        <v>384</v>
+        <v>2731</v>
       </c>
       <c r="B1374" s="7" t="s">
         <v>2732</v>
       </c>
     </row>
-    <row r="1375" spans="1:2">
+    <row r="1375" ht="33.6" spans="1:2">
       <c r="A1375" s="7" t="s">
         <v>2733</v>
       </c>
@@ -21935,154 +22530,154 @@
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1376" s="7" t="s">
         <v>2735</v>
-      </c>
-      <c r="B1376" s="7" t="s">
-        <v>2736</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="7" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B1377" s="7" t="s">
         <v>2737</v>
       </c>
-      <c r="B1377" s="7" t="s">
+    </row>
+    <row r="1378" spans="1:2">
+      <c r="A1378" s="7" t="s">
         <v>2738</v>
       </c>
-    </row>
-    <row r="1378" ht="33.6" spans="1:2">
-      <c r="A1378" s="7" t="s">
+      <c r="B1378" s="7" t="s">
         <v>2739</v>
-      </c>
-      <c r="B1378" s="7" t="s">
-        <v>2740</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="7" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B1379" s="7" t="s">
         <v>2741</v>
       </c>
-      <c r="B1379" s="7" t="s">
+    </row>
+    <row r="1380" ht="33.6" spans="1:2">
+      <c r="A1380" s="7" t="s">
         <v>2742</v>
       </c>
-    </row>
-    <row r="1380" ht="67.2" spans="1:2">
-      <c r="A1380" s="7" t="s">
+      <c r="B1380" s="7" t="s">
         <v>2743</v>
-      </c>
-      <c r="B1380" s="7" t="s">
-        <v>2744</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="7" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B1381" s="7" t="s">
         <v>2745</v>
       </c>
-      <c r="B1381" s="7" t="s">
+    </row>
+    <row r="1382" ht="67.2" spans="1:2">
+      <c r="A1382" s="7" t="s">
         <v>2746</v>
       </c>
-    </row>
-    <row r="1382" spans="1:2">
-      <c r="A1382" s="7" t="s">
+      <c r="B1382" s="7" t="s">
         <v>2747</v>
       </c>
-      <c r="B1382" s="7" t="s">
+    </row>
+    <row r="1383" spans="1:2">
+      <c r="A1383" s="7" t="s">
         <v>2748</v>
       </c>
-    </row>
-    <row r="1383" ht="33.6" spans="1:2">
-      <c r="A1383" s="7" t="s">
+      <c r="B1383" s="7" t="s">
         <v>2749</v>
       </c>
-      <c r="B1383" s="7" t="s">
+    </row>
+    <row r="1384" spans="1:2">
+      <c r="A1384" s="7" t="s">
         <v>2750</v>
       </c>
-    </row>
-    <row r="1384" ht="117.6" spans="1:2">
-      <c r="A1384" s="7" t="s">
+      <c r="B1384" s="7" t="s">
         <v>2751</v>
       </c>
-      <c r="B1384" s="7" t="s">
+    </row>
+    <row r="1385" ht="33.6" spans="1:2">
+      <c r="A1385" s="7" t="s">
         <v>2752</v>
       </c>
-    </row>
-    <row r="1385" ht="117.6" spans="1:2">
-      <c r="A1385" s="7" t="s">
+      <c r="B1385" s="7" t="s">
         <v>2753</v>
       </c>
-      <c r="B1385" s="7" t="s">
+    </row>
+    <row r="1386" ht="117.6" spans="1:2">
+      <c r="A1386" s="7" t="s">
         <v>2754</v>
       </c>
-    </row>
-    <row r="1386" spans="1:2">
-      <c r="A1386" s="7" t="s">
+      <c r="B1386" s="7" t="s">
         <v>2755</v>
       </c>
-      <c r="B1386" s="7" t="s">
+    </row>
+    <row r="1387" ht="117.6" spans="1:2">
+      <c r="A1387" s="7" t="s">
         <v>2756</v>
       </c>
-    </row>
-    <row r="1387" spans="1:2">
-      <c r="A1387" s="7" t="s">
+      <c r="B1387" s="7" t="s">
         <v>2757</v>
-      </c>
-      <c r="B1387" s="7" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="7" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B1388" s="7" t="s">
         <v>2759</v>
-      </c>
-      <c r="B1388" s="7" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="7" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B1389" s="7" t="s">
         <v>2761</v>
       </c>
-      <c r="B1389" s="7" t="s">
+    </row>
+    <row r="1390" spans="1:2">
+      <c r="A1390" s="7" t="s">
         <v>2762</v>
       </c>
-    </row>
-    <row r="1390" ht="33.6" spans="1:2">
-      <c r="A1390" s="7" t="s">
+      <c r="B1390" s="7" t="s">
         <v>2763</v>
-      </c>
-      <c r="B1390" s="7" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="7" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B1391" s="7" t="s">
         <v>2765</v>
       </c>
-      <c r="B1391" s="7" t="s">
+    </row>
+    <row r="1392" ht="33.6" spans="1:2">
+      <c r="A1392" s="7" t="s">
         <v>2766</v>
       </c>
-    </row>
-    <row r="1392" ht="117.6" spans="1:2">
-      <c r="A1392" s="7" t="s">
-        <v>1019</v>
-      </c>
       <c r="B1392" s="7" t="s">
-        <v>1018</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="7" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="B1393" s="7" t="s">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:2">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="1394" ht="117.6" spans="1:2">
       <c r="A1394" s="7" t="s">
-        <v>634</v>
+        <v>1019</v>
       </c>
       <c r="B1394" s="7" t="s">
-        <v>2769</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -22095,149 +22690,149 @@
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1396" s="7" t="s">
         <v>2772</v>
-      </c>
-      <c r="B1396" s="7" t="s">
-        <v>2773</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="7" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B1397" s="7" t="s">
         <v>2774</v>
-      </c>
-      <c r="B1397" s="7" t="s">
-        <v>2775</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="7" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B1398" s="7" t="s">
         <v>2776</v>
-      </c>
-      <c r="B1398" s="7" t="s">
-        <v>2777</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="7" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B1399" s="7" t="s">
         <v>2778</v>
       </c>
-      <c r="B1399" s="7" t="s">
+    </row>
+    <row r="1400" spans="1:2">
+      <c r="A1400" s="7" t="s">
         <v>2779</v>
       </c>
-    </row>
-    <row r="1400" ht="84" spans="1:2">
-      <c r="A1400" s="7" t="s">
+      <c r="B1400" s="7" t="s">
         <v>2780</v>
-      </c>
-      <c r="B1400" s="7" t="s">
-        <v>2781</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="7" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B1401" s="7" t="s">
         <v>2782</v>
       </c>
-      <c r="B1401" s="7" t="s">
+    </row>
+    <row r="1402" ht="84" spans="1:2">
+      <c r="A1402" s="7" t="s">
         <v>2783</v>
       </c>
-    </row>
-    <row r="1402" ht="33.6" spans="1:2">
-      <c r="A1402" s="7" t="s">
+      <c r="B1402" s="7" t="s">
         <v>2784</v>
-      </c>
-      <c r="B1402" s="7" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="7" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B1403" s="7" t="s">
         <v>2786</v>
       </c>
-      <c r="B1403" s="7" t="s">
+    </row>
+    <row r="1404" ht="33.6" spans="1:2">
+      <c r="A1404" s="7" t="s">
         <v>2787</v>
       </c>
-    </row>
-    <row r="1404" ht="34.35" spans="1:2">
-      <c r="A1404" s="7" t="s">
+      <c r="B1404" s="7" t="s">
         <v>2788</v>
       </c>
-      <c r="B1404" s="7" t="s">
+    </row>
+    <row r="1405" spans="1:2">
+      <c r="A1405" s="7" t="s">
         <v>2789</v>
       </c>
-    </row>
-    <row r="1405" ht="17.55" spans="1:2">
-      <c r="A1405" s="7" t="s">
+      <c r="B1405" s="7" t="s">
         <v>2790</v>
       </c>
-      <c r="B1405" s="9" t="s">
+    </row>
+    <row r="1406" ht="34.35" spans="1:2">
+      <c r="A1406" s="7" t="s">
         <v>2791</v>
       </c>
-    </row>
-    <row r="1406" ht="33.6" spans="1:2">
-      <c r="A1406" s="7" t="s">
+      <c r="B1406" s="7" t="s">
         <v>2792</v>
       </c>
-      <c r="B1406" s="7" t="s">
+    </row>
+    <row r="1407" ht="17.55" spans="1:2">
+      <c r="A1407" s="7" t="s">
         <v>2793</v>
       </c>
-    </row>
-    <row r="1407" spans="1:2">
-      <c r="A1407" s="7" t="s">
+      <c r="B1407" s="9" t="s">
         <v>2794</v>
       </c>
-      <c r="B1407" s="7" t="s">
+    </row>
+    <row r="1408" ht="33.6" spans="1:2">
+      <c r="A1408" s="7" t="s">
         <v>2795</v>
       </c>
-    </row>
-    <row r="1408" spans="1:2">
-      <c r="A1408" s="7" t="s">
+      <c r="B1408" s="7" t="s">
         <v>2796</v>
-      </c>
-      <c r="B1408" s="7" t="s">
-        <v>2797</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="7" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B1409" s="7" t="s">
         <v>2798</v>
-      </c>
-      <c r="B1409" s="7" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="7" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B1410" s="7" t="s">
         <v>2800</v>
-      </c>
-      <c r="B1410" s="7" t="s">
-        <v>2801</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="7" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B1411" s="7" t="s">
         <v>2802</v>
       </c>
-      <c r="B1411" s="7" t="s">
+    </row>
+    <row r="1412" spans="1:2">
+      <c r="A1412" s="7" t="s">
         <v>2803</v>
       </c>
-    </row>
-    <row r="1412" ht="67.2" spans="1:2">
-      <c r="A1412" s="7" t="s">
+      <c r="B1412" s="7" t="s">
         <v>2804</v>
-      </c>
-      <c r="B1412" s="7" t="s">
-        <v>2805</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="7" t="s">
-        <v>1436</v>
+        <v>2805</v>
       </c>
       <c r="B1413" s="7" t="s">
         <v>2806</v>
       </c>
     </row>
-    <row r="1414" spans="1:2">
+    <row r="1414" ht="67.2" spans="1:2">
       <c r="A1414" s="7" t="s">
         <v>2807</v>
       </c>
@@ -22247,135 +22842,135 @@
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1415" s="7" t="s">
         <v>2809</v>
       </c>
-      <c r="B1415" s="7" t="s">
+    </row>
+    <row r="1416" spans="1:2">
+      <c r="A1416" s="7" t="s">
         <v>2810</v>
       </c>
-    </row>
-    <row r="1416" ht="50.4" spans="1:2">
-      <c r="A1416" s="7" t="s">
+      <c r="B1416" s="7" t="s">
         <v>2811</v>
-      </c>
-      <c r="B1416" s="7" t="s">
-        <v>2812</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="7" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B1417" s="7" t="s">
         <v>2813</v>
       </c>
-      <c r="B1417" s="7" t="s">
+    </row>
+    <row r="1418" ht="50.4" spans="1:2">
+      <c r="A1418" s="7" t="s">
         <v>2814</v>
       </c>
-    </row>
-    <row r="1418" ht="33.6" spans="1:2">
-      <c r="A1418" s="7" t="s">
+      <c r="B1418" s="7" t="s">
         <v>2815</v>
       </c>
-      <c r="B1418" s="7" t="s">
+    </row>
+    <row r="1419" spans="1:2">
+      <c r="A1419" s="7" t="s">
         <v>2816</v>
       </c>
-    </row>
-    <row r="1419" ht="50.4" spans="1:2">
-      <c r="A1419" s="7" t="s">
+      <c r="B1419" s="7" t="s">
         <v>2817</v>
-      </c>
-      <c r="B1419" s="7" t="s">
-        <v>2818</v>
       </c>
     </row>
     <row r="1420" ht="33.6" spans="1:2">
       <c r="A1420" s="7" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1420" s="7" t="s">
         <v>2819</v>
       </c>
-      <c r="B1420" s="7" t="s">
+    </row>
+    <row r="1421" ht="50.4" spans="1:2">
+      <c r="A1421" s="7" t="s">
         <v>2820</v>
       </c>
-    </row>
-    <row r="1421" ht="117.6" spans="1:2">
-      <c r="A1421" s="7" t="s">
+      <c r="B1421" s="7" t="s">
         <v>2821</v>
-      </c>
-      <c r="B1421" s="7" t="s">
-        <v>2822</v>
       </c>
     </row>
     <row r="1422" ht="33.6" spans="1:2">
       <c r="A1422" s="7" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1422" s="7" t="s">
         <v>2823</v>
       </c>
-      <c r="B1422" s="7" t="s">
+    </row>
+    <row r="1423" ht="117.6" spans="1:2">
+      <c r="A1423" s="7" t="s">
         <v>2824</v>
       </c>
-    </row>
-    <row r="1423" spans="1:2">
-      <c r="A1423" s="7" t="s">
+      <c r="B1423" s="7" t="s">
         <v>2825</v>
       </c>
-      <c r="B1423" s="7" t="s">
+    </row>
+    <row r="1424" ht="33.6" spans="1:2">
+      <c r="A1424" s="7" t="s">
         <v>2826</v>
       </c>
-    </row>
-    <row r="1424" ht="84" spans="1:2">
-      <c r="A1424" s="7" t="s">
+      <c r="B1424" s="7" t="s">
         <v>2827</v>
       </c>
-      <c r="B1424" s="7" t="s">
+    </row>
+    <row r="1425" spans="1:2">
+      <c r="A1425" s="7" t="s">
         <v>2828</v>
       </c>
-    </row>
-    <row r="1425" ht="84" spans="1:2">
-      <c r="A1425" s="7" t="s">
+      <c r="B1425" s="7" t="s">
         <v>2829</v>
       </c>
-      <c r="B1425" s="7" t="s">
+    </row>
+    <row r="1426" ht="84" spans="1:2">
+      <c r="A1426" s="7" t="s">
         <v>2830</v>
       </c>
-    </row>
-    <row r="1426" ht="151.2" spans="1:2">
-      <c r="A1426" s="7" t="s">
+      <c r="B1426" s="7" t="s">
         <v>2831</v>
       </c>
-      <c r="B1426" s="7" t="s">
+    </row>
+    <row r="1427" ht="84" spans="1:2">
+      <c r="A1427" s="7" t="s">
         <v>2832</v>
       </c>
-    </row>
-    <row r="1427" spans="1:2">
-      <c r="A1427" s="7" t="s">
+      <c r="B1427" s="7" t="s">
         <v>2833</v>
       </c>
-      <c r="B1427" s="7" t="s">
+    </row>
+    <row r="1428" ht="151.2" spans="1:2">
+      <c r="A1428" s="7" t="s">
         <v>2834</v>
       </c>
-    </row>
-    <row r="1428" ht="50.4" spans="1:2">
-      <c r="A1428" s="7" t="s">
+      <c r="B1428" s="7" t="s">
         <v>2835</v>
-      </c>
-      <c r="B1428" s="7" t="s">
-        <v>2836</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="7" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1429" s="7" t="s">
         <v>2837</v>
       </c>
-      <c r="B1429" s="7" t="s">
+    </row>
+    <row r="1430" ht="50.4" spans="1:2">
+      <c r="A1430" s="7" t="s">
         <v>2838</v>
       </c>
-    </row>
-    <row r="1430" spans="1:2">
-      <c r="A1430" s="7" t="s">
+      <c r="B1430" s="7" t="s">
         <v>2839</v>
-      </c>
-      <c r="B1430" s="7" t="s">
-        <v>2840</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="7" t="s">
-        <v>2258</v>
+        <v>2840</v>
       </c>
       <c r="B1431" s="7" t="s">
         <v>2841</v>
@@ -22391,367 +22986,367 @@
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="7" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1433" s="7" t="s">
         <v>2844</v>
-      </c>
-      <c r="B1433" s="7" t="s">
-        <v>2845</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="7" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B1434" s="7" t="s">
         <v>2846</v>
       </c>
-      <c r="B1434" s="7" t="s">
+    </row>
+    <row r="1435" spans="1:2">
+      <c r="A1435" s="7" t="s">
         <v>2847</v>
       </c>
-    </row>
-    <row r="1435" ht="50.4" spans="1:2">
-      <c r="A1435" s="7" t="s">
+      <c r="B1435" s="7" t="s">
         <v>2848</v>
-      </c>
-      <c r="B1435" s="7" t="s">
-        <v>2849</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="7" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B1436" s="7" t="s">
         <v>2850</v>
       </c>
-      <c r="B1436" s="7" t="s">
+    </row>
+    <row r="1437" ht="50.4" spans="1:2">
+      <c r="A1437" s="7" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row r="1437" spans="1:2">
-      <c r="A1437" s="7" t="s">
+      <c r="B1437" s="7" t="s">
         <v>2852</v>
-      </c>
-      <c r="B1437" s="7" t="s">
-        <v>2853</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="7" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B1438" s="7" t="s">
         <v>2854</v>
-      </c>
-      <c r="B1438" s="7" t="s">
-        <v>2855</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="7" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1439" s="7" t="s">
         <v>2856</v>
-      </c>
-      <c r="B1439" s="7" t="s">
-        <v>2857</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="7" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B1440" s="7" t="s">
         <v>2858</v>
-      </c>
-      <c r="B1440" s="7" t="s">
-        <v>2859</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="7" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B1441" s="7" t="s">
         <v>2860</v>
-      </c>
-      <c r="B1441" s="7" t="s">
-        <v>2861</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="7" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B1442" s="7" t="s">
         <v>2862</v>
-      </c>
-      <c r="B1442" s="7" t="s">
-        <v>2863</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="7" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B1443" s="7" t="s">
         <v>2864</v>
-      </c>
-      <c r="B1443" s="7" t="s">
-        <v>2865</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="7" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B1444" s="7" t="s">
         <v>2866</v>
       </c>
-      <c r="B1444" s="7" t="s">
+    </row>
+    <row r="1445" spans="1:2">
+      <c r="A1445" s="7" t="s">
         <v>2867</v>
       </c>
-    </row>
-    <row r="1445" ht="67.2" spans="1:2">
-      <c r="A1445" s="7" t="s">
+      <c r="B1445" s="7" t="s">
         <v>2868</v>
-      </c>
-      <c r="B1445" s="7" t="s">
-        <v>2869</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="7" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B1446" s="7" t="s">
         <v>2870</v>
       </c>
-      <c r="B1446" s="7" t="s">
+    </row>
+    <row r="1447" ht="67.2" spans="1:2">
+      <c r="A1447" s="7" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="1447" spans="1:2">
-      <c r="A1447" s="7" t="s">
+      <c r="B1447" s="7" t="s">
         <v>2872</v>
-      </c>
-      <c r="B1447" s="7" t="s">
-        <v>2873</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="7" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1448" s="7" t="s">
         <v>2874</v>
-      </c>
-      <c r="B1448" s="7" t="s">
-        <v>2875</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="7" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B1449" s="7" t="s">
         <v>2876</v>
       </c>
-      <c r="B1449" s="7" t="s">
+    </row>
+    <row r="1450" spans="1:2">
+      <c r="A1450" s="7" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="1450" ht="50.4" spans="1:2">
-      <c r="A1450" s="7" t="s">
+      <c r="B1450" s="7" t="s">
         <v>2878</v>
       </c>
-      <c r="B1450" s="7" t="s">
+    </row>
+    <row r="1451" spans="1:2">
+      <c r="A1451" s="7" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="1451" ht="33.6" spans="1:2">
-      <c r="A1451" s="7" t="s">
+      <c r="B1451" s="7" t="s">
         <v>2880</v>
       </c>
-      <c r="B1451" s="7" t="s">
+    </row>
+    <row r="1452" ht="50.4" spans="1:2">
+      <c r="A1452" s="7" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="1452" spans="1:2">
-      <c r="A1452" s="7" t="s">
+      <c r="B1452" s="7" t="s">
         <v>2882</v>
       </c>
-      <c r="B1452" s="7" t="s">
+    </row>
+    <row r="1453" ht="33.6" spans="1:2">
+      <c r="A1453" s="7" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="1453" spans="1:2">
-      <c r="A1453" s="7" t="s">
+      <c r="B1453" s="7" t="s">
         <v>2884</v>
       </c>
-      <c r="B1453" s="7" t="s">
+    </row>
+    <row r="1454" spans="1:2">
+      <c r="A1454" s="7" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="1454" ht="33.6" spans="1:2">
-      <c r="A1454" s="7" t="s">
+      <c r="B1454" s="7" t="s">
         <v>2886</v>
       </c>
-      <c r="B1454" s="7" t="s">
+    </row>
+    <row r="1455" spans="1:2">
+      <c r="A1455" s="7" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="1455" ht="50.4" spans="1:2">
-      <c r="A1455" s="7" t="s">
+      <c r="B1455" s="7" t="s">
         <v>2888</v>
       </c>
-      <c r="B1455" s="7" t="s">
+    </row>
+    <row r="1456" ht="33.6" spans="1:2">
+      <c r="A1456" s="7" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="1456" spans="1:2">
-      <c r="A1456" s="7" t="s">
+      <c r="B1456" s="7" t="s">
         <v>2890</v>
       </c>
-      <c r="B1456" s="7" t="s">
+    </row>
+    <row r="1457" ht="50.4" spans="1:2">
+      <c r="A1457" s="7" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="1457" ht="33.6" spans="1:2">
-      <c r="A1457" s="7" t="s">
+      <c r="B1457" s="7" t="s">
         <v>2892</v>
       </c>
-      <c r="B1457" s="7" t="s">
+    </row>
+    <row r="1458" spans="1:2">
+      <c r="A1458" s="7" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="1458" ht="50.4" spans="1:2">
-      <c r="A1458" s="7" t="s">
+      <c r="B1458" s="7" t="s">
         <v>2894</v>
       </c>
-      <c r="B1458" s="7" t="s">
+    </row>
+    <row r="1459" ht="33.6" spans="1:2">
+      <c r="A1459" s="7" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="1459" ht="67.2" spans="1:2">
-      <c r="A1459" s="7" t="s">
+      <c r="B1459" s="7" t="s">
         <v>2896</v>
       </c>
-      <c r="B1459" s="7" t="s">
+    </row>
+    <row r="1460" ht="50.4" spans="1:2">
+      <c r="A1460" s="7" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="1460" ht="84" spans="1:2">
-      <c r="A1460" s="7" t="s">
+      <c r="B1460" s="7" t="s">
         <v>2898</v>
       </c>
-      <c r="B1460" s="7" t="s">
+    </row>
+    <row r="1461" ht="67.2" spans="1:2">
+      <c r="A1461" s="7" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="1461" ht="33.6" spans="1:2">
-      <c r="A1461" s="7" t="s">
+      <c r="B1461" s="7" t="s">
         <v>2900</v>
       </c>
-      <c r="B1461" s="7" t="s">
+    </row>
+    <row r="1462" ht="84" spans="1:2">
+      <c r="A1462" s="7" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="1462" spans="1:2">
-      <c r="A1462" s="7" t="s">
+      <c r="B1462" s="7" t="s">
         <v>2902</v>
       </c>
-      <c r="B1462" s="7" t="s">
+    </row>
+    <row r="1463" ht="33.6" spans="1:2">
+      <c r="A1463" s="7" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="1463" ht="50.4" spans="1:2">
-      <c r="A1463" s="7" t="s">
+      <c r="B1463" s="7" t="s">
         <v>2904</v>
       </c>
-      <c r="B1463" s="7" t="s">
+    </row>
+    <row r="1464" spans="1:2">
+      <c r="A1464" s="7" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="1464" ht="84" spans="1:2">
-      <c r="A1464" s="7" t="s">
+      <c r="B1464" s="7" t="s">
         <v>2906</v>
       </c>
-      <c r="B1464" s="7" t="s">
+    </row>
+    <row r="1465" ht="50.4" spans="1:2">
+      <c r="A1465" s="7" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="1465" ht="84" spans="1:2">
-      <c r="A1465" s="7" t="s">
+      <c r="B1465" s="7" t="s">
         <v>2908</v>
       </c>
-      <c r="B1465" s="7" t="s">
+    </row>
+    <row r="1466" ht="84" spans="1:2">
+      <c r="A1466" s="7" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="1466" spans="1:2">
-      <c r="A1466" s="7" t="s">
+      <c r="B1466" s="7" t="s">
         <v>2910</v>
       </c>
-      <c r="B1466" s="7" t="s">
+    </row>
+    <row r="1467" ht="84" spans="1:2">
+      <c r="A1467" s="7" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="1467" spans="1:2">
-      <c r="A1467" s="7" t="s">
+      <c r="B1467" s="7" t="s">
         <v>2912</v>
       </c>
-      <c r="B1467" s="7" t="s">
+    </row>
+    <row r="1468" spans="1:2">
+      <c r="A1468" s="7" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="1468" ht="33.6" spans="1:2">
-      <c r="A1468" s="7" t="s">
+      <c r="B1468" s="7" t="s">
         <v>2914</v>
-      </c>
-      <c r="B1468" s="7" t="s">
-        <v>2915</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="7" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1469" s="7" t="s">
         <v>2916</v>
       </c>
-      <c r="B1469" s="7" t="s">
+    </row>
+    <row r="1470" ht="33.6" spans="1:2">
+      <c r="A1470" s="7" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="1470" spans="1:2">
-      <c r="A1470" s="7" t="s">
+      <c r="B1470" s="7" t="s">
         <v>2918</v>
-      </c>
-      <c r="B1470" s="7" t="s">
-        <v>2919</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="7" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B1471" s="7" t="s">
         <v>2920</v>
-      </c>
-      <c r="B1471" s="7" t="s">
-        <v>2921</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="7" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B1472" s="7" t="s">
         <v>2922</v>
-      </c>
-      <c r="B1472" s="7" t="s">
-        <v>2923</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="7" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B1473" s="7" t="s">
         <v>2924</v>
-      </c>
-      <c r="B1473" s="7" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="7" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B1474" s="7" t="s">
         <v>2926</v>
       </c>
-      <c r="B1474" s="7" t="s">
+    </row>
+    <row r="1475" spans="1:2">
+      <c r="A1475" s="7" t="s">
         <v>2927</v>
       </c>
-    </row>
-    <row r="1475" ht="100.8" spans="1:2">
-      <c r="A1475" s="7" t="s">
+      <c r="B1475" s="7" t="s">
         <v>2928</v>
-      </c>
-      <c r="B1475" s="7" t="s">
-        <v>2929</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="7" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B1476" s="7" t="s">
         <v>2930</v>
       </c>
-      <c r="B1476" s="7" t="s">
+    </row>
+    <row r="1477" ht="100.8" spans="1:2">
+      <c r="A1477" s="7" t="s">
         <v>2931</v>
       </c>
-    </row>
-    <row r="1477" spans="1:2">
-      <c r="A1477" s="7" t="s">
+      <c r="B1477" s="7" t="s">
         <v>2932</v>
       </c>
-      <c r="B1477" s="7" t="s">
+    </row>
+    <row r="1478" spans="1:2">
+      <c r="A1478" s="7" t="s">
         <v>2933</v>
-      </c>
-    </row>
-    <row r="1478" ht="33.6" spans="1:2">
-      <c r="A1478" s="7" t="s">
-        <v>2323</v>
       </c>
       <c r="B1478" s="7" t="s">
         <v>2934</v>
@@ -22765,36 +23360,39 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="1480" spans="1:2">
+    <row r="1480" ht="33.6" spans="1:2">
       <c r="A1480" s="7" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1480" s="7" t="s">
         <v>2937</v>
-      </c>
-      <c r="B1480" s="7" t="s">
-        <v>2938</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="7" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1481" s="7" t="s">
         <v>2939</v>
-      </c>
-      <c r="B1481" s="7" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="7" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1482" s="7" t="s">
         <v>2941</v>
       </c>
-      <c r="B1482" s="7" t="s">
+    </row>
+    <row r="1483" spans="1:2">
+      <c r="A1483" s="7" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="1483" spans="1:1">
-      <c r="A1483" s="7" t="s">
+      <c r="B1483" s="7" t="s">
         <v>2943</v>
       </c>
     </row>
-    <row r="1484" ht="50.4" spans="1:2">
+    <row r="1484" spans="1:2">
       <c r="A1484" s="7" t="s">
         <v>2944</v>
       </c>
@@ -22802,57 +23400,54 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="1485" spans="1:2">
+    <row r="1485" spans="1:1">
       <c r="A1485" s="7" t="s">
         <v>2946</v>
       </c>
-      <c r="B1485" s="7" t="s">
+    </row>
+    <row r="1486" ht="50.4" spans="1:2">
+      <c r="A1486" s="7" t="s">
         <v>2947</v>
       </c>
-    </row>
-    <row r="1486" spans="1:2">
-      <c r="A1486" s="7" t="s">
+      <c r="B1486" s="7" t="s">
         <v>2948</v>
-      </c>
-      <c r="B1486" s="7" t="s">
-        <v>2949</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="7" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B1487" s="7" t="s">
         <v>2950</v>
       </c>
-      <c r="B1487" s="7" t="s">
+    </row>
+    <row r="1488" spans="1:2">
+      <c r="A1488" s="7" t="s">
         <v>2951</v>
       </c>
-    </row>
-    <row r="1488" ht="67.2" spans="1:2">
-      <c r="A1488" s="7" t="s">
+      <c r="B1488" s="7" t="s">
         <v>2952</v>
-      </c>
-      <c r="B1488" s="7" t="s">
-        <v>2953</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="7" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B1489" s="7" t="s">
         <v>2954</v>
       </c>
-      <c r="B1489" s="7" t="s">
+    </row>
+    <row r="1490" ht="67.2" spans="1:2">
+      <c r="A1490" s="7" t="s">
         <v>2955</v>
       </c>
-    </row>
-    <row r="1490" spans="1:2">
-      <c r="A1490" s="7" t="s">
+      <c r="B1490" s="7" t="s">
         <v>2956</v>
-      </c>
-      <c r="B1490" s="7" t="s">
-        <v>2957</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="7" t="s">
-        <v>2108</v>
+        <v>2957</v>
       </c>
       <c r="B1491" s="7" t="s">
         <v>2958</v>
@@ -22866,878 +23461,881 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="1493" ht="33.6" spans="1:2">
+    <row r="1493" spans="1:2">
       <c r="A1493" s="7" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1493" s="7" t="s">
         <v>2961</v>
-      </c>
-      <c r="B1493" s="7" t="s">
-        <v>2962</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="7" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B1494" s="7" t="s">
         <v>2963</v>
       </c>
-      <c r="B1494" s="7" t="s">
+    </row>
+    <row r="1495" ht="33.6" spans="1:2">
+      <c r="A1495" s="7" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="1495" spans="1:2">
-      <c r="A1495" s="7" t="s">
+      <c r="B1495" s="7" t="s">
         <v>2965</v>
       </c>
-      <c r="B1495" s="7" t="s">
+    </row>
+    <row r="1496" spans="1:2">
+      <c r="A1496" s="7" t="s">
         <v>2966</v>
       </c>
-    </row>
-    <row r="1496" ht="33.6" spans="1:2">
-      <c r="A1496" s="7" t="s">
+      <c r="B1496" s="7" t="s">
         <v>2967</v>
-      </c>
-      <c r="B1496" s="7" t="s">
-        <v>2968</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="7" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B1497" s="7" t="s">
         <v>2969</v>
       </c>
-      <c r="B1497" s="7" t="s">
+    </row>
+    <row r="1498" ht="33.6" spans="1:2">
+      <c r="A1498" s="7" t="s">
         <v>2970</v>
       </c>
-    </row>
-    <row r="1498" spans="1:2">
-      <c r="A1498" s="7" t="s">
+      <c r="B1498" s="7" t="s">
         <v>2971</v>
-      </c>
-      <c r="B1498" s="7" t="s">
-        <v>2972</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="7" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1499" s="7" t="s">
         <v>2973</v>
-      </c>
-      <c r="B1499" s="7" t="s">
-        <v>2974</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="7" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1500" s="7" t="s">
         <v>2975</v>
-      </c>
-      <c r="B1500" s="7" t="s">
-        <v>2976</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="7" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1501" s="7" t="s">
         <v>2977</v>
       </c>
-      <c r="B1501" s="7" t="s">
+    </row>
+    <row r="1502" spans="1:2">
+      <c r="A1502" s="7" t="s">
         <v>2978</v>
       </c>
-    </row>
-    <row r="1502" ht="67.2" spans="1:2">
-      <c r="A1502" s="7" t="s">
+      <c r="B1502" s="7" t="s">
         <v>2979</v>
       </c>
-      <c r="B1502" s="7" t="s">
+    </row>
+    <row r="1503" spans="1:2">
+      <c r="A1503" s="7" t="s">
         <v>2980</v>
       </c>
-    </row>
-    <row r="1503" ht="33.6" spans="1:2">
-      <c r="A1503" s="7" t="s">
+      <c r="B1503" s="7" t="s">
         <v>2981</v>
       </c>
-      <c r="B1503" s="7" t="s">
+    </row>
+    <row r="1504" ht="67.2" spans="1:2">
+      <c r="A1504" s="7" t="s">
         <v>2982</v>
       </c>
-    </row>
-    <row r="1504" ht="33.6" spans="1:2">
-      <c r="A1504" s="7" t="s">
+      <c r="B1504" s="7" t="s">
         <v>2983</v>
       </c>
-      <c r="B1504" s="7" t="s">
+    </row>
+    <row r="1505" ht="33.6" spans="1:2">
+      <c r="A1505" s="7" t="s">
         <v>2984</v>
       </c>
-    </row>
-    <row r="1505" ht="117.6" spans="1:2">
-      <c r="A1505" s="7" t="s">
+      <c r="B1505" s="7" t="s">
         <v>2985</v>
       </c>
-      <c r="B1505" s="7" t="s">
+    </row>
+    <row r="1506" ht="33.6" spans="1:2">
+      <c r="A1506" s="7" t="s">
         <v>2986</v>
       </c>
-    </row>
-    <row r="1506" ht="117.6" spans="1:2">
-      <c r="A1506" s="7" t="s">
+      <c r="B1506" s="7" t="s">
         <v>2987</v>
       </c>
-      <c r="B1506" s="7" t="s">
+    </row>
+    <row r="1507" ht="117.6" spans="1:2">
+      <c r="A1507" s="7" t="s">
         <v>2988</v>
       </c>
-    </row>
-    <row r="1507" ht="50.4" spans="1:2">
-      <c r="A1507" s="7" t="s">
+      <c r="B1507" s="7" t="s">
         <v>2989</v>
       </c>
-      <c r="B1507" s="7" t="s">
+    </row>
+    <row r="1508" ht="117.6" spans="1:2">
+      <c r="A1508" s="7" t="s">
         <v>2990</v>
       </c>
-    </row>
-    <row r="1508" ht="67.2" spans="1:2">
-      <c r="A1508" s="7" t="s">
+      <c r="B1508" s="7" t="s">
         <v>2991</v>
       </c>
-      <c r="B1508" s="7" t="s">
+    </row>
+    <row r="1509" ht="50.4" spans="1:2">
+      <c r="A1509" s="7" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="1509" ht="117.6" spans="1:2">
-      <c r="A1509" s="7" t="s">
+      <c r="B1509" s="7" t="s">
         <v>2993</v>
       </c>
-      <c r="B1509" s="7" t="s">
+    </row>
+    <row r="1510" ht="67.2" spans="1:2">
+      <c r="A1510" s="7" t="s">
         <v>2994</v>
       </c>
-    </row>
-    <row r="1510" ht="84" spans="1:2">
-      <c r="A1510" s="7" t="s">
+      <c r="B1510" s="7" t="s">
         <v>2995</v>
       </c>
-      <c r="B1510" s="7" t="s">
+    </row>
+    <row r="1511" ht="117.6" spans="1:2">
+      <c r="A1511" s="7" t="s">
         <v>2996</v>
       </c>
-    </row>
-    <row r="1511" ht="67.2" spans="1:2">
-      <c r="A1511" s="7" t="s">
+      <c r="B1511" s="7" t="s">
         <v>2997</v>
       </c>
-      <c r="B1511" s="7" t="s">
+    </row>
+    <row r="1512" ht="84" spans="1:2">
+      <c r="A1512" s="7" t="s">
         <v>2998</v>
       </c>
-    </row>
-    <row r="1512" ht="50.4" spans="1:2">
-      <c r="A1512" s="7" t="s">
+      <c r="B1512" s="7" t="s">
         <v>2999</v>
       </c>
-      <c r="B1512" s="7" t="s">
+    </row>
+    <row r="1513" ht="67.2" spans="1:2">
+      <c r="A1513" s="7" t="s">
         <v>3000</v>
       </c>
-    </row>
-    <row r="1513" ht="50.4" spans="1:2">
-      <c r="A1513" s="7" t="s">
+      <c r="B1513" s="7" t="s">
         <v>3001</v>
       </c>
-      <c r="B1513" s="7" t="s">
+    </row>
+    <row r="1514" ht="50.4" spans="1:2">
+      <c r="A1514" s="7" t="s">
         <v>3002</v>
       </c>
-    </row>
-    <row r="1514" ht="33.6" spans="1:2">
-      <c r="A1514" s="7" t="s">
+      <c r="B1514" s="7" t="s">
         <v>3003</v>
-      </c>
-      <c r="B1514" s="7" t="s">
-        <v>3004</v>
       </c>
     </row>
     <row r="1515" ht="50.4" spans="1:2">
       <c r="A1515" s="7" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1515" s="7" t="s">
         <v>3005</v>
       </c>
-      <c r="B1515" s="7" t="s">
+    </row>
+    <row r="1516" ht="33.6" spans="1:2">
+      <c r="A1516" s="7" t="s">
         <v>3006</v>
       </c>
-    </row>
-    <row r="1516" ht="50.4" spans="1:2">
-      <c r="A1516" s="7" t="s">
+      <c r="B1516" s="7" t="s">
         <v>3007</v>
       </c>
-      <c r="B1516" s="7" t="s">
+    </row>
+    <row r="1517" ht="50.4" spans="1:2">
+      <c r="A1517" s="7" t="s">
         <v>3008</v>
       </c>
-    </row>
-    <row r="1517" ht="84" spans="1:2">
-      <c r="A1517" s="7" t="s">
+      <c r="B1517" s="7" t="s">
         <v>3009</v>
       </c>
-      <c r="B1517" s="7" t="s">
+    </row>
+    <row r="1518" ht="50.4" spans="1:2">
+      <c r="A1518" s="7" t="s">
         <v>3010</v>
       </c>
-    </row>
-    <row r="1518" ht="67.2" spans="1:2">
-      <c r="A1518" s="7" t="s">
+      <c r="B1518" s="7" t="s">
         <v>3011</v>
       </c>
-      <c r="B1518" s="7" t="s">
+    </row>
+    <row r="1519" ht="84" spans="1:2">
+      <c r="A1519" s="7" t="s">
         <v>3012</v>
       </c>
-    </row>
-    <row r="1519" spans="1:2">
-      <c r="A1519" s="7" t="s">
+      <c r="B1519" s="7" t="s">
         <v>3013</v>
       </c>
-      <c r="B1519" s="7" t="s">
+    </row>
+    <row r="1520" ht="67.2" spans="1:2">
+      <c r="A1520" s="7" t="s">
         <v>3014</v>
       </c>
-    </row>
-    <row r="1520" ht="33.6" spans="1:2">
-      <c r="A1520" s="7" t="s">
+      <c r="B1520" s="7" t="s">
         <v>3015</v>
       </c>
-      <c r="B1520" s="7" t="s">
+    </row>
+    <row r="1521" spans="1:2">
+      <c r="A1521" s="7" t="s">
         <v>3016</v>
       </c>
-    </row>
-    <row r="1521" ht="33.6" spans="1:2">
-      <c r="A1521" s="7" t="s">
+      <c r="B1521" s="7" t="s">
         <v>3017</v>
-      </c>
-      <c r="B1521" s="7" t="s">
-        <v>3018</v>
       </c>
     </row>
     <row r="1522" ht="33.6" spans="1:2">
       <c r="A1522" s="7" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B1522" s="7" t="s">
         <v>3019</v>
       </c>
-      <c r="B1522" s="7" t="s">
+    </row>
+    <row r="1523" ht="33.6" spans="1:2">
+      <c r="A1523" s="7" t="s">
         <v>3020</v>
       </c>
-    </row>
-    <row r="1523" ht="50.4" spans="1:2">
-      <c r="A1523" s="7" t="s">
+      <c r="B1523" s="7" t="s">
         <v>3021</v>
       </c>
-      <c r="B1523" s="7" t="s">
+    </row>
+    <row r="1524" ht="33.6" spans="1:2">
+      <c r="A1524" s="7" t="s">
         <v>3022</v>
       </c>
-    </row>
-    <row r="1524" spans="1:2">
-      <c r="A1524" s="7" t="s">
+      <c r="B1524" s="7" t="s">
         <v>3023</v>
       </c>
-      <c r="B1524" s="7" t="s">
+    </row>
+    <row r="1525" ht="50.4" spans="1:2">
+      <c r="A1525" s="7" t="s">
         <v>3024</v>
       </c>
-    </row>
-    <row r="1525" ht="33.6" spans="1:2">
-      <c r="A1525" s="7" t="s">
+      <c r="B1525" s="7" t="s">
         <v>3025</v>
       </c>
-      <c r="B1525" s="7" t="s">
+    </row>
+    <row r="1526" spans="1:2">
+      <c r="A1526" s="7" t="s">
         <v>3026</v>
       </c>
-    </row>
-    <row r="1526" ht="33.6" spans="1:2">
-      <c r="A1526" s="7" t="s">
+      <c r="B1526" s="7" t="s">
         <v>3027</v>
       </c>
-      <c r="B1526" s="7" t="s">
+    </row>
+    <row r="1527" ht="33.6" spans="1:2">
+      <c r="A1527" s="7" t="s">
         <v>3028</v>
       </c>
-    </row>
-    <row r="1527" ht="50.4" spans="1:2">
-      <c r="A1527" s="7" t="s">
+      <c r="B1527" s="7" t="s">
         <v>3029</v>
-      </c>
-      <c r="B1527" s="7" t="s">
-        <v>3030</v>
       </c>
     </row>
     <row r="1528" ht="33.6" spans="1:2">
       <c r="A1528" s="7" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1528" s="7" t="s">
         <v>3031</v>
-      </c>
-      <c r="B1528" s="7" t="s">
-        <v>3032</v>
       </c>
     </row>
     <row r="1529" ht="50.4" spans="1:2">
       <c r="A1529" s="7" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1529" s="7" t="s">
         <v>3033</v>
-      </c>
-      <c r="B1529" s="7" t="s">
-        <v>3034</v>
       </c>
     </row>
     <row r="1530" ht="33.6" spans="1:2">
       <c r="A1530" s="7" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1530" s="7" t="s">
         <v>3035</v>
-      </c>
-      <c r="B1530" s="7" t="s">
-        <v>3036</v>
       </c>
     </row>
     <row r="1531" ht="50.4" spans="1:2">
       <c r="A1531" s="7" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1531" s="7" t="s">
         <v>3037</v>
       </c>
-      <c r="B1531" s="7" t="s">
+    </row>
+    <row r="1532" ht="33.6" spans="1:2">
+      <c r="A1532" s="7" t="s">
         <v>3038</v>
       </c>
-    </row>
-    <row r="1532" ht="84" spans="1:2">
-      <c r="A1532" s="7" t="s">
+      <c r="B1532" s="7" t="s">
         <v>3039</v>
       </c>
-      <c r="B1532" s="7" t="s">
+    </row>
+    <row r="1533" ht="50.4" spans="1:2">
+      <c r="A1533" s="7" t="s">
         <v>3040</v>
       </c>
-    </row>
-    <row r="1533" ht="84" spans="1:2">
-      <c r="A1533" s="7" t="s">
+      <c r="B1533" s="7" t="s">
         <v>3041</v>
       </c>
-      <c r="B1533" s="7" t="s">
+    </row>
+    <row r="1534" ht="84" spans="1:2">
+      <c r="A1534" s="7" t="s">
         <v>3042</v>
       </c>
-    </row>
-    <row r="1534" ht="50.4" spans="1:2">
-      <c r="A1534" s="7" t="s">
+      <c r="B1534" s="7" t="s">
         <v>3043</v>
       </c>
-      <c r="B1534" s="7" t="s">
+    </row>
+    <row r="1535" ht="84" spans="1:2">
+      <c r="A1535" s="7" t="s">
         <v>3044</v>
       </c>
-    </row>
-    <row r="1535" ht="134.4" spans="1:2">
-      <c r="A1535" s="7" t="s">
+      <c r="B1535" s="7" t="s">
         <v>3045</v>
       </c>
-      <c r="B1535" s="7" t="s">
+    </row>
+    <row r="1536" ht="50.4" spans="1:2">
+      <c r="A1536" s="7" t="s">
         <v>3046</v>
       </c>
-    </row>
-    <row r="1536" ht="33.6" spans="1:2">
-      <c r="A1536" s="7" t="s">
+      <c r="B1536" s="7" t="s">
         <v>3047</v>
       </c>
-      <c r="B1536" s="7" t="s">
+    </row>
+    <row r="1537" ht="134.4" spans="1:2">
+      <c r="A1537" s="7" t="s">
         <v>3048</v>
       </c>
-    </row>
-    <row r="1537" ht="50.4" spans="1:2">
-      <c r="A1537" s="7" t="s">
+      <c r="B1537" s="7" t="s">
         <v>3049</v>
       </c>
-      <c r="B1537" s="7" t="s">
+    </row>
+    <row r="1538" ht="33.6" spans="1:2">
+      <c r="A1538" s="7" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="1538" ht="67.2" spans="1:2">
-      <c r="A1538" s="7" t="s">
+      <c r="B1538" s="7" t="s">
         <v>3051</v>
       </c>
-      <c r="B1538" s="7" t="s">
+    </row>
+    <row r="1539" ht="50.4" spans="1:2">
+      <c r="A1539" s="7" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="1539" ht="33.6" spans="1:2">
-      <c r="A1539" s="7" t="s">
+      <c r="B1539" s="7" t="s">
         <v>3053</v>
-      </c>
-      <c r="B1539" s="7" t="s">
-        <v>3054</v>
       </c>
     </row>
     <row r="1540" ht="67.2" spans="1:2">
       <c r="A1540" s="7" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1540" s="7" t="s">
         <v>3055</v>
-      </c>
-      <c r="B1540" s="7" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="1541" ht="33.6" spans="1:2">
       <c r="A1541" s="7" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B1541" s="7" t="s">
         <v>3057</v>
       </c>
-      <c r="B1541" s="7" t="s">
+    </row>
+    <row r="1542" ht="67.2" spans="1:2">
+      <c r="A1542" s="7" t="s">
         <v>3058</v>
       </c>
-    </row>
-    <row r="1542" ht="33.6" spans="1:2">
-      <c r="A1542" s="7" t="s">
+      <c r="B1542" s="7" t="s">
         <v>3059</v>
       </c>
-      <c r="B1542" s="7" t="s">
+    </row>
+    <row r="1543" ht="33.6" spans="1:2">
+      <c r="A1543" s="7" t="s">
         <v>3060</v>
       </c>
-    </row>
-    <row r="1543" ht="50.4" spans="1:2">
-      <c r="A1543" s="7" t="s">
+      <c r="B1543" s="7" t="s">
         <v>3061</v>
       </c>
-      <c r="B1543" s="7" t="s">
+    </row>
+    <row r="1544" ht="33.6" spans="1:2">
+      <c r="A1544" s="7" t="s">
         <v>3062</v>
       </c>
-    </row>
-    <row r="1544" ht="84" spans="1:2">
-      <c r="A1544" s="7" t="s">
+      <c r="B1544" s="7" t="s">
         <v>3063</v>
       </c>
-      <c r="B1544" s="7" t="s">
+    </row>
+    <row r="1545" ht="50.4" spans="1:2">
+      <c r="A1545" s="7" t="s">
         <v>3064</v>
       </c>
-    </row>
-    <row r="1545" ht="84" spans="1:2">
-      <c r="A1545" s="7" t="s">
+      <c r="B1545" s="7" t="s">
         <v>3065</v>
-      </c>
-      <c r="B1545" s="7" t="s">
-        <v>3066</v>
       </c>
     </row>
     <row r="1546" ht="84" spans="1:2">
       <c r="A1546" s="7" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B1546" s="7" t="s">
         <v>3067</v>
       </c>
-      <c r="B1546" s="7" t="s">
+    </row>
+    <row r="1547" ht="84" spans="1:2">
+      <c r="A1547" s="7" t="s">
         <v>3068</v>
       </c>
-    </row>
-    <row r="1547" spans="1:2">
-      <c r="A1547" s="7" t="s">
+      <c r="B1547" s="7" t="s">
         <v>3069</v>
       </c>
-      <c r="B1547" s="7" t="s">
+    </row>
+    <row r="1548" ht="84" spans="1:2">
+      <c r="A1548" s="7" t="s">
         <v>3070</v>
       </c>
-    </row>
-    <row r="1548" ht="33.6" spans="1:2">
-      <c r="A1548" s="7" t="s">
+      <c r="B1548" s="7" t="s">
         <v>3071</v>
-      </c>
-      <c r="B1548" s="7" t="s">
-        <v>3072</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="7" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1549" s="7" t="s">
         <v>3073</v>
-      </c>
-      <c r="B1549" s="7" t="s">
-        <v>3074</v>
       </c>
     </row>
     <row r="1550" ht="33.6" spans="1:2">
       <c r="A1550" s="7" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B1550" s="7" t="s">
         <v>3075</v>
       </c>
-      <c r="B1550" s="7" t="s">
+    </row>
+    <row r="1551" spans="1:2">
+      <c r="A1551" s="7" t="s">
         <v>3076</v>
       </c>
-    </row>
-    <row r="1551" ht="33.6" spans="1:2">
-      <c r="A1551" s="7" t="s">
+      <c r="B1551" s="7" t="s">
         <v>3077</v>
-      </c>
-      <c r="B1551" s="7" t="s">
-        <v>3078</v>
       </c>
     </row>
     <row r="1552" ht="33.6" spans="1:2">
       <c r="A1552" s="7" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1552" s="7" t="s">
         <v>3079</v>
       </c>
-      <c r="B1552" s="7" t="s">
+    </row>
+    <row r="1553" ht="33.6" spans="1:2">
+      <c r="A1553" s="7" t="s">
         <v>3080</v>
       </c>
-    </row>
-    <row r="1553" ht="100.8" spans="1:2">
-      <c r="A1553" s="7" t="s">
+      <c r="B1553" s="7" t="s">
         <v>3081</v>
       </c>
-      <c r="B1553" s="7" t="s">
+    </row>
+    <row r="1554" ht="33.6" spans="1:2">
+      <c r="A1554" s="7" t="s">
         <v>3082</v>
       </c>
-    </row>
-    <row r="1554" ht="117.6" spans="1:2">
-      <c r="A1554" s="7" t="s">
+      <c r="B1554" s="7" t="s">
         <v>3083</v>
       </c>
-      <c r="B1554" s="7" t="s">
+    </row>
+    <row r="1555" ht="100.8" spans="1:2">
+      <c r="A1555" s="7" t="s">
         <v>3084</v>
       </c>
-    </row>
-    <row r="1555" ht="33.6" spans="1:2">
-      <c r="A1555" s="7" t="s">
+      <c r="B1555" s="7" t="s">
         <v>3085</v>
       </c>
-      <c r="B1555" s="7" t="s">
+    </row>
+    <row r="1556" ht="117.6" spans="1:2">
+      <c r="A1556" s="7" t="s">
         <v>3086</v>
       </c>
-    </row>
-    <row r="1556" ht="33.6" spans="1:2">
-      <c r="A1556" s="7" t="s">
+      <c r="B1556" s="7" t="s">
         <v>3087</v>
-      </c>
-      <c r="B1556" s="7" t="s">
-        <v>3088</v>
       </c>
     </row>
     <row r="1557" ht="33.6" spans="1:2">
       <c r="A1557" s="7" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B1557" s="7" t="s">
         <v>3089</v>
       </c>
-      <c r="B1557" s="7" t="s">
+    </row>
+    <row r="1558" ht="33.6" spans="1:2">
+      <c r="A1558" s="7" t="s">
         <v>3090</v>
       </c>
-    </row>
-    <row r="1558" ht="50.4" spans="1:2">
-      <c r="A1558" s="7" t="s">
+      <c r="B1558" s="7" t="s">
         <v>3091</v>
       </c>
-      <c r="B1558" s="7" t="s">
+    </row>
+    <row r="1559" ht="33.6" spans="1:2">
+      <c r="A1559" s="7" t="s">
         <v>3092</v>
       </c>
-    </row>
-    <row r="1559" ht="67.2" spans="1:2">
-      <c r="A1559" s="7" t="s">
+      <c r="B1559" s="7" t="s">
         <v>3093</v>
-      </c>
-      <c r="B1559" s="7" t="s">
-        <v>3094</v>
       </c>
     </row>
     <row r="1560" ht="50.4" spans="1:2">
       <c r="A1560" s="7" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B1560" s="7" t="s">
         <v>3095</v>
       </c>
-      <c r="B1560" s="7" t="s">
+    </row>
+    <row r="1561" ht="67.2" spans="1:2">
+      <c r="A1561" s="7" t="s">
         <v>3096</v>
       </c>
-    </row>
-    <row r="1561" ht="84" spans="1:2">
-      <c r="A1561" s="7" t="s">
+      <c r="B1561" s="7" t="s">
         <v>3097</v>
       </c>
-      <c r="B1561" s="7" t="s">
+    </row>
+    <row r="1562" ht="50.4" spans="1:2">
+      <c r="A1562" s="7" t="s">
         <v>3098</v>
       </c>
-    </row>
-    <row r="1562" ht="84" spans="1:2">
-      <c r="A1562" s="7" t="s">
+      <c r="B1562" s="7" t="s">
         <v>3099</v>
       </c>
-      <c r="B1562" s="7" t="s">
+    </row>
+    <row r="1563" ht="84" spans="1:2">
+      <c r="A1563" s="7" t="s">
         <v>3100</v>
       </c>
-    </row>
-    <row r="1563" ht="67.2" spans="1:2">
-      <c r="A1563" s="7" t="s">
+      <c r="B1563" s="7" t="s">
         <v>3101</v>
       </c>
-      <c r="B1563" s="7" t="s">
+    </row>
+    <row r="1564" ht="84" spans="1:2">
+      <c r="A1564" s="7" t="s">
         <v>3102</v>
       </c>
-    </row>
-    <row r="1564" ht="50.4" spans="1:2">
-      <c r="A1564" s="7" t="s">
+      <c r="B1564" s="7" t="s">
         <v>3103</v>
       </c>
-      <c r="B1564" s="7" t="s">
+    </row>
+    <row r="1565" ht="67.2" spans="1:2">
+      <c r="A1565" s="7" t="s">
         <v>3104</v>
       </c>
-    </row>
-    <row r="1565" spans="1:2">
-      <c r="A1565" s="7" t="s">
+      <c r="B1565" s="7" t="s">
         <v>3105</v>
       </c>
-      <c r="B1565" s="7" t="s">
+    </row>
+    <row r="1566" ht="50.4" spans="1:2">
+      <c r="A1566" s="7" t="s">
         <v>3106</v>
       </c>
-    </row>
-    <row r="1566" spans="1:2">
-      <c r="A1566" s="7" t="s">
+      <c r="B1566" s="7" t="s">
         <v>3107</v>
-      </c>
-      <c r="B1566" s="7" t="s">
-        <v>3108</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
       <c r="A1567" s="7" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B1567" s="7" t="s">
         <v>3109</v>
-      </c>
-      <c r="B1567" s="7" t="s">
-        <v>3110</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
       <c r="A1568" s="7" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B1568" s="7" t="s">
         <v>3111</v>
       </c>
-      <c r="B1568" s="7" t="s">
+    </row>
+    <row r="1569" spans="1:2">
+      <c r="A1569" s="7" t="s">
         <v>3112</v>
       </c>
-    </row>
-    <row r="1569" ht="50.4" spans="1:1">
-      <c r="A1569" s="7" t="s">
+      <c r="B1569" s="7" t="s">
         <v>3113</v>
       </c>
     </row>
-    <row r="1570" ht="84" spans="1:1">
-      <c r="A1570" s="11" t="s">
+    <row r="1570" spans="1:2">
+      <c r="A1570" s="7" t="s">
         <v>3114</v>
       </c>
-    </row>
-    <row r="1571" ht="67.2" spans="1:1">
-      <c r="A1571" s="11" t="s">
+      <c r="B1570" s="7" t="s">
         <v>3115</v>
       </c>
     </row>
-    <row r="1572" ht="67.2" spans="1:1">
+    <row r="1571" ht="50.4" spans="1:1">
+      <c r="A1571" s="7" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1572" ht="84" spans="1:1">
       <c r="A1572" s="11" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1573" ht="67.2" spans="1:1">
       <c r="A1573" s="11" t="s">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:2">
-      <c r="A1574" s="7" t="s">
         <v>3118</v>
       </c>
-      <c r="B1574" s="7" t="s">
+    </row>
+    <row r="1574" ht="67.2" spans="1:1">
+      <c r="A1574" s="11" t="s">
         <v>3119</v>
       </c>
     </row>
-    <row r="1575" ht="33.6" spans="1:2">
-      <c r="A1575" s="7" t="s">
+    <row r="1575" ht="67.2" spans="1:1">
+      <c r="A1575" s="11" t="s">
         <v>3120</v>
       </c>
-      <c r="B1575" s="7" t="s">
+    </row>
+    <row r="1576" spans="1:2">
+      <c r="A1576" s="7" t="s">
         <v>3121</v>
       </c>
-    </row>
-    <row r="1576" ht="33.6" spans="1:2">
-      <c r="A1576" s="7" t="s">
+      <c r="B1576" s="7" t="s">
         <v>3122</v>
       </c>
-      <c r="B1576" s="7" t="s">
+    </row>
+    <row r="1577" ht="33.6" spans="1:2">
+      <c r="A1577" s="7" t="s">
         <v>3123</v>
       </c>
-    </row>
-    <row r="1577" spans="1:2">
-      <c r="A1577" s="7" t="s">
+      <c r="B1577" s="7" t="s">
         <v>3124</v>
       </c>
-      <c r="B1577" s="7" t="s">
+    </row>
+    <row r="1578" ht="33.6" spans="1:2">
+      <c r="A1578" s="7" t="s">
         <v>3125</v>
       </c>
-    </row>
-    <row r="1578" spans="1:2">
-      <c r="A1578" s="7" t="s">
+      <c r="B1578" s="7" t="s">
         <v>3126</v>
-      </c>
-      <c r="B1578" s="7" t="s">
-        <v>3127</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
       <c r="A1579" s="7" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1579" s="7" t="s">
         <v>3128</v>
-      </c>
-      <c r="B1579" s="7" t="s">
-        <v>3129</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
       <c r="A1580" s="7" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B1580" s="7" t="s">
         <v>3130</v>
       </c>
-      <c r="B1580" s="7" t="s">
+    </row>
+    <row r="1581" spans="1:2">
+      <c r="A1581" s="7" t="s">
         <v>3131</v>
       </c>
-    </row>
-    <row r="1581" ht="67.2" spans="1:2">
-      <c r="A1581" s="11" t="s">
+      <c r="B1581" s="7" t="s">
         <v>3132</v>
       </c>
-      <c r="B1581" s="11"/>
-    </row>
-    <row r="1582" ht="50.4" spans="1:2">
-      <c r="A1582" s="11" t="s">
+    </row>
+    <row r="1582" spans="1:2">
+      <c r="A1582" s="7" t="s">
         <v>3133</v>
       </c>
-      <c r="B1582" s="11" t="s">
+      <c r="B1582" s="7" t="s">
         <v>3134</v>
       </c>
     </row>
-    <row r="1583" ht="33.6" spans="1:2">
+    <row r="1583" ht="67.2" spans="1:2">
       <c r="A1583" s="11" t="s">
         <v>3135</v>
       </c>
-      <c r="B1583" s="11" t="s">
+      <c r="B1583" s="11"/>
+    </row>
+    <row r="1584" ht="50.4" spans="1:2">
+      <c r="A1584" s="11" t="s">
         <v>3136</v>
       </c>
-    </row>
-    <row r="1584" spans="1:2">
-      <c r="A1584" s="11" t="s">
+      <c r="B1584" s="11" t="s">
         <v>3137</v>
       </c>
-      <c r="B1584" s="11" t="s">
+    </row>
+    <row r="1585" ht="33.6" spans="1:2">
+      <c r="A1585" s="11" t="s">
         <v>3138</v>
       </c>
-    </row>
-    <row r="1585" spans="1:2">
-      <c r="A1585" s="11" t="s">
+      <c r="B1585" s="11" t="s">
         <v>3139</v>
       </c>
-      <c r="B1585" s="11" t="s">
+    </row>
+    <row r="1586" spans="1:2">
+      <c r="A1586" s="11" t="s">
         <v>3140</v>
       </c>
-    </row>
-    <row r="1586" ht="33.6" spans="1:2">
-      <c r="A1586" s="11" t="s">
+      <c r="B1586" s="11" t="s">
         <v>3141</v>
       </c>
-      <c r="B1586" s="11" t="s">
+    </row>
+    <row r="1587" spans="1:2">
+      <c r="A1587" s="11" t="s">
         <v>3142</v>
       </c>
-    </row>
-    <row r="1587" ht="33.6" spans="1:2">
-      <c r="A1587" s="11" t="s">
+      <c r="B1587" s="11" t="s">
         <v>3143</v>
-      </c>
-      <c r="B1587" s="11" t="s">
-        <v>3144</v>
       </c>
     </row>
     <row r="1588" ht="33.6" spans="1:2">
       <c r="A1588" s="11" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B1588" s="11" t="s">
         <v>3145</v>
       </c>
-      <c r="B1588" s="11" t="s">
+    </row>
+    <row r="1589" ht="33.6" spans="1:2">
+      <c r="A1589" s="11" t="s">
         <v>3146</v>
       </c>
-    </row>
-    <row r="1589" spans="1:2">
-      <c r="A1589" s="7" t="s">
+      <c r="B1589" s="11" t="s">
         <v>3147</v>
       </c>
-      <c r="B1589" s="7" t="s">
+    </row>
+    <row r="1590" ht="33.6" spans="1:2">
+      <c r="A1590" s="11" t="s">
         <v>3148</v>
       </c>
-    </row>
-    <row r="1590" spans="1:1">
-      <c r="A1590" s="7" t="s">
+      <c r="B1590" s="11" t="s">
         <v>3149</v>
       </c>
     </row>
-    <row r="1591" ht="33.6" spans="1:1">
+    <row r="1591" spans="1:2">
       <c r="A1591" s="7" t="s">
         <v>3150</v>
       </c>
+      <c r="B1591" s="7" t="s">
+        <v>3151</v>
+      </c>
     </row>
     <row r="1592" spans="1:1">
       <c r="A1592" s="7" t="s">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:1">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="1593" ht="33.6" spans="1:1">
       <c r="A1593" s="7" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="1594" spans="1:1">
       <c r="A1594" s="7" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="1595" spans="1:1">
       <c r="A1595" s="7" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="1596" spans="1:1">
       <c r="A1596" s="7" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="1597" spans="1:1">
       <c r="A1597" s="7" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="1598" spans="1:1">
       <c r="A1598" s="7" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="1599" spans="1:1">
       <c r="A1599" s="7" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="1600" spans="1:1">
       <c r="A1600" s="7" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="1601" spans="1:1">
       <c r="A1601" s="7" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="1602" ht="67.2" spans="1:1">
-      <c r="A1602" s="11" t="s">
         <v>3161</v>
       </c>
     </row>
-    <row r="1603" ht="50.4" spans="1:1">
-      <c r="A1603" s="11" t="s">
+    <row r="1602" spans="1:1">
+      <c r="A1602" s="7" t="s">
         <v>3162</v>
       </c>
     </row>
-    <row r="1604" ht="50.4" spans="1:1">
+    <row r="1603" spans="1:1">
+      <c r="A1603" s="7" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1604" ht="67.2" spans="1:1">
       <c r="A1604" s="11" t="s">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="1605" ht="67.2" spans="1:1">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="1605" ht="50.4" spans="1:1">
       <c r="A1605" s="11" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:1">
-      <c r="A1606" s="7" t="s">
         <v>3165</v>
       </c>
     </row>
-    <row r="1607" spans="1:2">
-      <c r="A1607" s="7" t="s">
+    <row r="1606" ht="50.4" spans="1:1">
+      <c r="A1606" s="11" t="s">
         <v>3166</v>
       </c>
-      <c r="B1607" s="7" t="s">
+    </row>
+    <row r="1607" ht="67.2" spans="1:1">
+      <c r="A1607" s="11" t="s">
         <v>3167</v>
       </c>
     </row>
-    <row r="1608" ht="33.6" spans="1:1">
-      <c r="A1608" s="11" t="s">
+    <row r="1608" spans="1:1">
+      <c r="A1608" s="7" t="s">
         <v>3168</v>
       </c>
     </row>
-    <row r="1609" spans="1:1">
-      <c r="A1609" s="11" t="s">
+    <row r="1609" spans="1:2">
+      <c r="A1609" s="7" t="s">
         <v>3169</v>
       </c>
-    </row>
-    <row r="1610" spans="1:1">
+      <c r="B1609" s="7" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="1610" ht="33.6" spans="1:1">
       <c r="A1610" s="11" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:2">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1">
       <c r="A1611" s="11" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B1611" s="7" t="s">
         <v>3172</v>
       </c>
     </row>
@@ -23746,99 +24344,982 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="1613" ht="33.6" spans="1:1">
-      <c r="A1613" s="10" t="s">
+    <row r="1613" spans="1:2">
+      <c r="A1613" s="11" t="s">
         <v>3174</v>
       </c>
+      <c r="B1613" s="7" t="s">
+        <v>3175</v>
+      </c>
     </row>
     <row r="1614" spans="1:1">
-      <c r="A1614" s="10" t="s">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:1">
+      <c r="A1614" s="11" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="1615" ht="33.6" spans="1:1">
       <c r="A1615" s="10" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="1616" spans="1:1">
       <c r="A1616" s="10" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="1617" spans="1:1">
-      <c r="A1617" s="7" t="s">
-        <v>3178</v>
+      <c r="A1617" s="10" t="s">
+        <v>3179</v>
       </c>
     </row>
     <row r="1618" spans="1:1">
-      <c r="A1618" s="7" t="s">
-        <v>3179</v>
+      <c r="A1618" s="10" t="s">
+        <v>3180</v>
       </c>
     </row>
     <row r="1619" spans="1:1">
       <c r="A1619" s="7" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="1620" spans="1:1">
       <c r="A1620" s="7" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="1621" spans="1:1">
       <c r="A1621" s="7" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="1622" spans="1:1">
       <c r="A1622" s="7" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="1623" spans="1:1">
       <c r="A1623" s="7" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="1624" spans="1:1">
       <c r="A1624" s="7" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="1625" spans="1:1">
       <c r="A1625" s="7" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1626" spans="1:1">
       <c r="A1626" s="7" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1627" spans="1:1">
       <c r="A1627" s="7" t="s">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="1628" ht="33.6" spans="1:1">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:1">
       <c r="A1628" s="7" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="1629" spans="1:1">
       <c r="A1629" s="7" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:1">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="1630" ht="33.6" spans="1:1">
       <c r="A1630" s="7" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="1631" spans="1:1">
       <c r="A1631" s="7" t="s">
-        <v>3192</v>
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:1">
+      <c r="A1632" s="7" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1">
+      <c r="A1633" s="7" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="1634" ht="33.6" spans="1:1">
+      <c r="A1634" s="7" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="1635" ht="134.4" spans="1:2">
+      <c r="A1635" s="7" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B1635" s="7" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1">
+      <c r="A1636" s="7" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:1">
+      <c r="A1637" s="7" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:1">
+      <c r="A1638" s="7" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="1639" ht="50.4" spans="1:2">
+      <c r="A1639" s="11" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B1639" s="11"/>
+    </row>
+    <row r="1640" ht="67.2" spans="1:2">
+      <c r="A1640" s="11" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B1640" s="11" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="1641" ht="50.4" spans="1:2">
+      <c r="A1641" s="11" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B1641" s="11" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="1642" ht="33.6" spans="1:2">
+      <c r="A1642" s="11" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B1642" s="11" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:1">
+      <c r="A1643" s="7" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:1">
+      <c r="A1644" s="7" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:1">
+      <c r="A1645" s="7" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:1">
+      <c r="A1646" s="7" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:1">
+      <c r="A1647" s="7" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="1648" ht="84" spans="1:2">
+      <c r="A1648" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1648" s="7" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:1">
+      <c r="A1649" s="7" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:1">
+      <c r="A1650" s="7" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="1651" ht="33.6" spans="1:2">
+      <c r="A1651" s="7" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B1651" s="7" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:1">
+      <c r="A1652" s="7" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1653" ht="67.2" spans="1:2">
+      <c r="A1653" s="11" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B1653" s="11"/>
+    </row>
+    <row r="1654" spans="1:2">
+      <c r="A1654" s="11" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1654" s="11" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="1655" ht="33.6" spans="1:2">
+      <c r="A1655" s="11" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B1655" s="11" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2">
+      <c r="A1656" s="11" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B1656" s="11" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2">
+      <c r="A1657" s="11" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B1657" s="11" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="1658" ht="33.6" spans="1:2">
+      <c r="A1658" s="11" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B1658" s="11" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1659" ht="33.6" spans="1:2">
+      <c r="A1659" s="11" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1659" s="11" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="1660" ht="33.6" spans="1:2">
+      <c r="A1660" s="11" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B1660" s="11" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="1661" ht="33.6" spans="1:2">
+      <c r="A1661" s="11" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B1661" s="11" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2">
+      <c r="A1662" s="11" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B1662" s="11" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1663" ht="67.2" spans="1:2">
+      <c r="A1663" s="10" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B1663" s="10"/>
+    </row>
+    <row r="1664" spans="1:2">
+      <c r="A1664" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1664" s="10" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2">
+      <c r="A1665" s="10" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1665" s="10" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2">
+      <c r="A1666" s="10" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1666" s="10" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2">
+      <c r="A1667" s="10" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1667" s="10" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2">
+      <c r="A1668" s="10" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B1668" s="10" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1669" ht="33.6" spans="1:2">
+      <c r="A1669" s="10" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B1669" s="10" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="1670" ht="33.6" spans="1:2">
+      <c r="A1670" s="10" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B1670" s="10" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2">
+      <c r="A1671" s="10" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B1671" s="10" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2">
+      <c r="A1672" s="10" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B1672" s="10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2">
+      <c r="A1673" s="10" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B1673" s="10" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:1">
+      <c r="A1674" s="7" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2">
+      <c r="A1675" s="7" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B1675" s="7" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:1">
+      <c r="A1676" s="11" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:1">
+      <c r="A1677" s="11" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="1678" ht="33.6" spans="1:1">
+      <c r="A1678" s="11" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="1679" ht="33.6" spans="1:1">
+      <c r="A1679" s="11" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="1680" ht="33.6" spans="1:1">
+      <c r="A1680" s="11" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1">
+      <c r="A1681" s="7" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:1">
+      <c r="A1682" s="7" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1">
+      <c r="A1683" s="7" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:1">
+      <c r="A1684" s="7" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:1">
+      <c r="A1685" s="11" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1">
+      <c r="A1686" s="11" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:1">
+      <c r="A1687" s="11" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:1">
+      <c r="A1688" s="11" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:1">
+      <c r="A1689" s="11" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:1">
+      <c r="A1690" s="7" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1691" ht="100.8" spans="1:1">
+      <c r="A1691" s="7" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="1692" ht="33.6" spans="1:2">
+      <c r="A1692" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1692" s="7" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:1">
+      <c r="A1693" s="7" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2">
+      <c r="A1694" s="7" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B1694" s="7" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:1">
+      <c r="A1695" s="7" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1696" ht="33.6" spans="1:2">
+      <c r="A1696" s="7" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B1696" s="7" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:1">
+      <c r="A1697" s="7" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:1">
+      <c r="A1698" s="7" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2">
+      <c r="A1699" s="7" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1699" s="7" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="1700" ht="117.6" spans="1:2">
+      <c r="A1700" s="7" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B1700" s="7" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1">
+      <c r="A1701" s="7" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="1702" ht="33.6" spans="1:1">
+      <c r="A1702" s="7" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:1">
+      <c r="A1703" s="7" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1704" ht="134.4" spans="1:1">
+      <c r="A1704" s="7" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1">
+      <c r="A1705" s="7" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:1">
+      <c r="A1706" s="7" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="1707" ht="33.6" spans="1:1">
+      <c r="A1707" s="7" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:1">
+      <c r="A1708" s="11" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:1">
+      <c r="A1709" s="10" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="1710" ht="117.6" spans="1:2">
+      <c r="A1710" s="7" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B1710" s="7" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="1711" ht="100.8" spans="1:2">
+      <c r="A1711" s="11" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B1711" s="11"/>
+    </row>
+    <row r="1712" ht="33.6" spans="1:2">
+      <c r="A1712" s="11" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B1712" s="11" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="1713" ht="60" customHeight="1" spans="1:2">
+      <c r="A1713" s="11" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B1713" s="11" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="1714" ht="33.6" spans="1:2">
+      <c r="A1714" s="11" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B1714" s="11" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1715" ht="50.4" spans="1:2">
+      <c r="A1715" s="11" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B1715" s="11" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="1716" ht="84" spans="1:2">
+      <c r="A1716" s="11" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B1716" s="11" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="1717" ht="50.4" spans="1:2">
+      <c r="A1717" s="11" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B1717" s="11" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="1718" ht="33.6" spans="1:2">
+      <c r="A1718" s="11" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B1718" s="11" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:1">
+      <c r="A1719" s="7" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:1">
+      <c r="A1720" s="7" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="1721" ht="100.8" spans="1:2">
+      <c r="A1721" s="11" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B1721" s="11"/>
+    </row>
+    <row r="1722" ht="33.6" spans="1:2">
+      <c r="A1722" s="11" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B1722" s="11" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1723" ht="33.6" spans="1:2">
+      <c r="A1723" s="11" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1723" s="11" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2">
+      <c r="A1724" s="11" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B1724" s="11" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:1">
+      <c r="A1725" s="7" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:1">
+      <c r="A1726" s="7" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1727" ht="33.6" spans="1:2">
+      <c r="A1727" s="10" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1727" s="10"/>
+    </row>
+    <row r="1728" spans="1:2">
+      <c r="A1728" s="10" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B1728" s="10" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2">
+      <c r="A1729" s="10" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B1729" s="10" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2">
+      <c r="A1730" s="10" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B1730" s="10" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2">
+      <c r="A1731" s="10" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B1731" s="10" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1732" ht="50.4" spans="1:2">
+      <c r="A1732" s="10" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B1732" s="10" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1733" ht="33.6" spans="1:2">
+      <c r="A1733" s="10" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B1733" s="10" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1734" ht="33.6" spans="1:2">
+      <c r="A1734" s="11" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B1734" s="11"/>
+    </row>
+    <row r="1735" ht="50.4" spans="1:2">
+      <c r="A1735" s="11" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1735" s="11" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1736" ht="67.2" spans="1:2">
+      <c r="A1736" s="11" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1736" s="11" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1737" ht="50.4" spans="1:2">
+      <c r="A1737" s="11" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1737" s="11" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1738" ht="50.4" spans="1:2">
+      <c r="A1738" s="11" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1738" s="11" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1739" ht="67.2" spans="1:2">
+      <c r="A1739" s="11" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1739" s="11" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1740" ht="33.6" spans="1:1">
+      <c r="A1740" s="7" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1741" ht="100.8" spans="1:1">
+      <c r="A1741" s="7" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1742" ht="50.4" spans="1:1">
+      <c r="A1742" s="7" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1743" ht="33.6" spans="1:1">
+      <c r="A1743" s="7" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1744" ht="67.2" spans="1:1">
+      <c r="A1744" s="7" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:1">
+      <c r="A1745" s="7" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:1">
+      <c r="A1746" s="7" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:1">
+      <c r="A1747" s="7" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:1">
+      <c r="A1748" s="7" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:1">
+      <c r="A1749" s="7" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1750" ht="67.2" spans="1:2">
+      <c r="A1750" s="7" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1750" s="7" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1">
+      <c r="A1751" s="7" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1752" ht="33.6" spans="1:2">
+      <c r="A1752" s="11" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1752" s="11"/>
+    </row>
+    <row r="1753" ht="33.6" spans="1:2">
+      <c r="A1753" s="11" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B1753" s="11" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1754" ht="50.4" spans="1:2">
+      <c r="A1754" s="11" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1754" s="11" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1755" ht="50.4" spans="1:2">
+      <c r="A1755" s="11" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1755" s="11" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2">
+      <c r="A1756" s="11" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1756" s="11" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:1">
+      <c r="A1757" s="7" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:1">
+      <c r="A1758" s="7" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1759" ht="117.6" spans="1:2">
+      <c r="A1759" s="7" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1759" s="7" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1760" ht="151.2" spans="1:1">
+      <c r="A1760" s="7" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1">
+      <c r="A1761" s="7" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1">
+      <c r="A1762" s="11" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1763" ht="84" spans="1:1">
+      <c r="A1763" s="11" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="1764" ht="151.2" spans="1:1">
+      <c r="A1764" s="11" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1">
+      <c r="A1765" s="10" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1766" ht="67.2" spans="1:1">
+      <c r="A1766" s="10" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1767" ht="50.4" spans="1:1">
+      <c r="A1767" s="10" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1768" ht="50.4" spans="1:1">
+      <c r="A1768" s="10" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="1769" ht="67.2" spans="1:1">
+      <c r="A1769" s="10" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1770" ht="117.6" spans="1:1">
+      <c r="A1770" s="10" t="s">
+        <v>3386</v>
       </c>
     </row>
   </sheetData>
@@ -24014,292 +25495,292 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>3194</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>3195</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>3196</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>3197</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>3198</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>3199</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>3200</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>3201</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>3202</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>3203</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>3204</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>3205</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>3206</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>3207</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>3208</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>3209</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>3210</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="25" ht="28.8" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>3211</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>3212</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>3213</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>3214</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>3215</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>3216</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>3217</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>3218</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>3219</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="38" ht="115.2" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>3220</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>3221</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="42" ht="72" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>3222</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>3223</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>3224</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>3225</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>3226</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>3227</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>3228</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>3229</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>3230</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="55" ht="28.8" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>3231</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>3232</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>3233</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>3234</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>3235</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>3236</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>3237</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>3238</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>3193</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>3239</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="68" ht="43.2" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>3240</v>
+        <v>3434</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/05-词汇相关/BEC词汇随身记.xlsx
+++ b/BEC/05-词汇相关/BEC词汇随身记.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8926" uniqueCount="8838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9104" uniqueCount="9014">
   <si>
     <t>英语</t>
   </si>
@@ -331,7 +331,8 @@
   </si>
   <si>
     <t>外包服务
-outsource v.外包，把。。。外包</t>
+outsource v.外包，把。。。外包
+outsourcer n.外包商</t>
   </si>
   <si>
     <t>excessive competitive</t>
@@ -363,7 +364,8 @@
   </si>
   <si>
     <t>市场暴跌
-drastic adj.激烈的，猛烈的，彻底的</t>
+drastic adj.激烈的，猛烈的，彻底的
+drastic measure 重大举措，严厉的措施</t>
   </si>
   <si>
     <t>be in the doldrums</t>
@@ -606,7 +608,8 @@
     <t>share consolidation</t>
   </si>
   <si>
-    <t>股票合并</t>
+    <t>股票合并
+consolidation n.整合，巩固</t>
   </si>
   <si>
     <t>pattern attorney</t>
@@ -837,18 +840,6 @@
 appeal to 吸引</t>
   </si>
   <si>
-    <t>administration fee</t>
-  </si>
-  <si>
-    <t>手续费，管理费</t>
-  </si>
-  <si>
-    <t>administration staff</t>
-  </si>
-  <si>
-    <t>行政人员，行政管理人员</t>
-  </si>
-  <si>
     <t>refinance credits</t>
   </si>
   <si>
@@ -1069,6 +1060,18 @@
   </si>
   <si>
     <t>精明投资人</t>
+  </si>
+  <si>
+    <t>administration fee</t>
+  </si>
+  <si>
+    <t>手续费，管理费</t>
+  </si>
+  <si>
+    <t>administration staff</t>
+  </si>
+  <si>
+    <t>行政人员，行政管理人员</t>
   </si>
   <si>
     <t>qualified acceptance</t>
@@ -3165,7 +3168,8 @@
     <t>supply</t>
   </si>
   <si>
-    <t>n &amp; vt. &amp; vi. 供应，供给</t>
+    <t>n &amp; vt. &amp; vi. 供应，供给
+supply curves 供给曲线</t>
   </si>
   <si>
     <t>alternative energy</t>
@@ -3381,7 +3385,8 @@
     <t>buffet</t>
   </si>
   <si>
-    <t>自助餐</t>
+    <t>自助餐
+buffet party 自助宴会</t>
   </si>
   <si>
     <t>British Franchise Association</t>
@@ -12117,7 +12122,8 @@
     <t>overall benefit</t>
   </si>
   <si>
-    <t>综合效益</t>
+    <t>综合效益
+overall adj.全部的，全体的</t>
   </si>
   <si>
     <t>insight</t>
@@ -15871,7 +15877,8 @@
   <si>
     <t>n.处罚
 penalty charge 罚款
-penalty payment 违约款</t>
+penalty payment 违约款
+penalty clause 惩罚条款</t>
   </si>
   <si>
     <t>peril</t>
@@ -16407,7 +16414,9 @@
     <t>asset</t>
   </si>
   <si>
-    <t>n.优点，长处，有益的东西</t>
+    <t>n.优点，长处，有益的东西
+asset appraisal 资产评估
+asset turnover 资产周转期</t>
   </si>
   <si>
     <t>slot</t>
@@ -17614,7 +17623,8 @@
     <t>maximum value</t>
   </si>
   <si>
-    <t>最大值</t>
+    <t>最大值
+maximum n.最大限度</t>
   </si>
   <si>
     <t>groundwork</t>
@@ -17744,6 +17754,12 @@
   </si>
   <si>
     <t>履行，完成</t>
+  </si>
+  <si>
+    <t>lay out</t>
+  </si>
+  <si>
+    <t>布置，设计</t>
   </si>
   <si>
     <t>profoundly</t>
@@ -20442,7 +20458,8 @@
   </si>
   <si>
     <t>人力资源总监
-human resource manager 人力资源经理</t>
+human resource manager 人力资源经理
+human resources strategy 人力资源战略</t>
   </si>
   <si>
     <t>Technology Support Representatives</t>
@@ -22012,7 +22029,9 @@
     <t>up market</t>
   </si>
   <si>
-    <t>adj.高档的，为高档人群服务的</t>
+    <t>adj.高档的，为高档人群服务的
+= up-market
+down-market adj.低档的(商品)</t>
   </si>
   <si>
     <t>reclining seat</t>
@@ -22356,7 +22375,8 @@
     <t>farewell</t>
   </si>
   <si>
-    <t>n.辞别</t>
+    <t>n.辞别
+farewell party 送别会</t>
   </si>
   <si>
     <t>sampleing rate</t>
@@ -22405,7 +22425,8 @@
     <t>pre-tax</t>
   </si>
   <si>
-    <t>adj.未扣税的，税前的</t>
+    <t>adj.未扣税的，税前的
+pre-tax profit 税前利润</t>
   </si>
   <si>
     <t>suffice</t>
@@ -25391,6 +25412,12 @@
     <t>累计亏损</t>
   </si>
   <si>
+    <t>blue-chip stocks</t>
+  </si>
+  <si>
+    <t>蓝筹股</t>
+  </si>
+  <si>
     <t>blue chip client</t>
   </si>
   <si>
@@ -25995,9 +26022,6 @@
     <t>bule-chip stocks</t>
   </si>
   <si>
-    <t>蓝筹股</t>
-  </si>
-  <si>
     <t>buying power</t>
   </si>
   <si>
@@ -26152,12 +26176,6 @@
     <t>adj.抵挡的(商品)</t>
   </si>
   <si>
-    <t>up-market</t>
-  </si>
-  <si>
-    <t>adj.高档的，高端的</t>
-  </si>
-  <si>
     <t>adopt</t>
   </si>
   <si>
@@ -26206,6 +26224,18 @@
   <si>
     <t>小组面试
 = group interview</t>
+  </si>
+  <si>
+    <t>unstructured interview</t>
+  </si>
+  <si>
+    <t>非结构化面试</t>
+  </si>
+  <si>
+    <t>structured interview</t>
+  </si>
+  <si>
+    <t>结构化面试</t>
   </si>
   <si>
     <t>mass interview</t>
@@ -27065,6 +27095,556 @@
   </si>
   <si>
     <t>人才培训</t>
+  </si>
+  <si>
+    <t>high-flyer</t>
+  </si>
+  <si>
+    <t>n.潜力股，极具抱负的人</t>
+  </si>
+  <si>
+    <t>leadership development</t>
+  </si>
+  <si>
+    <t>领导力开发</t>
+  </si>
+  <si>
+    <t>flat organisation</t>
+  </si>
+  <si>
+    <t>扁平化组织</t>
+  </si>
+  <si>
+    <t>fall victim to</t>
+  </si>
+  <si>
+    <t>成为。。。的牺牲品</t>
+  </si>
+  <si>
+    <t>run deep</t>
+  </si>
+  <si>
+    <t>(根)扎的很深</t>
+  </si>
+  <si>
+    <t>inter-disciplinary talent</t>
+  </si>
+  <si>
+    <t>复合型人才</t>
+  </si>
+  <si>
+    <t>talent highland</t>
+  </si>
+  <si>
+    <t>人才高地</t>
+  </si>
+  <si>
+    <t>personnel selection</t>
+  </si>
+  <si>
+    <t>人才选拔</t>
+  </si>
+  <si>
+    <t>personnel policy</t>
+  </si>
+  <si>
+    <t>人才政策</t>
+  </si>
+  <si>
+    <t>overseas talents</t>
+  </si>
+  <si>
+    <t>海外人才</t>
+  </si>
+  <si>
+    <t>Unfortunately, with today's flat organisations, where managers have functional as well as managerial responsibilities, people development all too often falls victiom to heavy workloads.</t>
+  </si>
+  <si>
+    <t>遗憾的是，由于当今组织结构的扁平化，(直属)经理检具只能及管理的职责，员工的发展往往成为繁重工作的牺牲品。
+语言点：flat organisations 意为“扁平化的组织结构”。where 引导的是定语从句，修饰 organisations。fall victim to 意为“成为。。。的牺牲品”。</t>
+  </si>
+  <si>
+    <t>On manager in the research group was unconvinced by the logic of sending his best people away on development courses, 'only to see them poached by another department or, worse still, another firm'.</t>
+  </si>
+  <si>
+    <t>调查小组中的一个经理质疑把潜力股派送去学习开发课程的逻辑，因为它认为“这样做的结果就是看着这些员工被灵异部门，或更糟糕的是，被另一个公司挖走”。
+语言点：
+1.be unconvinced by sth. 意为“对某事不信服，质疑某事”。
+2.poach 意为“挖走(其他机构的成员或顾客)”，例如：
+That company's always poaching our staff. 那家公司老师挖我的员工。
+poach 有时也可以用作“poach from”，意为“从。。。挖走”，例如：
+Several of their managers were poached from other companies. 他们有几个经理是从其他公司挖过去的。</t>
+  </si>
+  <si>
+    <t>Indeed, in order to benefit fully from training high-flyers as the senior managers of the future, firms must actually address the development of all managers who will be supporting the high-flyers.</t>
+  </si>
+  <si>
+    <t>确实，要想充分从培养潜力股作为未来的高级经理中获益，公司就必须要切实解决所有支持潜力股的经理们的发展需求。
+语言点：benefit fully from... 意为“充分从。。。中获益”。address 意为“(着手)解决，处理(问题)”，常见的短语有 address a problem/question/issue, etc. 意为“解决问题”，例如：
+Our products address the problems of users.我们的产品解决了用户们的问题。</t>
+  </si>
+  <si>
+    <t>In markets that are static and where market shares of companies are reasonably steady, it can be difficult for a company to break into the market, since its presence may create excess capacity.</t>
+  </si>
+  <si>
+    <t>在稳定且各公司所占的市场份额也相对稳定的市场中，一个公司若想打入市场会很艰难，因为它的存在可能会造成生产能力过剩。
+语言点：
+that 和 where 引导的都是定语从句，修饰先行词 markets。其中 excess 为名词词性，常见短语为 in excess of，意为“超过。。。，超出。。。”，其动词和形容词形式分别为 exceed 和 excessive。</t>
+  </si>
+  <si>
+    <t>This may either be to gain the competitor's market share or, in some cases, to shut down its capacity in order to restore a situation where supply and demand are more balanced.</t>
+  </si>
+  <si>
+    <t>这样做要么是为了获得竞争对手的市场份额，要么在有些情况下停产是为了来重建收支更加平衡的环境。
+语言点：句中的 where 引导的是定语从句，修饰 situation，说明是什么样的环境。market share 意为“市场份额”。either...or...意为“要么。。。要么。。。”，与其形式相似的短语还有 neither...nor...，意为“既不。。。也不。。。”。</t>
+  </si>
+  <si>
+    <t>A cost efficiency could arise from the fact that an established company may already be very experienced and have achieved efficiencies which another company would find difficult to achieve quickly by internal means.</t>
+  </si>
+  <si>
+    <t>老牌公司也许已经很有经验，并且取得了功效，而另一家公司却很难通过内在手段迅速获得这些，这时就产生了成本效率的问题。
+语言点：which 引导的是定语从句，修饰先行词 efficiencies。其中 internal 意为“内在的，内部的”，与其对应的单词为external，意为“外部的”。established company 可以译为“老牌公司，老字号公司”。</t>
+  </si>
+  <si>
+    <t>follow the example of sb.</t>
+  </si>
+  <si>
+    <t>效仿某人</t>
+  </si>
+  <si>
+    <t>cocktail party</t>
+  </si>
+  <si>
+    <t>鸡尾酒会</t>
+  </si>
+  <si>
+    <t>welcome meeting</t>
+  </si>
+  <si>
+    <t>欢迎会</t>
+  </si>
+  <si>
+    <t>Although most managers would agree that it is hard to think of an alternative to meetings, as a means of considering information and making collective decisions, their length and frequency can cause problems with the workload of even the best-organised execcutives.</t>
+  </si>
+  <si>
+    <t>虽然大多数管理者都认为会议作为一种考虑信息和做出集体决定的方法，是难以取代的，但是会议的长度和频率可能会导致工作负荷问题，即使是那些训练有素的高管也承受不起。
+collective 意为“集体的，共同的”。常见短语有 collective leadership/decision-making/responsibility，意为“集体领导/集体决策/共同责任”。workload 意为“工作量，工作负担”，常见短语有 a heavy workload，此单词例句如下：
+We have taken on extra staff to cope with the increased workload.我们已经额外雇用员工来应付增加了的工作量。</t>
+  </si>
+  <si>
+    <t>This is also the responsibility of the person chairing the meeting, who should encourage those who say little to speak and stop those who have a great deal to say from talking too much.</t>
+  </si>
+  <si>
+    <t>这也是会议主持人必备的职责，此人需要鼓励那些发言较少的员工，还需要制止那些滔滔不绝的员工说太多话。
+语言点：
+1.chairing the meeting 是现在分词做定语，其实就是定语从句的省略，修饰 the person，表达的意思是“主持会议的人”; 而第一个 who 引导的是非限定性定语从句，修饰前面提到的人。第二个和第三个 who 引导的也是定语从句，合在一起为 and 连接的并列句，分别修饰两个相同的先行词 those，在句中充当主语。
+2.stop sb. from doing sth. 意为“阻止某人做某事”，在此处指“阻止那些滔滔不绝的人说太多话”。</t>
+  </si>
+  <si>
+    <t>Unfortunately, at the end of a badly organised meeting those present will leave feeling that they have wasted their time and that nothing worthwhile has been achieved.</t>
+  </si>
+  <si>
+    <t>遗憾的是，在一场组织得很糟糕的会议结束后，参会人员会在离开时感到这是在浪费他们的时间，而且此次会议并未取得任何有价值的成果。
+语言点：those present 意为“参会人员”，present 一词有三个词性：第一个是名词，意为“礼物”; 第二个是动词意为“呈现，提交”; 第三个是形容词，意为“当前的，出席的”。两个 that 位于 and 引导的并列句中，引导同位语从句，解释说明参会人员的感受(feeling)。</t>
+  </si>
+  <si>
+    <t>in-person</t>
+  </si>
+  <si>
+    <t>adj.亲生的，现场的</t>
+  </si>
+  <si>
+    <t>back-end</t>
+  </si>
+  <si>
+    <t>adj.后端的</t>
+  </si>
+  <si>
+    <t>e-commerce</t>
+  </si>
+  <si>
+    <t>n.电子商务</t>
+  </si>
+  <si>
+    <t>m-commerce</t>
+  </si>
+  <si>
+    <t>n.无线商务</t>
+  </si>
+  <si>
+    <t>e-billing</t>
+  </si>
+  <si>
+    <t>n.电子支票</t>
+  </si>
+  <si>
+    <t>e-logistics</t>
+  </si>
+  <si>
+    <t>n.电子物流</t>
+  </si>
+  <si>
+    <t>e-government</t>
+  </si>
+  <si>
+    <t>n.电子政务</t>
+  </si>
+  <si>
+    <t>end-user</t>
+  </si>
+  <si>
+    <t>n.终端用户</t>
+  </si>
+  <si>
+    <t>front-user</t>
+  </si>
+  <si>
+    <t>n.前端用户</t>
+  </si>
+  <si>
+    <t>Even more than regular telephone or in-person customers, web customers are impatient, easily frustrated and always conscious that they have other places where they can take their business.</t>
+  </si>
+  <si>
+    <t>甚至比起常规的电话顾客和面对面的顾客，网络顾客没什么耐心，也容易沮丧，而且他们总是觉得他们可以带着生意去别处。
+语言点：
+1.conscious 后 that 引导的从句在一些语法书里可以称作形容词宾语从句，但根据标准语法，只有介词和动词后才能接宾语，因此这样的从句也可以定义为原因状语从句，用来解释前面形容词的原因，这种形容词往往是表示人类的各种心情。
+2.where 引导的是定语从句，修饰前面的 places，意为“带着生意去别处”。</t>
+  </si>
+  <si>
+    <t>Imposing rigid requirements on customers will not work; a business that insists on customers emailing for assistance instead of using the phone, for example, will lose repeat custom.</t>
+  </si>
+  <si>
+    <t>把死板的要求强加在顾客身上是不起作用的。例如，一家公司坚持要求其客户在寻求帮助时不能打电话而只能发电子邮件，这将会使他们失去回头客。
+语言点：impose sth. on sb. 意为“将(想法、信仰等)强加于(某人)”。that 引导的是定语从句修饰先行词 business。repeat custom 意为“回头客”，其中 custom 的意思是“(经常性的)惠顾，光顾”。</t>
+  </si>
+  <si>
+    <t>address problem</t>
+  </si>
+  <si>
+    <t>解决问题</t>
+  </si>
+  <si>
+    <t>status report</t>
+  </si>
+  <si>
+    <t>现状报告</t>
+  </si>
+  <si>
+    <t>The client meeting can also be arranged by you or another member of your company to attract new business, to address a problem that needs to be solved or to give an update or status report on current business ventures.</t>
+  </si>
+  <si>
+    <t>你或者你公司的其他成员也可以召开客户会议来吸引新业务、解决需要解决的问题或者对当前企业进行更新或提供现状报告。
+语言点：that 引导的是定语从句，修饰先行词 problem，意为“需要被解决的问题”。status report 为固定搭配，意为“现状报告”。例如：
+The president wanted a status report on the development of the new software program.
+总裁想要一个关于新软件程序发展的现状报告。</t>
+  </si>
+  <si>
+    <t>flat screen</t>
+  </si>
+  <si>
+    <t>平面屏幕</t>
+  </si>
+  <si>
+    <t>bulk discount</t>
+  </si>
+  <si>
+    <t>大宗购买折扣</t>
+  </si>
+  <si>
+    <t>feasibility</t>
+  </si>
+  <si>
+    <t>n.可行性，合理性</t>
+  </si>
+  <si>
+    <t>elicit</t>
+  </si>
+  <si>
+    <t>v.引出，诱出</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>adj.惊人的</t>
+  </si>
+  <si>
+    <t>refinement</t>
+  </si>
+  <si>
+    <t>n.改造，改善</t>
+  </si>
+  <si>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>adj.适宜的，最佳的</t>
+  </si>
+  <si>
+    <t>follow suit</t>
+  </si>
+  <si>
+    <t>照着做</t>
+  </si>
+  <si>
+    <t>sympathetic</t>
+  </si>
+  <si>
+    <t>adj.同情的，共鸣的</t>
+  </si>
+  <si>
+    <t>job vacancy</t>
+  </si>
+  <si>
+    <t>labor contract</t>
+  </si>
+  <si>
+    <t>劳动合同</t>
+  </si>
+  <si>
+    <t>solely-owned enterprise</t>
+  </si>
+  <si>
+    <t>独资企业</t>
+  </si>
+  <si>
+    <t>Yet joint ventures bring potential troubles, and companies should be careful not to lose sight of the original rationate for outsourcing: to gain cost efficiencies and quality of service in an area that for some reason could not be carried out entirely in-house.</t>
+  </si>
+  <si>
+    <t>但是合资企业会带来潜在的问题，公司应该谨慎小心，不要忘记外包的最初理由：在某个领域达到降低成本和提高服务质量的目的，这个领域往往由于某个原因不能完全在公司内部进行。
+语言点：
+1.lose sight of 意为“忽略，看不见”，常见短语有 lose sight of fact 意为“忽视事实”。
+2.that 引导的是定语从句，修饰先行词 area，说明在什么样的领域。carry out 是常见短语，意为“执行，实行，贯彻”。in-house 此处的意思为“内部的”。</t>
+  </si>
+  <si>
+    <t>the bottom line</t>
+  </si>
+  <si>
+    <t>关键问题，决定性因素</t>
+  </si>
+  <si>
+    <t>headcount</t>
+  </si>
+  <si>
+    <t>n.总人数，职员总数</t>
+  </si>
+  <si>
+    <t>influential</t>
+  </si>
+  <si>
+    <t>adj.有影响力的</t>
+  </si>
+  <si>
+    <t>external environment</t>
+  </si>
+  <si>
+    <t>外部环境</t>
+  </si>
+  <si>
+    <t>corporate culture</t>
+  </si>
+  <si>
+    <t>企业文化</t>
+  </si>
+  <si>
+    <t>job specification</t>
+  </si>
+  <si>
+    <t>工作规范</t>
+  </si>
+  <si>
+    <t>For example, a chief executive will expert the HR department to advise on everything from the headcount to whether to proceed with an acquisition.</t>
+  </si>
+  <si>
+    <t>例如，高级执行人员希望人力资源部门事无巨细地提出建议，小到职员总数，大到公司是否要进行收购。
+语言点：advise on everything 最好翻译为“事无巨细地提出建议”，而 from...to...在句中意思是“从。。。到。。。的(提出建议)”。proceed 是动词，意为“进行，继续进行”，一般的搭配是 proceed with sth.或 proceed to do sth。
+例如：
+The government was determined to proceed with the election.政府决心继续进行选举。
+Sammy took off his coat and proceeded to undo his boots.Sammy 脱掉了外衣，接着又解开靴子。</t>
+  </si>
+  <si>
+    <t>Nothing happens in the company which isn't affected by or doesn't impact on its employees, so the HR department is a crucial part of any business.</t>
+  </si>
+  <si>
+    <t>一个不受员工影响，也不影响员工的公司是不会有所作为的，因此人力资源部门对任何企业都发挥着至关重要的作用。
+语言点：which 引导的是定语从句，修饰先行词 company。其中的 nothing happens in the company 翻译为“公司是不会有所作为的”最为通顺。</t>
+  </si>
+  <si>
+    <t>An informal survey of attitudes to HR departments that carried out last year by a leading business journal received comments such as 'What do they actually contribute?'</t>
+  </si>
+  <si>
+    <t>去年，一家前沿商务期刊开展了一项对人力资源部门态度的非正式调查，曾收到过这样的评论“他们到底对公司贡献了什么？”
+语言点：that 引导的是定语从句，修饰先行词 survey，说明是什么样的非正式调查。carry out 为固定搭配“执行，实行”。contribute 在阅读中很常见，名词形式为 contribution，常见短语为 make contribution to (为。。。做贡献)和 contribute to(有助于，促成)。</t>
+  </si>
+  <si>
+    <t>head for</t>
+  </si>
+  <si>
+    <t>面临，走向</t>
+  </si>
+  <si>
+    <t>incompetent</t>
+  </si>
+  <si>
+    <t>adj.不能胜任的</t>
+  </si>
+  <si>
+    <t>tackle</t>
+  </si>
+  <si>
+    <t>v.处理，解决</t>
+  </si>
+  <si>
+    <t>overtime fee</t>
+  </si>
+  <si>
+    <t>加班费</t>
+  </si>
+  <si>
+    <t>economic fluctuation</t>
+  </si>
+  <si>
+    <t>经济波动</t>
+  </si>
+  <si>
+    <t>economic balance</t>
+  </si>
+  <si>
+    <t>经济平衡</t>
+  </si>
+  <si>
+    <t>economic stability</t>
+  </si>
+  <si>
+    <t>经济稳定</t>
+  </si>
+  <si>
+    <t>economic policy</t>
+  </si>
+  <si>
+    <t>经济政策</t>
+  </si>
+  <si>
+    <t>economic trend</t>
+  </si>
+  <si>
+    <t>经济趋势</t>
+  </si>
+  <si>
+    <t>economic situation</t>
+  </si>
+  <si>
+    <t>经济形势</t>
+  </si>
+  <si>
+    <t>To get the buzz bacck and win the staff over, I had to prove my own commitment and put in the extra hours with them.</t>
+  </si>
+  <si>
+    <t>为了重新激发员工的活力、赢得他们的支持，我也必须要投入进来和他们一起加班。
+语言点：buzz 意为“活力”，win sb. over 意为“赢得某人的支持”，commitment 在阅读中出现的频率较高，它的意思有“承诺，保证; (人力、物力的)投入”等。</t>
+  </si>
+  <si>
+    <t>unaffected</t>
+  </si>
+  <si>
+    <t>adj.未受影响的</t>
+  </si>
+  <si>
+    <t>insurance premium</t>
+  </si>
+  <si>
+    <t>保险费</t>
+  </si>
+  <si>
+    <t>start-up expense</t>
+  </si>
+  <si>
+    <t>组建新公司的费用</t>
+  </si>
+  <si>
+    <t>selling expense</t>
+  </si>
+  <si>
+    <t>销售费用</t>
+  </si>
+  <si>
+    <t>administrative expense</t>
+  </si>
+  <si>
+    <t>管理费用</t>
+  </si>
+  <si>
+    <t>financial expense</t>
+  </si>
+  <si>
+    <t>财务费用</t>
+  </si>
+  <si>
+    <t>income tax</t>
+  </si>
+  <si>
+    <t>所得税</t>
+  </si>
+  <si>
+    <t>total profit</t>
+  </si>
+  <si>
+    <t>利润总额</t>
+  </si>
+  <si>
+    <t>profit in current year</t>
+  </si>
+  <si>
+    <t>本年利润</t>
+  </si>
+  <si>
+    <t>undistributed profit</t>
+  </si>
+  <si>
+    <t>未分配利润</t>
+  </si>
+  <si>
+    <t>reserved fund</t>
+  </si>
+  <si>
+    <t>储备基金</t>
+  </si>
+  <si>
+    <t>expansion fund</t>
+  </si>
+  <si>
+    <t>企业发展基金，扩张基金</t>
+  </si>
+  <si>
+    <t>Reporting a 38-per-cent jump in annual pre-tax profits, the company claimed that it had experienced none of the problems revealed last week by its rival.</t>
+  </si>
+  <si>
+    <t>这个公司公开报出睡前利润增长了38%，并宣布公司并么有经历其竞争对手Top Fit上星期所暴露的问题。
+语言点：that 引导的是宾语从句，做claimed的宾语。revealed by its rival 是过去分词做定语，修饰 problems，意思是“竞争对手所暴露的问题”。rival 有名词词性也有动词词性，在阅读中都很常见，常见的短语有rival company/firm/team，意为“竞争对手公司、竞争小组”。unrivalled为其形容词，意为“无以匹敌的”。</t>
+  </si>
+  <si>
+    <t>industry observer</t>
+  </si>
+  <si>
+    <t>行业观察家</t>
+  </si>
+  <si>
+    <t>trade expansion</t>
+  </si>
+  <si>
+    <t>贸易扩张</t>
+  </si>
+  <si>
+    <t>government bond</t>
+  </si>
+  <si>
+    <t>政府债券</t>
+  </si>
+  <si>
+    <t>scarce times</t>
+  </si>
+  <si>
+    <t>艰难时期，萧条时期</t>
   </si>
   <si>
     <t>考试攻略</t>
@@ -28289,12 +28869,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4528"/>
+  <dimension ref="A1:C4617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4519" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4530" sqref="B4530"/>
+      <selection pane="bottomLeft" activeCell="C515" sqref="C515:D515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -28704,7 +29284,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" ht="67.2" spans="1:2">
+    <row r="51" ht="100.8" spans="1:2">
       <c r="A51" s="7" t="s">
         <v>100</v>
       </c>
@@ -28744,7 +29324,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" ht="67.2" spans="1:2">
+    <row r="56" ht="117.6" spans="1:2">
       <c r="A56" s="7" t="s">
         <v>110</v>
       </c>
@@ -29056,7 +29636,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" ht="17.55" spans="1:2">
+    <row r="96" ht="51.15" spans="1:2">
       <c r="A96" s="7" t="s">
         <v>188</v>
       </c>
@@ -29384,7 +29964,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" ht="50.4" spans="1:2">
       <c r="A137" s="7" t="s">
         <v>270</v>
       </c>
@@ -29400,7 +29980,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" ht="50.4" spans="1:2">
+    <row r="139" spans="1:2">
       <c r="A139" s="7" t="s">
         <v>274</v>
       </c>
@@ -29408,7 +29988,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" ht="50.4" spans="1:2">
       <c r="A140" s="7" t="s">
         <v>276</v>
       </c>
@@ -29424,7 +30004,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" ht="50.4" spans="1:2">
+    <row r="142" spans="1:2">
       <c r="A142" s="7" t="s">
         <v>280</v>
       </c>
@@ -29448,7 +30028,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" ht="50.4" spans="1:2">
       <c r="A145" s="7" t="s">
         <v>286</v>
       </c>
@@ -29464,7 +30044,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" ht="50.4" spans="1:2">
+    <row r="147" spans="1:2">
       <c r="A147" s="7" t="s">
         <v>290</v>
       </c>
@@ -29480,7 +30060,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" ht="50.4" spans="1:2">
       <c r="A149" s="7" t="s">
         <v>294</v>
       </c>
@@ -29488,7 +30068,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" ht="84" spans="1:2">
       <c r="A150" s="7" t="s">
         <v>296</v>
       </c>
@@ -29496,7 +30076,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" ht="50.4" spans="1:2">
+    <row r="151" spans="1:2">
       <c r="A151" s="7" t="s">
         <v>298</v>
       </c>
@@ -29504,7 +30084,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" ht="84" spans="1:2">
+    <row r="152" spans="1:2">
       <c r="A152" s="7" t="s">
         <v>300</v>
       </c>
@@ -29528,7 +30108,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" ht="51.15" spans="1:2">
       <c r="A155" s="7" t="s">
         <v>306</v>
       </c>
@@ -29536,19 +30116,19 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" ht="17.55" spans="1:2">
       <c r="A156" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="157" ht="51.15" spans="1:2">
+    <row r="157" ht="17.55" spans="1:2">
       <c r="A157" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="9" t="s">
         <v>311</v>
       </c>
     </row>
@@ -29584,7 +30164,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" ht="17.55" spans="1:2">
+    <row r="162" ht="34.35" spans="1:2">
       <c r="A162" s="7" t="s">
         <v>320</v>
       </c>
@@ -29600,7 +30180,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" ht="34.35" spans="1:2">
+    <row r="164" ht="17.55" spans="1:2">
       <c r="A164" s="7" t="s">
         <v>324</v>
       </c>
@@ -29648,11 +30228,11 @@
         <v>335</v>
       </c>
     </row>
-    <row r="170" ht="17.55" spans="1:2">
+    <row r="170" spans="1:2">
       <c r="A170" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="7" t="s">
         <v>337</v>
       </c>
     </row>
@@ -29660,7 +30240,7 @@
       <c r="A171" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="7" t="s">
         <v>339</v>
       </c>
     </row>
@@ -32404,7 +32984,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" ht="50.4" spans="1:2">
       <c r="A515" s="7" t="s">
         <v>1024</v>
       </c>
@@ -32684,7 +33264,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" ht="50.4" spans="1:2">
       <c r="A550" s="7" t="s">
         <v>1093</v>
       </c>
@@ -44285,7 +44865,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="2067" spans="1:2">
+    <row r="2067" ht="50.4" spans="1:2">
       <c r="A2067" s="7" t="s">
         <v>3922</v>
       </c>
@@ -49138,7 +49718,7 @@
         <v>5123</v>
       </c>
     </row>
-    <row r="2680" ht="84" spans="1:2">
+    <row r="2680" ht="117.6" spans="1:2">
       <c r="A2680" s="7" t="s">
         <v>5124</v>
       </c>
@@ -49842,7 +50422,7 @@
         <v>5298</v>
       </c>
     </row>
-    <row r="2768" spans="1:2">
+    <row r="2768" ht="84" spans="1:2">
       <c r="A2768" s="7" t="s">
         <v>5299</v>
       </c>
@@ -51450,7 +52030,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="2969" spans="1:2">
+    <row r="2969" ht="50.4" spans="1:2">
       <c r="A2969" s="7" t="s">
         <v>5699</v>
       </c>
@@ -51642,7 +52222,7 @@
         <v>5746</v>
       </c>
     </row>
-    <row r="2993" ht="50.4" spans="1:2">
+    <row r="2993" spans="1:2">
       <c r="A2993" s="7" t="s">
         <v>5747</v>
       </c>
@@ -51650,7 +52230,7 @@
         <v>5748</v>
       </c>
     </row>
-    <row r="2994" spans="1:2">
+    <row r="2994" ht="50.4" spans="1:2">
       <c r="A2994" s="7" t="s">
         <v>5749</v>
       </c>
@@ -51658,7 +52238,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="2995" ht="33.6" spans="1:2">
+    <row r="2995" spans="1:2">
       <c r="A2995" s="7" t="s">
         <v>5751</v>
       </c>
@@ -51674,7 +52254,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="2997" spans="1:2">
+    <row r="2997" ht="33.6" spans="1:2">
       <c r="A2997" s="7" t="s">
         <v>5755</v>
       </c>
@@ -51754,7 +52334,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="3007" ht="33.6" spans="1:2">
+    <row r="3007" spans="1:2">
       <c r="A3007" s="7" t="s">
         <v>5775</v>
       </c>
@@ -51762,7 +52342,7 @@
         <v>5776</v>
       </c>
     </row>
-    <row r="3008" spans="1:2">
+    <row r="3008" ht="33.6" spans="1:2">
       <c r="A3008" s="7" t="s">
         <v>5777</v>
       </c>
@@ -51770,7 +52350,7 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="3009" ht="33.6" spans="1:2">
+    <row r="3009" spans="1:2">
       <c r="A3009" s="7" t="s">
         <v>5779</v>
       </c>
@@ -51778,7 +52358,7 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="3010" spans="1:2">
+    <row r="3010" ht="33.6" spans="1:2">
       <c r="A3010" s="7" t="s">
         <v>5781</v>
       </c>
@@ -51794,7 +52374,7 @@
         <v>5784</v>
       </c>
     </row>
-    <row r="3012" ht="50.4" spans="1:2">
+    <row r="3012" spans="1:2">
       <c r="A3012" s="7" t="s">
         <v>5785</v>
       </c>
@@ -51802,7 +52382,7 @@
         <v>5786</v>
       </c>
     </row>
-    <row r="3013" ht="33.6" spans="1:2">
+    <row r="3013" ht="50.4" spans="1:2">
       <c r="A3013" s="7" t="s">
         <v>5787</v>
       </c>
@@ -51810,7 +52390,7 @@
         <v>5788</v>
       </c>
     </row>
-    <row r="3014" spans="1:2">
+    <row r="3014" ht="33.6" spans="1:2">
       <c r="A3014" s="7" t="s">
         <v>5789</v>
       </c>
@@ -51826,7 +52406,7 @@
         <v>5792</v>
       </c>
     </row>
-    <row r="3016" ht="50.4" spans="1:2">
+    <row r="3016" spans="1:2">
       <c r="A3016" s="7" t="s">
         <v>5793</v>
       </c>
@@ -51842,7 +52422,7 @@
         <v>5796</v>
       </c>
     </row>
-    <row r="3018" spans="1:2">
+    <row r="3018" ht="50.4" spans="1:2">
       <c r="A3018" s="7" t="s">
         <v>5797</v>
       </c>
@@ -51850,7 +52430,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="3019" ht="33.6" spans="1:2">
+    <row r="3019" spans="1:2">
       <c r="A3019" s="7" t="s">
         <v>5799</v>
       </c>
@@ -51858,7 +52438,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="3020" spans="1:2">
+    <row r="3020" ht="33.6" spans="1:2">
       <c r="A3020" s="7" t="s">
         <v>5801</v>
       </c>
@@ -51874,7 +52454,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="3022" ht="33.6" spans="1:2">
+    <row r="3022" spans="1:2">
       <c r="A3022" s="7" t="s">
         <v>5805</v>
       </c>
@@ -51882,7 +52462,7 @@
         <v>5806</v>
       </c>
     </row>
-    <row r="3023" spans="1:2">
+    <row r="3023" ht="33.6" spans="1:2">
       <c r="A3023" s="7" t="s">
         <v>5807</v>
       </c>
@@ -51935,15 +52515,15 @@
         <v>5819</v>
       </c>
       <c r="B3029" s="7" t="s">
-        <v>5772</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="3030" spans="1:2">
       <c r="A3030" s="7" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="B3030" s="7" t="s">
-        <v>5821</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="3031" spans="1:2">
@@ -52010,20 +52590,20 @@
         <v>5837</v>
       </c>
     </row>
-    <row r="3039" ht="33.6" spans="1:2">
+    <row r="3039" spans="1:2">
       <c r="A3039" s="7" t="s">
         <v>5838</v>
       </c>
       <c r="B3039" s="7" t="s">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="3040" ht="33.6" spans="1:2">
+      <c r="A3040" s="7" t="s">
+        <v>5840</v>
+      </c>
+      <c r="B3040" s="7" t="s">
         <v>4481</v>
-      </c>
-    </row>
-    <row r="3040" spans="1:2">
-      <c r="A3040" s="7" t="s">
-        <v>5839</v>
-      </c>
-      <c r="B3040" s="7" t="s">
-        <v>5840</v>
       </c>
     </row>
     <row r="3041" spans="1:2">
@@ -52218,7 +52798,7 @@
         <v>5888</v>
       </c>
     </row>
-    <row r="3065" ht="33.6" spans="1:2">
+    <row r="3065" spans="1:2">
       <c r="A3065" s="7" t="s">
         <v>5889</v>
       </c>
@@ -52226,7 +52806,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="3066" spans="1:2">
+    <row r="3066" ht="33.6" spans="1:2">
       <c r="A3066" s="7" t="s">
         <v>5891</v>
       </c>
@@ -52258,7 +52838,7 @@
         <v>5898</v>
       </c>
     </row>
-    <row r="3070" ht="33.6" spans="1:2">
+    <row r="3070" spans="1:2">
       <c r="A3070" s="7" t="s">
         <v>5899</v>
       </c>
@@ -52266,7 +52846,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="3071" spans="1:2">
+    <row r="3071" ht="33.6" spans="1:2">
       <c r="A3071" s="7" t="s">
         <v>5901</v>
       </c>
@@ -52282,7 +52862,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="3073" ht="50.4" spans="1:2">
+    <row r="3073" spans="1:2">
       <c r="A3073" s="7" t="s">
         <v>5905</v>
       </c>
@@ -52290,7 +52870,7 @@
         <v>5906</v>
       </c>
     </row>
-    <row r="3074" spans="1:2">
+    <row r="3074" ht="50.4" spans="1:2">
       <c r="A3074" s="7" t="s">
         <v>5907</v>
       </c>
@@ -52298,7 +52878,7 @@
         <v>5908</v>
       </c>
     </row>
-    <row r="3075" ht="33.6" spans="1:2">
+    <row r="3075" spans="1:2">
       <c r="A3075" s="7" t="s">
         <v>5909</v>
       </c>
@@ -52306,7 +52886,7 @@
         <v>5910</v>
       </c>
     </row>
-    <row r="3076" spans="1:2">
+    <row r="3076" ht="33.6" spans="1:2">
       <c r="A3076" s="7" t="s">
         <v>5911</v>
       </c>
@@ -52402,7 +52982,7 @@
         <v>5934</v>
       </c>
     </row>
-    <row r="3088" ht="33.6" spans="1:2">
+    <row r="3088" spans="1:2">
       <c r="A3088" s="7" t="s">
         <v>5935</v>
       </c>
@@ -52410,7 +52990,7 @@
         <v>5936</v>
       </c>
     </row>
-    <row r="3089" spans="1:2">
+    <row r="3089" ht="33.6" spans="1:2">
       <c r="A3089" s="7" t="s">
         <v>5937</v>
       </c>
@@ -52426,7 +53006,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="3091" ht="50.4" spans="1:2">
+    <row r="3091" spans="1:2">
       <c r="A3091" s="7" t="s">
         <v>5941</v>
       </c>
@@ -52434,7 +53014,7 @@
         <v>5942</v>
       </c>
     </row>
-    <row r="3092" spans="1:2">
+    <row r="3092" ht="50.4" spans="1:2">
       <c r="A3092" s="7" t="s">
         <v>5943</v>
       </c>
@@ -52450,7 +53030,7 @@
         <v>5946</v>
       </c>
     </row>
-    <row r="3094" ht="33.6" spans="1:2">
+    <row r="3094" spans="1:2">
       <c r="A3094" s="7" t="s">
         <v>5947</v>
       </c>
@@ -52458,7 +53038,7 @@
         <v>5948</v>
       </c>
     </row>
-    <row r="3095" spans="1:2">
+    <row r="3095" ht="33.6" spans="1:2">
       <c r="A3095" s="7" t="s">
         <v>5949</v>
       </c>
@@ -52546,7 +53126,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="3106" ht="50.4" spans="1:2">
+    <row r="3106" spans="1:2">
       <c r="A3106" s="7" t="s">
         <v>5971</v>
       </c>
@@ -52562,7 +53142,7 @@
         <v>5974</v>
       </c>
     </row>
-    <row r="3108" spans="1:2">
+    <row r="3108" ht="50.4" spans="1:2">
       <c r="A3108" s="7" t="s">
         <v>5975</v>
       </c>
@@ -52578,7 +53158,7 @@
         <v>5978</v>
       </c>
     </row>
-    <row r="3110" ht="100.8" spans="1:2">
+    <row r="3110" spans="1:2">
       <c r="A3110" s="7" t="s">
         <v>5979</v>
       </c>
@@ -52586,7 +53166,7 @@
         <v>5980</v>
       </c>
     </row>
-    <row r="3111" ht="33.6" spans="1:2">
+    <row r="3111" ht="100.8" spans="1:2">
       <c r="A3111" s="7" t="s">
         <v>5981</v>
       </c>
@@ -52594,7 +53174,7 @@
         <v>5982</v>
       </c>
     </row>
-    <row r="3112" spans="1:2">
+    <row r="3112" ht="33.6" spans="1:2">
       <c r="A3112" s="7" t="s">
         <v>5983</v>
       </c>
@@ -52610,7 +53190,7 @@
         <v>5986</v>
       </c>
     </row>
-    <row r="3114" ht="50.4" spans="1:2">
+    <row r="3114" spans="1:2">
       <c r="A3114" s="7" t="s">
         <v>5987</v>
       </c>
@@ -52618,7 +53198,7 @@
         <v>5988</v>
       </c>
     </row>
-    <row r="3115" spans="1:2">
+    <row r="3115" ht="50.4" spans="1:2">
       <c r="A3115" s="7" t="s">
         <v>5989</v>
       </c>
@@ -52634,7 +53214,7 @@
         <v>5992</v>
       </c>
     </row>
-    <row r="3117" ht="50.4" spans="1:2">
+    <row r="3117" spans="1:2">
       <c r="A3117" s="7" t="s">
         <v>5993</v>
       </c>
@@ -52642,7 +53222,7 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="3118" ht="33.6" spans="1:2">
+    <row r="3118" ht="50.4" spans="1:2">
       <c r="A3118" s="7" t="s">
         <v>5995</v>
       </c>
@@ -52650,7 +53230,7 @@
         <v>5996</v>
       </c>
     </row>
-    <row r="3119" spans="1:2">
+    <row r="3119" ht="33.6" spans="1:2">
       <c r="A3119" s="7" t="s">
         <v>5997</v>
       </c>
@@ -52658,7 +53238,7 @@
         <v>5998</v>
       </c>
     </row>
-    <row r="3120" ht="33.6" spans="1:2">
+    <row r="3120" spans="1:2">
       <c r="A3120" s="7" t="s">
         <v>5999</v>
       </c>
@@ -52666,7 +53246,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="3121" spans="1:2">
+    <row r="3121" ht="33.6" spans="1:2">
       <c r="A3121" s="7" t="s">
         <v>6001</v>
       </c>
@@ -52698,7 +53278,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="3125" ht="33.6" spans="1:2">
+    <row r="3125" spans="1:2">
       <c r="A3125" s="7" t="s">
         <v>6009</v>
       </c>
@@ -52706,7 +53286,7 @@
         <v>6010</v>
       </c>
     </row>
-    <row r="3126" spans="1:2">
+    <row r="3126" ht="33.6" spans="1:2">
       <c r="A3126" s="7" t="s">
         <v>6011</v>
       </c>
@@ -52730,7 +53310,7 @@
         <v>6016</v>
       </c>
     </row>
-    <row r="3129" ht="56" customHeight="1" spans="1:2">
+    <row r="3129" spans="1:2">
       <c r="A3129" s="7" t="s">
         <v>6017</v>
       </c>
@@ -52738,7 +53318,7 @@
         <v>6018</v>
       </c>
     </row>
-    <row r="3130" spans="1:2">
+    <row r="3130" ht="56" customHeight="1" spans="1:2">
       <c r="A3130" s="7" t="s">
         <v>6019</v>
       </c>
@@ -52754,7 +53334,7 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="3132" ht="33.6" spans="1:2">
+    <row r="3132" spans="1:2">
       <c r="A3132" s="7" t="s">
         <v>6023</v>
       </c>
@@ -52762,7 +53342,7 @@
         <v>6024</v>
       </c>
     </row>
-    <row r="3133" spans="1:2">
+    <row r="3133" ht="33.6" spans="1:2">
       <c r="A3133" s="7" t="s">
         <v>6025</v>
       </c>
@@ -52778,7 +53358,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="3135" ht="50.4" spans="1:2">
+    <row r="3135" spans="1:2">
       <c r="A3135" s="7" t="s">
         <v>6029</v>
       </c>
@@ -52786,7 +53366,7 @@
         <v>6030</v>
       </c>
     </row>
-    <row r="3136" spans="1:2">
+    <row r="3136" ht="50.4" spans="1:2">
       <c r="A3136" s="7" t="s">
         <v>6031</v>
       </c>
@@ -52810,7 +53390,7 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="3139" ht="33.6" spans="1:2">
+    <row r="3139" spans="1:2">
       <c r="A3139" s="7" t="s">
         <v>6037</v>
       </c>
@@ -52818,7 +53398,7 @@
         <v>6038</v>
       </c>
     </row>
-    <row r="3140" spans="1:2">
+    <row r="3140" ht="33.6" spans="1:2">
       <c r="A3140" s="7" t="s">
         <v>6039</v>
       </c>
@@ -52834,7 +53414,7 @@
         <v>6042</v>
       </c>
     </row>
-    <row r="3142" ht="50.4" spans="1:2">
+    <row r="3142" spans="1:2">
       <c r="A3142" s="7" t="s">
         <v>6043</v>
       </c>
@@ -52842,7 +53422,7 @@
         <v>6044</v>
       </c>
     </row>
-    <row r="3143" spans="1:2">
+    <row r="3143" ht="50.4" spans="1:2">
       <c r="A3143" s="7" t="s">
         <v>6045</v>
       </c>
@@ -52858,7 +53438,7 @@
         <v>6048</v>
       </c>
     </row>
-    <row r="3145" ht="33.6" spans="1:2">
+    <row r="3145" spans="1:2">
       <c r="A3145" s="7" t="s">
         <v>6049</v>
       </c>
@@ -52866,7 +53446,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="3146" spans="1:2">
+    <row r="3146" ht="33.6" spans="1:2">
       <c r="A3146" s="7" t="s">
         <v>6051</v>
       </c>
@@ -52874,7 +53454,7 @@
         <v>6052</v>
       </c>
     </row>
-    <row r="3147" ht="33.6" spans="1:2">
+    <row r="3147" spans="1:2">
       <c r="A3147" s="7" t="s">
         <v>6053</v>
       </c>
@@ -52882,7 +53462,7 @@
         <v>6054</v>
       </c>
     </row>
-    <row r="3148" spans="1:2">
+    <row r="3148" ht="33.6" spans="1:2">
       <c r="A3148" s="7" t="s">
         <v>6055</v>
       </c>
@@ -52906,7 +53486,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="3151" ht="33.6" spans="1:2">
+    <row r="3151" spans="1:2">
       <c r="A3151" s="7" t="s">
         <v>6061</v>
       </c>
@@ -52914,7 +53494,7 @@
         <v>6062</v>
       </c>
     </row>
-    <row r="3152" spans="1:2">
+    <row r="3152" ht="33.6" spans="1:2">
       <c r="A3152" s="7" t="s">
         <v>6063</v>
       </c>
@@ -52970,7 +53550,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="3159" ht="33.6" spans="1:2">
+    <row r="3159" spans="1:2">
       <c r="A3159" s="7" t="s">
         <v>6077</v>
       </c>
@@ -52978,7 +53558,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="3160" spans="1:2">
+    <row r="3160" ht="33.6" spans="1:2">
       <c r="A3160" s="7" t="s">
         <v>6079</v>
       </c>
@@ -53026,7 +53606,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="3166" ht="33.6" spans="1:2">
+    <row r="3166" spans="1:2">
       <c r="A3166" s="7" t="s">
         <v>6091</v>
       </c>
@@ -53034,7 +53614,7 @@
         <v>6092</v>
       </c>
     </row>
-    <row r="3167" spans="1:2">
+    <row r="3167" ht="33.6" spans="1:2">
       <c r="A3167" s="7" t="s">
         <v>6093</v>
       </c>
@@ -53058,7 +53638,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="3170" ht="33.6" spans="1:2">
+    <row r="3170" spans="1:2">
       <c r="A3170" s="7" t="s">
         <v>6099</v>
       </c>
@@ -53082,7 +53662,7 @@
         <v>6104</v>
       </c>
     </row>
-    <row r="3173" ht="67.2" spans="1:2">
+    <row r="3173" ht="33.6" spans="1:2">
       <c r="A3173" s="7" t="s">
         <v>6105</v>
       </c>
@@ -53090,7 +53670,7 @@
         <v>6106</v>
       </c>
     </row>
-    <row r="3174" spans="1:2">
+    <row r="3174" ht="67.2" spans="1:2">
       <c r="A3174" s="7" t="s">
         <v>6107</v>
       </c>
@@ -53218,7 +53798,7 @@
         <v>6138</v>
       </c>
     </row>
-    <row r="3190" ht="33.6" spans="1:2">
+    <row r="3190" spans="1:2">
       <c r="A3190" s="7" t="s">
         <v>6139</v>
       </c>
@@ -53226,7 +53806,7 @@
         <v>6140</v>
       </c>
     </row>
-    <row r="3191" spans="1:2">
+    <row r="3191" ht="33.6" spans="1:2">
       <c r="A3191" s="7" t="s">
         <v>6141</v>
       </c>
@@ -53290,7 +53870,7 @@
         <v>6156</v>
       </c>
     </row>
-    <row r="3199" ht="67.2" spans="1:2">
+    <row r="3199" spans="1:2">
       <c r="A3199" s="7" t="s">
         <v>6157</v>
       </c>
@@ -53298,7 +53878,7 @@
         <v>6158</v>
       </c>
     </row>
-    <row r="3200" spans="1:2">
+    <row r="3200" ht="67.2" spans="1:2">
       <c r="A3200" s="7" t="s">
         <v>6159</v>
       </c>
@@ -53306,7 +53886,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="3201" ht="33.6" spans="1:2">
+    <row r="3201" spans="1:2">
       <c r="A3201" s="7" t="s">
         <v>6161</v>
       </c>
@@ -53314,7 +53894,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="3202" spans="1:2">
+    <row r="3202" ht="33.6" spans="1:2">
       <c r="A3202" s="7" t="s">
         <v>6163</v>
       </c>
@@ -53330,7 +53910,7 @@
         <v>6166</v>
       </c>
     </row>
-    <row r="3204" ht="50.4" spans="1:2">
+    <row r="3204" spans="1:2">
       <c r="A3204" s="7" t="s">
         <v>6167</v>
       </c>
@@ -53338,7 +53918,7 @@
         <v>6168</v>
       </c>
     </row>
-    <row r="3205" spans="1:2">
+    <row r="3205" ht="50.4" spans="1:2">
       <c r="A3205" s="7" t="s">
         <v>6169</v>
       </c>
@@ -53402,7 +53982,7 @@
         <v>6184</v>
       </c>
     </row>
-    <row r="3213" ht="33.6" spans="1:2">
+    <row r="3213" spans="1:2">
       <c r="A3213" s="7" t="s">
         <v>6185</v>
       </c>
@@ -53418,7 +53998,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="3215" spans="1:2">
+    <row r="3215" ht="33.6" spans="1:2">
       <c r="A3215" s="7" t="s">
         <v>6189</v>
       </c>
@@ -53466,7 +54046,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="3221" ht="33.6" spans="1:2">
+    <row r="3221" spans="1:2">
       <c r="A3221" s="7" t="s">
         <v>6201</v>
       </c>
@@ -53490,7 +54070,7 @@
         <v>6206</v>
       </c>
     </row>
-    <row r="3224" spans="1:2">
+    <row r="3224" ht="33.6" spans="1:2">
       <c r="A3224" s="7" t="s">
         <v>6207</v>
       </c>
@@ -53506,7 +54086,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="3226" ht="33.6" spans="1:2">
+    <row r="3226" spans="1:2">
       <c r="A3226" s="7" t="s">
         <v>6211</v>
       </c>
@@ -53514,7 +54094,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="3227" spans="1:2">
+    <row r="3227" ht="33.6" spans="1:2">
       <c r="A3227" s="7" t="s">
         <v>6213</v>
       </c>
@@ -53522,7 +54102,7 @@
         <v>6214</v>
       </c>
     </row>
-    <row r="3228" ht="33.6" spans="1:2">
+    <row r="3228" spans="1:2">
       <c r="A3228" s="7" t="s">
         <v>6215</v>
       </c>
@@ -53530,7 +54110,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="3229" spans="1:2">
+    <row r="3229" ht="33.6" spans="1:2">
       <c r="A3229" s="7" t="s">
         <v>6217</v>
       </c>
@@ -53634,7 +54214,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="3242" ht="33.6" spans="1:2">
+    <row r="3242" spans="1:2">
       <c r="A3242" s="7" t="s">
         <v>6243</v>
       </c>
@@ -53642,7 +54222,7 @@
         <v>6244</v>
       </c>
     </row>
-    <row r="3243" spans="1:2">
+    <row r="3243" ht="33.6" spans="1:2">
       <c r="A3243" s="7" t="s">
         <v>6245</v>
       </c>
@@ -53650,7 +54230,7 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="3244" ht="33.6" spans="1:2">
+    <row r="3244" spans="1:2">
       <c r="A3244" s="7" t="s">
         <v>6247</v>
       </c>
@@ -53658,7 +54238,7 @@
         <v>6248</v>
       </c>
     </row>
-    <row r="3245" spans="1:2">
+    <row r="3245" ht="33.6" spans="1:2">
       <c r="A3245" s="7" t="s">
         <v>6249</v>
       </c>
@@ -53674,7 +54254,7 @@
         <v>6252</v>
       </c>
     </row>
-    <row r="3247" ht="50.4" spans="1:2">
+    <row r="3247" spans="1:2">
       <c r="A3247" s="7" t="s">
         <v>6253</v>
       </c>
@@ -53682,7 +54262,7 @@
         <v>6254</v>
       </c>
     </row>
-    <row r="3248" spans="1:2">
+    <row r="3248" ht="50.4" spans="1:2">
       <c r="A3248" s="7" t="s">
         <v>6255</v>
       </c>
@@ -53754,7 +54334,7 @@
         <v>6272</v>
       </c>
     </row>
-    <row r="3257" ht="33.6" spans="1:2">
+    <row r="3257" spans="1:2">
       <c r="A3257" s="7" t="s">
         <v>6273</v>
       </c>
@@ -53762,7 +54342,7 @@
         <v>6274</v>
       </c>
     </row>
-    <row r="3258" spans="1:2">
+    <row r="3258" ht="33.6" spans="1:2">
       <c r="A3258" s="7" t="s">
         <v>6275</v>
       </c>
@@ -53770,7 +54350,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row r="3259" ht="33.6" spans="1:2">
+    <row r="3259" spans="1:2">
       <c r="A3259" s="7" t="s">
         <v>6277</v>
       </c>
@@ -53778,7 +54358,7 @@
         <v>6278</v>
       </c>
     </row>
-    <row r="3260" spans="1:2">
+    <row r="3260" ht="33.6" spans="1:2">
       <c r="A3260" s="7" t="s">
         <v>6279</v>
       </c>
@@ -53794,7 +54374,7 @@
         <v>6282</v>
       </c>
     </row>
-    <row r="3262" ht="33.6" spans="1:2">
+    <row r="3262" spans="1:2">
       <c r="A3262" s="7" t="s">
         <v>6283</v>
       </c>
@@ -53802,7 +54382,7 @@
         <v>6284</v>
       </c>
     </row>
-    <row r="3263" spans="1:2">
+    <row r="3263" ht="33.6" spans="1:2">
       <c r="A3263" s="7" t="s">
         <v>6285</v>
       </c>
@@ -53812,15 +54392,15 @@
     </row>
     <row r="3264" spans="1:2">
       <c r="A3264" s="7" t="s">
-        <v>5575</v>
+        <v>6287</v>
       </c>
       <c r="B3264" s="7" t="s">
-        <v>6287</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="3265" spans="1:2">
       <c r="A3265" s="7" t="s">
-        <v>6288</v>
+        <v>5575</v>
       </c>
       <c r="B3265" s="7" t="s">
         <v>6289</v>
@@ -53858,7 +54438,7 @@
         <v>6297</v>
       </c>
     </row>
-    <row r="3270" ht="33.6" spans="1:2">
+    <row r="3270" spans="1:2">
       <c r="A3270" s="7" t="s">
         <v>6298</v>
       </c>
@@ -53866,7 +54446,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="3271" spans="1:2">
+    <row r="3271" ht="33.6" spans="1:2">
       <c r="A3271" s="7" t="s">
         <v>6300</v>
       </c>
@@ -53970,7 +54550,7 @@
         <v>6325</v>
       </c>
     </row>
-    <row r="3284" ht="33.6" spans="1:2">
+    <row r="3284" spans="1:2">
       <c r="A3284" s="7" t="s">
         <v>6326</v>
       </c>
@@ -53978,7 +54558,7 @@
         <v>6327</v>
       </c>
     </row>
-    <row r="3285" spans="1:2">
+    <row r="3285" ht="33.6" spans="1:2">
       <c r="A3285" s="7" t="s">
         <v>6328</v>
       </c>
@@ -54034,7 +54614,7 @@
         <v>6341</v>
       </c>
     </row>
-    <row r="3292" ht="33.6" spans="1:2">
+    <row r="3292" spans="1:2">
       <c r="A3292" s="7" t="s">
         <v>6342</v>
       </c>
@@ -54042,7 +54622,7 @@
         <v>6343</v>
       </c>
     </row>
-    <row r="3293" spans="1:2">
+    <row r="3293" ht="33.6" spans="1:2">
       <c r="A3293" s="7" t="s">
         <v>6344</v>
       </c>
@@ -54066,7 +54646,7 @@
         <v>6349</v>
       </c>
     </row>
-    <row r="3296" ht="33.6" spans="1:2">
+    <row r="3296" spans="1:2">
       <c r="A3296" s="7" t="s">
         <v>6350</v>
       </c>
@@ -54074,7 +54654,7 @@
         <v>6351</v>
       </c>
     </row>
-    <row r="3297" spans="1:2">
+    <row r="3297" ht="33.6" spans="1:2">
       <c r="A3297" s="7" t="s">
         <v>6352</v>
       </c>
@@ -54114,7 +54694,7 @@
         <v>6361</v>
       </c>
     </row>
-    <row r="3302" ht="33.6" spans="1:2">
+    <row r="3302" spans="1:2">
       <c r="A3302" s="7" t="s">
         <v>6362</v>
       </c>
@@ -54122,7 +54702,7 @@
         <v>6363</v>
       </c>
     </row>
-    <row r="3303" spans="1:2">
+    <row r="3303" ht="33.6" spans="1:2">
       <c r="A3303" s="7" t="s">
         <v>6364</v>
       </c>
@@ -54138,7 +54718,7 @@
         <v>6367</v>
       </c>
     </row>
-    <row r="3305" ht="67.2" spans="1:2">
+    <row r="3305" spans="1:2">
       <c r="A3305" s="7" t="s">
         <v>6368</v>
       </c>
@@ -54146,7 +54726,7 @@
         <v>6369</v>
       </c>
     </row>
-    <row r="3306" ht="50.4" spans="1:2">
+    <row r="3306" ht="67.2" spans="1:2">
       <c r="A3306" s="7" t="s">
         <v>6370</v>
       </c>
@@ -54154,7 +54734,7 @@
         <v>6371</v>
       </c>
     </row>
-    <row r="3307" spans="1:2">
+    <row r="3307" ht="50.4" spans="1:2">
       <c r="A3307" s="7" t="s">
         <v>6372</v>
       </c>
@@ -54242,7 +54822,7 @@
         <v>6393</v>
       </c>
     </row>
-    <row r="3318" ht="33.6" spans="1:2">
+    <row r="3318" spans="1:2">
       <c r="A3318" s="7" t="s">
         <v>6394</v>
       </c>
@@ -54250,7 +54830,7 @@
         <v>6395</v>
       </c>
     </row>
-    <row r="3319" spans="1:2">
+    <row r="3319" ht="33.6" spans="1:2">
       <c r="A3319" s="7" t="s">
         <v>6396</v>
       </c>
@@ -54282,7 +54862,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="3323" ht="33.6" spans="1:2">
+    <row r="3323" spans="1:2">
       <c r="A3323" s="7" t="s">
         <v>6404</v>
       </c>
@@ -54290,7 +54870,7 @@
         <v>6405</v>
       </c>
     </row>
-    <row r="3324" spans="1:2">
+    <row r="3324" ht="33.6" spans="1:2">
       <c r="A3324" s="7" t="s">
         <v>6406</v>
       </c>
@@ -54306,7 +54886,7 @@
         <v>6409</v>
       </c>
     </row>
-    <row r="3326" ht="33.6" spans="1:2">
+    <row r="3326" spans="1:2">
       <c r="A3326" s="7" t="s">
         <v>6410</v>
       </c>
@@ -54314,7 +54894,7 @@
         <v>6411</v>
       </c>
     </row>
-    <row r="3327" spans="1:2">
+    <row r="3327" ht="33.6" spans="1:2">
       <c r="A3327" s="7" t="s">
         <v>6412</v>
       </c>
@@ -54330,7 +54910,7 @@
         <v>6415</v>
       </c>
     </row>
-    <row r="3329" ht="33.6" spans="1:2">
+    <row r="3329" spans="1:2">
       <c r="A3329" s="7" t="s">
         <v>6416</v>
       </c>
@@ -54338,7 +54918,7 @@
         <v>6417</v>
       </c>
     </row>
-    <row r="3330" spans="1:2">
+    <row r="3330" ht="33.6" spans="1:2">
       <c r="A3330" s="7" t="s">
         <v>6418</v>
       </c>
@@ -54346,7 +54926,7 @@
         <v>6419</v>
       </c>
     </row>
-    <row r="3331" ht="50.4" spans="1:2">
+    <row r="3331" spans="1:2">
       <c r="A3331" s="7" t="s">
         <v>6420</v>
       </c>
@@ -54354,7 +54934,7 @@
         <v>6421</v>
       </c>
     </row>
-    <row r="3332" spans="1:2">
+    <row r="3332" ht="50.4" spans="1:2">
       <c r="A3332" s="7" t="s">
         <v>6422</v>
       </c>
@@ -54396,15 +54976,15 @@
     </row>
     <row r="3337" spans="1:2">
       <c r="A3337" s="7" t="s">
-        <v>6081</v>
+        <v>6432</v>
       </c>
       <c r="B3337" s="7" t="s">
-        <v>6432</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="3338" spans="1:2">
       <c r="A3338" s="7" t="s">
-        <v>6433</v>
+        <v>6083</v>
       </c>
       <c r="B3338" s="7" t="s">
         <v>6434</v>
@@ -54482,7 +55062,7 @@
         <v>6452</v>
       </c>
     </row>
-    <row r="3348" ht="33.6" spans="1:2">
+    <row r="3348" spans="1:2">
       <c r="A3348" s="7" t="s">
         <v>6453</v>
       </c>
@@ -54490,7 +55070,7 @@
         <v>6454</v>
       </c>
     </row>
-    <row r="3349" ht="36" customHeight="1" spans="1:2">
+    <row r="3349" ht="33.6" spans="1:2">
       <c r="A3349" s="7" t="s">
         <v>6455</v>
       </c>
@@ -54498,7 +55078,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="3350" spans="1:2">
+    <row r="3350" ht="36" customHeight="1" spans="1:2">
       <c r="A3350" s="7" t="s">
         <v>6457</v>
       </c>
@@ -54530,7 +55110,7 @@
         <v>6464</v>
       </c>
     </row>
-    <row r="3354" ht="100.8" spans="1:2">
+    <row r="3354" spans="1:2">
       <c r="A3354" s="7" t="s">
         <v>6465</v>
       </c>
@@ -54538,7 +55118,7 @@
         <v>6466</v>
       </c>
     </row>
-    <row r="3355" spans="1:2">
+    <row r="3355" ht="100.8" spans="1:2">
       <c r="A3355" s="7" t="s">
         <v>6467</v>
       </c>
@@ -54546,7 +55126,7 @@
         <v>6468</v>
       </c>
     </row>
-    <row r="3356" ht="33.6" spans="1:2">
+    <row r="3356" spans="1:2">
       <c r="A3356" s="7" t="s">
         <v>6469</v>
       </c>
@@ -54554,7 +55134,7 @@
         <v>6470</v>
       </c>
     </row>
-    <row r="3357" spans="1:2">
+    <row r="3357" ht="33.6" spans="1:2">
       <c r="A3357" s="7" t="s">
         <v>6471</v>
       </c>
@@ -54570,7 +55150,7 @@
         <v>6474</v>
       </c>
     </row>
-    <row r="3359" ht="50.4" spans="1:2">
+    <row r="3359" spans="1:2">
       <c r="A3359" s="7" t="s">
         <v>6475</v>
       </c>
@@ -54578,7 +55158,7 @@
         <v>6476</v>
       </c>
     </row>
-    <row r="3360" spans="1:2">
+    <row r="3360" ht="50.4" spans="1:2">
       <c r="A3360" s="7" t="s">
         <v>6477</v>
       </c>
@@ -54634,7 +55214,7 @@
         <v>6490</v>
       </c>
     </row>
-    <row r="3367" ht="50.4" spans="1:2">
+    <row r="3367" spans="1:2">
       <c r="A3367" s="7" t="s">
         <v>6491</v>
       </c>
@@ -54642,7 +55222,7 @@
         <v>6492</v>
       </c>
     </row>
-    <row r="3368" spans="1:2">
+    <row r="3368" ht="50.4" spans="1:2">
       <c r="A3368" s="7" t="s">
         <v>6493</v>
       </c>
@@ -54762,7 +55342,7 @@
         <v>6522</v>
       </c>
     </row>
-    <row r="3383" ht="33.6" spans="1:2">
+    <row r="3383" spans="1:2">
       <c r="A3383" s="7" t="s">
         <v>6523</v>
       </c>
@@ -54770,7 +55350,7 @@
         <v>6524</v>
       </c>
     </row>
-    <row r="3384" spans="1:2">
+    <row r="3384" ht="33.6" spans="1:2">
       <c r="A3384" s="7" t="s">
         <v>6525</v>
       </c>
@@ -54810,7 +55390,7 @@
         <v>6534</v>
       </c>
     </row>
-    <row r="3389" ht="33.6" spans="1:2">
+    <row r="3389" spans="1:2">
       <c r="A3389" s="7" t="s">
         <v>6535</v>
       </c>
@@ -54818,7 +55398,7 @@
         <v>6536</v>
       </c>
     </row>
-    <row r="3390" spans="1:2">
+    <row r="3390" ht="33.6" spans="1:2">
       <c r="A3390" s="7" t="s">
         <v>6537</v>
       </c>
@@ -54858,7 +55438,7 @@
         <v>6546</v>
       </c>
     </row>
-    <row r="3395" ht="50.4" spans="1:2">
+    <row r="3395" spans="1:2">
       <c r="A3395" s="7" t="s">
         <v>6547</v>
       </c>
@@ -54866,7 +55446,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="3396" spans="1:2">
+    <row r="3396" ht="50.4" spans="1:2">
       <c r="A3396" s="7" t="s">
         <v>6549</v>
       </c>
@@ -54914,7 +55494,7 @@
         <v>6560</v>
       </c>
     </row>
-    <row r="3402" ht="50.4" spans="1:2">
+    <row r="3402" spans="1:2">
       <c r="A3402" s="7" t="s">
         <v>6561</v>
       </c>
@@ -54922,7 +55502,7 @@
         <v>6562</v>
       </c>
     </row>
-    <row r="3403" ht="33.6" spans="1:2">
+    <row r="3403" ht="50.4" spans="1:2">
       <c r="A3403" s="7" t="s">
         <v>6563</v>
       </c>
@@ -54930,7 +55510,7 @@
         <v>6564</v>
       </c>
     </row>
-    <row r="3404" spans="1:2">
+    <row r="3404" ht="33.6" spans="1:2">
       <c r="A3404" s="7" t="s">
         <v>6565</v>
       </c>
@@ -54946,7 +55526,7 @@
         <v>6568</v>
       </c>
     </row>
-    <row r="3406" ht="67.2" spans="1:2">
+    <row r="3406" spans="1:2">
       <c r="A3406" s="7" t="s">
         <v>6569</v>
       </c>
@@ -54954,7 +55534,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="3407" spans="1:2">
+    <row r="3407" ht="67.2" spans="1:2">
       <c r="A3407" s="7" t="s">
         <v>6571</v>
       </c>
@@ -54962,7 +55542,7 @@
         <v>6572</v>
       </c>
     </row>
-    <row r="3408" ht="33.6" spans="1:2">
+    <row r="3408" spans="1:2">
       <c r="A3408" s="7" t="s">
         <v>6573</v>
       </c>
@@ -54970,7 +55550,7 @@
         <v>6574</v>
       </c>
     </row>
-    <row r="3409" spans="1:2">
+    <row r="3409" ht="33.6" spans="1:2">
       <c r="A3409" s="7" t="s">
         <v>6575</v>
       </c>
@@ -55002,7 +55582,7 @@
         <v>6582</v>
       </c>
     </row>
-    <row r="3413" ht="33.6" spans="1:2">
+    <row r="3413" spans="1:2">
       <c r="A3413" s="7" t="s">
         <v>6583</v>
       </c>
@@ -55010,7 +55590,7 @@
         <v>6584</v>
       </c>
     </row>
-    <row r="3414" spans="1:2">
+    <row r="3414" ht="33.6" spans="1:2">
       <c r="A3414" s="7" t="s">
         <v>6585</v>
       </c>
@@ -55042,7 +55622,7 @@
         <v>6592</v>
       </c>
     </row>
-    <row r="3418" ht="117.6" spans="1:2">
+    <row r="3418" spans="1:2">
       <c r="A3418" s="7" t="s">
         <v>6593</v>
       </c>
@@ -55050,7 +55630,7 @@
         <v>6594</v>
       </c>
     </row>
-    <row r="3419" spans="1:2">
+    <row r="3419" ht="117.6" spans="1:2">
       <c r="A3419" s="7" t="s">
         <v>6595</v>
       </c>
@@ -55138,7 +55718,7 @@
         <v>6616</v>
       </c>
     </row>
-    <row r="3430" ht="33.6" spans="1:2">
+    <row r="3430" spans="1:2">
       <c r="A3430" s="7" t="s">
         <v>6617</v>
       </c>
@@ -55146,7 +55726,7 @@
         <v>6618</v>
       </c>
     </row>
-    <row r="3431" spans="1:2">
+    <row r="3431" ht="33.6" spans="1:2">
       <c r="A3431" s="7" t="s">
         <v>6619</v>
       </c>
@@ -55170,7 +55750,7 @@
         <v>6624</v>
       </c>
     </row>
-    <row r="3434" ht="33.6" spans="1:2">
+    <row r="3434" spans="1:2">
       <c r="A3434" s="7" t="s">
         <v>6625</v>
       </c>
@@ -55178,7 +55758,7 @@
         <v>6626</v>
       </c>
     </row>
-    <row r="3435" spans="1:2">
+    <row r="3435" ht="33.6" spans="1:2">
       <c r="A3435" s="7" t="s">
         <v>6627</v>
       </c>
@@ -55186,7 +55766,7 @@
         <v>6628</v>
       </c>
     </row>
-    <row r="3436" ht="33.6" spans="1:2">
+    <row r="3436" spans="1:2">
       <c r="A3436" s="7" t="s">
         <v>6629</v>
       </c>
@@ -55202,7 +55782,7 @@
         <v>6632</v>
       </c>
     </row>
-    <row r="3438" ht="67.2" spans="1:2">
+    <row r="3438" ht="33.6" spans="1:2">
       <c r="A3438" s="7" t="s">
         <v>6633</v>
       </c>
@@ -55210,7 +55790,7 @@
         <v>6634</v>
       </c>
     </row>
-    <row r="3439" ht="33.6" spans="1:2">
+    <row r="3439" ht="117.6" spans="1:2">
       <c r="A3439" s="7" t="s">
         <v>6635</v>
       </c>
@@ -55218,7 +55798,7 @@
         <v>6636</v>
       </c>
     </row>
-    <row r="3440" spans="1:2">
+    <row r="3440" ht="33.6" spans="1:2">
       <c r="A3440" s="7" t="s">
         <v>6637</v>
       </c>
@@ -55226,7 +55806,7 @@
         <v>6638</v>
       </c>
     </row>
-    <row r="3441" ht="33.6" spans="1:2">
+    <row r="3441" spans="1:2">
       <c r="A3441" s="7" t="s">
         <v>6639</v>
       </c>
@@ -55234,7 +55814,7 @@
         <v>6640</v>
       </c>
     </row>
-    <row r="3442" spans="1:2">
+    <row r="3442" ht="33.6" spans="1:2">
       <c r="A3442" s="7" t="s">
         <v>6641</v>
       </c>
@@ -55258,7 +55838,7 @@
         <v>6646</v>
       </c>
     </row>
-    <row r="3445" ht="33.6" spans="1:2">
+    <row r="3445" spans="1:2">
       <c r="A3445" s="7" t="s">
         <v>6647</v>
       </c>
@@ -55282,7 +55862,7 @@
         <v>6652</v>
       </c>
     </row>
-    <row r="3448" spans="1:2">
+    <row r="3448" ht="33.6" spans="1:2">
       <c r="A3448" s="7" t="s">
         <v>6653</v>
       </c>
@@ -55298,7 +55878,7 @@
         <v>6656</v>
       </c>
     </row>
-    <row r="3450" ht="33.6" spans="1:2">
+    <row r="3450" spans="1:2">
       <c r="A3450" s="7" t="s">
         <v>6657</v>
       </c>
@@ -55322,7 +55902,7 @@
         <v>6662</v>
       </c>
     </row>
-    <row r="3453" spans="1:2">
+    <row r="3453" ht="33.6" spans="1:2">
       <c r="A3453" s="7" t="s">
         <v>6663</v>
       </c>
@@ -55394,7 +55974,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="3462" ht="33.6" spans="1:2">
+    <row r="3462" spans="1:2">
       <c r="A3462" s="7" t="s">
         <v>6681</v>
       </c>
@@ -55410,7 +55990,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="3464" spans="1:2">
+    <row r="3464" ht="33.6" spans="1:2">
       <c r="A3464" s="7" t="s">
         <v>6685</v>
       </c>
@@ -55538,7 +56118,7 @@
         <v>6716</v>
       </c>
     </row>
-    <row r="3480" ht="50.4" spans="1:2">
+    <row r="3480" spans="1:2">
       <c r="A3480" s="7" t="s">
         <v>6717</v>
       </c>
@@ -55546,7 +56126,7 @@
         <v>6718</v>
       </c>
     </row>
-    <row r="3481" ht="33.6" spans="1:2">
+    <row r="3481" ht="50.4" spans="1:2">
       <c r="A3481" s="7" t="s">
         <v>6719</v>
       </c>
@@ -55554,7 +56134,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="3482" spans="1:2">
+    <row r="3482" ht="33.6" spans="1:2">
       <c r="A3482" s="7" t="s">
         <v>6721</v>
       </c>
@@ -55842,7 +56422,7 @@
         <v>6792</v>
       </c>
     </row>
-    <row r="3518" ht="84" spans="1:2">
+    <row r="3518" spans="1:2">
       <c r="A3518" s="7" t="s">
         <v>6793</v>
       </c>
@@ -55850,7 +56430,7 @@
         <v>6794</v>
       </c>
     </row>
-    <row r="3519" ht="33.6" spans="1:2">
+    <row r="3519" ht="84" spans="1:2">
       <c r="A3519" s="7" t="s">
         <v>6795</v>
       </c>
@@ -55858,7 +56438,7 @@
         <v>6796</v>
       </c>
     </row>
-    <row r="3520" spans="1:2">
+    <row r="3520" ht="33.6" spans="1:2">
       <c r="A3520" s="7" t="s">
         <v>6797</v>
       </c>
@@ -55866,7 +56446,7 @@
         <v>6798</v>
       </c>
     </row>
-    <row r="3521" ht="33.6" spans="1:2">
+    <row r="3521" spans="1:2">
       <c r="A3521" s="7" t="s">
         <v>6799</v>
       </c>
@@ -55882,7 +56462,7 @@
         <v>6802</v>
       </c>
     </row>
-    <row r="3523" spans="1:2">
+    <row r="3523" ht="33.6" spans="1:2">
       <c r="A3523" s="7" t="s">
         <v>6803</v>
       </c>
@@ -55970,7 +56550,7 @@
         <v>6824</v>
       </c>
     </row>
-    <row r="3534" ht="50.4" spans="1:2">
+    <row r="3534" spans="1:2">
       <c r="A3534" s="7" t="s">
         <v>6825</v>
       </c>
@@ -55978,7 +56558,7 @@
         <v>6826</v>
       </c>
     </row>
-    <row r="3535" spans="1:2">
+    <row r="3535" ht="50.4" spans="1:2">
       <c r="A3535" s="7" t="s">
         <v>6827</v>
       </c>
@@ -56010,7 +56590,7 @@
         <v>6834</v>
       </c>
     </row>
-    <row r="3539" ht="67.2" spans="1:2">
+    <row r="3539" spans="1:2">
       <c r="A3539" s="7" t="s">
         <v>6835</v>
       </c>
@@ -56018,7 +56598,7 @@
         <v>6836</v>
       </c>
     </row>
-    <row r="3540" spans="1:2">
+    <row r="3540" ht="67.2" spans="1:2">
       <c r="A3540" s="7" t="s">
         <v>6837</v>
       </c>
@@ -56042,7 +56622,7 @@
         <v>6842</v>
       </c>
     </row>
-    <row r="3543" ht="84" spans="1:2">
+    <row r="3543" spans="1:2">
       <c r="A3543" s="7" t="s">
         <v>6843</v>
       </c>
@@ -56050,7 +56630,7 @@
         <v>6844</v>
       </c>
     </row>
-    <row r="3544" spans="1:2">
+    <row r="3544" ht="84" spans="1:2">
       <c r="A3544" s="7" t="s">
         <v>6845</v>
       </c>
@@ -56082,7 +56662,7 @@
         <v>6852</v>
       </c>
     </row>
-    <row r="3548" ht="50.4" spans="1:2">
+    <row r="3548" spans="1:2">
       <c r="A3548" s="7" t="s">
         <v>6853</v>
       </c>
@@ -56090,7 +56670,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="3549" ht="67.2" spans="1:2">
+    <row r="3549" ht="50.4" spans="1:2">
       <c r="A3549" s="7" t="s">
         <v>6855</v>
       </c>
@@ -56098,7 +56678,7 @@
         <v>6856</v>
       </c>
     </row>
-    <row r="3550" spans="1:2">
+    <row r="3550" ht="67.2" spans="1:2">
       <c r="A3550" s="7" t="s">
         <v>6857</v>
       </c>
@@ -56210,7 +56790,7 @@
         <v>6884</v>
       </c>
     </row>
-    <row r="3564" ht="50.4" spans="1:2">
+    <row r="3564" spans="1:2">
       <c r="A3564" s="7" t="s">
         <v>6885</v>
       </c>
@@ -56218,7 +56798,7 @@
         <v>6886</v>
       </c>
     </row>
-    <row r="3565" spans="1:2">
+    <row r="3565" ht="50.4" spans="1:2">
       <c r="A3565" s="7" t="s">
         <v>6887</v>
       </c>
@@ -56250,7 +56830,7 @@
         <v>6894</v>
       </c>
     </row>
-    <row r="3569" ht="33.6" spans="1:2">
+    <row r="3569" spans="1:2">
       <c r="A3569" s="7" t="s">
         <v>6895</v>
       </c>
@@ -56258,7 +56838,7 @@
         <v>6896</v>
       </c>
     </row>
-    <row r="3570" spans="1:2">
+    <row r="3570" ht="33.6" spans="1:2">
       <c r="A3570" s="7" t="s">
         <v>6897</v>
       </c>
@@ -56434,7 +57014,7 @@
         <v>6940</v>
       </c>
     </row>
-    <row r="3592" ht="67.2" spans="1:2">
+    <row r="3592" spans="1:2">
       <c r="A3592" s="7" t="s">
         <v>6941</v>
       </c>
@@ -56442,7 +57022,7 @@
         <v>6942</v>
       </c>
     </row>
-    <row r="3593" spans="1:2">
+    <row r="3593" ht="67.2" spans="1:2">
       <c r="A3593" s="7" t="s">
         <v>6943</v>
       </c>
@@ -56506,7 +57086,7 @@
         <v>6958</v>
       </c>
     </row>
-    <row r="3601" ht="67.2" spans="1:2">
+    <row r="3601" spans="1:2">
       <c r="A3601" s="7" t="s">
         <v>6959</v>
       </c>
@@ -56514,7 +57094,7 @@
         <v>6960</v>
       </c>
     </row>
-    <row r="3602" spans="1:2">
+    <row r="3602" ht="67.2" spans="1:2">
       <c r="A3602" s="7" t="s">
         <v>6961</v>
       </c>
@@ -56578,7 +57158,7 @@
         <v>6976</v>
       </c>
     </row>
-    <row r="3610" ht="67.2" spans="1:2">
+    <row r="3610" spans="1:2">
       <c r="A3610" s="7" t="s">
         <v>6977</v>
       </c>
@@ -56586,7 +57166,7 @@
         <v>6978</v>
       </c>
     </row>
-    <row r="3611" spans="1:2">
+    <row r="3611" ht="67.2" spans="1:2">
       <c r="A3611" s="7" t="s">
         <v>6979</v>
       </c>
@@ -56596,21 +57176,21 @@
     </row>
     <row r="3612" spans="1:2">
       <c r="A3612" s="7" t="s">
-        <v>5891</v>
+        <v>6981</v>
       </c>
       <c r="B3612" s="7" t="s">
-        <v>6981</v>
-      </c>
-    </row>
-    <row r="3613" ht="33.6" spans="1:2">
+        <v>6982</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:2">
       <c r="A3613" s="7" t="s">
-        <v>6982</v>
+        <v>5893</v>
       </c>
       <c r="B3613" s="7" t="s">
         <v>6983</v>
       </c>
     </row>
-    <row r="3614" spans="1:2">
+    <row r="3614" ht="33.6" spans="1:2">
       <c r="A3614" s="7" t="s">
         <v>6984</v>
       </c>
@@ -56714,7 +57294,7 @@
         <v>7009</v>
       </c>
     </row>
-    <row r="3627" ht="33.6" spans="1:2">
+    <row r="3627" spans="1:2">
       <c r="A3627" s="7" t="s">
         <v>7010</v>
       </c>
@@ -56722,7 +57302,7 @@
         <v>7011</v>
       </c>
     </row>
-    <row r="3628" spans="1:2">
+    <row r="3628" ht="33.6" spans="1:2">
       <c r="A3628" s="7" t="s">
         <v>7012</v>
       </c>
@@ -56754,7 +57334,7 @@
         <v>7019</v>
       </c>
     </row>
-    <row r="3632" ht="50.4" spans="1:2">
+    <row r="3632" spans="1:2">
       <c r="A3632" s="7" t="s">
         <v>7020</v>
       </c>
@@ -56762,7 +57342,7 @@
         <v>7021</v>
       </c>
     </row>
-    <row r="3633" spans="1:2">
+    <row r="3633" ht="50.4" spans="1:2">
       <c r="A3633" s="7" t="s">
         <v>7022</v>
       </c>
@@ -56794,7 +57374,7 @@
         <v>7029</v>
       </c>
     </row>
-    <row r="3637" ht="33.6" spans="1:2">
+    <row r="3637" spans="1:2">
       <c r="A3637" s="7" t="s">
         <v>7030</v>
       </c>
@@ -56810,7 +57390,7 @@
         <v>7033</v>
       </c>
     </row>
-    <row r="3639" spans="1:2">
+    <row r="3639" ht="33.6" spans="1:2">
       <c r="A3639" s="7" t="s">
         <v>7034</v>
       </c>
@@ -56882,7 +57462,7 @@
         <v>7051</v>
       </c>
     </row>
-    <row r="3648" ht="33.6" spans="1:2">
+    <row r="3648" spans="1:2">
       <c r="A3648" s="7" t="s">
         <v>7052</v>
       </c>
@@ -56890,7 +57470,7 @@
         <v>7053</v>
       </c>
     </row>
-    <row r="3649" spans="1:2">
+    <row r="3649" ht="33.6" spans="1:2">
       <c r="A3649" s="7" t="s">
         <v>7054</v>
       </c>
@@ -57002,7 +57582,7 @@
         <v>7081</v>
       </c>
     </row>
-    <row r="3663" ht="50.4" spans="1:2">
+    <row r="3663" spans="1:2">
       <c r="A3663" s="7" t="s">
         <v>7082</v>
       </c>
@@ -57010,7 +57590,7 @@
         <v>7083</v>
       </c>
     </row>
-    <row r="3664" spans="1:2">
+    <row r="3664" ht="50.4" spans="1:2">
       <c r="A3664" s="7" t="s">
         <v>7084</v>
       </c>
@@ -57020,15 +57600,15 @@
     </row>
     <row r="3665" spans="1:2">
       <c r="A3665" s="7" t="s">
-        <v>5164</v>
+        <v>7086</v>
       </c>
       <c r="B3665" s="7" t="s">
-        <v>7086</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
       <c r="A3666" s="7" t="s">
-        <v>7087</v>
+        <v>5164</v>
       </c>
       <c r="B3666" s="7" t="s">
         <v>7088</v>
@@ -57154,7 +57734,7 @@
         <v>7118</v>
       </c>
     </row>
-    <row r="3682" ht="134.4" spans="1:2">
+    <row r="3682" spans="1:2">
       <c r="A3682" s="7" t="s">
         <v>7119</v>
       </c>
@@ -57162,7 +57742,7 @@
         <v>7120</v>
       </c>
     </row>
-    <row r="3683" spans="1:2">
+    <row r="3683" ht="134.4" spans="1:2">
       <c r="A3683" s="7" t="s">
         <v>7121</v>
       </c>
@@ -57266,23 +57846,23 @@
         <v>7146</v>
       </c>
     </row>
-    <row r="3696" ht="50.4" spans="1:2">
+    <row r="3696" spans="1:2">
       <c r="A3696" s="7" t="s">
-        <v>5983</v>
+        <v>7147</v>
       </c>
       <c r="B3696" s="7" t="s">
-        <v>7147</v>
-      </c>
-    </row>
-    <row r="3697" ht="33.6" spans="1:2">
+        <v>7148</v>
+      </c>
+    </row>
+    <row r="3697" ht="50.4" spans="1:2">
       <c r="A3697" s="7" t="s">
-        <v>7148</v>
+        <v>5985</v>
       </c>
       <c r="B3697" s="7" t="s">
         <v>7149</v>
       </c>
     </row>
-    <row r="3698" spans="1:2">
+    <row r="3698" ht="100.8" spans="1:2">
       <c r="A3698" s="7" t="s">
         <v>7150</v>
       </c>
@@ -57338,7 +57918,7 @@
         <v>7163</v>
       </c>
     </row>
-    <row r="3705" ht="33.6" spans="1:2">
+    <row r="3705" spans="1:2">
       <c r="A3705" s="7" t="s">
         <v>7164</v>
       </c>
@@ -57346,7 +57926,7 @@
         <v>7165</v>
       </c>
     </row>
-    <row r="3706" spans="1:2">
+    <row r="3706" ht="33.6" spans="1:2">
       <c r="A3706" s="7" t="s">
         <v>7166</v>
       </c>
@@ -57410,7 +57990,7 @@
         <v>7181</v>
       </c>
     </row>
-    <row r="3714" ht="50.4" spans="1:2">
+    <row r="3714" spans="1:2">
       <c r="A3714" s="7" t="s">
         <v>7182</v>
       </c>
@@ -57418,7 +57998,7 @@
         <v>7183</v>
       </c>
     </row>
-    <row r="3715" spans="1:2">
+    <row r="3715" ht="50.4" spans="1:2">
       <c r="A3715" s="7" t="s">
         <v>7184</v>
       </c>
@@ -57447,18 +58027,18 @@
         <v>7190</v>
       </c>
       <c r="B3718" s="7" t="s">
-        <v>4055</v>
+        <v>7191</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
       <c r="A3719" s="7" t="s">
-        <v>7191</v>
+        <v>7192</v>
       </c>
       <c r="B3719" s="7" t="s">
-        <v>7192</v>
-      </c>
-    </row>
-    <row r="3720" ht="50.4" spans="1:2">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:2">
       <c r="A3720" s="7" t="s">
         <v>7193</v>
       </c>
@@ -57466,7 +58046,7 @@
         <v>7194</v>
       </c>
     </row>
-    <row r="3721" spans="1:2">
+    <row r="3721" ht="50.4" spans="1:2">
       <c r="A3721" s="7" t="s">
         <v>7195</v>
       </c>
@@ -57500,18 +58080,18 @@
     </row>
     <row r="3725" spans="1:2">
       <c r="A3725" s="7" t="s">
-        <v>2964</v>
+        <v>7203</v>
       </c>
       <c r="B3725" s="7" t="s">
-        <v>2965</v>
+        <v>7204</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
       <c r="A3726" s="7" t="s">
-        <v>7203</v>
+        <v>2964</v>
       </c>
       <c r="B3726" s="7" t="s">
-        <v>7204</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -57618,7 +58198,7 @@
         <v>7230</v>
       </c>
     </row>
-    <row r="3740" ht="33.6" spans="1:2">
+    <row r="3740" spans="1:2">
       <c r="A3740" s="7" t="s">
         <v>7231</v>
       </c>
@@ -57626,7 +58206,7 @@
         <v>7232</v>
       </c>
     </row>
-    <row r="3741" spans="1:2">
+    <row r="3741" ht="33.6" spans="1:2">
       <c r="A3741" s="7" t="s">
         <v>7233</v>
       </c>
@@ -57650,7 +58230,7 @@
         <v>7238</v>
       </c>
     </row>
-    <row r="3744" ht="33.6" spans="1:2">
+    <row r="3744" spans="1:2">
       <c r="A3744" s="7" t="s">
         <v>7239</v>
       </c>
@@ -57658,7 +58238,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="3745" spans="1:2">
+    <row r="3745" ht="33.6" spans="1:2">
       <c r="A3745" s="7" t="s">
         <v>7241</v>
       </c>
@@ -57666,7 +58246,7 @@
         <v>7242</v>
       </c>
     </row>
-    <row r="3746" ht="67.2" spans="1:2">
+    <row r="3746" spans="1:2">
       <c r="A3746" s="7" t="s">
         <v>7243</v>
       </c>
@@ -57674,7 +58254,7 @@
         <v>7244</v>
       </c>
     </row>
-    <row r="3747" spans="1:2">
+    <row r="3747" ht="67.2" spans="1:2">
       <c r="A3747" s="7" t="s">
         <v>7245</v>
       </c>
@@ -57746,7 +58326,7 @@
         <v>7262</v>
       </c>
     </row>
-    <row r="3756" spans="1:2">
+    <row r="3756" ht="50.4" spans="1:2">
       <c r="A3756" s="7" t="s">
         <v>7263</v>
       </c>
@@ -57770,7 +58350,7 @@
         <v>7268</v>
       </c>
     </row>
-    <row r="3759" ht="50.4" spans="1:2">
+    <row r="3759" spans="1:2">
       <c r="A3759" s="7" t="s">
         <v>7269</v>
       </c>
@@ -57778,7 +58358,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="3760" spans="1:2">
+    <row r="3760" ht="50.4" spans="1:2">
       <c r="A3760" s="7" t="s">
         <v>7271</v>
       </c>
@@ -57810,7 +58390,7 @@
         <v>7278</v>
       </c>
     </row>
-    <row r="3764" spans="1:2">
+    <row r="3764" ht="50.4" spans="1:2">
       <c r="A3764" s="7" t="s">
         <v>7279</v>
       </c>
@@ -57874,7 +58454,7 @@
         <v>7294</v>
       </c>
     </row>
-    <row r="3772" ht="218.4" spans="1:2">
+    <row r="3772" spans="1:2">
       <c r="A3772" s="7" t="s">
         <v>7295</v>
       </c>
@@ -57882,7 +58462,7 @@
         <v>7296</v>
       </c>
     </row>
-    <row r="3773" ht="134.4" spans="1:2">
+    <row r="3773" ht="218.4" spans="1:2">
       <c r="A3773" s="7" t="s">
         <v>7297</v>
       </c>
@@ -57890,7 +58470,7 @@
         <v>7298</v>
       </c>
     </row>
-    <row r="3774" spans="1:2">
+    <row r="3774" ht="134.4" spans="1:2">
       <c r="A3774" s="7" t="s">
         <v>7299</v>
       </c>
@@ -58002,7 +58582,7 @@
         <v>7326</v>
       </c>
     </row>
-    <row r="3788" ht="184.8" spans="1:2">
+    <row r="3788" spans="1:2">
       <c r="A3788" s="7" t="s">
         <v>7327</v>
       </c>
@@ -58010,7 +58590,7 @@
         <v>7328</v>
       </c>
     </row>
-    <row r="3789" ht="134.4" spans="1:2">
+    <row r="3789" ht="184.8" spans="1:2">
       <c r="A3789" s="7" t="s">
         <v>7329</v>
       </c>
@@ -58018,7 +58598,7 @@
         <v>7330</v>
       </c>
     </row>
-    <row r="3790" spans="1:2">
+    <row r="3790" ht="134.4" spans="1:2">
       <c r="A3790" s="7" t="s">
         <v>7331</v>
       </c>
@@ -58058,7 +58638,7 @@
         <v>7340</v>
       </c>
     </row>
-    <row r="3795" ht="67.2" spans="1:2">
+    <row r="3795" spans="1:2">
       <c r="A3795" s="7" t="s">
         <v>7341</v>
       </c>
@@ -58066,7 +58646,7 @@
         <v>7342</v>
       </c>
     </row>
-    <row r="3796" spans="1:2">
+    <row r="3796" ht="67.2" spans="1:2">
       <c r="A3796" s="7" t="s">
         <v>7343</v>
       </c>
@@ -58122,7 +58702,7 @@
         <v>7356</v>
       </c>
     </row>
-    <row r="3803" ht="134.4" spans="1:2">
+    <row r="3803" spans="1:2">
       <c r="A3803" s="7" t="s">
         <v>7357</v>
       </c>
@@ -58130,7 +58710,7 @@
         <v>7358</v>
       </c>
     </row>
-    <row r="3804" spans="1:2">
+    <row r="3804" ht="134.4" spans="1:2">
       <c r="A3804" s="7" t="s">
         <v>7359</v>
       </c>
@@ -58138,7 +58718,7 @@
         <v>7360</v>
       </c>
     </row>
-    <row r="3805" ht="33.6" spans="1:2">
+    <row r="3805" spans="1:2">
       <c r="A3805" s="7" t="s">
         <v>7361</v>
       </c>
@@ -58146,7 +58726,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row r="3806" spans="1:2">
+    <row r="3806" ht="33.6" spans="1:2">
       <c r="A3806" s="7" t="s">
         <v>7363</v>
       </c>
@@ -58170,7 +58750,7 @@
         <v>7368</v>
       </c>
     </row>
-    <row r="3809" ht="33.6" spans="1:2">
+    <row r="3809" spans="1:2">
       <c r="A3809" s="7" t="s">
         <v>7369</v>
       </c>
@@ -58186,7 +58766,7 @@
         <v>7372</v>
       </c>
     </row>
-    <row r="3811" spans="1:2">
+    <row r="3811" ht="33.6" spans="1:2">
       <c r="A3811" s="7" t="s">
         <v>7373</v>
       </c>
@@ -58194,7 +58774,7 @@
         <v>7374</v>
       </c>
     </row>
-    <row r="3812" ht="50.4" spans="1:2">
+    <row r="3812" spans="1:2">
       <c r="A3812" s="7" t="s">
         <v>7375</v>
       </c>
@@ -58202,7 +58782,7 @@
         <v>7376</v>
       </c>
     </row>
-    <row r="3813" ht="33.6" spans="1:2">
+    <row r="3813" ht="50.4" spans="1:2">
       <c r="A3813" s="7" t="s">
         <v>7377</v>
       </c>
@@ -58210,7 +58790,7 @@
         <v>7378</v>
       </c>
     </row>
-    <row r="3814" spans="1:2">
+    <row r="3814" ht="33.6" spans="1:2">
       <c r="A3814" s="7" t="s">
         <v>7379</v>
       </c>
@@ -58348,15 +58928,15 @@
     </row>
     <row r="3831" spans="1:2">
       <c r="A3831" s="7" t="s">
-        <v>1954</v>
+        <v>7413</v>
       </c>
       <c r="B3831" s="7" t="s">
-        <v>7413</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="3832" spans="1:2">
       <c r="A3832" s="7" t="s">
-        <v>7414</v>
+        <v>1954</v>
       </c>
       <c r="B3832" s="7" t="s">
         <v>7415</v>
@@ -58450,7 +59030,7 @@
         <v>7437</v>
       </c>
     </row>
-    <row r="3844" ht="33.6" spans="1:2">
+    <row r="3844" spans="1:2">
       <c r="A3844" s="7" t="s">
         <v>7438</v>
       </c>
@@ -58466,7 +59046,7 @@
         <v>7441</v>
       </c>
     </row>
-    <row r="3846" spans="1:2">
+    <row r="3846" ht="33.6" spans="1:2">
       <c r="A3846" s="7" t="s">
         <v>7442</v>
       </c>
@@ -58474,7 +59054,7 @@
         <v>7443</v>
       </c>
     </row>
-    <row r="3847" ht="50.4" spans="1:2">
+    <row r="3847" spans="1:2">
       <c r="A3847" s="7" t="s">
         <v>7444</v>
       </c>
@@ -58482,7 +59062,7 @@
         <v>7445</v>
       </c>
     </row>
-    <row r="3848" ht="33.6" spans="1:2">
+    <row r="3848" ht="50.4" spans="1:2">
       <c r="A3848" s="7" t="s">
         <v>7446</v>
       </c>
@@ -58506,7 +59086,7 @@
         <v>7451</v>
       </c>
     </row>
-    <row r="3851" spans="1:2">
+    <row r="3851" ht="33.6" spans="1:2">
       <c r="A3851" s="7" t="s">
         <v>7452</v>
       </c>
@@ -58578,7 +59158,7 @@
         <v>7469</v>
       </c>
     </row>
-    <row r="3860" ht="242" customHeight="1" spans="1:2">
+    <row r="3860" spans="1:2">
       <c r="A3860" s="7" t="s">
         <v>7470</v>
       </c>
@@ -58586,7 +59166,7 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="3861" spans="1:2">
+    <row r="3861" ht="242" customHeight="1" spans="1:2">
       <c r="A3861" s="7" t="s">
         <v>7472</v>
       </c>
@@ -58594,7 +59174,7 @@
         <v>7473</v>
       </c>
     </row>
-    <row r="3862" ht="33.6" spans="1:2">
+    <row r="3862" spans="1:2">
       <c r="A3862" s="7" t="s">
         <v>7474</v>
       </c>
@@ -58602,7 +59182,7 @@
         <v>7475</v>
       </c>
     </row>
-    <row r="3863" spans="1:2">
+    <row r="3863" ht="33.6" spans="1:2">
       <c r="A3863" s="7" t="s">
         <v>7476</v>
       </c>
@@ -58634,7 +59214,7 @@
         <v>7483</v>
       </c>
     </row>
-    <row r="3867" ht="218.4" spans="1:2">
+    <row r="3867" spans="1:2">
       <c r="A3867" s="7" t="s">
         <v>7484</v>
       </c>
@@ -58642,7 +59222,7 @@
         <v>7485</v>
       </c>
     </row>
-    <row r="3868" spans="1:2">
+    <row r="3868" ht="218.4" spans="1:2">
       <c r="A3868" s="7" t="s">
         <v>7486</v>
       </c>
@@ -58866,7 +59446,7 @@
         <v>7541</v>
       </c>
     </row>
-    <row r="3896" ht="168" spans="1:2">
+    <row r="3896" spans="1:2">
       <c r="A3896" s="7" t="s">
         <v>7542</v>
       </c>
@@ -58874,7 +59454,7 @@
         <v>7543</v>
       </c>
     </row>
-    <row r="3897" ht="33.6" spans="1:2">
+    <row r="3897" ht="168" spans="1:2">
       <c r="A3897" s="7" t="s">
         <v>7544</v>
       </c>
@@ -58882,7 +59462,7 @@
         <v>7545</v>
       </c>
     </row>
-    <row r="3898" spans="1:2">
+    <row r="3898" ht="33.6" spans="1:2">
       <c r="A3898" s="7" t="s">
         <v>7546</v>
       </c>
@@ -58890,7 +59470,7 @@
         <v>7547</v>
       </c>
     </row>
-    <row r="3899" ht="33.6" spans="1:2">
+    <row r="3899" spans="1:2">
       <c r="A3899" s="7" t="s">
         <v>7548</v>
       </c>
@@ -58898,7 +59478,7 @@
         <v>7549</v>
       </c>
     </row>
-    <row r="3900" spans="1:2">
+    <row r="3900" ht="33.6" spans="1:2">
       <c r="A3900" s="7" t="s">
         <v>7550</v>
       </c>
@@ -58914,7 +59494,7 @@
         <v>7553</v>
       </c>
     </row>
-    <row r="3902" ht="50.4" spans="1:2">
+    <row r="3902" spans="1:2">
       <c r="A3902" s="7" t="s">
         <v>7554</v>
       </c>
@@ -58922,20 +59502,20 @@
         <v>7555</v>
       </c>
     </row>
-    <row r="3903" spans="1:2">
+    <row r="3903" ht="50.4" spans="1:2">
       <c r="A3903" s="7" t="s">
         <v>7556</v>
       </c>
       <c r="B3903" s="7" t="s">
-        <v>7551</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
       <c r="A3904" s="7" t="s">
-        <v>7557</v>
+        <v>7558</v>
       </c>
       <c r="B3904" s="7" t="s">
-        <v>7558</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -59058,7 +59638,7 @@
         <v>7588</v>
       </c>
     </row>
-    <row r="3920" ht="33.6" spans="1:2">
+    <row r="3920" spans="1:2">
       <c r="A3920" s="7" t="s">
         <v>7589</v>
       </c>
@@ -59066,7 +59646,7 @@
         <v>7590</v>
       </c>
     </row>
-    <row r="3921" spans="1:2">
+    <row r="3921" ht="33.6" spans="1:2">
       <c r="A3921" s="7" t="s">
         <v>7591</v>
       </c>
@@ -59106,7 +59686,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="3926" ht="33.6" spans="1:2">
+    <row r="3926" spans="1:2">
       <c r="A3926" s="7" t="s">
         <v>7601</v>
       </c>
@@ -59114,7 +59694,7 @@
         <v>7602</v>
       </c>
     </row>
-    <row r="3927" spans="1:2">
+    <row r="3927" ht="33.6" spans="1:2">
       <c r="A3927" s="7" t="s">
         <v>7603</v>
       </c>
@@ -59138,7 +59718,7 @@
         <v>7608</v>
       </c>
     </row>
-    <row r="3930" ht="33.6" spans="1:2">
+    <row r="3930" spans="1:2">
       <c r="A3930" s="7" t="s">
         <v>7609</v>
       </c>
@@ -59146,7 +59726,7 @@
         <v>7610</v>
       </c>
     </row>
-    <row r="3931" spans="1:2">
+    <row r="3931" ht="33.6" spans="1:2">
       <c r="A3931" s="7" t="s">
         <v>7611</v>
       </c>
@@ -59202,7 +59782,7 @@
         <v>7624</v>
       </c>
     </row>
-    <row r="3938" ht="184.8" spans="1:2">
+    <row r="3938" spans="1:2">
       <c r="A3938" s="7" t="s">
         <v>7625</v>
       </c>
@@ -59210,7 +59790,7 @@
         <v>7626</v>
       </c>
     </row>
-    <row r="3939" spans="1:2">
+    <row r="3939" ht="184.8" spans="1:2">
       <c r="A3939" s="7" t="s">
         <v>7627</v>
       </c>
@@ -59282,7 +59862,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="3948" ht="296" customHeight="1" spans="1:2">
+    <row r="3948" spans="1:2">
       <c r="A3948" s="7" t="s">
         <v>7645</v>
       </c>
@@ -59290,7 +59870,7 @@
         <v>7646</v>
       </c>
     </row>
-    <row r="3949" spans="1:2">
+    <row r="3949" ht="296" customHeight="1" spans="1:2">
       <c r="A3949" s="7" t="s">
         <v>7647</v>
       </c>
@@ -59338,7 +59918,7 @@
         <v>7658</v>
       </c>
     </row>
-    <row r="3955" ht="33.6" spans="1:2">
+    <row r="3955" spans="1:2">
       <c r="A3955" s="7" t="s">
         <v>7659</v>
       </c>
@@ -59346,7 +59926,7 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="3956" spans="1:2">
+    <row r="3956" ht="33.6" spans="1:2">
       <c r="A3956" s="7" t="s">
         <v>7661</v>
       </c>
@@ -59378,7 +59958,7 @@
         <v>7668</v>
       </c>
     </row>
-    <row r="3960" ht="214" customHeight="1" spans="1:2">
+    <row r="3960" spans="1:2">
       <c r="A3960" s="7" t="s">
         <v>7669</v>
       </c>
@@ -59386,7 +59966,7 @@
         <v>7670</v>
       </c>
     </row>
-    <row r="3961" spans="1:2">
+    <row r="3961" ht="214" customHeight="1" spans="1:2">
       <c r="A3961" s="7" t="s">
         <v>7671</v>
       </c>
@@ -59426,7 +60006,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="3966" ht="33.6" spans="1:2">
+    <row r="3966" spans="1:2">
       <c r="A3966" s="7" t="s">
         <v>7681</v>
       </c>
@@ -59434,7 +60014,7 @@
         <v>7682</v>
       </c>
     </row>
-    <row r="3967" spans="1:2">
+    <row r="3967" ht="33.6" spans="1:2">
       <c r="A3967" s="7" t="s">
         <v>7683</v>
       </c>
@@ -59458,7 +60038,7 @@
         <v>7688</v>
       </c>
     </row>
-    <row r="3970" ht="184.8" spans="1:2">
+    <row r="3970" spans="1:2">
       <c r="A3970" s="7" t="s">
         <v>7689</v>
       </c>
@@ -59466,7 +60046,7 @@
         <v>7690</v>
       </c>
     </row>
-    <row r="3971" spans="1:2">
+    <row r="3971" ht="184.8" spans="1:2">
       <c r="A3971" s="7" t="s">
         <v>7691</v>
       </c>
@@ -59620,21 +60200,21 @@
     </row>
     <row r="3990" spans="1:2">
       <c r="A3990" s="7" t="s">
-        <v>812</v>
+        <v>7729</v>
       </c>
       <c r="B3990" s="7" t="s">
-        <v>7729</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
       <c r="A3991" s="7" t="s">
-        <v>7730</v>
+        <v>812</v>
       </c>
       <c r="B3991" s="7" t="s">
         <v>7731</v>
       </c>
     </row>
-    <row r="3992" ht="33.6" spans="1:2">
+    <row r="3992" spans="1:2">
       <c r="A3992" s="7" t="s">
         <v>7732</v>
       </c>
@@ -59642,7 +60222,7 @@
         <v>7733</v>
       </c>
     </row>
-    <row r="3993" spans="1:2">
+    <row r="3993" ht="33.6" spans="1:2">
       <c r="A3993" s="7" t="s">
         <v>7734</v>
       </c>
@@ -59658,7 +60238,7 @@
         <v>7737</v>
       </c>
     </row>
-    <row r="3995" ht="33.6" spans="1:2">
+    <row r="3995" spans="1:2">
       <c r="A3995" s="7" t="s">
         <v>7738</v>
       </c>
@@ -59666,7 +60246,7 @@
         <v>7739</v>
       </c>
     </row>
-    <row r="3996" spans="1:2">
+    <row r="3996" ht="33.6" spans="1:2">
       <c r="A3996" s="7" t="s">
         <v>7740</v>
       </c>
@@ -59714,7 +60294,7 @@
         <v>7751</v>
       </c>
     </row>
-    <row r="4002" ht="197" customHeight="1" spans="1:2">
+    <row r="4002" spans="1:2">
       <c r="A4002" s="7" t="s">
         <v>7752</v>
       </c>
@@ -59722,7 +60302,7 @@
         <v>7753</v>
       </c>
     </row>
-    <row r="4003" spans="1:2">
+    <row r="4003" ht="197" customHeight="1" spans="1:2">
       <c r="A4003" s="7" t="s">
         <v>7754</v>
       </c>
@@ -59732,15 +60312,15 @@
     </row>
     <row r="4004" spans="1:2">
       <c r="A4004" s="7" t="s">
-        <v>5593</v>
+        <v>7756</v>
       </c>
       <c r="B4004" s="7" t="s">
-        <v>7756</v>
+        <v>7757</v>
       </c>
     </row>
     <row r="4005" spans="1:2">
       <c r="A4005" s="7" t="s">
-        <v>7757</v>
+        <v>5593</v>
       </c>
       <c r="B4005" s="7" t="s">
         <v>7758</v>
@@ -59762,7 +60342,7 @@
         <v>7762</v>
       </c>
     </row>
-    <row r="4008" ht="33.6" spans="1:2">
+    <row r="4008" spans="1:2">
       <c r="A4008" s="7" t="s">
         <v>7763</v>
       </c>
@@ -59770,7 +60350,7 @@
         <v>7764</v>
       </c>
     </row>
-    <row r="4009" spans="1:2">
+    <row r="4009" ht="33.6" spans="1:2">
       <c r="A4009" s="7" t="s">
         <v>7765</v>
       </c>
@@ -59794,7 +60374,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="4012" ht="302.4" spans="1:2">
+    <row r="4012" spans="1:2">
       <c r="A4012" s="7" t="s">
         <v>7771</v>
       </c>
@@ -59802,7 +60382,7 @@
         <v>7772</v>
       </c>
     </row>
-    <row r="4013" spans="1:2">
+    <row r="4013" ht="302.4" spans="1:2">
       <c r="A4013" s="7" t="s">
         <v>7773</v>
       </c>
@@ -59866,7 +60446,7 @@
         <v>7788</v>
       </c>
     </row>
-    <row r="4021" ht="201.6" spans="1:2">
+    <row r="4021" spans="1:2">
       <c r="A4021" s="7" t="s">
         <v>7789</v>
       </c>
@@ -59874,7 +60454,7 @@
         <v>7790</v>
       </c>
     </row>
-    <row r="4022" spans="1:2">
+    <row r="4022" ht="201.6" spans="1:2">
       <c r="A4022" s="7" t="s">
         <v>7791</v>
       </c>
@@ -59975,18 +60555,18 @@
         <v>7815</v>
       </c>
       <c r="B4034" s="7" t="s">
-        <v>2069</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="4035" spans="1:2">
       <c r="A4035" s="7" t="s">
-        <v>7816</v>
+        <v>7817</v>
       </c>
       <c r="B4035" s="7" t="s">
-        <v>7817</v>
-      </c>
-    </row>
-    <row r="4036" ht="33.6" spans="1:2">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:2">
       <c r="A4036" s="7" t="s">
         <v>7818</v>
       </c>
@@ -59994,7 +60574,7 @@
         <v>7819</v>
       </c>
     </row>
-    <row r="4037" spans="1:2">
+    <row r="4037" ht="33.6" spans="1:2">
       <c r="A4037" s="7" t="s">
         <v>7820</v>
       </c>
@@ -60010,7 +60590,7 @@
         <v>7823</v>
       </c>
     </row>
-    <row r="4039" ht="161" customHeight="1" spans="1:2">
+    <row r="4039" spans="1:2">
       <c r="A4039" s="7" t="s">
         <v>7824</v>
       </c>
@@ -60018,23 +60598,23 @@
         <v>7825</v>
       </c>
     </row>
-    <row r="4040" spans="1:2">
+    <row r="4040" ht="161" customHeight="1" spans="1:2">
       <c r="A4040" s="7" t="s">
-        <v>4570</v>
+        <v>7826</v>
       </c>
       <c r="B4040" s="7" t="s">
-        <v>7826</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="4041" spans="1:2">
       <c r="A4041" s="7" t="s">
-        <v>7827</v>
+        <v>4570</v>
       </c>
       <c r="B4041" s="7" t="s">
         <v>7828</v>
       </c>
     </row>
-    <row r="4042" ht="67.2" spans="1:2">
+    <row r="4042" spans="1:2">
       <c r="A4042" s="7" t="s">
         <v>7829</v>
       </c>
@@ -60042,7 +60622,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="4043" spans="1:2">
+    <row r="4043" ht="67.2" spans="1:2">
       <c r="A4043" s="7" t="s">
         <v>7831</v>
       </c>
@@ -60050,7 +60630,7 @@
         <v>7832</v>
       </c>
     </row>
-    <row r="4044" ht="33.6" spans="1:2">
+    <row r="4044" spans="1:2">
       <c r="A4044" s="7" t="s">
         <v>7833</v>
       </c>
@@ -60058,7 +60638,7 @@
         <v>7834</v>
       </c>
     </row>
-    <row r="4045" spans="1:2">
+    <row r="4045" ht="33.6" spans="1:2">
       <c r="A4045" s="7" t="s">
         <v>7835</v>
       </c>
@@ -60199,15 +60779,15 @@
         <v>7869</v>
       </c>
       <c r="B4062" s="7" t="s">
-        <v>699</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="4063" spans="1:2">
       <c r="A4063" s="7" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="B4063" s="7" t="s">
-        <v>7871</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4064" spans="1:2">
@@ -60266,7 +60846,7 @@
         <v>7885</v>
       </c>
     </row>
-    <row r="4071" ht="50.4" spans="1:2">
+    <row r="4071" spans="1:2">
       <c r="A4071" s="7" t="s">
         <v>7886</v>
       </c>
@@ -60274,7 +60854,7 @@
         <v>7887</v>
       </c>
     </row>
-    <row r="4072" spans="1:2">
+    <row r="4072" ht="50.4" spans="1:2">
       <c r="A4072" s="7" t="s">
         <v>7888</v>
       </c>
@@ -60290,7 +60870,7 @@
         <v>7891</v>
       </c>
     </row>
-    <row r="4074" ht="260" customHeight="1" spans="1:2">
+    <row r="4074" spans="1:2">
       <c r="A4074" s="7" t="s">
         <v>7892</v>
       </c>
@@ -60298,7 +60878,7 @@
         <v>7893</v>
       </c>
     </row>
-    <row r="4075" ht="285.6" spans="1:2">
+    <row r="4075" ht="260" customHeight="1" spans="1:2">
       <c r="A4075" s="7" t="s">
         <v>7894</v>
       </c>
@@ -60306,7 +60886,7 @@
         <v>7895</v>
       </c>
     </row>
-    <row r="4076" spans="1:2">
+    <row r="4076" ht="285.6" spans="1:2">
       <c r="A4076" s="7" t="s">
         <v>7896</v>
       </c>
@@ -60316,21 +60896,21 @@
     </row>
     <row r="4077" spans="1:2">
       <c r="A4077" s="7" t="s">
-        <v>6332</v>
+        <v>7898</v>
       </c>
       <c r="B4077" s="7" t="s">
-        <v>7898</v>
-      </c>
-    </row>
-    <row r="4078" ht="100.8" spans="1:2">
+        <v>7899</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:2">
       <c r="A4078" s="7" t="s">
-        <v>7899</v>
+        <v>6334</v>
       </c>
       <c r="B4078" s="7" t="s">
         <v>7900</v>
       </c>
     </row>
-    <row r="4079" spans="1:2">
+    <row r="4079" ht="100.8" spans="1:2">
       <c r="A4079" s="7" t="s">
         <v>7901</v>
       </c>
@@ -60394,7 +60974,7 @@
         <v>7916</v>
       </c>
     </row>
-    <row r="4087" ht="201.6" spans="1:2">
+    <row r="4087" spans="1:2">
       <c r="A4087" s="7" t="s">
         <v>7917</v>
       </c>
@@ -60402,7 +60982,7 @@
         <v>7918</v>
       </c>
     </row>
-    <row r="4088" ht="134.4" spans="1:2">
+    <row r="4088" ht="201.6" spans="1:2">
       <c r="A4088" s="7" t="s">
         <v>7919</v>
       </c>
@@ -60410,7 +60990,7 @@
         <v>7920</v>
       </c>
     </row>
-    <row r="4089" ht="50.4" spans="1:2">
+    <row r="4089" ht="134.4" spans="1:2">
       <c r="A4089" s="7" t="s">
         <v>7921</v>
       </c>
@@ -60418,7 +60998,7 @@
         <v>7922</v>
       </c>
     </row>
-    <row r="4090" spans="1:2">
+    <row r="4090" ht="50.4" spans="1:2">
       <c r="A4090" s="7" t="s">
         <v>7923</v>
       </c>
@@ -60474,7 +61054,7 @@
         <v>7936</v>
       </c>
     </row>
-    <row r="4097" ht="184.8" spans="1:2">
+    <row r="4097" spans="1:2">
       <c r="A4097" s="7" t="s">
         <v>7937</v>
       </c>
@@ -60482,7 +61062,7 @@
         <v>7938</v>
       </c>
     </row>
-    <row r="4098" spans="1:2">
+    <row r="4098" ht="184.8" spans="1:2">
       <c r="A4098" s="7" t="s">
         <v>7939</v>
       </c>
@@ -60543,18 +61123,18 @@
         <v>7953</v>
       </c>
       <c r="B4105" s="7" t="s">
-        <v>5191</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="4106" spans="1:2">
       <c r="A4106" s="7" t="s">
-        <v>7954</v>
+        <v>7955</v>
       </c>
       <c r="B4106" s="7" t="s">
-        <v>7955</v>
-      </c>
-    </row>
-    <row r="4107" ht="218.4" spans="1:2">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:2">
       <c r="A4107" s="7" t="s">
         <v>7956</v>
       </c>
@@ -60562,7 +61142,7 @@
         <v>7957</v>
       </c>
     </row>
-    <row r="4108" ht="229" customHeight="1" spans="1:2">
+    <row r="4108" ht="218.4" spans="1:2">
       <c r="A4108" s="7" t="s">
         <v>7958</v>
       </c>
@@ -60570,7 +61150,7 @@
         <v>7959</v>
       </c>
     </row>
-    <row r="4109" spans="1:2">
+    <row r="4109" ht="229" customHeight="1" spans="1:2">
       <c r="A4109" s="7" t="s">
         <v>7960</v>
       </c>
@@ -60610,7 +61190,7 @@
         <v>7969</v>
       </c>
     </row>
-    <row r="4114" ht="50.4" spans="1:2">
+    <row r="4114" spans="1:2">
       <c r="A4114" s="7" t="s">
         <v>7970</v>
       </c>
@@ -60618,7 +61198,7 @@
         <v>7971</v>
       </c>
     </row>
-    <row r="4115" spans="1:2">
+    <row r="4115" ht="50.4" spans="1:2">
       <c r="A4115" s="7" t="s">
         <v>7972</v>
       </c>
@@ -60626,7 +61206,7 @@
         <v>7973</v>
       </c>
     </row>
-    <row r="4116" ht="134.4" spans="1:2">
+    <row r="4116" spans="1:2">
       <c r="A4116" s="7" t="s">
         <v>7974</v>
       </c>
@@ -60634,7 +61214,7 @@
         <v>7975</v>
       </c>
     </row>
-    <row r="4117" spans="1:2">
+    <row r="4117" ht="134.4" spans="1:2">
       <c r="A4117" s="7" t="s">
         <v>7976</v>
       </c>
@@ -60644,23 +61224,23 @@
     </row>
     <row r="4118" spans="1:2">
       <c r="A4118" s="7" t="s">
-        <v>780</v>
+        <v>7978</v>
       </c>
       <c r="B4118" s="7" t="s">
-        <v>7978</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
       <c r="A4119" s="7" t="s">
-        <v>1362</v>
+        <v>780</v>
       </c>
       <c r="B4119" s="7" t="s">
-        <v>7979</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
       <c r="A4120" s="7" t="s">
-        <v>7980</v>
+        <v>1362</v>
       </c>
       <c r="B4120" s="7" t="s">
         <v>7981</v>
@@ -60807,15 +61387,15 @@
         <v>8016</v>
       </c>
       <c r="B4138" s="7" t="s">
-        <v>2434</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
       <c r="A4139" s="7" t="s">
-        <v>8017</v>
+        <v>8018</v>
       </c>
       <c r="B4139" s="7" t="s">
-        <v>8018</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -60938,7 +61518,7 @@
         <v>8048</v>
       </c>
     </row>
-    <row r="4155" ht="74" customHeight="1" spans="1:2">
+    <row r="4155" spans="1:2">
       <c r="A4155" s="7" t="s">
         <v>8049</v>
       </c>
@@ -60946,7 +61526,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="4156" ht="258" customHeight="1" spans="1:2">
+    <row r="4156" ht="74" customHeight="1" spans="1:2">
       <c r="A4156" s="7" t="s">
         <v>8051</v>
       </c>
@@ -60954,7 +61534,7 @@
         <v>8052</v>
       </c>
     </row>
-    <row r="4157" ht="151.2" spans="1:2">
+    <row r="4157" ht="258" customHeight="1" spans="1:2">
       <c r="A4157" s="7" t="s">
         <v>8053</v>
       </c>
@@ -60962,7 +61542,7 @@
         <v>8054</v>
       </c>
     </row>
-    <row r="4158" spans="1:2">
+    <row r="4158" ht="151.2" spans="1:2">
       <c r="A4158" s="7" t="s">
         <v>8055</v>
       </c>
@@ -60994,7 +61574,7 @@
         <v>8062</v>
       </c>
     </row>
-    <row r="4162" ht="33.6" spans="1:2">
+    <row r="4162" spans="1:2">
       <c r="A4162" s="7" t="s">
         <v>8063</v>
       </c>
@@ -61002,7 +61582,7 @@
         <v>8064</v>
       </c>
     </row>
-    <row r="4163" spans="1:2">
+    <row r="4163" ht="33.6" spans="1:2">
       <c r="A4163" s="7" t="s">
         <v>8065</v>
       </c>
@@ -61018,7 +61598,7 @@
         <v>8068</v>
       </c>
     </row>
-    <row r="4165" ht="168" spans="1:2">
+    <row r="4165" spans="1:2">
       <c r="A4165" s="7" t="s">
         <v>8069</v>
       </c>
@@ -61026,7 +61606,7 @@
         <v>8070</v>
       </c>
     </row>
-    <row r="4166" ht="151.2" spans="1:2">
+    <row r="4166" ht="168" spans="1:2">
       <c r="A4166" s="7" t="s">
         <v>8071</v>
       </c>
@@ -61034,7 +61614,7 @@
         <v>8072</v>
       </c>
     </row>
-    <row r="4167" spans="1:2">
+    <row r="4167" ht="151.2" spans="1:2">
       <c r="A4167" s="7" t="s">
         <v>8073</v>
       </c>
@@ -61066,7 +61646,7 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="4171" ht="252" spans="1:2">
+    <row r="4171" spans="1:2">
       <c r="A4171" s="7" t="s">
         <v>8081</v>
       </c>
@@ -61074,7 +61654,7 @@
         <v>8082</v>
       </c>
     </row>
-    <row r="4172" ht="151.2" spans="1:2">
+    <row r="4172" ht="252" spans="1:2">
       <c r="A4172" s="7" t="s">
         <v>8083</v>
       </c>
@@ -61082,7 +61662,7 @@
         <v>8084</v>
       </c>
     </row>
-    <row r="4173" ht="209" customHeight="1" spans="1:2">
+    <row r="4173" ht="151.2" spans="1:2">
       <c r="A4173" s="7" t="s">
         <v>8085</v>
       </c>
@@ -61090,7 +61670,7 @@
         <v>8086</v>
       </c>
     </row>
-    <row r="4174" spans="1:2">
+    <row r="4174" ht="209" customHeight="1" spans="1:2">
       <c r="A4174" s="7" t="s">
         <v>8087</v>
       </c>
@@ -61146,7 +61726,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="4181" ht="134.4" spans="1:2">
+    <row r="4181" spans="1:2">
       <c r="A4181" s="7" t="s">
         <v>8101</v>
       </c>
@@ -61154,7 +61734,7 @@
         <v>8102</v>
       </c>
     </row>
-    <row r="4182" spans="1:2">
+    <row r="4182" ht="134.4" spans="1:2">
       <c r="A4182" s="7" t="s">
         <v>8103</v>
       </c>
@@ -61271,15 +61851,15 @@
         <v>8131</v>
       </c>
       <c r="B4196" s="7" t="s">
-        <v>7987</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
       <c r="A4197" s="7" t="s">
-        <v>8132</v>
+        <v>8133</v>
       </c>
       <c r="B4197" s="7" t="s">
-        <v>8133</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="4198" spans="1:2">
@@ -61354,7 +61934,7 @@
         <v>8151</v>
       </c>
     </row>
-    <row r="4207" ht="184.8" spans="1:2">
+    <row r="4207" spans="1:2">
       <c r="A4207" s="7" t="s">
         <v>8152</v>
       </c>
@@ -61362,7 +61942,7 @@
         <v>8153</v>
       </c>
     </row>
-    <row r="4208" spans="1:2">
+    <row r="4208" ht="184.8" spans="1:2">
       <c r="A4208" s="7" t="s">
         <v>8154</v>
       </c>
@@ -61402,7 +61982,7 @@
         <v>8163</v>
       </c>
     </row>
-    <row r="4213" ht="151.2" spans="1:2">
+    <row r="4213" spans="1:2">
       <c r="A4213" s="7" t="s">
         <v>8164</v>
       </c>
@@ -61410,7 +61990,7 @@
         <v>8165</v>
       </c>
     </row>
-    <row r="4214" ht="168" spans="1:2">
+    <row r="4214" ht="151.2" spans="1:2">
       <c r="A4214" s="7" t="s">
         <v>8166</v>
       </c>
@@ -61418,7 +61998,7 @@
         <v>8167</v>
       </c>
     </row>
-    <row r="4215" spans="1:2">
+    <row r="4215" ht="168" spans="1:2">
       <c r="A4215" s="7" t="s">
         <v>8168</v>
       </c>
@@ -61450,7 +62030,7 @@
         <v>8175</v>
       </c>
     </row>
-    <row r="4219" ht="270" customHeight="1" spans="1:2">
+    <row r="4219" spans="1:2">
       <c r="A4219" s="7" t="s">
         <v>8176</v>
       </c>
@@ -61458,7 +62038,7 @@
         <v>8177</v>
       </c>
     </row>
-    <row r="4220" ht="168" spans="1:2">
+    <row r="4220" ht="270" customHeight="1" spans="1:2">
       <c r="A4220" s="7" t="s">
         <v>8178</v>
       </c>
@@ -61466,7 +62046,7 @@
         <v>8179</v>
       </c>
     </row>
-    <row r="4221" spans="1:2">
+    <row r="4221" ht="168" spans="1:2">
       <c r="A4221" s="7" t="s">
         <v>8180</v>
       </c>
@@ -61474,7 +62054,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="4222" ht="33.6" spans="1:2">
+    <row r="4222" spans="1:2">
       <c r="A4222" s="7" t="s">
         <v>8182</v>
       </c>
@@ -61482,7 +62062,7 @@
         <v>8183</v>
       </c>
     </row>
-    <row r="4223" spans="1:2">
+    <row r="4223" ht="33.6" spans="1:2">
       <c r="A4223" s="7" t="s">
         <v>8184</v>
       </c>
@@ -61498,7 +62078,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="4225" ht="33.6" spans="1:2">
+    <row r="4225" spans="1:2">
       <c r="A4225" s="7" t="s">
         <v>8188</v>
       </c>
@@ -61506,7 +62086,7 @@
         <v>8189</v>
       </c>
     </row>
-    <row r="4226" spans="1:2">
+    <row r="4226" ht="33.6" spans="1:2">
       <c r="A4226" s="7" t="s">
         <v>8190</v>
       </c>
@@ -61562,7 +62142,7 @@
         <v>8203</v>
       </c>
     </row>
-    <row r="4233" ht="235.2" spans="1:2">
+    <row r="4233" spans="1:2">
       <c r="A4233" s="7" t="s">
         <v>8204</v>
       </c>
@@ -61570,7 +62150,7 @@
         <v>8205</v>
       </c>
     </row>
-    <row r="4234" ht="201.6" spans="1:2">
+    <row r="4234" ht="235.2" spans="1:2">
       <c r="A4234" s="7" t="s">
         <v>8206</v>
       </c>
@@ -61578,7 +62158,7 @@
         <v>8207</v>
       </c>
     </row>
-    <row r="4235" spans="1:2">
+    <row r="4235" ht="201.6" spans="1:2">
       <c r="A4235" s="7" t="s">
         <v>8208</v>
       </c>
@@ -61586,7 +62166,7 @@
         <v>8209</v>
       </c>
     </row>
-    <row r="4236" ht="151.2" spans="1:2">
+    <row r="4236" spans="1:2">
       <c r="A4236" s="7" t="s">
         <v>8210</v>
       </c>
@@ -61594,7 +62174,7 @@
         <v>8211</v>
       </c>
     </row>
-    <row r="4237" spans="1:2">
+    <row r="4237" ht="151.2" spans="1:2">
       <c r="A4237" s="7" t="s">
         <v>8212</v>
       </c>
@@ -61620,15 +62200,15 @@
     </row>
     <row r="4240" spans="1:2">
       <c r="A4240" s="7" t="s">
-        <v>7799</v>
+        <v>8218</v>
       </c>
       <c r="B4240" s="7" t="s">
-        <v>8218</v>
+        <v>8219</v>
       </c>
     </row>
     <row r="4241" spans="1:2">
       <c r="A4241" s="7" t="s">
-        <v>8219</v>
+        <v>7801</v>
       </c>
       <c r="B4241" s="7" t="s">
         <v>8220</v>
@@ -61743,18 +62323,18 @@
         <v>8247</v>
       </c>
       <c r="B4255" s="7" t="s">
-        <v>7037</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="4256" spans="1:2">
       <c r="A4256" s="7" t="s">
-        <v>8248</v>
+        <v>8249</v>
       </c>
       <c r="B4256" s="7" t="s">
-        <v>8249</v>
-      </c>
-    </row>
-    <row r="4257" ht="33.6" spans="1:2">
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2">
       <c r="A4257" s="7" t="s">
         <v>8250</v>
       </c>
@@ -61762,7 +62342,7 @@
         <v>8251</v>
       </c>
     </row>
-    <row r="4258" ht="33.6" spans="1:2">
+    <row r="4258" spans="1:2">
       <c r="A4258" s="7" t="s">
         <v>8252</v>
       </c>
@@ -61770,7 +62350,7 @@
         <v>8253</v>
       </c>
     </row>
-    <row r="4259" spans="1:2">
+    <row r="4259" ht="33.6" spans="1:2">
       <c r="A4259" s="7" t="s">
         <v>8254</v>
       </c>
@@ -61778,7 +62358,7 @@
         <v>8255</v>
       </c>
     </row>
-    <row r="4260" spans="1:2">
+    <row r="4260" ht="33.6" spans="1:2">
       <c r="A4260" s="7" t="s">
         <v>8256</v>
       </c>
@@ -61810,7 +62390,7 @@
         <v>8263</v>
       </c>
     </row>
-    <row r="4264" ht="33.6" spans="1:2">
+    <row r="4264" spans="1:2">
       <c r="A4264" s="7" t="s">
         <v>8264</v>
       </c>
@@ -61826,7 +62406,7 @@
         <v>8267</v>
       </c>
     </row>
-    <row r="4266" spans="1:2">
+    <row r="4266" ht="33.6" spans="1:2">
       <c r="A4266" s="7" t="s">
         <v>8268</v>
       </c>
@@ -61858,7 +62438,7 @@
         <v>8275</v>
       </c>
     </row>
-    <row r="4270" ht="319.2" spans="1:2">
+    <row r="4270" spans="1:2">
       <c r="A4270" s="7" t="s">
         <v>8276</v>
       </c>
@@ -61874,7 +62454,7 @@
         <v>8279</v>
       </c>
     </row>
-    <row r="4272" ht="33.6" spans="1:2">
+    <row r="4272" ht="319.2" spans="1:2">
       <c r="A4272" s="7" t="s">
         <v>8280</v>
       </c>
@@ -61890,7 +62470,7 @@
         <v>8283</v>
       </c>
     </row>
-    <row r="4274" spans="1:2">
+    <row r="4274" ht="33.6" spans="1:2">
       <c r="A4274" s="7" t="s">
         <v>8284</v>
       </c>
@@ -61922,7 +62502,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="4278" ht="210" customHeight="1" spans="1:2">
+    <row r="4278" spans="1:2">
       <c r="A4278" s="7" t="s">
         <v>8292</v>
       </c>
@@ -61930,7 +62510,7 @@
         <v>8293</v>
       </c>
     </row>
-    <row r="4279" ht="201.6" spans="1:2">
+    <row r="4279" spans="1:2">
       <c r="A4279" s="7" t="s">
         <v>8294</v>
       </c>
@@ -61938,7 +62518,7 @@
         <v>8295</v>
       </c>
     </row>
-    <row r="4280" spans="1:2">
+    <row r="4280" ht="210" customHeight="1" spans="1:2">
       <c r="A4280" s="7" t="s">
         <v>8296</v>
       </c>
@@ -61946,7 +62526,7 @@
         <v>8297</v>
       </c>
     </row>
-    <row r="4281" spans="1:2">
+    <row r="4281" ht="201.6" spans="1:2">
       <c r="A4281" s="7" t="s">
         <v>8298</v>
       </c>
@@ -61954,7 +62534,7 @@
         <v>8299</v>
       </c>
     </row>
-    <row r="4282" ht="33.6" spans="1:2">
+    <row r="4282" spans="1:2">
       <c r="A4282" s="7" t="s">
         <v>8300</v>
       </c>
@@ -61970,7 +62550,7 @@
         <v>8303</v>
       </c>
     </row>
-    <row r="4284" spans="1:2">
+    <row r="4284" ht="33.6" spans="1:2">
       <c r="A4284" s="7" t="s">
         <v>8304</v>
       </c>
@@ -62042,7 +62622,7 @@
         <v>8321</v>
       </c>
     </row>
-    <row r="4293" ht="319.2" spans="1:2">
+    <row r="4293" spans="1:2">
       <c r="A4293" s="7" t="s">
         <v>8322</v>
       </c>
@@ -62050,7 +62630,7 @@
         <v>8323</v>
       </c>
     </row>
-    <row r="4294" ht="218.4" spans="1:2">
+    <row r="4294" spans="1:2">
       <c r="A4294" s="7" t="s">
         <v>8324</v>
       </c>
@@ -62058,7 +62638,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="4295" spans="1:2">
+    <row r="4295" ht="319.2" spans="1:2">
       <c r="A4295" s="7" t="s">
         <v>8326</v>
       </c>
@@ -62066,7 +62646,7 @@
         <v>8327</v>
       </c>
     </row>
-    <row r="4296" spans="1:2">
+    <row r="4296" ht="218.4" spans="1:2">
       <c r="A4296" s="7" t="s">
         <v>8328</v>
       </c>
@@ -62178,7 +62758,7 @@
         <v>8355</v>
       </c>
     </row>
-    <row r="4310" ht="184.8" spans="1:2">
+    <row r="4310" spans="1:2">
       <c r="A4310" s="7" t="s">
         <v>8356</v>
       </c>
@@ -62194,7 +62774,7 @@
         <v>8359</v>
       </c>
     </row>
-    <row r="4312" spans="1:2">
+    <row r="4312" ht="184.8" spans="1:2">
       <c r="A4312" s="7" t="s">
         <v>8360</v>
       </c>
@@ -62434,7 +63014,7 @@
         <v>8419</v>
       </c>
     </row>
-    <row r="4342" ht="33.6" spans="1:2">
+    <row r="4342" spans="1:2">
       <c r="A4342" s="7" t="s">
         <v>8420</v>
       </c>
@@ -62450,7 +63030,7 @@
         <v>8423</v>
       </c>
     </row>
-    <row r="4344" ht="184.8" spans="1:2">
+    <row r="4344" ht="33.6" spans="1:2">
       <c r="A4344" s="7" t="s">
         <v>8424</v>
       </c>
@@ -62458,7 +63038,7 @@
         <v>8425</v>
       </c>
     </row>
-    <row r="4345" ht="100.8" spans="1:2">
+    <row r="4345" spans="1:2">
       <c r="A4345" s="7" t="s">
         <v>8426</v>
       </c>
@@ -62466,7 +63046,7 @@
         <v>8427</v>
       </c>
     </row>
-    <row r="4346" spans="1:2">
+    <row r="4346" ht="184.8" spans="1:2">
       <c r="A4346" s="7" t="s">
         <v>8428</v>
       </c>
@@ -62474,7 +63054,7 @@
         <v>8429</v>
       </c>
     </row>
-    <row r="4347" spans="1:2">
+    <row r="4347" ht="100.8" spans="1:2">
       <c r="A4347" s="7" t="s">
         <v>8430</v>
       </c>
@@ -62546,847 +63126,847 @@
         <v>8447</v>
       </c>
     </row>
-    <row r="4356" ht="252" spans="1:2">
+    <row r="4356" spans="1:2">
       <c r="A4356" s="7" t="s">
         <v>8448</v>
       </c>
       <c r="B4356" s="7" t="s">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2">
+      <c r="A4357" s="7" t="s">
         <v>8449</v>
       </c>
-    </row>
-    <row r="4357" ht="218.4" spans="1:2">
-      <c r="A4357" s="7" t="s">
+      <c r="B4357" s="7" t="s">
         <v>8450</v>
       </c>
-      <c r="B4357" s="7" t="s">
+    </row>
+    <row r="4358" ht="252" spans="1:2">
+      <c r="A4358" s="7" t="s">
         <v>8451</v>
       </c>
-    </row>
-    <row r="4358" spans="1:2">
-      <c r="A4358" s="7" t="s">
+      <c r="B4358" s="7" t="s">
         <v>8452</v>
       </c>
-      <c r="B4358" s="7" t="s">
+    </row>
+    <row r="4359" ht="218.4" spans="1:2">
+      <c r="A4359" s="7" t="s">
         <v>8453</v>
       </c>
-    </row>
-    <row r="4359" spans="1:2">
-      <c r="A4359" s="7" t="s">
+      <c r="B4359" s="7" t="s">
         <v>8454</v>
-      </c>
-      <c r="B4359" s="7" t="s">
-        <v>8455</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
       <c r="A4360" s="7" t="s">
+        <v>8455</v>
+      </c>
+      <c r="B4360" s="7" t="s">
         <v>8456</v>
-      </c>
-      <c r="B4360" s="7" t="s">
-        <v>8457</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
       <c r="A4361" s="7" t="s">
+        <v>8457</v>
+      </c>
+      <c r="B4361" s="7" t="s">
         <v>8458</v>
-      </c>
-      <c r="B4361" s="7" t="s">
-        <v>8459</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
       <c r="A4362" s="7" t="s">
+        <v>8459</v>
+      </c>
+      <c r="B4362" s="7" t="s">
         <v>8460</v>
       </c>
-      <c r="B4362" s="7" t="s">
+    </row>
+    <row r="4363" spans="1:2">
+      <c r="A4363" s="7" t="s">
         <v>8461</v>
       </c>
-    </row>
-    <row r="4363" ht="33.6" spans="1:2">
-      <c r="A4363" s="7" t="s">
+      <c r="B4363" s="7" t="s">
         <v>8462</v>
-      </c>
-      <c r="B4363" s="7" t="s">
-        <v>8463</v>
       </c>
     </row>
     <row r="4364" spans="1:2">
       <c r="A4364" s="7" t="s">
+        <v>8463</v>
+      </c>
+      <c r="B4364" s="7" t="s">
         <v>8464</v>
       </c>
-      <c r="B4364" s="7" t="s">
+    </row>
+    <row r="4365" ht="33.6" spans="1:2">
+      <c r="A4365" s="7" t="s">
         <v>8465</v>
       </c>
-    </row>
-    <row r="4365" ht="201.6" spans="1:2">
-      <c r="A4365" s="7" t="s">
+      <c r="B4365" s="7" t="s">
         <v>8466</v>
       </c>
-      <c r="B4365" s="7" t="s">
+    </row>
+    <row r="4366" spans="1:2">
+      <c r="A4366" s="7" t="s">
         <v>8467</v>
       </c>
-    </row>
-    <row r="4366" ht="151.2" spans="1:2">
-      <c r="A4366" s="7" t="s">
+      <c r="B4366" s="7" t="s">
         <v>8468</v>
       </c>
-      <c r="B4366" s="7" t="s">
+    </row>
+    <row r="4367" ht="201.6" spans="1:2">
+      <c r="A4367" s="7" t="s">
         <v>8469</v>
       </c>
-    </row>
-    <row r="4367" spans="1:2">
-      <c r="A4367" s="7" t="s">
+      <c r="B4367" s="7" t="s">
         <v>8470</v>
       </c>
-      <c r="B4367" s="7" t="s">
+    </row>
+    <row r="4368" ht="151.2" spans="1:2">
+      <c r="A4368" s="7" t="s">
         <v>8471</v>
       </c>
-    </row>
-    <row r="4368" spans="1:2">
-      <c r="A4368" s="7" t="s">
+      <c r="B4368" s="7" t="s">
         <v>8472</v>
-      </c>
-      <c r="B4368" s="7" t="s">
-        <v>8473</v>
       </c>
     </row>
     <row r="4369" spans="1:2">
       <c r="A4369" s="7" t="s">
+        <v>8473</v>
+      </c>
+      <c r="B4369" s="7" t="s">
         <v>8474</v>
-      </c>
-      <c r="B4369" s="7" t="s">
-        <v>8475</v>
       </c>
     </row>
     <row r="4370" spans="1:2">
       <c r="A4370" s="7" t="s">
+        <v>8475</v>
+      </c>
+      <c r="B4370" s="7" t="s">
         <v>8476</v>
-      </c>
-      <c r="B4370" s="7" t="s">
-        <v>8477</v>
       </c>
     </row>
     <row r="4371" spans="1:2">
       <c r="A4371" s="7" t="s">
+        <v>8477</v>
+      </c>
+      <c r="B4371" s="7" t="s">
         <v>8478</v>
-      </c>
-      <c r="B4371" s="7" t="s">
-        <v>8479</v>
       </c>
     </row>
     <row r="4372" spans="1:2">
       <c r="A4372" s="7" t="s">
+        <v>8479</v>
+      </c>
+      <c r="B4372" s="7" t="s">
         <v>8480</v>
-      </c>
-      <c r="B4372" s="7" t="s">
-        <v>8481</v>
       </c>
     </row>
     <row r="4373" spans="1:2">
       <c r="A4373" s="7" t="s">
+        <v>8481</v>
+      </c>
+      <c r="B4373" s="7" t="s">
         <v>8482</v>
-      </c>
-      <c r="B4373" s="7" t="s">
-        <v>8483</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
       <c r="A4374" s="7" t="s">
+        <v>8483</v>
+      </c>
+      <c r="B4374" s="7" t="s">
         <v>8484</v>
-      </c>
-      <c r="B4374" s="7" t="s">
-        <v>8485</v>
       </c>
     </row>
     <row r="4375" spans="1:2">
       <c r="A4375" s="7" t="s">
+        <v>8485</v>
+      </c>
+      <c r="B4375" s="7" t="s">
         <v>8486</v>
-      </c>
-      <c r="B4375" s="7" t="s">
-        <v>8487</v>
       </c>
     </row>
     <row r="4376" spans="1:2">
       <c r="A4376" s="7" t="s">
+        <v>8487</v>
+      </c>
+      <c r="B4376" s="7" t="s">
         <v>8488</v>
-      </c>
-      <c r="B4376" s="7" t="s">
-        <v>8489</v>
       </c>
     </row>
     <row r="4377" spans="1:2">
       <c r="A4377" s="7" t="s">
+        <v>8489</v>
+      </c>
+      <c r="B4377" s="7" t="s">
         <v>8490</v>
-      </c>
-      <c r="B4377" s="7" t="s">
-        <v>8491</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
       <c r="A4378" s="7" t="s">
+        <v>8491</v>
+      </c>
+      <c r="B4378" s="7" t="s">
         <v>8492</v>
-      </c>
-      <c r="B4378" s="7" t="s">
-        <v>8493</v>
       </c>
     </row>
     <row r="4379" spans="1:2">
       <c r="A4379" s="7" t="s">
+        <v>8493</v>
+      </c>
+      <c r="B4379" s="7" t="s">
         <v>8494</v>
-      </c>
-      <c r="B4379" s="7" t="s">
-        <v>8495</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
       <c r="A4380" s="7" t="s">
+        <v>8495</v>
+      </c>
+      <c r="B4380" s="7" t="s">
         <v>8496</v>
-      </c>
-      <c r="B4380" s="7" t="s">
-        <v>8497</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
       <c r="A4381" s="7" t="s">
+        <v>8497</v>
+      </c>
+      <c r="B4381" s="7" t="s">
         <v>8498</v>
-      </c>
-      <c r="B4381" s="7" t="s">
-        <v>8499</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
       <c r="A4382" s="7" t="s">
+        <v>8499</v>
+      </c>
+      <c r="B4382" s="7" t="s">
         <v>8500</v>
       </c>
-      <c r="B4382" s="7" t="s">
+    </row>
+    <row r="4383" spans="1:2">
+      <c r="A4383" s="7" t="s">
         <v>8501</v>
       </c>
-    </row>
-    <row r="4383" ht="33.6" spans="1:2">
-      <c r="A4383" s="7" t="s">
+      <c r="B4383" s="7" t="s">
         <v>8502</v>
       </c>
-      <c r="B4383" s="7" t="s">
+    </row>
+    <row r="4384" ht="33.6" spans="1:2">
+      <c r="A4384" s="7" t="s">
         <v>8503</v>
       </c>
-    </row>
-    <row r="4384" spans="1:2">
-      <c r="A4384" s="7" t="s">
+      <c r="B4384" s="7" t="s">
         <v>8504</v>
-      </c>
-      <c r="B4384" s="7" t="s">
-        <v>8505</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
       <c r="A4385" s="7" t="s">
+        <v>8505</v>
+      </c>
+      <c r="B4385" s="7" t="s">
         <v>8506</v>
-      </c>
-      <c r="B4385" s="7" t="s">
-        <v>8507</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
       <c r="A4386" s="7" t="s">
+        <v>8507</v>
+      </c>
+      <c r="B4386" s="7" t="s">
         <v>8508</v>
-      </c>
-      <c r="B4386" s="7" t="s">
-        <v>8509</v>
       </c>
     </row>
     <row r="4387" spans="1:2">
       <c r="A4387" s="7" t="s">
+        <v>8509</v>
+      </c>
+      <c r="B4387" s="7" t="s">
         <v>8510</v>
       </c>
-      <c r="B4387" s="7" t="s">
+    </row>
+    <row r="4388" spans="1:2">
+      <c r="A4388" s="7" t="s">
         <v>8511</v>
       </c>
-    </row>
-    <row r="4388" ht="33.6" spans="1:2">
-      <c r="A4388" s="7" t="s">
+      <c r="B4388" s="7" t="s">
         <v>8512</v>
       </c>
-      <c r="B4388" s="7" t="s">
+    </row>
+    <row r="4389" ht="33.6" spans="1:2">
+      <c r="A4389" s="7" t="s">
         <v>8513</v>
       </c>
-    </row>
-    <row r="4389" spans="1:2">
-      <c r="A4389" s="7" t="s">
+      <c r="B4389" s="7" t="s">
         <v>8514</v>
-      </c>
-      <c r="B4389" s="7" t="s">
-        <v>8515</v>
       </c>
     </row>
     <row r="4390" spans="1:2">
       <c r="A4390" s="7" t="s">
+        <v>8515</v>
+      </c>
+      <c r="B4390" s="7" t="s">
         <v>8516</v>
-      </c>
-      <c r="B4390" s="7" t="s">
-        <v>8517</v>
       </c>
     </row>
     <row r="4391" spans="1:2">
       <c r="A4391" s="7" t="s">
+        <v>8517</v>
+      </c>
+      <c r="B4391" s="7" t="s">
         <v>8518</v>
-      </c>
-      <c r="B4391" s="7" t="s">
-        <v>8519</v>
       </c>
     </row>
     <row r="4392" spans="1:2">
       <c r="A4392" s="7" t="s">
+        <v>8519</v>
+      </c>
+      <c r="B4392" s="7" t="s">
         <v>8520</v>
-      </c>
-      <c r="B4392" s="7" t="s">
-        <v>8521</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
       <c r="A4393" s="7" t="s">
+        <v>8521</v>
+      </c>
+      <c r="B4393" s="7" t="s">
         <v>8522</v>
-      </c>
-      <c r="B4393" s="7" t="s">
-        <v>8523</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
       <c r="A4394" s="7" t="s">
+        <v>8523</v>
+      </c>
+      <c r="B4394" s="7" t="s">
         <v>8524</v>
-      </c>
-      <c r="B4394" s="7" t="s">
-        <v>8525</v>
       </c>
     </row>
     <row r="4395" spans="1:2">
       <c r="A4395" s="7" t="s">
+        <v>8525</v>
+      </c>
+      <c r="B4395" s="7" t="s">
         <v>8526</v>
-      </c>
-      <c r="B4395" s="7" t="s">
-        <v>8527</v>
       </c>
     </row>
     <row r="4396" spans="1:2">
       <c r="A4396" s="7" t="s">
+        <v>8527</v>
+      </c>
+      <c r="B4396" s="7" t="s">
         <v>8528</v>
-      </c>
-      <c r="B4396" s="7" t="s">
-        <v>8529</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
       <c r="A4397" s="7" t="s">
+        <v>8529</v>
+      </c>
+      <c r="B4397" s="7" t="s">
         <v>8530</v>
-      </c>
-      <c r="B4397" s="7" t="s">
-        <v>8531</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
       <c r="A4398" s="7" t="s">
+        <v>8531</v>
+      </c>
+      <c r="B4398" s="7" t="s">
         <v>8532</v>
-      </c>
-      <c r="B4398" s="7" t="s">
-        <v>8533</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
       <c r="A4399" s="7" t="s">
+        <v>8533</v>
+      </c>
+      <c r="B4399" s="7" t="s">
         <v>8534</v>
-      </c>
-      <c r="B4399" s="7" t="s">
-        <v>8535</v>
       </c>
     </row>
     <row r="4400" spans="1:2">
       <c r="A4400" s="7" t="s">
+        <v>8535</v>
+      </c>
+      <c r="B4400" s="7" t="s">
         <v>8536</v>
       </c>
-      <c r="B4400" s="7" t="s">
+    </row>
+    <row r="4401" spans="1:2">
+      <c r="A4401" s="7" t="s">
         <v>8537</v>
       </c>
-    </row>
-    <row r="4401" ht="218.4" spans="1:2">
-      <c r="A4401" s="7" t="s">
+      <c r="B4401" s="7" t="s">
         <v>8538</v>
       </c>
-      <c r="B4401" s="7" t="s">
+    </row>
+    <row r="4402" spans="1:2">
+      <c r="A4402" s="7" t="s">
         <v>8539</v>
       </c>
-    </row>
-    <row r="4402" ht="285.6" spans="1:2">
-      <c r="A4402" s="7" t="s">
+      <c r="B4402" s="7" t="s">
         <v>8540</v>
-      </c>
-      <c r="B4402" s="7" t="s">
-        <v>8541</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
       <c r="A4403" s="7" t="s">
+        <v>8541</v>
+      </c>
+      <c r="B4403" s="7" t="s">
         <v>8542</v>
       </c>
-      <c r="B4403" s="7" t="s">
+    </row>
+    <row r="4404" ht="218.4" spans="1:2">
+      <c r="A4404" s="7" t="s">
         <v>8543</v>
       </c>
-    </row>
-    <row r="4404" spans="1:2">
-      <c r="A4404" s="7" t="s">
+      <c r="B4404" s="7" t="s">
         <v>8544</v>
       </c>
-      <c r="B4404" s="7" t="s">
+    </row>
+    <row r="4405" ht="285.6" spans="1:2">
+      <c r="A4405" s="7" t="s">
         <v>8545</v>
       </c>
-    </row>
-    <row r="4405" spans="1:2">
-      <c r="A4405" s="7" t="s">
+      <c r="B4405" s="7" t="s">
         <v>8546</v>
-      </c>
-      <c r="B4405" s="7" t="s">
-        <v>8547</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
       <c r="A4406" s="7" t="s">
+        <v>8547</v>
+      </c>
+      <c r="B4406" s="7" t="s">
         <v>8548</v>
-      </c>
-      <c r="B4406" s="7" t="s">
-        <v>8549</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
       <c r="A4407" s="7" t="s">
+        <v>8549</v>
+      </c>
+      <c r="B4407" s="7" t="s">
         <v>8550</v>
-      </c>
-      <c r="B4407" s="7" t="s">
-        <v>8551</v>
       </c>
     </row>
     <row r="4408" spans="1:2">
       <c r="A4408" s="7" t="s">
+        <v>8551</v>
+      </c>
+      <c r="B4408" s="7" t="s">
         <v>8552</v>
       </c>
-      <c r="B4408" s="7" t="s">
+    </row>
+    <row r="4409" spans="1:2">
+      <c r="A4409" s="7" t="s">
         <v>8553</v>
       </c>
-    </row>
-    <row r="4409" ht="336" spans="1:2">
-      <c r="A4409" s="7" t="s">
+      <c r="B4409" s="7" t="s">
         <v>8554</v>
       </c>
-      <c r="B4409" s="7" t="s">
+    </row>
+    <row r="4410" spans="1:2">
+      <c r="A4410" s="7" t="s">
         <v>8555</v>
       </c>
-    </row>
-    <row r="4410" ht="268.8" spans="1:2">
-      <c r="A4410" s="7" t="s">
+      <c r="B4410" s="7" t="s">
         <v>8556</v>
-      </c>
-      <c r="B4410" s="7" t="s">
-        <v>8557</v>
       </c>
     </row>
     <row r="4411" spans="1:2">
       <c r="A4411" s="7" t="s">
+        <v>8557</v>
+      </c>
+      <c r="B4411" s="7" t="s">
         <v>8558</v>
       </c>
-      <c r="B4411" s="7" t="s">
+    </row>
+    <row r="4412" ht="336" spans="1:2">
+      <c r="A4412" s="7" t="s">
         <v>8559</v>
       </c>
-    </row>
-    <row r="4412" spans="1:2">
-      <c r="A4412" s="7" t="s">
+      <c r="B4412" s="7" t="s">
         <v>8560</v>
       </c>
-      <c r="B4412" s="7" t="s">
+    </row>
+    <row r="4413" ht="268.8" spans="1:2">
+      <c r="A4413" s="7" t="s">
         <v>8561</v>
       </c>
-    </row>
-    <row r="4413" spans="1:2">
-      <c r="A4413" s="7" t="s">
+      <c r="B4413" s="7" t="s">
         <v>8562</v>
-      </c>
-      <c r="B4413" s="7" t="s">
-        <v>8563</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
       <c r="A4414" s="7" t="s">
+        <v>8563</v>
+      </c>
+      <c r="B4414" s="7" t="s">
         <v>8564</v>
-      </c>
-      <c r="B4414" s="7" t="s">
-        <v>8565</v>
       </c>
     </row>
     <row r="4415" spans="1:2">
       <c r="A4415" s="7" t="s">
+        <v>8565</v>
+      </c>
+      <c r="B4415" s="7" t="s">
         <v>8566</v>
-      </c>
-      <c r="B4415" s="7" t="s">
-        <v>8567</v>
       </c>
     </row>
     <row r="4416" spans="1:2">
       <c r="A4416" s="7" t="s">
+        <v>8567</v>
+      </c>
+      <c r="B4416" s="7" t="s">
         <v>8568</v>
-      </c>
-      <c r="B4416" s="7" t="s">
-        <v>8569</v>
       </c>
     </row>
     <row r="4417" spans="1:2">
       <c r="A4417" s="7" t="s">
+        <v>8569</v>
+      </c>
+      <c r="B4417" s="7" t="s">
         <v>8570</v>
       </c>
-      <c r="B4417" s="7" t="s">
+    </row>
+    <row r="4418" spans="1:2">
+      <c r="A4418" s="7" t="s">
         <v>8571</v>
       </c>
-    </row>
-    <row r="4418" ht="252" spans="1:2">
-      <c r="A4418" s="7" t="s">
+      <c r="B4418" s="7" t="s">
         <v>8572</v>
-      </c>
-      <c r="B4418" s="7" t="s">
-        <v>8573</v>
       </c>
     </row>
     <row r="4419" spans="1:2">
       <c r="A4419" s="7" t="s">
+        <v>8573</v>
+      </c>
+      <c r="B4419" s="7" t="s">
         <v>8574</v>
-      </c>
-      <c r="B4419" s="7" t="s">
-        <v>8575</v>
       </c>
     </row>
     <row r="4420" spans="1:2">
       <c r="A4420" s="7" t="s">
+        <v>8575</v>
+      </c>
+      <c r="B4420" s="7" t="s">
         <v>8576</v>
       </c>
-      <c r="B4420" s="7" t="s">
+    </row>
+    <row r="4421" ht="252" spans="1:2">
+      <c r="A4421" s="7" t="s">
         <v>8577</v>
       </c>
-    </row>
-    <row r="4421" spans="1:2">
-      <c r="A4421" s="7" t="s">
+      <c r="B4421" s="7" t="s">
         <v>8578</v>
-      </c>
-      <c r="B4421" s="7" t="s">
-        <v>8579</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
       <c r="A4422" s="7" t="s">
+        <v>8579</v>
+      </c>
+      <c r="B4422" s="7" t="s">
         <v>8580</v>
-      </c>
-      <c r="B4422" s="7" t="s">
-        <v>8581</v>
       </c>
     </row>
     <row r="4423" spans="1:2">
       <c r="A4423" s="7" t="s">
+        <v>8581</v>
+      </c>
+      <c r="B4423" s="7" t="s">
         <v>8582</v>
-      </c>
-      <c r="B4423" s="7" t="s">
-        <v>8583</v>
       </c>
     </row>
     <row r="4424" spans="1:2">
       <c r="A4424" s="7" t="s">
+        <v>8583</v>
+      </c>
+      <c r="B4424" s="7" t="s">
         <v>8584</v>
-      </c>
-      <c r="B4424" s="7" t="s">
-        <v>8585</v>
       </c>
     </row>
     <row r="4425" spans="1:2">
       <c r="A4425" s="7" t="s">
+        <v>8585</v>
+      </c>
+      <c r="B4425" s="7" t="s">
         <v>8586</v>
-      </c>
-      <c r="B4425" s="7" t="s">
-        <v>8587</v>
       </c>
     </row>
     <row r="4426" spans="1:2">
       <c r="A4426" s="7" t="s">
+        <v>8587</v>
+      </c>
+      <c r="B4426" s="7" t="s">
         <v>8588</v>
-      </c>
-      <c r="B4426" s="7" t="s">
-        <v>8589</v>
       </c>
     </row>
     <row r="4427" spans="1:2">
       <c r="A4427" s="7" t="s">
+        <v>8589</v>
+      </c>
+      <c r="B4427" s="7" t="s">
         <v>8590</v>
       </c>
-      <c r="B4427" s="7" t="s">
+    </row>
+    <row r="4428" spans="1:2">
+      <c r="A4428" s="7" t="s">
         <v>8591</v>
       </c>
-    </row>
-    <row r="4428" ht="168" spans="1:2">
-      <c r="A4428" s="7" t="s">
+      <c r="B4428" s="7" t="s">
         <v>8592</v>
       </c>
-      <c r="B4428" s="7" t="s">
+    </row>
+    <row r="4429" spans="1:2">
+      <c r="A4429" s="7" t="s">
         <v>8593</v>
       </c>
-    </row>
-    <row r="4429" ht="213" customHeight="1" spans="1:2">
-      <c r="A4429" s="7" t="s">
+      <c r="B4429" s="7" t="s">
         <v>8594</v>
       </c>
-      <c r="B4429" s="7" t="s">
+    </row>
+    <row r="4430" spans="1:2">
+      <c r="A4430" s="7" t="s">
         <v>8595</v>
       </c>
-    </row>
-    <row r="4430" ht="33.6" spans="1:2">
-      <c r="A4430" s="7" t="s">
+      <c r="B4430" s="7" t="s">
         <v>8596</v>
       </c>
-      <c r="B4430" s="7" t="s">
+    </row>
+    <row r="4431" ht="168" spans="1:2">
+      <c r="A4431" s="7" t="s">
         <v>8597</v>
       </c>
-    </row>
-    <row r="4431" spans="1:2">
-      <c r="A4431" s="7" t="s">
+      <c r="B4431" s="7" t="s">
         <v>8598</v>
       </c>
-      <c r="B4431" s="7" t="s">
+    </row>
+    <row r="4432" ht="213" customHeight="1" spans="1:2">
+      <c r="A4432" s="7" t="s">
         <v>8599</v>
       </c>
-    </row>
-    <row r="4432" spans="1:2">
-      <c r="A4432" s="7" t="s">
+      <c r="B4432" s="7" t="s">
         <v>8600</v>
       </c>
-      <c r="B4432" s="7" t="s">
+    </row>
+    <row r="4433" ht="33.6" spans="1:2">
+      <c r="A4433" s="7" t="s">
         <v>8601</v>
       </c>
-    </row>
-    <row r="4433" spans="1:2">
-      <c r="A4433" s="7" t="s">
+      <c r="B4433" s="7" t="s">
         <v>8602</v>
       </c>
-      <c r="B4433" s="7" t="s">
+    </row>
+    <row r="4434" spans="1:2">
+      <c r="A4434" s="7" t="s">
         <v>8603</v>
       </c>
-    </row>
-    <row r="4434" ht="352.8" spans="1:2">
-      <c r="A4434" s="7" t="s">
+      <c r="B4434" s="7" t="s">
         <v>8604</v>
-      </c>
-      <c r="B4434" s="7" t="s">
-        <v>8605</v>
       </c>
     </row>
     <row r="4435" spans="1:2">
       <c r="A4435" s="7" t="s">
+        <v>8605</v>
+      </c>
+      <c r="B4435" s="7" t="s">
         <v>8606</v>
-      </c>
-      <c r="B4435" s="7" t="s">
-        <v>8607</v>
       </c>
     </row>
     <row r="4436" spans="1:2">
       <c r="A4436" s="7" t="s">
+        <v>8607</v>
+      </c>
+      <c r="B4436" s="7" t="s">
         <v>8608</v>
       </c>
-      <c r="B4436" s="7" t="s">
+    </row>
+    <row r="4437" ht="352.8" spans="1:2">
+      <c r="A4437" s="7" t="s">
         <v>8609</v>
       </c>
-    </row>
-    <row r="4437" spans="1:2">
-      <c r="A4437" s="7" t="s">
+      <c r="B4437" s="7" t="s">
         <v>8610</v>
-      </c>
-      <c r="B4437" s="7" t="s">
-        <v>8611</v>
       </c>
     </row>
     <row r="4438" spans="1:2">
       <c r="A4438" s="7" t="s">
+        <v>8611</v>
+      </c>
+      <c r="B4438" s="7" t="s">
         <v>8612</v>
-      </c>
-      <c r="B4438" s="7" t="s">
-        <v>8613</v>
       </c>
     </row>
     <row r="4439" spans="1:2">
       <c r="A4439" s="7" t="s">
+        <v>8613</v>
+      </c>
+      <c r="B4439" s="7" t="s">
         <v>8614</v>
-      </c>
-      <c r="B4439" s="7" t="s">
-        <v>8615</v>
       </c>
     </row>
     <row r="4440" spans="1:2">
       <c r="A4440" s="7" t="s">
+        <v>8615</v>
+      </c>
+      <c r="B4440" s="7" t="s">
         <v>8616</v>
-      </c>
-      <c r="B4440" s="7" t="s">
-        <v>8617</v>
       </c>
     </row>
     <row r="4441" spans="1:2">
       <c r="A4441" s="7" t="s">
+        <v>8617</v>
+      </c>
+      <c r="B4441" s="7" t="s">
         <v>8618</v>
-      </c>
-      <c r="B4441" s="7" t="s">
-        <v>8619</v>
       </c>
     </row>
     <row r="4442" spans="1:2">
       <c r="A4442" s="7" t="s">
+        <v>8619</v>
+      </c>
+      <c r="B4442" s="7" t="s">
         <v>8620</v>
-      </c>
-      <c r="B4442" s="7" t="s">
-        <v>8621</v>
       </c>
     </row>
     <row r="4443" spans="1:2">
       <c r="A4443" s="7" t="s">
+        <v>8621</v>
+      </c>
+      <c r="B4443" s="7" t="s">
         <v>8622</v>
-      </c>
-      <c r="B4443" s="7" t="s">
-        <v>8623</v>
       </c>
     </row>
     <row r="4444" spans="1:2">
       <c r="A4444" s="7" t="s">
+        <v>8623</v>
+      </c>
+      <c r="B4444" s="7" t="s">
         <v>8624</v>
-      </c>
-      <c r="B4444" s="7" t="s">
-        <v>8625</v>
       </c>
     </row>
     <row r="4445" spans="1:2">
       <c r="A4445" s="7" t="s">
+        <v>8625</v>
+      </c>
+      <c r="B4445" s="7" t="s">
         <v>8626</v>
-      </c>
-      <c r="B4445" s="7" t="s">
-        <v>8627</v>
       </c>
     </row>
     <row r="4446" spans="1:2">
       <c r="A4446" s="7" t="s">
+        <v>8627</v>
+      </c>
+      <c r="B4446" s="7" t="s">
         <v>8628</v>
-      </c>
-      <c r="B4446" s="7" t="s">
-        <v>8629</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
       <c r="A4447" s="7" t="s">
+        <v>8629</v>
+      </c>
+      <c r="B4447" s="7" t="s">
         <v>8630</v>
-      </c>
-      <c r="B4447" s="7" t="s">
-        <v>8631</v>
       </c>
     </row>
     <row r="4448" spans="1:2">
       <c r="A4448" s="7" t="s">
+        <v>8631</v>
+      </c>
+      <c r="B4448" s="7" t="s">
         <v>8632</v>
-      </c>
-      <c r="B4448" s="7" t="s">
-        <v>8633</v>
       </c>
     </row>
     <row r="4449" spans="1:2">
       <c r="A4449" s="7" t="s">
+        <v>8633</v>
+      </c>
+      <c r="B4449" s="7" t="s">
         <v>8634</v>
-      </c>
-      <c r="B4449" s="7" t="s">
-        <v>8635</v>
       </c>
     </row>
     <row r="4450" spans="1:2">
       <c r="A4450" s="7" t="s">
+        <v>8635</v>
+      </c>
+      <c r="B4450" s="7" t="s">
         <v>8636</v>
-      </c>
-      <c r="B4450" s="7" t="s">
-        <v>8637</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
       <c r="A4451" s="7" t="s">
+        <v>8637</v>
+      </c>
+      <c r="B4451" s="7" t="s">
         <v>8638</v>
-      </c>
-      <c r="B4451" s="7" t="s">
-        <v>8639</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
       <c r="A4452" s="7" t="s">
+        <v>8639</v>
+      </c>
+      <c r="B4452" s="7" t="s">
         <v>8640</v>
-      </c>
-      <c r="B4452" s="7" t="s">
-        <v>8641</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
       <c r="A4453" s="7" t="s">
+        <v>8641</v>
+      </c>
+      <c r="B4453" s="7" t="s">
         <v>8642</v>
-      </c>
-      <c r="B4453" s="7" t="s">
-        <v>8643</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
       <c r="A4454" s="7" t="s">
+        <v>8643</v>
+      </c>
+      <c r="B4454" s="7" t="s">
         <v>8644</v>
-      </c>
-      <c r="B4454" s="7" t="s">
-        <v>8645</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
       <c r="A4455" s="7" t="s">
+        <v>8645</v>
+      </c>
+      <c r="B4455" s="7" t="s">
         <v>8646</v>
       </c>
-      <c r="B4455" s="7" t="s">
+    </row>
+    <row r="4456" spans="1:2">
+      <c r="A4456" s="7" t="s">
         <v>8647</v>
       </c>
-    </row>
-    <row r="4456" ht="336" spans="1:2">
-      <c r="A4456" s="7" t="s">
+      <c r="B4456" s="7" t="s">
         <v>8648</v>
-      </c>
-      <c r="B4456" s="7" t="s">
-        <v>8649</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
       <c r="A4457" s="7" t="s">
+        <v>8649</v>
+      </c>
+      <c r="B4457" s="7" t="s">
         <v>8650</v>
-      </c>
-      <c r="B4457" s="7" t="s">
-        <v>8651</v>
       </c>
     </row>
     <row r="4458" spans="1:2">
       <c r="A4458" s="7" t="s">
+        <v>8651</v>
+      </c>
+      <c r="B4458" s="7" t="s">
         <v>8652</v>
       </c>
-      <c r="B4458" s="7" t="s">
+    </row>
+    <row r="4459" ht="336" spans="1:2">
+      <c r="A4459" s="7" t="s">
         <v>8653</v>
       </c>
-    </row>
-    <row r="4459" spans="1:2">
-      <c r="A4459" s="7" t="s">
+      <c r="B4459" s="7" t="s">
         <v>8654</v>
-      </c>
-      <c r="B4459" s="7" t="s">
-        <v>8655</v>
       </c>
     </row>
     <row r="4460" spans="1:2">
       <c r="A4460" s="7" t="s">
-        <v>5037</v>
+        <v>8655</v>
       </c>
       <c r="B4460" s="7" t="s">
         <v>8656</v>
       </c>
     </row>
-    <row r="4461" ht="235.2" spans="1:2">
+    <row r="4461" spans="1:2">
       <c r="A4461" s="7" t="s">
         <v>8657</v>
       </c>
@@ -63394,7 +63974,7 @@
         <v>8658</v>
       </c>
     </row>
-    <row r="4462" ht="235.2" spans="1:2">
+    <row r="4462" spans="1:2">
       <c r="A4462" s="7" t="s">
         <v>8659</v>
       </c>
@@ -63404,186 +63984,186 @@
     </row>
     <row r="4463" spans="1:2">
       <c r="A4463" s="7" t="s">
+        <v>5037</v>
+      </c>
+      <c r="B4463" s="7" t="s">
         <v>8661</v>
       </c>
-      <c r="B4463" s="7" t="s">
+    </row>
+    <row r="4464" ht="235.2" spans="1:2">
+      <c r="A4464" s="7" t="s">
         <v>8662</v>
       </c>
-    </row>
-    <row r="4464" spans="1:2">
-      <c r="A4464" s="7" t="s">
+      <c r="B4464" s="7" t="s">
         <v>8663</v>
       </c>
-      <c r="B4464" s="7" t="s">
+    </row>
+    <row r="4465" ht="235.2" spans="1:2">
+      <c r="A4465" s="7" t="s">
         <v>8664</v>
       </c>
-    </row>
-    <row r="4465" spans="1:2">
-      <c r="A4465" s="7" t="s">
+      <c r="B4465" s="7" t="s">
         <v>8665</v>
-      </c>
-      <c r="B4465" s="7" t="s">
-        <v>8666</v>
       </c>
     </row>
     <row r="4466" spans="1:2">
       <c r="A4466" s="7" t="s">
+        <v>8666</v>
+      </c>
+      <c r="B4466" s="7" t="s">
         <v>8667</v>
-      </c>
-      <c r="B4466" s="7" t="s">
-        <v>8668</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
       <c r="A4467" s="7" t="s">
+        <v>8668</v>
+      </c>
+      <c r="B4467" s="7" t="s">
         <v>8669</v>
       </c>
-      <c r="B4467" s="7" t="s">
+    </row>
+    <row r="4468" spans="1:2">
+      <c r="A4468" s="7" t="s">
         <v>8670</v>
       </c>
-    </row>
-    <row r="4468" ht="252" spans="1:2">
-      <c r="A4468" s="7" t="s">
+      <c r="B4468" s="7" t="s">
         <v>8671</v>
       </c>
-      <c r="B4468" s="7" t="s">
+    </row>
+    <row r="4469" spans="1:2">
+      <c r="A4469" s="7" t="s">
         <v>8672</v>
       </c>
-    </row>
-    <row r="4469" ht="298" customHeight="1" spans="1:2">
-      <c r="A4469" s="7" t="s">
+      <c r="B4469" s="7" t="s">
         <v>8673</v>
-      </c>
-      <c r="B4469" s="7" t="s">
-        <v>8674</v>
       </c>
     </row>
     <row r="4470" spans="1:2">
       <c r="A4470" s="7" t="s">
+        <v>8674</v>
+      </c>
+      <c r="B4470" s="7" t="s">
         <v>8675</v>
       </c>
-      <c r="B4470" s="7" t="s">
+    </row>
+    <row r="4471" ht="252" spans="1:2">
+      <c r="A4471" s="7" t="s">
         <v>8676</v>
       </c>
-    </row>
-    <row r="4471" spans="1:2">
-      <c r="A4471" s="7" t="s">
+      <c r="B4471" s="7" t="s">
         <v>8677</v>
       </c>
-      <c r="B4471" s="7" t="s">
+    </row>
+    <row r="4472" ht="298" customHeight="1" spans="1:2">
+      <c r="A4472" s="7" t="s">
         <v>8678</v>
       </c>
-    </row>
-    <row r="4472" ht="302.4" spans="1:2">
-      <c r="A4472" s="7" t="s">
+      <c r="B4472" s="7" t="s">
         <v>8679</v>
       </c>
-      <c r="B4472" s="7" t="s">
+    </row>
+    <row r="4473" spans="1:2">
+      <c r="A4473" s="7" t="s">
         <v>8680</v>
       </c>
-    </row>
-    <row r="4473" ht="218.4" spans="1:2">
-      <c r="A4473" s="7" t="s">
+      <c r="B4473" s="7" t="s">
         <v>8681</v>
-      </c>
-      <c r="B4473" s="7" t="s">
-        <v>8682</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
       <c r="A4474" s="7" t="s">
+        <v>8682</v>
+      </c>
+      <c r="B4474" s="7" t="s">
         <v>8683</v>
       </c>
-      <c r="B4474" s="7" t="s">
+    </row>
+    <row r="4475" ht="302.4" spans="1:2">
+      <c r="A4475" s="7" t="s">
         <v>8684</v>
       </c>
-    </row>
-    <row r="4475" spans="1:2">
-      <c r="A4475" s="7" t="s">
+      <c r="B4475" s="7" t="s">
         <v>8685</v>
       </c>
-      <c r="B4475" s="7" t="s">
+    </row>
+    <row r="4476" ht="218.4" spans="1:2">
+      <c r="A4476" s="7" t="s">
         <v>8686</v>
       </c>
-    </row>
-    <row r="4476" spans="1:2">
-      <c r="A4476" s="7" t="s">
+      <c r="B4476" s="7" t="s">
         <v>8687</v>
-      </c>
-      <c r="B4476" s="7" t="s">
-        <v>8688</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
       <c r="A4477" s="7" t="s">
+        <v>8688</v>
+      </c>
+      <c r="B4477" s="7" t="s">
         <v>8689</v>
-      </c>
-      <c r="B4477" s="7" t="s">
-        <v>8690</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
       <c r="A4478" s="7" t="s">
+        <v>8690</v>
+      </c>
+      <c r="B4478" s="7" t="s">
         <v>8691</v>
-      </c>
-      <c r="B4478" s="7" t="s">
-        <v>8692</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
       <c r="A4479" s="7" t="s">
+        <v>8692</v>
+      </c>
+      <c r="B4479" s="7" t="s">
         <v>8693</v>
-      </c>
-      <c r="B4479" s="7" t="s">
-        <v>8694</v>
       </c>
     </row>
     <row r="4480" spans="1:2">
       <c r="A4480" s="7" t="s">
+        <v>8694</v>
+      </c>
+      <c r="B4480" s="7" t="s">
         <v>8695</v>
-      </c>
-      <c r="B4480" s="7" t="s">
-        <v>8696</v>
       </c>
     </row>
     <row r="4481" spans="1:2">
       <c r="A4481" s="7" t="s">
+        <v>8696</v>
+      </c>
+      <c r="B4481" s="7" t="s">
         <v>8697</v>
-      </c>
-      <c r="B4481" s="7" t="s">
-        <v>8698</v>
       </c>
     </row>
     <row r="4482" spans="1:2">
       <c r="A4482" s="7" t="s">
+        <v>8698</v>
+      </c>
+      <c r="B4482" s="7" t="s">
         <v>8699</v>
-      </c>
-      <c r="B4482" s="7" t="s">
-        <v>8700</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
       <c r="A4483" s="7" t="s">
+        <v>8700</v>
+      </c>
+      <c r="B4483" s="7" t="s">
         <v>8701</v>
-      </c>
-      <c r="B4483" s="7" t="s">
-        <v>8702</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
       <c r="A4484" s="7" t="s">
+        <v>8702</v>
+      </c>
+      <c r="B4484" s="7" t="s">
         <v>8703</v>
-      </c>
-      <c r="B4484" s="7" t="s">
-        <v>8704</v>
       </c>
     </row>
     <row r="4485" spans="1:2">
       <c r="A4485" s="7" t="s">
+        <v>8704</v>
+      </c>
+      <c r="B4485" s="7" t="s">
         <v>8705</v>
-      </c>
-      <c r="B4485" s="7" t="s">
-        <v>3334</v>
       </c>
     </row>
     <row r="4486" spans="1:2">
@@ -63607,47 +64187,47 @@
         <v>8710</v>
       </c>
       <c r="B4488" s="7" t="s">
-        <v>8711</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="4489" spans="1:2">
       <c r="A4489" s="7" t="s">
+        <v>8711</v>
+      </c>
+      <c r="B4489" s="7" t="s">
         <v>8712</v>
-      </c>
-      <c r="B4489" s="7" t="s">
-        <v>8713</v>
       </c>
     </row>
     <row r="4490" spans="1:2">
       <c r="A4490" s="7" t="s">
+        <v>8713</v>
+      </c>
+      <c r="B4490" s="7" t="s">
         <v>8714</v>
-      </c>
-      <c r="B4490" s="7" t="s">
-        <v>8715</v>
       </c>
     </row>
     <row r="4491" spans="1:2">
       <c r="A4491" s="7" t="s">
+        <v>8715</v>
+      </c>
+      <c r="B4491" s="7" t="s">
         <v>8716</v>
-      </c>
-      <c r="B4491" s="7" t="s">
-        <v>8717</v>
       </c>
     </row>
     <row r="4492" spans="1:2">
       <c r="A4492" s="7" t="s">
+        <v>8717</v>
+      </c>
+      <c r="B4492" s="7" t="s">
         <v>8718</v>
-      </c>
-      <c r="B4492" s="7" t="s">
-        <v>8719</v>
       </c>
     </row>
     <row r="4493" spans="1:2">
       <c r="A4493" s="7" t="s">
+        <v>8719</v>
+      </c>
+      <c r="B4493" s="7" t="s">
         <v>8720</v>
-      </c>
-      <c r="B4493" s="7" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="4494" spans="1:2">
@@ -63660,18 +64240,18 @@
     </row>
     <row r="4495" spans="1:2">
       <c r="A4495" s="7" t="s">
-        <v>5299</v>
+        <v>8723</v>
       </c>
       <c r="B4495" s="7" t="s">
-        <v>8723</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
       <c r="A4496" s="7" t="s">
-        <v>8724</v>
+        <v>8725</v>
       </c>
       <c r="B4496" s="7" t="s">
-        <v>8725</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -63684,250 +64264,962 @@
     </row>
     <row r="4498" spans="1:2">
       <c r="A4498" s="7" t="s">
+        <v>5299</v>
+      </c>
+      <c r="B4498" s="7" t="s">
         <v>8728</v>
-      </c>
-      <c r="B4498" s="7" t="s">
-        <v>8729</v>
       </c>
     </row>
     <row r="4499" spans="1:2">
       <c r="A4499" s="7" t="s">
+        <v>8729</v>
+      </c>
+      <c r="B4499" s="7" t="s">
         <v>8730</v>
-      </c>
-      <c r="B4499" s="7" t="s">
-        <v>8731</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
       <c r="A4500" s="7" t="s">
+        <v>8731</v>
+      </c>
+      <c r="B4500" s="7" t="s">
         <v>8732</v>
       </c>
-      <c r="B4500" s="7" t="s">
+    </row>
+    <row r="4501" spans="1:2">
+      <c r="A4501" s="7" t="s">
         <v>8733</v>
       </c>
-    </row>
-    <row r="4501" ht="134.4" spans="1:2">
-      <c r="A4501" s="7" t="s">
+      <c r="B4501" s="7" t="s">
         <v>8734</v>
-      </c>
-      <c r="B4501" s="7" t="s">
-        <v>8735</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
       <c r="A4502" s="7" t="s">
+        <v>8735</v>
+      </c>
+      <c r="B4502" s="7" t="s">
         <v>8736</v>
-      </c>
-      <c r="B4502" s="7" t="s">
-        <v>8737</v>
       </c>
     </row>
     <row r="4503" spans="1:2">
       <c r="A4503" s="7" t="s">
+        <v>8737</v>
+      </c>
+      <c r="B4503" s="7" t="s">
         <v>8738</v>
       </c>
-      <c r="B4503" s="7" t="s">
+    </row>
+    <row r="4504" ht="134.4" spans="1:2">
+      <c r="A4504" s="7" t="s">
         <v>8739</v>
       </c>
-    </row>
-    <row r="4504" ht="235.2" spans="1:2">
-      <c r="A4504" s="7" t="s">
+      <c r="B4504" s="7" t="s">
         <v>8740</v>
       </c>
-      <c r="B4504" s="7" t="s">
+    </row>
+    <row r="4505" spans="1:2">
+      <c r="A4505" s="7" t="s">
         <v>8741</v>
       </c>
-    </row>
-    <row r="4505" ht="319.2" spans="1:2">
-      <c r="A4505" s="7" t="s">
+      <c r="B4505" s="7" t="s">
         <v>8742</v>
-      </c>
-      <c r="B4505" s="7" t="s">
-        <v>8743</v>
       </c>
     </row>
     <row r="4506" spans="1:2">
       <c r="A4506" s="7" t="s">
+        <v>8743</v>
+      </c>
+      <c r="B4506" s="7" t="s">
         <v>8744</v>
       </c>
-      <c r="B4506" s="7" t="s">
+    </row>
+    <row r="4507" ht="235.2" spans="1:2">
+      <c r="A4507" s="7" t="s">
         <v>8745</v>
       </c>
-    </row>
-    <row r="4507" spans="1:2">
-      <c r="A4507" s="7" t="s">
+      <c r="B4507" s="7" t="s">
         <v>8746</v>
       </c>
-      <c r="B4507" s="7" t="s">
+    </row>
+    <row r="4508" ht="319.2" spans="1:2">
+      <c r="A4508" s="7" t="s">
         <v>8747</v>
       </c>
-    </row>
-    <row r="4508" spans="1:2">
-      <c r="A4508" s="7" t="s">
+      <c r="B4508" s="7" t="s">
         <v>8748</v>
       </c>
-      <c r="B4508" s="7" t="s">
+    </row>
+    <row r="4509" spans="1:2">
+      <c r="A4509" s="7" t="s">
         <v>8749</v>
       </c>
-    </row>
-    <row r="4509" ht="184.8" spans="1:2">
-      <c r="A4509" s="7" t="s">
+      <c r="B4509" s="7" t="s">
         <v>8750</v>
-      </c>
-      <c r="B4509" s="7" t="s">
-        <v>8751</v>
       </c>
     </row>
     <row r="4510" spans="1:2">
       <c r="A4510" s="7" t="s">
+        <v>8751</v>
+      </c>
+      <c r="B4510" s="7" t="s">
         <v>8752</v>
-      </c>
-      <c r="B4510" s="7" t="s">
-        <v>8753</v>
       </c>
     </row>
     <row r="4511" spans="1:2">
       <c r="A4511" s="7" t="s">
+        <v>8753</v>
+      </c>
+      <c r="B4511" s="7" t="s">
         <v>8754</v>
       </c>
-      <c r="B4511" s="7" t="s">
+    </row>
+    <row r="4512" ht="184.8" spans="1:2">
+      <c r="A4512" s="7" t="s">
         <v>8755</v>
       </c>
-    </row>
-    <row r="4512" spans="1:2">
-      <c r="A4512" s="7" t="s">
+      <c r="B4512" s="7" t="s">
         <v>8756</v>
       </c>
-      <c r="B4512" s="7" t="s">
+    </row>
+    <row r="4513" spans="1:2">
+      <c r="A4513" s="7" t="s">
         <v>8757</v>
       </c>
-    </row>
-    <row r="4513" ht="302.4" spans="1:2">
-      <c r="A4513" s="7" t="s">
+      <c r="B4513" s="7" t="s">
         <v>8758</v>
-      </c>
-      <c r="B4513" s="7" t="s">
-        <v>8759</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
       <c r="A4514" s="7" t="s">
+        <v>8759</v>
+      </c>
+      <c r="B4514" s="7" t="s">
         <v>8760</v>
-      </c>
-      <c r="B4514" s="7" t="s">
-        <v>8761</v>
       </c>
     </row>
     <row r="4515" spans="1:2">
       <c r="A4515" s="7" t="s">
+        <v>8761</v>
+      </c>
+      <c r="B4515" s="7" t="s">
         <v>8762</v>
       </c>
-      <c r="B4515" s="7" t="s">
+    </row>
+    <row r="4516" ht="302.4" spans="1:2">
+      <c r="A4516" s="7" t="s">
         <v>8763</v>
       </c>
-    </row>
-    <row r="4516" spans="1:2">
-      <c r="A4516" s="7" t="s">
+      <c r="B4516" s="7" t="s">
         <v>8764</v>
-      </c>
-      <c r="B4516" s="7" t="s">
-        <v>8765</v>
       </c>
     </row>
     <row r="4517" spans="1:2">
       <c r="A4517" s="7" t="s">
+        <v>8765</v>
+      </c>
+      <c r="B4517" s="7" t="s">
         <v>8766</v>
-      </c>
-      <c r="B4517" s="7" t="s">
-        <v>8767</v>
       </c>
     </row>
     <row r="4518" spans="1:2">
       <c r="A4518" s="7" t="s">
+        <v>8767</v>
+      </c>
+      <c r="B4518" s="7" t="s">
         <v>8768</v>
       </c>
-      <c r="B4518" s="7" t="s">
+    </row>
+    <row r="4519" spans="1:2">
+      <c r="A4519" s="7" t="s">
         <v>8769</v>
       </c>
-    </row>
-    <row r="4519" ht="218.4" spans="1:2">
-      <c r="A4519" s="7" t="s">
+      <c r="B4519" s="7" t="s">
         <v>8770</v>
-      </c>
-      <c r="B4519" s="7" t="s">
-        <v>8771</v>
       </c>
     </row>
     <row r="4520" spans="1:2">
       <c r="A4520" s="7" t="s">
+        <v>8771</v>
+      </c>
+      <c r="B4520" s="7" t="s">
         <v>8772</v>
-      </c>
-      <c r="B4520" s="7" t="s">
-        <v>8773</v>
       </c>
     </row>
     <row r="4521" spans="1:2">
       <c r="A4521" s="7" t="s">
+        <v>8773</v>
+      </c>
+      <c r="B4521" s="7" t="s">
         <v>8774</v>
       </c>
-      <c r="B4521" s="7" t="s">
+    </row>
+    <row r="4522" ht="218.4" spans="1:2">
+      <c r="A4522" s="7" t="s">
         <v>8775</v>
       </c>
-    </row>
-    <row r="4522" spans="1:2">
-      <c r="A4522" s="7" t="s">
+      <c r="B4522" s="7" t="s">
         <v>8776</v>
-      </c>
-      <c r="B4522" s="7" t="s">
-        <v>8777</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
       <c r="A4523" s="7" t="s">
+        <v>8777</v>
+      </c>
+      <c r="B4523" s="7" t="s">
         <v>8778</v>
-      </c>
-      <c r="B4523" s="7" t="s">
-        <v>8779</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
       <c r="A4524" s="7" t="s">
+        <v>8779</v>
+      </c>
+      <c r="B4524" s="7" t="s">
         <v>8780</v>
-      </c>
-      <c r="B4524" s="7" t="s">
-        <v>8781</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
       <c r="A4525" s="7" t="s">
+        <v>8781</v>
+      </c>
+      <c r="B4525" s="7" t="s">
         <v>8782</v>
-      </c>
-      <c r="B4525" s="7" t="s">
-        <v>8783</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
       <c r="A4526" s="7" t="s">
+        <v>8783</v>
+      </c>
+      <c r="B4526" s="7" t="s">
         <v>8784</v>
-      </c>
-      <c r="B4526" s="7" t="s">
-        <v>8785</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
       <c r="A4527" s="7" t="s">
+        <v>8785</v>
+      </c>
+      <c r="B4527" s="7" t="s">
         <v>8786</v>
-      </c>
-      <c r="B4527" s="7" t="s">
-        <v>8787</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
       <c r="A4528" s="7" t="s">
+        <v>8787</v>
+      </c>
+      <c r="B4528" s="7" t="s">
         <v>8788</v>
       </c>
-      <c r="B4528" s="7" t="s">
+    </row>
+    <row r="4529" spans="1:2">
+      <c r="A4529" s="7" t="s">
         <v>8789</v>
+      </c>
+      <c r="B4529" s="7" t="s">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:2">
+      <c r="A4530" s="7" t="s">
+        <v>8791</v>
+      </c>
+      <c r="B4530" s="7" t="s">
+        <v>8792</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:2">
+      <c r="A4531" s="7" t="s">
+        <v>8793</v>
+      </c>
+      <c r="B4531" s="7" t="s">
+        <v>8794</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:2">
+      <c r="A4532" s="7" t="s">
+        <v>8795</v>
+      </c>
+      <c r="B4532" s="7" t="s">
+        <v>8796</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:2">
+      <c r="A4533" s="7" t="s">
+        <v>8797</v>
+      </c>
+      <c r="B4533" s="7" t="s">
+        <v>8798</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:2">
+      <c r="A4534" s="7" t="s">
+        <v>8799</v>
+      </c>
+      <c r="B4534" s="7" t="s">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:2">
+      <c r="A4535" s="7" t="s">
+        <v>8801</v>
+      </c>
+      <c r="B4535" s="7" t="s">
+        <v>8802</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:2">
+      <c r="A4536" s="7" t="s">
+        <v>8803</v>
+      </c>
+      <c r="B4536" s="7" t="s">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:2">
+      <c r="A4537" s="7" t="s">
+        <v>8805</v>
+      </c>
+      <c r="B4537" s="7" t="s">
+        <v>8806</v>
+      </c>
+    </row>
+    <row r="4538" spans="1:2">
+      <c r="A4538" s="7" t="s">
+        <v>8807</v>
+      </c>
+      <c r="B4538" s="7" t="s">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="4539" spans="1:2">
+      <c r="A4539" s="7" t="s">
+        <v>8809</v>
+      </c>
+      <c r="B4539" s="7" t="s">
+        <v>8810</v>
+      </c>
+    </row>
+    <row r="4540" spans="1:2">
+      <c r="A4540" s="7" t="s">
+        <v>8811</v>
+      </c>
+      <c r="B4540" s="7" t="s">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="4541" spans="1:2">
+      <c r="A4541" s="7" t="s">
+        <v>8813</v>
+      </c>
+      <c r="B4541" s="7" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="4542" ht="184.8" spans="1:2">
+      <c r="A4542" s="7" t="s">
+        <v>8815</v>
+      </c>
+      <c r="B4542" s="7" t="s">
+        <v>8816</v>
+      </c>
+    </row>
+    <row r="4543" ht="386.4" spans="1:2">
+      <c r="A4543" s="7" t="s">
+        <v>8817</v>
+      </c>
+      <c r="B4543" s="7" t="s">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="4544" ht="313" customHeight="1" spans="1:2">
+      <c r="A4544" s="7" t="s">
+        <v>8819</v>
+      </c>
+      <c r="B4544" s="7" t="s">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="4545" ht="235.2" spans="1:2">
+      <c r="A4545" s="7" t="s">
+        <v>8821</v>
+      </c>
+      <c r="B4545" s="7" t="s">
+        <v>8822</v>
+      </c>
+    </row>
+    <row r="4546" ht="235.2" spans="1:2">
+      <c r="A4546" s="7" t="s">
+        <v>8823</v>
+      </c>
+      <c r="B4546" s="7" t="s">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="4547" ht="260" customHeight="1" spans="1:2">
+      <c r="A4547" s="7" t="s">
+        <v>8825</v>
+      </c>
+      <c r="B4547" s="7" t="s">
+        <v>8826</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:2">
+      <c r="A4548" s="7" t="s">
+        <v>8827</v>
+      </c>
+      <c r="B4548" s="7" t="s">
+        <v>8828</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:2">
+      <c r="A4549" s="7" t="s">
+        <v>8829</v>
+      </c>
+      <c r="B4549" s="7" t="s">
+        <v>8830</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:2">
+      <c r="A4550" s="7" t="s">
+        <v>8831</v>
+      </c>
+      <c r="B4550" s="7" t="s">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="4551" ht="386.4" spans="1:2">
+      <c r="A4551" s="7" t="s">
+        <v>8833</v>
+      </c>
+      <c r="B4551" s="7" t="s">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="4552" ht="369.6" spans="1:2">
+      <c r="A4552" s="7" t="s">
+        <v>8835</v>
+      </c>
+      <c r="B4552" s="7" t="s">
+        <v>8836</v>
+      </c>
+    </row>
+    <row r="4553" ht="268.8" spans="1:2">
+      <c r="A4553" s="7" t="s">
+        <v>8837</v>
+      </c>
+      <c r="B4553" s="7" t="s">
+        <v>8838</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:2">
+      <c r="A4554" s="7" t="s">
+        <v>8839</v>
+      </c>
+      <c r="B4554" s="7" t="s">
+        <v>8840</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:2">
+      <c r="A4555" s="7" t="s">
+        <v>8841</v>
+      </c>
+      <c r="B4555" s="7" t="s">
+        <v>8842</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:2">
+      <c r="A4556" s="7" t="s">
+        <v>8843</v>
+      </c>
+      <c r="B4556" s="7" t="s">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="4557" spans="1:2">
+      <c r="A4557" s="7" t="s">
+        <v>8845</v>
+      </c>
+      <c r="B4557" s="7" t="s">
+        <v>8846</v>
+      </c>
+    </row>
+    <row r="4558" spans="1:2">
+      <c r="A4558" s="7" t="s">
+        <v>8847</v>
+      </c>
+      <c r="B4558" s="7" t="s">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="4559" spans="1:2">
+      <c r="A4559" s="7" t="s">
+        <v>8849</v>
+      </c>
+      <c r="B4559" s="7" t="s">
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="4560" spans="1:2">
+      <c r="A4560" s="7" t="s">
+        <v>8851</v>
+      </c>
+      <c r="B4560" s="7" t="s">
+        <v>8852</v>
+      </c>
+    </row>
+    <row r="4561" spans="1:2">
+      <c r="A4561" s="7" t="s">
+        <v>8853</v>
+      </c>
+      <c r="B4561" s="7" t="s">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="4562" spans="1:2">
+      <c r="A4562" s="7" t="s">
+        <v>8855</v>
+      </c>
+      <c r="B4562" s="7" t="s">
+        <v>8856</v>
+      </c>
+    </row>
+    <row r="4563" ht="319.2" spans="1:2">
+      <c r="A4563" s="7" t="s">
+        <v>8857</v>
+      </c>
+      <c r="B4563" s="7" t="s">
+        <v>8858</v>
+      </c>
+    </row>
+    <row r="4564" ht="261" customHeight="1" spans="1:2">
+      <c r="A4564" s="7" t="s">
+        <v>8859</v>
+      </c>
+      <c r="B4564" s="7" t="s">
+        <v>8860</v>
+      </c>
+    </row>
+    <row r="4565" spans="1:2">
+      <c r="A4565" s="7" t="s">
+        <v>8861</v>
+      </c>
+      <c r="B4565" s="7" t="s">
+        <v>8862</v>
+      </c>
+    </row>
+    <row r="4566" spans="1:2">
+      <c r="A4566" s="7" t="s">
+        <v>8863</v>
+      </c>
+      <c r="B4566" s="7" t="s">
+        <v>8864</v>
+      </c>
+    </row>
+    <row r="4567" ht="285.6" spans="1:2">
+      <c r="A4567" s="7" t="s">
+        <v>8865</v>
+      </c>
+      <c r="B4567" s="7" t="s">
+        <v>8866</v>
+      </c>
+    </row>
+    <row r="4568" spans="1:2">
+      <c r="A4568" s="7" t="s">
+        <v>8867</v>
+      </c>
+      <c r="B4568" s="7" t="s">
+        <v>8868</v>
+      </c>
+    </row>
+    <row r="4569" spans="1:2">
+      <c r="A4569" s="7" t="s">
+        <v>8869</v>
+      </c>
+      <c r="B4569" s="7" t="s">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="4570" spans="1:2">
+      <c r="A4570" s="7" t="s">
+        <v>8871</v>
+      </c>
+      <c r="B4570" s="7" t="s">
+        <v>8872</v>
+      </c>
+    </row>
+    <row r="4571" spans="1:2">
+      <c r="A4571" s="7" t="s">
+        <v>8873</v>
+      </c>
+      <c r="B4571" s="7" t="s">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="4572" spans="1:2">
+      <c r="A4572" s="7" t="s">
+        <v>8875</v>
+      </c>
+      <c r="B4572" s="7" t="s">
+        <v>8876</v>
+      </c>
+    </row>
+    <row r="4573" spans="1:2">
+      <c r="A4573" s="7" t="s">
+        <v>8877</v>
+      </c>
+      <c r="B4573" s="7" t="s">
+        <v>8878</v>
+      </c>
+    </row>
+    <row r="4574" spans="1:2">
+      <c r="A4574" s="7" t="s">
+        <v>8879</v>
+      </c>
+      <c r="B4574" s="7" t="s">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="4575" spans="1:2">
+      <c r="A4575" s="7" t="s">
+        <v>8881</v>
+      </c>
+      <c r="B4575" s="7" t="s">
+        <v>8882</v>
+      </c>
+    </row>
+    <row r="4576" spans="1:2">
+      <c r="A4576" s="7" t="s">
+        <v>8883</v>
+      </c>
+      <c r="B4576" s="7" t="s">
+        <v>8884</v>
+      </c>
+    </row>
+    <row r="4577" spans="1:2">
+      <c r="A4577" s="7" t="s">
+        <v>8885</v>
+      </c>
+      <c r="B4577" s="7" t="s">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="4578" spans="1:2">
+      <c r="A4578" s="7" t="s">
+        <v>8886</v>
+      </c>
+      <c r="B4578" s="7" t="s">
+        <v>8887</v>
+      </c>
+    </row>
+    <row r="4579" spans="1:2">
+      <c r="A4579" s="7" t="s">
+        <v>8888</v>
+      </c>
+      <c r="B4579" s="7" t="s">
+        <v>8889</v>
+      </c>
+    </row>
+    <row r="4580" ht="319.2" spans="1:2">
+      <c r="A4580" s="7" t="s">
+        <v>8890</v>
+      </c>
+      <c r="B4580" s="7" t="s">
+        <v>8891</v>
+      </c>
+    </row>
+    <row r="4581" spans="1:2">
+      <c r="A4581" s="7" t="s">
+        <v>8892</v>
+      </c>
+      <c r="B4581" s="7" t="s">
+        <v>8893</v>
+      </c>
+    </row>
+    <row r="4582" spans="1:2">
+      <c r="A4582" s="7" t="s">
+        <v>8894</v>
+      </c>
+      <c r="B4582" s="7" t="s">
+        <v>8895</v>
+      </c>
+    </row>
+    <row r="4583" spans="1:2">
+      <c r="A4583" s="7" t="s">
+        <v>8896</v>
+      </c>
+      <c r="B4583" s="7" t="s">
+        <v>8897</v>
+      </c>
+    </row>
+    <row r="4584" spans="1:2">
+      <c r="A4584" s="7" t="s">
+        <v>8898</v>
+      </c>
+      <c r="B4584" s="7" t="s">
+        <v>8899</v>
+      </c>
+    </row>
+    <row r="4585" spans="1:2">
+      <c r="A4585" s="7" t="s">
+        <v>8900</v>
+      </c>
+      <c r="B4585" s="7" t="s">
+        <v>8901</v>
+      </c>
+    </row>
+    <row r="4586" spans="1:2">
+      <c r="A4586" s="7" t="s">
+        <v>8902</v>
+      </c>
+      <c r="B4586" s="7" t="s">
+        <v>8903</v>
+      </c>
+    </row>
+    <row r="4587" ht="386.4" spans="1:2">
+      <c r="A4587" s="7" t="s">
+        <v>8904</v>
+      </c>
+      <c r="B4587" s="7" t="s">
+        <v>8905</v>
+      </c>
+    </row>
+    <row r="4588" ht="184.8" spans="1:2">
+      <c r="A4588" s="7" t="s">
+        <v>8906</v>
+      </c>
+      <c r="B4588" s="7" t="s">
+        <v>8907</v>
+      </c>
+    </row>
+    <row r="4589" ht="268.8" spans="1:2">
+      <c r="A4589" s="7" t="s">
+        <v>8908</v>
+      </c>
+      <c r="B4589" s="7" t="s">
+        <v>8909</v>
+      </c>
+    </row>
+    <row r="4590" spans="1:2">
+      <c r="A4590" s="7" t="s">
+        <v>8910</v>
+      </c>
+      <c r="B4590" s="7" t="s">
+        <v>8911</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:2">
+      <c r="A4591" s="7" t="s">
+        <v>8912</v>
+      </c>
+      <c r="B4591" s="7" t="s">
+        <v>8913</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:2">
+      <c r="A4592" s="7" t="s">
+        <v>8914</v>
+      </c>
+      <c r="B4592" s="7" t="s">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:2">
+      <c r="A4593" s="7" t="s">
+        <v>8916</v>
+      </c>
+      <c r="B4593" s="7" t="s">
+        <v>8917</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:2">
+      <c r="A4594" s="7" t="s">
+        <v>8918</v>
+      </c>
+      <c r="B4594" s="7" t="s">
+        <v>8919</v>
+      </c>
+    </row>
+    <row r="4595" spans="1:2">
+      <c r="A4595" s="7" t="s">
+        <v>8920</v>
+      </c>
+      <c r="B4595" s="7" t="s">
+        <v>8921</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:2">
+      <c r="A4596" s="7" t="s">
+        <v>8922</v>
+      </c>
+      <c r="B4596" s="7" t="s">
+        <v>8923</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:2">
+      <c r="A4597" s="7" t="s">
+        <v>8924</v>
+      </c>
+      <c r="B4597" s="7" t="s">
+        <v>8925</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:2">
+      <c r="A4598" s="7" t="s">
+        <v>8926</v>
+      </c>
+      <c r="B4598" s="7" t="s">
+        <v>8927</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:2">
+      <c r="A4599" s="7" t="s">
+        <v>8928</v>
+      </c>
+      <c r="B4599" s="7" t="s">
+        <v>8929</v>
+      </c>
+    </row>
+    <row r="4600" ht="168" spans="1:2">
+      <c r="A4600" s="7" t="s">
+        <v>8930</v>
+      </c>
+      <c r="B4600" s="7" t="s">
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:2">
+      <c r="A4601" s="7" t="s">
+        <v>8932</v>
+      </c>
+      <c r="B4601" s="7" t="s">
+        <v>8933</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:2">
+      <c r="A4602" s="7" t="s">
+        <v>8934</v>
+      </c>
+      <c r="B4602" s="7" t="s">
+        <v>8935</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:2">
+      <c r="A4603" s="7" t="s">
+        <v>8936</v>
+      </c>
+      <c r="B4603" s="7" t="s">
+        <v>8937</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:2">
+      <c r="A4604" s="7" t="s">
+        <v>8938</v>
+      </c>
+      <c r="B4604" s="7" t="s">
+        <v>8939</v>
+      </c>
+    </row>
+    <row r="4605" spans="1:2">
+      <c r="A4605" s="7" t="s">
+        <v>8940</v>
+      </c>
+      <c r="B4605" s="7" t="s">
+        <v>8941</v>
+      </c>
+    </row>
+    <row r="4606" spans="1:2">
+      <c r="A4606" s="7" t="s">
+        <v>8942</v>
+      </c>
+      <c r="B4606" s="7" t="s">
+        <v>8943</v>
+      </c>
+    </row>
+    <row r="4607" spans="1:2">
+      <c r="A4607" s="7" t="s">
+        <v>8944</v>
+      </c>
+      <c r="B4607" s="7" t="s">
+        <v>8945</v>
+      </c>
+    </row>
+    <row r="4608" spans="1:2">
+      <c r="A4608" s="7" t="s">
+        <v>8946</v>
+      </c>
+      <c r="B4608" s="7" t="s">
+        <v>8947</v>
+      </c>
+    </row>
+    <row r="4609" spans="1:2">
+      <c r="A4609" s="7" t="s">
+        <v>8948</v>
+      </c>
+      <c r="B4609" s="7" t="s">
+        <v>8949</v>
+      </c>
+    </row>
+    <row r="4610" spans="1:2">
+      <c r="A4610" s="7" t="s">
+        <v>8950</v>
+      </c>
+      <c r="B4610" s="7" t="s">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="4611" spans="1:2">
+      <c r="A4611" s="7" t="s">
+        <v>8952</v>
+      </c>
+      <c r="B4611" s="7" t="s">
+        <v>8953</v>
+      </c>
+    </row>
+    <row r="4612" spans="1:2">
+      <c r="A4612" s="7" t="s">
+        <v>8954</v>
+      </c>
+      <c r="B4612" s="7" t="s">
+        <v>8955</v>
+      </c>
+    </row>
+    <row r="4613" ht="285.6" spans="1:2">
+      <c r="A4613" s="7" t="s">
+        <v>8956</v>
+      </c>
+      <c r="B4613" s="7" t="s">
+        <v>8957</v>
+      </c>
+    </row>
+    <row r="4614" spans="1:2">
+      <c r="A4614" s="7" t="s">
+        <v>8958</v>
+      </c>
+      <c r="B4614" s="7" t="s">
+        <v>8959</v>
+      </c>
+    </row>
+    <row r="4615" spans="1:2">
+      <c r="A4615" s="7" t="s">
+        <v>8960</v>
+      </c>
+      <c r="B4615" s="7" t="s">
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="4616" spans="1:2">
+      <c r="A4616" s="7" t="s">
+        <v>8962</v>
+      </c>
+      <c r="B4616" s="7" t="s">
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="4617" spans="1:2">
+      <c r="A4617" s="7" t="s">
+        <v>8964</v>
+      </c>
+      <c r="B4617" s="7" t="s">
+        <v>8965</v>
       </c>
     </row>
   </sheetData>
@@ -64103,292 +65395,292 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>8791</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>8792</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>8793</v>
+        <v>8969</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>8794</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>8795</v>
+        <v>8971</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>8796</v>
+        <v>8972</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>8797</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>8798</v>
+        <v>8974</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>8799</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>8800</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>8801</v>
+        <v>8977</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>8802</v>
+        <v>8978</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>8803</v>
+        <v>8979</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>8804</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>8805</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>8806</v>
+        <v>8982</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>8807</v>
+        <v>8983</v>
       </c>
     </row>
     <row r="25" ht="28.8" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>8808</v>
+        <v>8984</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>8809</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>8810</v>
+        <v>8986</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>8811</v>
+        <v>8987</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>8812</v>
+        <v>8988</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>8813</v>
+        <v>8989</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>8814</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>8815</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>8816</v>
+        <v>8992</v>
       </c>
     </row>
     <row r="38" ht="115.2" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>8817</v>
+        <v>8993</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>8818</v>
+        <v>8994</v>
       </c>
     </row>
     <row r="42" ht="72" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>8819</v>
+        <v>8995</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>8820</v>
+        <v>8996</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>8821</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>8822</v>
+        <v>8998</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>8823</v>
+        <v>8999</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>8824</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>8825</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>8826</v>
+        <v>9002</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>8827</v>
+        <v>9003</v>
       </c>
     </row>
     <row r="55" ht="28.8" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>8828</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>8829</v>
+        <v>9005</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>8830</v>
+        <v>9006</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>8831</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>8832</v>
+        <v>9008</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>8833</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>8834</v>
+        <v>9010</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>8835</v>
+        <v>9011</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>8790</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>8836</v>
+        <v>9012</v>
       </c>
     </row>
     <row r="68" ht="43.2" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>8837</v>
+        <v>9013</v>
       </c>
     </row>
   </sheetData>
